--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,6 +64,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -512,7 +580,11 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr"/>
@@ -535,7 +607,11 @@
       <c r="T2" s="2" t="inlineStr"/>
       <c r="U2" s="2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr"/>
-      <c r="W2" s="2" t="inlineStr"/>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="X2" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -580,11 +580,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -580,7 +580,11 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -580,8 +580,16 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -580,7 +580,11 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -636,8 +636,16 @@
           <t>knowledge or skill</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="inlineStr"/>
@@ -659,7 +667,11 @@
       <c r="T3" s="2" t="inlineStr"/>
       <c r="U3" s="2" t="inlineStr"/>
       <c r="V3" s="2" t="inlineStr"/>
-      <c r="W3" s="2" t="inlineStr"/>
+      <c r="W3" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -582,31 +582,31 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test5</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
       <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -617,8 +617,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y2" s="2" t="inlineStr"/>
-      <c r="Z2" s="2" t="inlineStr"/>
+      <c r="Y2" s="2" t="n"/>
+      <c r="Z2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -636,37 +636,49 @@
           <t>knowledge or skill</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
-      <c r="W3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y3" s="2" t="inlineStr"/>
-      <c r="Z3" s="2" t="inlineStr"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -684,41 +696,41 @@
           <t>pre-existing knowledge or skill</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
       <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
         </is>
       </c>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
           <t>member of British Psychological Society</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
-      <c r="W4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
+      <c r="W4" s="2" t="n"/>
       <c r="X4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y4" s="2" t="inlineStr"/>
-      <c r="Z4" s="2" t="inlineStr"/>
+      <c r="Y4" s="2" t="n"/>
+      <c r="Z4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -736,37 +748,37 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
       <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
-      <c r="W5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
+      <c r="W5" s="2" t="n"/>
       <c r="X5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y5" s="2" t="inlineStr"/>
-      <c r="Z5" s="2" t="inlineStr"/>
+      <c r="Y5" s="2" t="n"/>
+      <c r="Z5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -784,19 +796,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
       <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
@@ -817,16 +829,16 @@
           <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
-      <c r="W6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
+      <c r="W6" s="2" t="n"/>
       <c r="X6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y6" s="2" t="inlineStr"/>
-      <c r="Z6" s="2" t="inlineStr"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -844,45 +856,45 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="inlineStr">
         <is>
           <t>knowledge or skill</t>
         </is>
       </c>
-      <c r="P7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="n"/>
       <c r="Q7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A knowledge or skill that is the duration of experience in related domain held by person source. </t>
         </is>
       </c>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
           <t>full-day, 6 years</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
-      <c r="W7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
+      <c r="W7" s="2" t="n"/>
       <c r="X7" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y7" s="2" t="inlineStr"/>
-      <c r="Z7" s="2" t="inlineStr"/>
+      <c r="Y7" s="2" t="n"/>
+      <c r="Z7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -900,19 +912,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
       <c r="Q8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that includes all jobs held by members of the armed forces. </t>
@@ -933,16 +945,16 @@
           <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
-      <c r="W8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
+      <c r="W8" s="2" t="n"/>
       <c r="X8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y8" s="2" t="inlineStr"/>
-      <c r="Z8" s="2" t="inlineStr"/>
+      <c r="Y8" s="2" t="n"/>
+      <c r="Z8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -960,19 +972,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
       <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
@@ -993,16 +1005,16 @@
           <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr"/>
-      <c r="W9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="n"/>
+      <c r="V9" s="2" t="n"/>
+      <c r="W9" s="2" t="n"/>
       <c r="X9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y9" s="2" t="inlineStr"/>
-      <c r="Z9" s="2" t="inlineStr"/>
+      <c r="Y9" s="2" t="n"/>
+      <c r="Z9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1020,19 +1032,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
       <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
@@ -1053,16 +1065,16 @@
           <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
-      <c r="W10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="n"/>
+      <c r="W10" s="2" t="n"/>
       <c r="X10" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y10" s="2" t="inlineStr"/>
-      <c r="Z10" s="2" t="inlineStr"/>
+      <c r="Y10" s="2" t="n"/>
+      <c r="Z10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1080,19 +1092,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
@@ -1108,17 +1120,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
-      <c r="W11" s="2" t="inlineStr"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
+      <c r="W11" s="2" t="n"/>
       <c r="X11" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y11" s="2" t="inlineStr"/>
-      <c r="Z11" s="2" t="inlineStr"/>
+      <c r="Y11" s="2" t="n"/>
+      <c r="Z11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1136,19 +1148,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
@@ -1169,16 +1181,16 @@
           <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
-      <c r="U12" s="2" t="inlineStr"/>
-      <c r="V12" s="2" t="inlineStr"/>
-      <c r="W12" s="2" t="inlineStr"/>
+      <c r="U12" s="2" t="n"/>
+      <c r="V12" s="2" t="n"/>
+      <c r="W12" s="2" t="n"/>
       <c r="X12" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y12" s="2" t="inlineStr"/>
-      <c r="Z12" s="2" t="inlineStr"/>
+      <c r="Y12" s="2" t="n"/>
+      <c r="Z12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1196,19 +1208,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing. </t>
@@ -1229,16 +1241,16 @@
           <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
-      <c r="W13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="n"/>
+      <c r="W13" s="2" t="n"/>
       <c r="X13" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y13" s="2" t="inlineStr"/>
-      <c r="Z13" s="2" t="inlineStr"/>
+      <c r="Y13" s="2" t="n"/>
+      <c r="Z13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1256,19 +1268,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
@@ -1289,16 +1301,16 @@
           <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
-      <c r="W14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="n"/>
+      <c r="W14" s="2" t="n"/>
       <c r="X14" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y14" s="2" t="inlineStr"/>
-      <c r="Z14" s="2" t="inlineStr"/>
+      <c r="Y14" s="2" t="n"/>
+      <c r="Z14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1316,19 +1328,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
@@ -1349,16 +1361,16 @@
           <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
-      <c r="W15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="n"/>
+      <c r="W15" s="2" t="n"/>
       <c r="X15" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y15" s="2" t="inlineStr"/>
-      <c r="Z15" s="2" t="inlineStr"/>
+      <c r="Y15" s="2" t="n"/>
+      <c r="Z15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1376,41 +1388,41 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
       <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>carer</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
-      <c r="W16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
+      <c r="W16" s="2" t="n"/>
       <c r="X16" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y16" s="2" t="inlineStr"/>
-      <c r="Z16" s="2" t="inlineStr"/>
+      <c r="Y16" s="2" t="n"/>
+      <c r="Z16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1428,19 +1440,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
       <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
@@ -1461,16 +1473,16 @@
           <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
-      <c r="W17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="n"/>
+      <c r="W17" s="2" t="n"/>
       <c r="X17" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y17" s="2" t="inlineStr"/>
-      <c r="Z17" s="2" t="inlineStr"/>
+      <c r="Y17" s="2" t="n"/>
+      <c r="Z17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1488,41 +1500,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
       <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
-      <c r="W18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
+      <c r="W18" s="2" t="n"/>
       <c r="X18" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y18" s="2" t="inlineStr"/>
-      <c r="Z18" s="2" t="inlineStr"/>
+      <c r="Y18" s="2" t="n"/>
+      <c r="Z18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1540,19 +1552,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
       <c r="Q19" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments. </t>
@@ -1573,16 +1585,16 @@
           <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
-      <c r="W19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="n"/>
+      <c r="W19" s="2" t="n"/>
       <c r="X19" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y19" s="2" t="inlineStr"/>
-      <c r="Z19" s="2" t="inlineStr"/>
+      <c r="Y19" s="2" t="n"/>
+      <c r="Z19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1600,37 +1612,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
       <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
         </is>
       </c>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
-      <c r="W20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="n"/>
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="n"/>
+      <c r="W20" s="2" t="n"/>
       <c r="X20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y20" s="2" t="inlineStr"/>
-      <c r="Z20" s="2" t="inlineStr"/>
+      <c r="Y20" s="2" t="n"/>
+      <c r="Z20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1648,19 +1660,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
       <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
@@ -1681,16 +1693,16 @@
           <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
-      <c r="W21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="n"/>
+      <c r="V21" s="2" t="n"/>
+      <c r="W21" s="2" t="n"/>
       <c r="X21" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y21" s="2" t="inlineStr"/>
-      <c r="Z21" s="2" t="inlineStr"/>
+      <c r="Y21" s="2" t="n"/>
+      <c r="Z21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1708,19 +1720,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
       <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
@@ -1741,16 +1753,16 @@
           <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr"/>
-      <c r="W22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="n"/>
+      <c r="W22" s="2" t="n"/>
       <c r="X22" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y22" s="2" t="inlineStr"/>
-      <c r="Z22" s="2" t="inlineStr"/>
+      <c r="Y22" s="2" t="n"/>
+      <c r="Z22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1768,19 +1780,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
       <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
@@ -1801,16 +1813,16 @@
           <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr"/>
-      <c r="W23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="n"/>
+      <c r="V23" s="2" t="n"/>
+      <c r="W23" s="2" t="n"/>
       <c r="X23" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y23" s="2" t="inlineStr"/>
-      <c r="Z23" s="2" t="inlineStr"/>
+      <c r="Y23" s="2" t="n"/>
+      <c r="Z23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1828,19 +1840,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
       <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
@@ -1861,16 +1873,16 @@
           <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr"/>
-      <c r="W24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="n"/>
+      <c r="V24" s="2" t="n"/>
+      <c r="W24" s="2" t="n"/>
       <c r="X24" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y24" s="2" t="inlineStr"/>
-      <c r="Z24" s="2" t="inlineStr"/>
+      <c r="Y24" s="2" t="n"/>
+      <c r="Z24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1888,19 +1900,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
       <c r="Q25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry. </t>
@@ -1921,16 +1933,16 @@
           <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
-      <c r="W25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="n"/>
+      <c r="W25" s="2" t="n"/>
       <c r="X25" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y25" s="2" t="inlineStr"/>
-      <c r="Z25" s="2" t="inlineStr"/>
+      <c r="Y25" s="2" t="n"/>
+      <c r="Z25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1948,19 +1960,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
       <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
@@ -1981,16 +1993,16 @@
           <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr"/>
-      <c r="W26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="n"/>
+      <c r="V26" s="2" t="n"/>
+      <c r="W26" s="2" t="n"/>
       <c r="X26" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y26" s="2" t="inlineStr"/>
-      <c r="Z26" s="2" t="inlineStr"/>
+      <c r="Y26" s="2" t="n"/>
+      <c r="Z26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2008,41 +2020,41 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
       <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>A specific domain of study undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="n"/>
+      <c r="S27" s="2" t="n"/>
       <c r="T27" s="2" t="inlineStr">
         <is>
           <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
-      <c r="W27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="n"/>
+      <c r="V27" s="2" t="n"/>
+      <c r="W27" s="2" t="n"/>
       <c r="X27" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y27" s="2" t="inlineStr"/>
-      <c r="Z27" s="2" t="inlineStr"/>
+      <c r="Y27" s="2" t="n"/>
+      <c r="Z27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2060,18 +2072,18 @@
           <t>expertise discipline</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="inlineStr">
         <is>
           <t>pre-existing knowledge or skill</t>
@@ -2082,23 +2094,23 @@
           <t xml:space="preserve">The expertise discipline in which the person source has acquired their pre-existing knowledge and skills. </t>
         </is>
       </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr"/>
+      <c r="R28" s="2" t="n"/>
+      <c r="S28" s="2" t="n"/>
       <c r="T28" s="2" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr"/>
-      <c r="W28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="n"/>
+      <c r="V28" s="2" t="n"/>
+      <c r="W28" s="2" t="n"/>
       <c r="X28" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y28" s="2" t="inlineStr"/>
-      <c r="Z28" s="2" t="inlineStr"/>
+      <c r="Y28" s="2" t="n"/>
+      <c r="Z28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2116,41 +2128,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
       <c r="Q29" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr"/>
+      <c r="R29" s="2" t="n"/>
+      <c r="S29" s="2" t="n"/>
       <c r="T29" s="2" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
-      <c r="W29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="n"/>
+      <c r="W29" s="2" t="n"/>
       <c r="X29" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y29" s="2" t="inlineStr"/>
-      <c r="Z29" s="2" t="inlineStr"/>
+      <c r="Y29" s="2" t="n"/>
+      <c r="Z29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2168,19 +2180,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
       <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
@@ -2201,16 +2213,16 @@
           <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr"/>
-      <c r="W30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="n"/>
+      <c r="W30" s="2" t="n"/>
       <c r="X30" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y30" s="2" t="inlineStr"/>
-      <c r="Z30" s="2" t="inlineStr"/>
+      <c r="Y30" s="2" t="n"/>
+      <c r="Z30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2228,19 +2240,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
       <c r="Q31" s="2" t="inlineStr">
         <is>
           <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
@@ -2261,16 +2273,16 @@
           <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr"/>
-      <c r="W31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="n"/>
+      <c r="W31" s="2" t="n"/>
       <c r="X31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y31" s="2" t="inlineStr"/>
-      <c r="Z31" s="2" t="inlineStr"/>
+      <c r="Y31" s="2" t="n"/>
+      <c r="Z31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2288,37 +2300,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
       <c r="Q32" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
         </is>
       </c>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr"/>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
-      <c r="W32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="n"/>
+      <c r="S32" s="2" t="n"/>
+      <c r="T32" s="2" t="n"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="n"/>
+      <c r="W32" s="2" t="n"/>
       <c r="X32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y32" s="2" t="inlineStr"/>
-      <c r="Z32" s="2" t="inlineStr"/>
+      <c r="Y32" s="2" t="n"/>
+      <c r="Z32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2336,37 +2348,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
       <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
         </is>
       </c>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr"/>
-      <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
-      <c r="W33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="n"/>
+      <c r="S33" s="2" t="n"/>
+      <c r="T33" s="2" t="n"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="n"/>
+      <c r="W33" s="2" t="n"/>
       <c r="X33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y33" s="2" t="inlineStr"/>
-      <c r="Z33" s="2" t="inlineStr"/>
+      <c r="Y33" s="2" t="n"/>
+      <c r="Z33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2384,19 +2396,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
       <c r="Q34" s="2" t="inlineStr">
         <is>
           <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
@@ -2417,16 +2429,16 @@
           <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
-      <c r="W34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="n"/>
+      <c r="W34" s="2" t="n"/>
       <c r="X34" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y34" s="2" t="inlineStr"/>
-      <c r="Z34" s="2" t="inlineStr"/>
+      <c r="Y34" s="2" t="n"/>
+      <c r="Z34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2444,19 +2456,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
       <c r="Q35" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
@@ -2479,16 +2491,16 @@
           <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
-      <c r="W35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="n"/>
+      <c r="V35" s="2" t="n"/>
+      <c r="W35" s="2" t="n"/>
       <c r="X35" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y35" s="2" t="inlineStr"/>
-      <c r="Z35" s="2" t="inlineStr"/>
+      <c r="Y35" s="2" t="n"/>
+      <c r="Z35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2506,41 +2518,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
       <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr"/>
+      <c r="R36" s="2" t="n"/>
+      <c r="S36" s="2" t="n"/>
       <c r="T36" s="2" t="inlineStr">
         <is>
           <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
-      <c r="W36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="n"/>
+      <c r="W36" s="2" t="n"/>
       <c r="X36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y36" s="2" t="inlineStr"/>
-      <c r="Z36" s="2" t="inlineStr"/>
+      <c r="Y36" s="2" t="n"/>
+      <c r="Z36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2558,26 +2570,26 @@
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
       <c r="Q37" s="2" t="inlineStr">
         <is>
           <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr"/>
+      <c r="R37" s="2" t="n"/>
+      <c r="S37" s="2" t="n"/>
       <c r="T37" s="2" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
@@ -2588,15 +2600,15 @@
           <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
-      <c r="V37" s="2" t="inlineStr"/>
-      <c r="W37" s="2" t="inlineStr"/>
+      <c r="V37" s="2" t="n"/>
+      <c r="W37" s="2" t="n"/>
       <c r="X37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y37" s="2" t="inlineStr"/>
-      <c r="Z37" s="2" t="inlineStr"/>
+      <c r="Y37" s="2" t="n"/>
+      <c r="Z37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2614,18 +2626,18 @@
           <t>disposition</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
       <c r="P38" s="2" t="inlineStr">
         <is>
           <t>person source</t>
@@ -2636,19 +2648,19 @@
           <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
         </is>
       </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr"/>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr"/>
-      <c r="W38" s="2" t="inlineStr"/>
+      <c r="R38" s="2" t="n"/>
+      <c r="S38" s="2" t="n"/>
+      <c r="T38" s="2" t="n"/>
+      <c r="U38" s="2" t="n"/>
+      <c r="V38" s="2" t="n"/>
+      <c r="W38" s="2" t="n"/>
       <c r="X38" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y38" s="2" t="inlineStr"/>
-      <c r="Z38" s="2" t="inlineStr"/>
+      <c r="Y38" s="2" t="n"/>
+      <c r="Z38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2666,37 +2678,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
       <c r="Q39" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is an individual who is related to another person as they are descended from a common progenitor, related by marriage or other legal tie, or by a feeling of closeness.</t>
         </is>
       </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr"/>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr"/>
-      <c r="W39" s="2" t="inlineStr"/>
+      <c r="R39" s="2" t="n"/>
+      <c r="S39" s="2" t="n"/>
+      <c r="T39" s="2" t="n"/>
+      <c r="U39" s="2" t="n"/>
+      <c r="V39" s="2" t="n"/>
+      <c r="W39" s="2" t="n"/>
       <c r="X39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y39" s="2" t="inlineStr"/>
-      <c r="Z39" s="2" t="inlineStr"/>
+      <c r="Y39" s="2" t="n"/>
+      <c r="Z39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2714,41 +2726,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
       <c r="Q40" s="2" t="inlineStr">
         <is>
           <t>A gender of person source that is the cultural gender role of female.</t>
         </is>
       </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr"/>
+      <c r="R40" s="2" t="n"/>
+      <c r="S40" s="2" t="n"/>
       <c r="T40" s="2" t="inlineStr">
         <is>
           <t>female, woman</t>
         </is>
       </c>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr"/>
-      <c r="W40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="n"/>
+      <c r="V40" s="2" t="n"/>
+      <c r="W40" s="2" t="n"/>
       <c r="X40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y40" s="2" t="inlineStr"/>
-      <c r="Z40" s="2" t="inlineStr"/>
+      <c r="Y40" s="2" t="n"/>
+      <c r="Z40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2766,19 +2778,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="n"/>
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
       <c r="Q41" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
@@ -2799,16 +2811,16 @@
           <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr"/>
-      <c r="W41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="n"/>
+      <c r="V41" s="2" t="n"/>
+      <c r="W41" s="2" t="n"/>
       <c r="X41" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y41" s="2" t="inlineStr"/>
-      <c r="Z41" s="2" t="inlineStr"/>
+      <c r="Y41" s="2" t="n"/>
+      <c r="Z41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2826,37 +2838,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
       <c r="Q42" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
         </is>
       </c>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr"/>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr"/>
-      <c r="W42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="n"/>
+      <c r="S42" s="2" t="n"/>
+      <c r="T42" s="2" t="n"/>
+      <c r="U42" s="2" t="n"/>
+      <c r="V42" s="2" t="n"/>
+      <c r="W42" s="2" t="n"/>
       <c r="X42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y42" s="2" t="inlineStr"/>
-      <c r="Z42" s="2" t="inlineStr"/>
+      <c r="Y42" s="2" t="n"/>
+      <c r="Z42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2874,41 +2886,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
       <c r="Q43" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
       <c r="T43" s="2" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
-      <c r="W43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
+      <c r="W43" s="2" t="n"/>
       <c r="X43" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y43" s="2" t="inlineStr"/>
-      <c r="Z43" s="2" t="inlineStr"/>
+      <c r="Y43" s="2" t="n"/>
+      <c r="Z43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2926,19 +2938,19 @@
           <t xml:space="preserve">medical doctor </t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
       <c r="Q44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities. </t>
@@ -2959,16 +2971,16 @@
           <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr"/>
-      <c r="W44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="n"/>
+      <c r="W44" s="2" t="n"/>
       <c r="X44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y44" s="2" t="inlineStr"/>
-      <c r="Z44" s="2" t="inlineStr"/>
+      <c r="Y44" s="2" t="n"/>
+      <c r="Z44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2986,41 +2998,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
       <c r="Q45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A higher education student or trainee that has completed an undergraduate degree. </t>
         </is>
       </c>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="n"/>
       <c r="T45" s="2" t="inlineStr">
         <is>
           <t>graduate student</t>
         </is>
       </c>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr"/>
-      <c r="W45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
+      <c r="W45" s="2" t="n"/>
       <c r="X45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y45" s="2" t="inlineStr"/>
-      <c r="Z45" s="2" t="inlineStr"/>
+      <c r="Y45" s="2" t="n"/>
+      <c r="Z45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -3038,19 +3050,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
       <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
@@ -3071,16 +3083,16 @@
           <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
-      <c r="W46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
+      <c r="W46" s="2" t="n"/>
       <c r="X46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y46" s="2" t="inlineStr"/>
-      <c r="Z46" s="2" t="inlineStr"/>
+      <c r="Y46" s="2" t="n"/>
+      <c r="Z46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3098,19 +3110,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr"/>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="n"/>
+      <c r="G47" s="2" t="n"/>
+      <c r="H47" s="2" t="n"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
       <c r="Q47" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
@@ -3131,16 +3143,16 @@
           <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr"/>
-      <c r="W47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="n"/>
+      <c r="V47" s="2" t="n"/>
+      <c r="W47" s="2" t="n"/>
       <c r="X47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y47" s="2" t="inlineStr"/>
-      <c r="Z47" s="2" t="inlineStr"/>
+      <c r="Y47" s="2" t="n"/>
+      <c r="Z47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3158,19 +3170,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
+      <c r="H48" s="2" t="n"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
       <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
@@ -3191,16 +3203,16 @@
           <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr"/>
-      <c r="W48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="n"/>
+      <c r="V48" s="2" t="n"/>
+      <c r="W48" s="2" t="n"/>
       <c r="X48" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y48" s="2" t="inlineStr"/>
-      <c r="Z48" s="2" t="inlineStr"/>
+      <c r="Y48" s="2" t="n"/>
+      <c r="Z48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3218,41 +3230,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n"/>
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
+      <c r="G49" s="2" t="n"/>
+      <c r="H49" s="2" t="n"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="n"/>
       <c r="Q49" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="n"/>
+      <c r="S49" s="2" t="n"/>
       <c r="T49" s="2" t="inlineStr">
         <is>
           <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
-      <c r="W49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="n"/>
+      <c r="W49" s="2" t="n"/>
       <c r="X49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y49" s="2" t="inlineStr"/>
-      <c r="Z49" s="2" t="inlineStr"/>
+      <c r="Y49" s="2" t="n"/>
+      <c r="Z49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3270,41 +3282,41 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr"/>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="2" t="n"/>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="n"/>
       <c r="Q50" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school. </t>
         </is>
       </c>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr"/>
+      <c r="R50" s="2" t="n"/>
+      <c r="S50" s="2" t="n"/>
       <c r="T50" s="2" t="inlineStr">
         <is>
           <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr"/>
-      <c r="W50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="n"/>
+      <c r="V50" s="2" t="n"/>
+      <c r="W50" s="2" t="n"/>
       <c r="X50" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y50" s="2" t="inlineStr"/>
-      <c r="Z50" s="2" t="inlineStr"/>
+      <c r="Y50" s="2" t="n"/>
+      <c r="Z50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3322,19 +3334,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
       <c r="Q51" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
@@ -3355,16 +3367,16 @@
           <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
-      <c r="W51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="n"/>
+      <c r="W51" s="2" t="n"/>
       <c r="X51" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y51" s="2" t="inlineStr"/>
-      <c r="Z51" s="2" t="inlineStr"/>
+      <c r="Y51" s="2" t="n"/>
+      <c r="Z51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3382,37 +3394,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="n"/>
+      <c r="E52" s="2" t="n"/>
+      <c r="F52" s="2" t="n"/>
+      <c r="G52" s="2" t="n"/>
+      <c r="H52" s="2" t="n"/>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
       <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr"/>
-      <c r="T52" s="2" t="inlineStr"/>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
-      <c r="W52" s="2" t="inlineStr"/>
+      <c r="R52" s="2" t="n"/>
+      <c r="S52" s="2" t="n"/>
+      <c r="T52" s="2" t="n"/>
+      <c r="U52" s="2" t="n"/>
+      <c r="V52" s="2" t="n"/>
+      <c r="W52" s="2" t="n"/>
       <c r="X52" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y52" s="2" t="inlineStr"/>
-      <c r="Z52" s="2" t="inlineStr"/>
+      <c r="Y52" s="2" t="n"/>
+      <c r="Z52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3430,19 +3442,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="n"/>
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="2" t="n"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
+      <c r="P53" s="2" t="n"/>
       <c r="Q53" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
@@ -3463,16 +3475,16 @@
           <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr"/>
-      <c r="W53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="n"/>
+      <c r="V53" s="2" t="n"/>
+      <c r="W53" s="2" t="n"/>
       <c r="X53" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y53" s="2" t="inlineStr"/>
-      <c r="Z53" s="2" t="inlineStr"/>
+      <c r="Y53" s="2" t="n"/>
+      <c r="Z53" s="2" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -3490,41 +3502,41 @@
           <t>expertise of person source</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
-      <c r="P54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
+      <c r="H54" s="2" t="n"/>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="2" t="n"/>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n"/>
+      <c r="P54" s="2" t="n"/>
       <c r="Q54" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention. </t>
         </is>
       </c>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
+      <c r="R54" s="2" t="n"/>
+      <c r="S54" s="2" t="n"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr"/>
-      <c r="W54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="n"/>
+      <c r="V54" s="2" t="n"/>
+      <c r="W54" s="2" t="n"/>
       <c r="X54" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y54" s="2" t="inlineStr"/>
-      <c r="Z54" s="2" t="inlineStr"/>
+      <c r="Y54" s="2" t="n"/>
+      <c r="Z54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3542,41 +3554,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr"/>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="n"/>
+      <c r="E55" s="2" t="n"/>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
+      <c r="H55" s="2" t="n"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
       <c r="Q55" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr"/>
+      <c r="R55" s="2" t="n"/>
+      <c r="S55" s="2" t="n"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
           <t>fluent, native</t>
         </is>
       </c>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr"/>
-      <c r="W55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="n"/>
+      <c r="V55" s="2" t="n"/>
+      <c r="W55" s="2" t="n"/>
       <c r="X55" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y55" s="2" t="inlineStr"/>
-      <c r="Z55" s="2" t="inlineStr"/>
+      <c r="Y55" s="2" t="n"/>
+      <c r="Z55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3594,19 +3606,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr"/>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr"/>
-      <c r="P56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="n"/>
+      <c r="E56" s="2" t="n"/>
+      <c r="F56" s="2" t="n"/>
+      <c r="G56" s="2" t="n"/>
+      <c r="H56" s="2" t="n"/>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="n"/>
       <c r="Q56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients. </t>
@@ -3627,16 +3639,16 @@
           <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
-      <c r="U56" s="2" t="inlineStr"/>
-      <c r="V56" s="2" t="inlineStr"/>
-      <c r="W56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="n"/>
+      <c r="V56" s="2" t="n"/>
+      <c r="W56" s="2" t="n"/>
       <c r="X56" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y56" s="2" t="inlineStr"/>
-      <c r="Z56" s="2" t="inlineStr"/>
+      <c r="Y56" s="2" t="n"/>
+      <c r="Z56" s="2" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3654,19 +3666,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr"/>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="2" t="n"/>
+      <c r="F57" s="2" t="n"/>
+      <c r="G57" s="2" t="n"/>
+      <c r="H57" s="2" t="n"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
+      <c r="O57" s="2" t="n"/>
+      <c r="P57" s="2" t="n"/>
       <c r="Q57" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
@@ -3687,16 +3699,16 @@
           <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
-      <c r="U57" s="2" t="inlineStr"/>
-      <c r="V57" s="2" t="inlineStr"/>
-      <c r="W57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="n"/>
+      <c r="V57" s="2" t="n"/>
+      <c r="W57" s="2" t="n"/>
       <c r="X57" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y57" s="2" t="inlineStr"/>
-      <c r="Z57" s="2" t="inlineStr"/>
+      <c r="Y57" s="2" t="n"/>
+      <c r="Z57" s="2" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3714,19 +3726,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n"/>
+      <c r="E58" s="2" t="n"/>
+      <c r="F58" s="2" t="n"/>
+      <c r="G58" s="2" t="n"/>
+      <c r="H58" s="2" t="n"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n"/>
+      <c r="P58" s="2" t="n"/>
       <c r="Q58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies. </t>
@@ -3742,17 +3754,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr"/>
-      <c r="V58" s="2" t="inlineStr"/>
-      <c r="W58" s="2" t="inlineStr"/>
+      <c r="T58" s="2" t="n"/>
+      <c r="U58" s="2" t="n"/>
+      <c r="V58" s="2" t="n"/>
+      <c r="W58" s="2" t="n"/>
       <c r="X58" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y58" s="2" t="inlineStr"/>
-      <c r="Z58" s="2" t="inlineStr"/>
+      <c r="Y58" s="2" t="n"/>
+      <c r="Z58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3770,19 +3782,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
-      <c r="P59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="n"/>
+      <c r="E59" s="2" t="n"/>
+      <c r="F59" s="2" t="n"/>
+      <c r="G59" s="2" t="n"/>
+      <c r="H59" s="2" t="n"/>
+      <c r="I59" s="2" t="n"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
+      <c r="P59" s="2" t="n"/>
       <c r="Q59" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments. </t>
@@ -3803,16 +3815,16 @@
           <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
-      <c r="U59" s="2" t="inlineStr"/>
-      <c r="V59" s="2" t="inlineStr"/>
-      <c r="W59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="n"/>
+      <c r="V59" s="2" t="n"/>
+      <c r="W59" s="2" t="n"/>
       <c r="X59" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y59" s="2" t="inlineStr"/>
-      <c r="Z59" s="2" t="inlineStr"/>
+      <c r="Y59" s="2" t="n"/>
+      <c r="Z59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3830,41 +3842,41 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr"/>
-      <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr"/>
-      <c r="O60" s="2" t="inlineStr"/>
-      <c r="P60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="n"/>
+      <c r="E60" s="2" t="n"/>
+      <c r="F60" s="2" t="n"/>
+      <c r="G60" s="2" t="n"/>
+      <c r="H60" s="2" t="n"/>
+      <c r="I60" s="2" t="n"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
+      <c r="P60" s="2" t="n"/>
       <c r="Q60" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
-      <c r="R60" s="2" t="inlineStr"/>
-      <c r="S60" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="n"/>
+      <c r="S60" s="2" t="n"/>
       <c r="T60" s="2" t="inlineStr">
         <is>
           <t>Interpretator; other linguist</t>
         </is>
       </c>
-      <c r="U60" s="2" t="inlineStr"/>
-      <c r="V60" s="2" t="inlineStr"/>
-      <c r="W60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="n"/>
+      <c r="V60" s="2" t="n"/>
+      <c r="W60" s="2" t="n"/>
       <c r="X60" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y60" s="2" t="inlineStr"/>
-      <c r="Z60" s="2" t="inlineStr"/>
+      <c r="Y60" s="2" t="n"/>
+      <c r="Z60" s="2" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3882,41 +3894,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="inlineStr"/>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
-      <c r="P61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n"/>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
+      <c r="G61" s="2" t="n"/>
+      <c r="H61" s="2" t="n"/>
+      <c r="I61" s="2" t="n"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
+      <c r="P61" s="2" t="n"/>
       <c r="Q61" s="2" t="inlineStr">
         <is>
           <t>A gender of person source that is the cultural gender role of male.</t>
         </is>
       </c>
-      <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="inlineStr"/>
+      <c r="R61" s="2" t="n"/>
+      <c r="S61" s="2" t="n"/>
       <c r="T61" s="2" t="inlineStr">
         <is>
           <t>male, man</t>
         </is>
       </c>
-      <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
-      <c r="W61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="n"/>
+      <c r="W61" s="2" t="n"/>
       <c r="X61" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y61" s="2" t="inlineStr"/>
-      <c r="Z61" s="2" t="inlineStr"/>
+      <c r="Y61" s="2" t="n"/>
+      <c r="Z61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3934,19 +3946,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr"/>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
-      <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="inlineStr"/>
-      <c r="N62" s="2" t="inlineStr"/>
-      <c r="O62" s="2" t="inlineStr"/>
-      <c r="P62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="n"/>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
+      <c r="G62" s="2" t="n"/>
+      <c r="H62" s="2" t="n"/>
+      <c r="I62" s="2" t="n"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
+      <c r="M62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="n"/>
       <c r="Q62" s="2" t="inlineStr">
         <is>
           <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
@@ -3967,16 +3979,16 @@
           <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
-      <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
-      <c r="W62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="n"/>
+      <c r="W62" s="2" t="n"/>
       <c r="X62" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y62" s="2" t="inlineStr"/>
-      <c r="Z62" s="2" t="inlineStr"/>
+      <c r="Y62" s="2" t="n"/>
+      <c r="Z62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -3994,41 +4006,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
-      <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr"/>
-      <c r="L63" s="2" t="inlineStr"/>
-      <c r="M63" s="2" t="inlineStr"/>
-      <c r="N63" s="2" t="inlineStr"/>
-      <c r="O63" s="2" t="inlineStr"/>
-      <c r="P63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="n"/>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
+      <c r="G63" s="2" t="n"/>
+      <c r="H63" s="2" t="n"/>
+      <c r="I63" s="2" t="n"/>
+      <c r="J63" s="2" t="n"/>
+      <c r="K63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
+      <c r="M63" s="2" t="n"/>
+      <c r="N63" s="2" t="n"/>
+      <c r="O63" s="2" t="n"/>
+      <c r="P63" s="2" t="n"/>
       <c r="Q63" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
-      <c r="R63" s="2" t="inlineStr"/>
-      <c r="S63" s="2" t="inlineStr"/>
+      <c r="R63" s="2" t="n"/>
+      <c r="S63" s="2" t="n"/>
       <c r="T63" s="2" t="inlineStr">
         <is>
           <t>MSc student, Masters student</t>
         </is>
       </c>
-      <c r="U63" s="2" t="inlineStr"/>
-      <c r="V63" s="2" t="inlineStr"/>
-      <c r="W63" s="2" t="inlineStr"/>
+      <c r="U63" s="2" t="n"/>
+      <c r="V63" s="2" t="n"/>
+      <c r="W63" s="2" t="n"/>
       <c r="X63" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y63" s="2" t="inlineStr"/>
-      <c r="Z63" s="2" t="inlineStr"/>
+      <c r="Y63" s="2" t="n"/>
+      <c r="Z63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -4046,19 +4058,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr"/>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="inlineStr"/>
+      <c r="D64" s="2" t="n"/>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
+      <c r="G64" s="2" t="n"/>
+      <c r="H64" s="2" t="n"/>
+      <c r="I64" s="2" t="n"/>
+      <c r="J64" s="2" t="n"/>
+      <c r="K64" s="2" t="n"/>
+      <c r="L64" s="2" t="n"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
+      <c r="O64" s="2" t="n"/>
+      <c r="P64" s="2" t="n"/>
       <c r="Q64" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
@@ -4079,16 +4091,16 @@
           <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
-      <c r="U64" s="2" t="inlineStr"/>
-      <c r="V64" s="2" t="inlineStr"/>
-      <c r="W64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="n"/>
+      <c r="V64" s="2" t="n"/>
+      <c r="W64" s="2" t="n"/>
       <c r="X64" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y64" s="2" t="inlineStr"/>
-      <c r="Z64" s="2" t="inlineStr"/>
+      <c r="Y64" s="2" t="n"/>
+      <c r="Z64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -4106,19 +4118,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr"/>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
-      <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="inlineStr"/>
-      <c r="N65" s="2" t="inlineStr"/>
-      <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="n"/>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
+      <c r="G65" s="2" t="n"/>
+      <c r="H65" s="2" t="n"/>
+      <c r="I65" s="2" t="n"/>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="2" t="n"/>
+      <c r="L65" s="2" t="n"/>
+      <c r="M65" s="2" t="n"/>
+      <c r="N65" s="2" t="n"/>
+      <c r="O65" s="2" t="n"/>
+      <c r="P65" s="2" t="n"/>
       <c r="Q65" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional. </t>
@@ -4139,16 +4151,16 @@
           <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
-      <c r="U65" s="2" t="inlineStr"/>
-      <c r="V65" s="2" t="inlineStr"/>
-      <c r="W65" s="2" t="inlineStr"/>
+      <c r="U65" s="2" t="n"/>
+      <c r="V65" s="2" t="n"/>
+      <c r="W65" s="2" t="n"/>
       <c r="X65" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y65" s="2" t="inlineStr"/>
-      <c r="Z65" s="2" t="inlineStr"/>
+      <c r="Y65" s="2" t="n"/>
+      <c r="Z65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -4166,19 +4178,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="inlineStr"/>
-      <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
-      <c r="L66" s="2" t="inlineStr"/>
-      <c r="M66" s="2" t="inlineStr"/>
-      <c r="N66" s="2" t="inlineStr"/>
-      <c r="O66" s="2" t="inlineStr"/>
-      <c r="P66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="n"/>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="n"/>
+      <c r="G66" s="2" t="n"/>
+      <c r="H66" s="2" t="n"/>
+      <c r="I66" s="2" t="n"/>
+      <c r="J66" s="2" t="n"/>
+      <c r="K66" s="2" t="n"/>
+      <c r="L66" s="2" t="n"/>
+      <c r="M66" s="2" t="n"/>
+      <c r="N66" s="2" t="n"/>
+      <c r="O66" s="2" t="n"/>
+      <c r="P66" s="2" t="n"/>
       <c r="Q66" s="2" t="inlineStr">
         <is>
           <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
@@ -4199,16 +4211,16 @@
           <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
-      <c r="U66" s="2" t="inlineStr"/>
-      <c r="V66" s="2" t="inlineStr"/>
-      <c r="W66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="n"/>
+      <c r="V66" s="2" t="n"/>
+      <c r="W66" s="2" t="n"/>
       <c r="X66" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y66" s="2" t="inlineStr"/>
-      <c r="Z66" s="2" t="inlineStr"/>
+      <c r="Y66" s="2" t="n"/>
+      <c r="Z66" s="2" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -4226,19 +4238,19 @@
           <t xml:space="preserve">nursing and midwifery associate professional </t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr"/>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr"/>
-      <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="inlineStr"/>
-      <c r="N67" s="2" t="inlineStr"/>
-      <c r="O67" s="2" t="inlineStr"/>
-      <c r="P67" s="2" t="inlineStr"/>
+      <c r="D67" s="2" t="n"/>
+      <c r="E67" s="2" t="n"/>
+      <c r="F67" s="2" t="n"/>
+      <c r="G67" s="2" t="n"/>
+      <c r="H67" s="2" t="n"/>
+      <c r="I67" s="2" t="n"/>
+      <c r="J67" s="2" t="n"/>
+      <c r="K67" s="2" t="n"/>
+      <c r="L67" s="2" t="n"/>
+      <c r="M67" s="2" t="n"/>
+      <c r="N67" s="2" t="n"/>
+      <c r="O67" s="2" t="n"/>
+      <c r="P67" s="2" t="n"/>
       <c r="Q67" s="2" t="inlineStr">
         <is>
           <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
@@ -4259,16 +4271,16 @@
           <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
-      <c r="U67" s="2" t="inlineStr"/>
-      <c r="V67" s="2" t="inlineStr"/>
-      <c r="W67" s="2" t="inlineStr"/>
+      <c r="U67" s="2" t="n"/>
+      <c r="V67" s="2" t="n"/>
+      <c r="W67" s="2" t="n"/>
       <c r="X67" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y67" s="2" t="inlineStr"/>
-      <c r="Z67" s="2" t="inlineStr"/>
+      <c r="Y67" s="2" t="n"/>
+      <c r="Z67" s="2" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -4286,19 +4298,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr"/>
-      <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr"/>
-      <c r="J68" s="2" t="inlineStr"/>
-      <c r="K68" s="2" t="inlineStr"/>
-      <c r="L68" s="2" t="inlineStr"/>
-      <c r="M68" s="2" t="inlineStr"/>
-      <c r="N68" s="2" t="inlineStr"/>
-      <c r="O68" s="2" t="inlineStr"/>
-      <c r="P68" s="2" t="inlineStr"/>
+      <c r="D68" s="2" t="n"/>
+      <c r="E68" s="2" t="n"/>
+      <c r="F68" s="2" t="n"/>
+      <c r="G68" s="2" t="n"/>
+      <c r="H68" s="2" t="n"/>
+      <c r="I68" s="2" t="n"/>
+      <c r="J68" s="2" t="n"/>
+      <c r="K68" s="2" t="n"/>
+      <c r="L68" s="2" t="n"/>
+      <c r="M68" s="2" t="n"/>
+      <c r="N68" s="2" t="n"/>
+      <c r="O68" s="2" t="n"/>
+      <c r="P68" s="2" t="n"/>
       <c r="Q68" s="2" t="inlineStr">
         <is>
           <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
@@ -4319,16 +4331,16 @@
           <t>Midwife</t>
         </is>
       </c>
-      <c r="U68" s="2" t="inlineStr"/>
-      <c r="V68" s="2" t="inlineStr"/>
-      <c r="W68" s="2" t="inlineStr"/>
+      <c r="U68" s="2" t="n"/>
+      <c r="V68" s="2" t="n"/>
+      <c r="W68" s="2" t="n"/>
       <c r="X68" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y68" s="2" t="inlineStr"/>
-      <c r="Z68" s="2" t="inlineStr"/>
+      <c r="Y68" s="2" t="n"/>
+      <c r="Z68" s="2" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -4346,41 +4358,41 @@
           <t>payment of person source</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
-      <c r="M69" s="2" t="inlineStr"/>
-      <c r="N69" s="2" t="inlineStr"/>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="n"/>
+      <c r="E69" s="2" t="n"/>
+      <c r="F69" s="2" t="n"/>
+      <c r="G69" s="2" t="n"/>
+      <c r="H69" s="2" t="n"/>
+      <c r="I69" s="2" t="n"/>
+      <c r="J69" s="2" t="n"/>
+      <c r="K69" s="2" t="n"/>
+      <c r="L69" s="2" t="n"/>
+      <c r="M69" s="2" t="n"/>
+      <c r="N69" s="2" t="n"/>
+      <c r="O69" s="2" t="n"/>
+      <c r="P69" s="2" t="n"/>
       <c r="Q69" s="2" t="inlineStr">
         <is>
           <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr"/>
+      <c r="R69" s="2" t="n"/>
+      <c r="S69" s="2" t="n"/>
       <c r="T69" s="2" t="inlineStr">
         <is>
           <t>paid in cash, vouchers</t>
         </is>
       </c>
-      <c r="U69" s="2" t="inlineStr"/>
-      <c r="V69" s="2" t="inlineStr"/>
-      <c r="W69" s="2" t="inlineStr"/>
+      <c r="U69" s="2" t="n"/>
+      <c r="V69" s="2" t="n"/>
+      <c r="W69" s="2" t="n"/>
       <c r="X69" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y69" s="2" t="inlineStr"/>
-      <c r="Z69" s="2" t="inlineStr"/>
+      <c r="Y69" s="2" t="n"/>
+      <c r="Z69" s="2" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -4398,19 +4410,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr"/>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-      <c r="L70" s="2" t="inlineStr"/>
-      <c r="M70" s="2" t="inlineStr"/>
-      <c r="N70" s="2" t="inlineStr"/>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="n"/>
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="2" t="n"/>
+      <c r="G70" s="2" t="n"/>
+      <c r="H70" s="2" t="n"/>
+      <c r="I70" s="2" t="n"/>
+      <c r="J70" s="2" t="n"/>
+      <c r="K70" s="2" t="n"/>
+      <c r="L70" s="2" t="n"/>
+      <c r="M70" s="2" t="n"/>
+      <c r="N70" s="2" t="n"/>
+      <c r="O70" s="2" t="n"/>
+      <c r="P70" s="2" t="n"/>
       <c r="Q70" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
@@ -4431,16 +4443,16 @@
           <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
-      <c r="U70" s="2" t="inlineStr"/>
-      <c r="V70" s="2" t="inlineStr"/>
-      <c r="W70" s="2" t="inlineStr"/>
+      <c r="U70" s="2" t="n"/>
+      <c r="V70" s="2" t="n"/>
+      <c r="W70" s="2" t="n"/>
       <c r="X70" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y70" s="2" t="inlineStr"/>
-      <c r="Z70" s="2" t="inlineStr"/>
+      <c r="Y70" s="2" t="n"/>
+      <c r="Z70" s="2" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -4458,41 +4470,41 @@
           <t>payment of person source</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr"/>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
-      <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr"/>
-      <c r="L71" s="2" t="inlineStr"/>
-      <c r="M71" s="2" t="inlineStr"/>
-      <c r="N71" s="2" t="inlineStr"/>
-      <c r="O71" s="2" t="inlineStr"/>
-      <c r="P71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="n"/>
+      <c r="E71" s="2" t="n"/>
+      <c r="F71" s="2" t="n"/>
+      <c r="G71" s="2" t="n"/>
+      <c r="H71" s="2" t="n"/>
+      <c r="I71" s="2" t="n"/>
+      <c r="J71" s="2" t="n"/>
+      <c r="K71" s="2" t="n"/>
+      <c r="L71" s="2" t="n"/>
+      <c r="M71" s="2" t="n"/>
+      <c r="N71" s="2" t="n"/>
+      <c r="O71" s="2" t="n"/>
+      <c r="P71" s="2" t="n"/>
       <c r="Q71" s="2" t="inlineStr">
         <is>
           <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R71" s="2" t="inlineStr"/>
-      <c r="S71" s="2" t="inlineStr"/>
+      <c r="R71" s="2" t="n"/>
+      <c r="S71" s="2" t="n"/>
       <c r="T71" s="2" t="inlineStr">
         <is>
           <t>course credit</t>
         </is>
       </c>
-      <c r="U71" s="2" t="inlineStr"/>
-      <c r="V71" s="2" t="inlineStr"/>
-      <c r="W71" s="2" t="inlineStr"/>
+      <c r="U71" s="2" t="n"/>
+      <c r="V71" s="2" t="n"/>
+      <c r="W71" s="2" t="n"/>
       <c r="X71" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y71" s="2" t="inlineStr"/>
-      <c r="Z71" s="2" t="inlineStr"/>
+      <c r="Y71" s="2" t="n"/>
+      <c r="Z71" s="2" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -4510,41 +4522,41 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr"/>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
-      <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
-      <c r="L72" s="2" t="inlineStr"/>
-      <c r="M72" s="2" t="inlineStr"/>
-      <c r="N72" s="2" t="inlineStr"/>
+      <c r="D72" s="2" t="n"/>
+      <c r="E72" s="2" t="n"/>
+      <c r="F72" s="2" t="n"/>
+      <c r="G72" s="2" t="n"/>
+      <c r="H72" s="2" t="n"/>
+      <c r="I72" s="2" t="n"/>
+      <c r="J72" s="2" t="n"/>
+      <c r="K72" s="2" t="n"/>
+      <c r="L72" s="2" t="n"/>
+      <c r="M72" s="2" t="n"/>
+      <c r="N72" s="2" t="n"/>
       <c r="O72" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="P72" s="2" t="inlineStr"/>
+      <c r="P72" s="2" t="n"/>
       <c r="Q72" s="2" t="inlineStr">
         <is>
           <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
         </is>
       </c>
-      <c r="R72" s="2" t="inlineStr"/>
-      <c r="S72" s="2" t="inlineStr"/>
-      <c r="T72" s="2" t="inlineStr"/>
-      <c r="U72" s="2" t="inlineStr"/>
-      <c r="V72" s="2" t="inlineStr"/>
-      <c r="W72" s="2" t="inlineStr"/>
+      <c r="R72" s="2" t="n"/>
+      <c r="S72" s="2" t="n"/>
+      <c r="T72" s="2" t="n"/>
+      <c r="U72" s="2" t="n"/>
+      <c r="V72" s="2" t="n"/>
+      <c r="W72" s="2" t="n"/>
       <c r="X72" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y72" s="2" t="inlineStr"/>
-      <c r="Z72" s="2" t="inlineStr"/>
+      <c r="Y72" s="2" t="n"/>
+      <c r="Z72" s="2" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -4562,19 +4574,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D73" s="2" t="inlineStr"/>
-      <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr"/>
-      <c r="G73" s="2" t="inlineStr"/>
-      <c r="H73" s="2" t="inlineStr"/>
-      <c r="I73" s="2" t="inlineStr"/>
-      <c r="J73" s="2" t="inlineStr"/>
-      <c r="K73" s="2" t="inlineStr"/>
-      <c r="L73" s="2" t="inlineStr"/>
-      <c r="M73" s="2" t="inlineStr"/>
-      <c r="N73" s="2" t="inlineStr"/>
-      <c r="O73" s="2" t="inlineStr"/>
-      <c r="P73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="n"/>
+      <c r="E73" s="2" t="n"/>
+      <c r="F73" s="2" t="n"/>
+      <c r="G73" s="2" t="n"/>
+      <c r="H73" s="2" t="n"/>
+      <c r="I73" s="2" t="n"/>
+      <c r="J73" s="2" t="n"/>
+      <c r="K73" s="2" t="n"/>
+      <c r="L73" s="2" t="n"/>
+      <c r="M73" s="2" t="n"/>
+      <c r="N73" s="2" t="n"/>
+      <c r="O73" s="2" t="n"/>
+      <c r="P73" s="2" t="n"/>
       <c r="Q73" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
@@ -4595,16 +4607,16 @@
           <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
-      <c r="U73" s="2" t="inlineStr"/>
-      <c r="V73" s="2" t="inlineStr"/>
-      <c r="W73" s="2" t="inlineStr"/>
+      <c r="U73" s="2" t="n"/>
+      <c r="V73" s="2" t="n"/>
+      <c r="W73" s="2" t="n"/>
       <c r="X73" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y73" s="2" t="inlineStr"/>
-      <c r="Z73" s="2" t="inlineStr"/>
+      <c r="Y73" s="2" t="n"/>
+      <c r="Z73" s="2" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -4622,19 +4634,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr"/>
-      <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr"/>
-      <c r="G74" s="2" t="inlineStr"/>
-      <c r="H74" s="2" t="inlineStr"/>
-      <c r="I74" s="2" t="inlineStr"/>
-      <c r="J74" s="2" t="inlineStr"/>
-      <c r="K74" s="2" t="inlineStr"/>
-      <c r="L74" s="2" t="inlineStr"/>
-      <c r="M74" s="2" t="inlineStr"/>
-      <c r="N74" s="2" t="inlineStr"/>
-      <c r="O74" s="2" t="inlineStr"/>
-      <c r="P74" s="2" t="inlineStr"/>
+      <c r="D74" s="2" t="n"/>
+      <c r="E74" s="2" t="n"/>
+      <c r="F74" s="2" t="n"/>
+      <c r="G74" s="2" t="n"/>
+      <c r="H74" s="2" t="n"/>
+      <c r="I74" s="2" t="n"/>
+      <c r="J74" s="2" t="n"/>
+      <c r="K74" s="2" t="n"/>
+      <c r="L74" s="2" t="n"/>
+      <c r="M74" s="2" t="n"/>
+      <c r="N74" s="2" t="n"/>
+      <c r="O74" s="2" t="n"/>
+      <c r="P74" s="2" t="n"/>
       <c r="Q74" s="2" t="inlineStr">
         <is>
           <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
@@ -4650,17 +4662,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T74" s="2" t="inlineStr"/>
-      <c r="U74" s="2" t="inlineStr"/>
-      <c r="V74" s="2" t="inlineStr"/>
-      <c r="W74" s="2" t="inlineStr"/>
+      <c r="T74" s="2" t="n"/>
+      <c r="U74" s="2" t="n"/>
+      <c r="V74" s="2" t="n"/>
+      <c r="W74" s="2" t="n"/>
       <c r="X74" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y74" s="2" t="inlineStr"/>
-      <c r="Z74" s="2" t="inlineStr"/>
+      <c r="Y74" s="2" t="n"/>
+      <c r="Z74" s="2" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
@@ -4678,19 +4690,19 @@
           <t xml:space="preserve">nursing and midwifery associate professional </t>
         </is>
       </c>
-      <c r="D75" s="2" t="inlineStr"/>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr"/>
-      <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr"/>
-      <c r="J75" s="2" t="inlineStr"/>
-      <c r="K75" s="2" t="inlineStr"/>
-      <c r="L75" s="2" t="inlineStr"/>
-      <c r="M75" s="2" t="inlineStr"/>
-      <c r="N75" s="2" t="inlineStr"/>
-      <c r="O75" s="2" t="inlineStr"/>
-      <c r="P75" s="2" t="inlineStr"/>
+      <c r="D75" s="2" t="n"/>
+      <c r="E75" s="2" t="n"/>
+      <c r="F75" s="2" t="n"/>
+      <c r="G75" s="2" t="n"/>
+      <c r="H75" s="2" t="n"/>
+      <c r="I75" s="2" t="n"/>
+      <c r="J75" s="2" t="n"/>
+      <c r="K75" s="2" t="n"/>
+      <c r="L75" s="2" t="n"/>
+      <c r="M75" s="2" t="n"/>
+      <c r="N75" s="2" t="n"/>
+      <c r="O75" s="2" t="n"/>
+      <c r="P75" s="2" t="n"/>
       <c r="Q75" s="2" t="inlineStr">
         <is>
           <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
@@ -4711,16 +4723,16 @@
           <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
-      <c r="U75" s="2" t="inlineStr"/>
-      <c r="V75" s="2" t="inlineStr"/>
-      <c r="W75" s="2" t="inlineStr"/>
+      <c r="U75" s="2" t="n"/>
+      <c r="V75" s="2" t="n"/>
+      <c r="W75" s="2" t="n"/>
       <c r="X75" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y75" s="2" t="inlineStr"/>
-      <c r="Z75" s="2" t="inlineStr"/>
+      <c r="Y75" s="2" t="n"/>
+      <c r="Z75" s="2" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -4738,19 +4750,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr"/>
-      <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr"/>
-      <c r="G76" s="2" t="inlineStr"/>
-      <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr"/>
-      <c r="J76" s="2" t="inlineStr"/>
-      <c r="K76" s="2" t="inlineStr"/>
-      <c r="L76" s="2" t="inlineStr"/>
-      <c r="M76" s="2" t="inlineStr"/>
-      <c r="N76" s="2" t="inlineStr"/>
-      <c r="O76" s="2" t="inlineStr"/>
-      <c r="P76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="n"/>
+      <c r="E76" s="2" t="n"/>
+      <c r="F76" s="2" t="n"/>
+      <c r="G76" s="2" t="n"/>
+      <c r="H76" s="2" t="n"/>
+      <c r="I76" s="2" t="n"/>
+      <c r="J76" s="2" t="n"/>
+      <c r="K76" s="2" t="n"/>
+      <c r="L76" s="2" t="n"/>
+      <c r="M76" s="2" t="n"/>
+      <c r="N76" s="2" t="n"/>
+      <c r="O76" s="2" t="n"/>
+      <c r="P76" s="2" t="n"/>
       <c r="Q76" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health. </t>
@@ -4771,16 +4783,16 @@
           <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
-      <c r="U76" s="2" t="inlineStr"/>
-      <c r="V76" s="2" t="inlineStr"/>
-      <c r="W76" s="2" t="inlineStr"/>
+      <c r="U76" s="2" t="n"/>
+      <c r="V76" s="2" t="n"/>
+      <c r="W76" s="2" t="n"/>
       <c r="X76" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y76" s="2" t="inlineStr"/>
-      <c r="Z76" s="2" t="inlineStr"/>
+      <c r="Y76" s="2" t="n"/>
+      <c r="Z76" s="2" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -4798,41 +4810,41 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D77" s="2" t="inlineStr"/>
-      <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr"/>
-      <c r="G77" s="2" t="inlineStr"/>
-      <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr"/>
-      <c r="J77" s="2" t="inlineStr"/>
-      <c r="K77" s="2" t="inlineStr"/>
-      <c r="L77" s="2" t="inlineStr"/>
-      <c r="M77" s="2" t="inlineStr"/>
-      <c r="N77" s="2" t="inlineStr"/>
-      <c r="O77" s="2" t="inlineStr"/>
-      <c r="P77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="n"/>
+      <c r="E77" s="2" t="n"/>
+      <c r="F77" s="2" t="n"/>
+      <c r="G77" s="2" t="n"/>
+      <c r="H77" s="2" t="n"/>
+      <c r="I77" s="2" t="n"/>
+      <c r="J77" s="2" t="n"/>
+      <c r="K77" s="2" t="n"/>
+      <c r="L77" s="2" t="n"/>
+      <c r="M77" s="2" t="n"/>
+      <c r="N77" s="2" t="n"/>
+      <c r="O77" s="2" t="n"/>
+      <c r="P77" s="2" t="n"/>
       <c r="Q77" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
-      <c r="R77" s="2" t="inlineStr"/>
-      <c r="S77" s="2" t="inlineStr"/>
+      <c r="R77" s="2" t="n"/>
+      <c r="S77" s="2" t="n"/>
       <c r="T77" s="2" t="inlineStr">
         <is>
           <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
-      <c r="U77" s="2" t="inlineStr"/>
-      <c r="V77" s="2" t="inlineStr"/>
-      <c r="W77" s="2" t="inlineStr"/>
+      <c r="U77" s="2" t="n"/>
+      <c r="V77" s="2" t="n"/>
+      <c r="W77" s="2" t="n"/>
       <c r="X77" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y77" s="2" t="inlineStr"/>
-      <c r="Z77" s="2" t="inlineStr"/>
+      <c r="Y77" s="2" t="n"/>
+      <c r="Z77" s="2" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
@@ -4850,19 +4862,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D78" s="2" t="inlineStr"/>
-      <c r="E78" s="2" t="inlineStr"/>
-      <c r="F78" s="2" t="inlineStr"/>
-      <c r="G78" s="2" t="inlineStr"/>
-      <c r="H78" s="2" t="inlineStr"/>
-      <c r="I78" s="2" t="inlineStr"/>
-      <c r="J78" s="2" t="inlineStr"/>
-      <c r="K78" s="2" t="inlineStr"/>
-      <c r="L78" s="2" t="inlineStr"/>
-      <c r="M78" s="2" t="inlineStr"/>
-      <c r="N78" s="2" t="inlineStr"/>
-      <c r="O78" s="2" t="inlineStr"/>
-      <c r="P78" s="2" t="inlineStr"/>
+      <c r="D78" s="2" t="n"/>
+      <c r="E78" s="2" t="n"/>
+      <c r="F78" s="2" t="n"/>
+      <c r="G78" s="2" t="n"/>
+      <c r="H78" s="2" t="n"/>
+      <c r="I78" s="2" t="n"/>
+      <c r="J78" s="2" t="n"/>
+      <c r="K78" s="2" t="n"/>
+      <c r="L78" s="2" t="n"/>
+      <c r="M78" s="2" t="n"/>
+      <c r="N78" s="2" t="n"/>
+      <c r="O78" s="2" t="n"/>
+      <c r="P78" s="2" t="n"/>
       <c r="Q78" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system. </t>
@@ -4883,16 +4895,16 @@
           <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
-      <c r="U78" s="2" t="inlineStr"/>
-      <c r="V78" s="2" t="inlineStr"/>
-      <c r="W78" s="2" t="inlineStr"/>
+      <c r="U78" s="2" t="n"/>
+      <c r="V78" s="2" t="n"/>
+      <c r="W78" s="2" t="n"/>
       <c r="X78" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y78" s="2" t="inlineStr"/>
-      <c r="Z78" s="2" t="inlineStr"/>
+      <c r="Y78" s="2" t="n"/>
+      <c r="Z78" s="2" t="n"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4910,41 +4922,21 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>organisational source role</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
           <t xml:space="preserve">An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members. </t>
         </is>
       </c>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -4967,36 +4959,36 @@
           <t>(organisation and RO:0000053 some 'organisational source role')</t>
         </is>
       </c>
-      <c r="E80" s="2" t="inlineStr"/>
-      <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
-      <c r="H80" s="2" t="inlineStr"/>
-      <c r="I80" s="2" t="inlineStr"/>
-      <c r="J80" s="2" t="inlineStr"/>
-      <c r="K80" s="2" t="inlineStr"/>
-      <c r="L80" s="2" t="inlineStr"/>
-      <c r="M80" s="2" t="inlineStr"/>
-      <c r="N80" s="2" t="inlineStr"/>
-      <c r="O80" s="2" t="inlineStr"/>
-      <c r="P80" s="2" t="inlineStr"/>
+      <c r="E80" s="2" t="n"/>
+      <c r="F80" s="2" t="n"/>
+      <c r="G80" s="2" t="n"/>
+      <c r="H80" s="2" t="n"/>
+      <c r="I80" s="2" t="n"/>
+      <c r="J80" s="2" t="n"/>
+      <c r="K80" s="2" t="n"/>
+      <c r="L80" s="2" t="n"/>
+      <c r="M80" s="2" t="n"/>
+      <c r="N80" s="2" t="n"/>
+      <c r="O80" s="2" t="n"/>
+      <c r="P80" s="2" t="n"/>
       <c r="Q80" s="2" t="inlineStr">
         <is>
           <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="R80" s="2" t="inlineStr"/>
-      <c r="S80" s="2" t="inlineStr"/>
-      <c r="T80" s="2" t="inlineStr"/>
-      <c r="U80" s="2" t="inlineStr"/>
-      <c r="V80" s="2" t="inlineStr"/>
-      <c r="W80" s="2" t="inlineStr"/>
+      <c r="R80" s="2" t="n"/>
+      <c r="S80" s="2" t="n"/>
+      <c r="T80" s="2" t="n"/>
+      <c r="U80" s="2" t="n"/>
+      <c r="V80" s="2" t="n"/>
+      <c r="W80" s="2" t="n"/>
       <c r="X80" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y80" s="2" t="inlineStr"/>
-      <c r="Z80" s="2" t="inlineStr"/>
+      <c r="Y80" s="2" t="n"/>
+      <c r="Z80" s="2" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
@@ -5014,37 +5006,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D81" s="2" t="inlineStr"/>
-      <c r="E81" s="2" t="inlineStr"/>
-      <c r="F81" s="2" t="inlineStr"/>
-      <c r="G81" s="2" t="inlineStr"/>
-      <c r="H81" s="2" t="inlineStr"/>
-      <c r="I81" s="2" t="inlineStr"/>
-      <c r="J81" s="2" t="inlineStr"/>
-      <c r="K81" s="2" t="inlineStr"/>
-      <c r="L81" s="2" t="inlineStr"/>
-      <c r="M81" s="2" t="inlineStr"/>
-      <c r="N81" s="2" t="inlineStr"/>
-      <c r="O81" s="2" t="inlineStr"/>
-      <c r="P81" s="2" t="inlineStr"/>
+      <c r="D81" s="2" t="n"/>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+      <c r="G81" s="2" t="n"/>
+      <c r="H81" s="2" t="n"/>
+      <c r="I81" s="2" t="n"/>
+      <c r="J81" s="2" t="n"/>
+      <c r="K81" s="2" t="n"/>
+      <c r="L81" s="2" t="n"/>
+      <c r="M81" s="2" t="n"/>
+      <c r="N81" s="2" t="n"/>
+      <c r="O81" s="2" t="n"/>
+      <c r="P81" s="2" t="n"/>
       <c r="Q81" s="2" t="inlineStr">
         <is>
           <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
-      <c r="R81" s="2" t="inlineStr"/>
-      <c r="S81" s="2" t="inlineStr"/>
-      <c r="T81" s="2" t="inlineStr"/>
-      <c r="U81" s="2" t="inlineStr"/>
-      <c r="V81" s="2" t="inlineStr"/>
-      <c r="W81" s="2" t="inlineStr"/>
+      <c r="R81" s="2" t="n"/>
+      <c r="S81" s="2" t="n"/>
+      <c r="T81" s="2" t="n"/>
+      <c r="U81" s="2" t="n"/>
+      <c r="V81" s="2" t="n"/>
+      <c r="W81" s="2" t="n"/>
       <c r="X81" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y81" s="2" t="inlineStr"/>
-      <c r="Z81" s="2" t="inlineStr"/>
+      <c r="Y81" s="2" t="n"/>
+      <c r="Z81" s="2" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -5062,41 +5054,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D82" s="2" t="inlineStr"/>
-      <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr"/>
-      <c r="H82" s="2" t="inlineStr"/>
-      <c r="I82" s="2" t="inlineStr"/>
-      <c r="J82" s="2" t="inlineStr"/>
-      <c r="K82" s="2" t="inlineStr"/>
-      <c r="L82" s="2" t="inlineStr"/>
-      <c r="M82" s="2" t="inlineStr"/>
-      <c r="N82" s="2" t="inlineStr"/>
-      <c r="O82" s="2" t="inlineStr"/>
-      <c r="P82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="n"/>
+      <c r="E82" s="2" t="n"/>
+      <c r="F82" s="2" t="n"/>
+      <c r="G82" s="2" t="n"/>
+      <c r="H82" s="2" t="n"/>
+      <c r="I82" s="2" t="n"/>
+      <c r="J82" s="2" t="n"/>
+      <c r="K82" s="2" t="n"/>
+      <c r="L82" s="2" t="n"/>
+      <c r="M82" s="2" t="n"/>
+      <c r="N82" s="2" t="n"/>
+      <c r="O82" s="2" t="n"/>
+      <c r="P82" s="2" t="n"/>
       <c r="Q82" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female. </t>
         </is>
       </c>
-      <c r="R82" s="2" t="inlineStr"/>
-      <c r="S82" s="2" t="inlineStr"/>
+      <c r="R82" s="2" t="n"/>
+      <c r="S82" s="2" t="n"/>
       <c r="T82" s="2" t="inlineStr">
         <is>
           <t>non-binary, transexual</t>
         </is>
       </c>
-      <c r="U82" s="2" t="inlineStr"/>
-      <c r="V82" s="2" t="inlineStr"/>
-      <c r="W82" s="2" t="inlineStr"/>
+      <c r="U82" s="2" t="n"/>
+      <c r="V82" s="2" t="n"/>
+      <c r="W82" s="2" t="n"/>
       <c r="X82" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y82" s="2" t="inlineStr"/>
-      <c r="Z82" s="2" t="inlineStr"/>
+      <c r="Y82" s="2" t="n"/>
+      <c r="Z82" s="2" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -5114,19 +5106,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D83" s="2" t="inlineStr"/>
-      <c r="E83" s="2" t="inlineStr"/>
-      <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr"/>
-      <c r="H83" s="2" t="inlineStr"/>
-      <c r="I83" s="2" t="inlineStr"/>
-      <c r="J83" s="2" t="inlineStr"/>
-      <c r="K83" s="2" t="inlineStr"/>
-      <c r="L83" s="2" t="inlineStr"/>
-      <c r="M83" s="2" t="inlineStr"/>
-      <c r="N83" s="2" t="inlineStr"/>
-      <c r="O83" s="2" t="inlineStr"/>
-      <c r="P83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="n"/>
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="2" t="n"/>
+      <c r="G83" s="2" t="n"/>
+      <c r="H83" s="2" t="n"/>
+      <c r="I83" s="2" t="n"/>
+      <c r="J83" s="2" t="n"/>
+      <c r="K83" s="2" t="n"/>
+      <c r="L83" s="2" t="n"/>
+      <c r="M83" s="2" t="n"/>
+      <c r="N83" s="2" t="n"/>
+      <c r="O83" s="2" t="n"/>
+      <c r="P83" s="2" t="n"/>
       <c r="Q83" s="2" t="inlineStr">
         <is>
           <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
@@ -5147,16 +5139,16 @@
           <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
-      <c r="U83" s="2" t="inlineStr"/>
-      <c r="V83" s="2" t="inlineStr"/>
-      <c r="W83" s="2" t="inlineStr"/>
+      <c r="U83" s="2" t="n"/>
+      <c r="V83" s="2" t="n"/>
+      <c r="W83" s="2" t="n"/>
       <c r="X83" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y83" s="2" t="inlineStr"/>
-      <c r="Z83" s="2" t="inlineStr"/>
+      <c r="Y83" s="2" t="n"/>
+      <c r="Z83" s="2" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -5174,41 +5166,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D84" s="2" t="inlineStr"/>
-      <c r="E84" s="2" t="inlineStr"/>
-      <c r="F84" s="2" t="inlineStr"/>
-      <c r="G84" s="2" t="inlineStr"/>
-      <c r="H84" s="2" t="inlineStr"/>
-      <c r="I84" s="2" t="inlineStr"/>
-      <c r="J84" s="2" t="inlineStr"/>
-      <c r="K84" s="2" t="inlineStr"/>
-      <c r="L84" s="2" t="inlineStr"/>
-      <c r="M84" s="2" t="inlineStr"/>
-      <c r="N84" s="2" t="inlineStr"/>
-      <c r="O84" s="2" t="inlineStr"/>
-      <c r="P84" s="2" t="inlineStr"/>
+      <c r="D84" s="2" t="n"/>
+      <c r="E84" s="2" t="n"/>
+      <c r="F84" s="2" t="n"/>
+      <c r="G84" s="2" t="n"/>
+      <c r="H84" s="2" t="n"/>
+      <c r="I84" s="2" t="n"/>
+      <c r="J84" s="2" t="n"/>
+      <c r="K84" s="2" t="n"/>
+      <c r="L84" s="2" t="n"/>
+      <c r="M84" s="2" t="n"/>
+      <c r="N84" s="2" t="n"/>
+      <c r="O84" s="2" t="n"/>
+      <c r="P84" s="2" t="n"/>
       <c r="Q84" s="2" t="inlineStr">
         <is>
           <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
-      <c r="R84" s="2" t="inlineStr"/>
-      <c r="S84" s="2" t="inlineStr"/>
+      <c r="R84" s="2" t="n"/>
+      <c r="S84" s="2" t="n"/>
       <c r="T84" s="2" t="inlineStr">
         <is>
           <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
-      <c r="U84" s="2" t="inlineStr"/>
-      <c r="V84" s="2" t="inlineStr"/>
-      <c r="W84" s="2" t="inlineStr"/>
+      <c r="U84" s="2" t="n"/>
+      <c r="V84" s="2" t="n"/>
+      <c r="W84" s="2" t="n"/>
       <c r="X84" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y84" s="2" t="inlineStr"/>
-      <c r="Z84" s="2" t="inlineStr"/>
+      <c r="Y84" s="2" t="n"/>
+      <c r="Z84" s="2" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
@@ -5226,41 +5218,41 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D85" s="2" t="inlineStr"/>
-      <c r="E85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="n"/>
+      <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G85" s="2" t="inlineStr"/>
-      <c r="H85" s="2" t="inlineStr"/>
-      <c r="I85" s="2" t="inlineStr"/>
-      <c r="J85" s="2" t="inlineStr"/>
-      <c r="K85" s="2" t="inlineStr"/>
-      <c r="L85" s="2" t="inlineStr"/>
-      <c r="M85" s="2" t="inlineStr"/>
-      <c r="N85" s="2" t="inlineStr"/>
-      <c r="O85" s="2" t="inlineStr"/>
-      <c r="P85" s="2" t="inlineStr"/>
+      <c r="G85" s="2" t="n"/>
+      <c r="H85" s="2" t="n"/>
+      <c r="I85" s="2" t="n"/>
+      <c r="J85" s="2" t="n"/>
+      <c r="K85" s="2" t="n"/>
+      <c r="L85" s="2" t="n"/>
+      <c r="M85" s="2" t="n"/>
+      <c r="N85" s="2" t="n"/>
+      <c r="O85" s="2" t="n"/>
+      <c r="P85" s="2" t="n"/>
       <c r="Q85" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R85" s="2" t="inlineStr"/>
-      <c r="S85" s="2" t="inlineStr"/>
-      <c r="T85" s="2" t="inlineStr"/>
-      <c r="U85" s="2" t="inlineStr"/>
-      <c r="V85" s="2" t="inlineStr"/>
-      <c r="W85" s="2" t="inlineStr"/>
+      <c r="R85" s="2" t="n"/>
+      <c r="S85" s="2" t="n"/>
+      <c r="T85" s="2" t="n"/>
+      <c r="U85" s="2" t="n"/>
+      <c r="V85" s="2" t="n"/>
+      <c r="W85" s="2" t="n"/>
       <c r="X85" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y85" s="2" t="inlineStr"/>
-      <c r="Z85" s="2" t="inlineStr"/>
+      <c r="Y85" s="2" t="n"/>
+      <c r="Z85" s="2" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -5278,37 +5270,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr"/>
-      <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr"/>
-      <c r="G86" s="2" t="inlineStr"/>
-      <c r="H86" s="2" t="inlineStr"/>
-      <c r="I86" s="2" t="inlineStr"/>
-      <c r="J86" s="2" t="inlineStr"/>
-      <c r="K86" s="2" t="inlineStr"/>
-      <c r="L86" s="2" t="inlineStr"/>
-      <c r="M86" s="2" t="inlineStr"/>
-      <c r="N86" s="2" t="inlineStr"/>
-      <c r="O86" s="2" t="inlineStr"/>
-      <c r="P86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="n"/>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="2" t="n"/>
+      <c r="H86" s="2" t="n"/>
+      <c r="I86" s="2" t="n"/>
+      <c r="J86" s="2" t="n"/>
+      <c r="K86" s="2" t="n"/>
+      <c r="L86" s="2" t="n"/>
+      <c r="M86" s="2" t="n"/>
+      <c r="N86" s="2" t="n"/>
+      <c r="O86" s="2" t="n"/>
+      <c r="P86" s="2" t="n"/>
       <c r="Q86" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc. </t>
         </is>
       </c>
-      <c r="R86" s="2" t="inlineStr"/>
-      <c r="S86" s="2" t="inlineStr"/>
-      <c r="T86" s="2" t="inlineStr"/>
-      <c r="U86" s="2" t="inlineStr"/>
-      <c r="V86" s="2" t="inlineStr"/>
-      <c r="W86" s="2" t="inlineStr"/>
+      <c r="R86" s="2" t="n"/>
+      <c r="S86" s="2" t="n"/>
+      <c r="T86" s="2" t="n"/>
+      <c r="U86" s="2" t="n"/>
+      <c r="V86" s="2" t="n"/>
+      <c r="W86" s="2" t="n"/>
       <c r="X86" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y86" s="2" t="inlineStr"/>
-      <c r="Z86" s="2" t="inlineStr"/>
+      <c r="Y86" s="2" t="n"/>
+      <c r="Z86" s="2" t="n"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5326,41 +5318,21 @@
           <t>extended organism</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>person source role</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
           <t xml:space="preserve">A member of the species Homo Sapiens. </t>
         </is>
       </c>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -5383,36 +5355,36 @@
           <t>(person and RO:0000053 some 'person source role')</t>
         </is>
       </c>
-      <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr"/>
-      <c r="G88" s="2" t="inlineStr"/>
-      <c r="H88" s="2" t="inlineStr"/>
-      <c r="I88" s="2" t="inlineStr"/>
-      <c r="J88" s="2" t="inlineStr"/>
-      <c r="K88" s="2" t="inlineStr"/>
-      <c r="L88" s="2" t="inlineStr"/>
-      <c r="M88" s="2" t="inlineStr"/>
-      <c r="N88" s="2" t="inlineStr"/>
-      <c r="O88" s="2" t="inlineStr"/>
-      <c r="P88" s="2" t="inlineStr"/>
+      <c r="E88" s="2" t="n"/>
+      <c r="F88" s="2" t="n"/>
+      <c r="G88" s="2" t="n"/>
+      <c r="H88" s="2" t="n"/>
+      <c r="I88" s="2" t="n"/>
+      <c r="J88" s="2" t="n"/>
+      <c r="K88" s="2" t="n"/>
+      <c r="L88" s="2" t="n"/>
+      <c r="M88" s="2" t="n"/>
+      <c r="N88" s="2" t="n"/>
+      <c r="O88" s="2" t="n"/>
+      <c r="P88" s="2" t="n"/>
       <c r="Q88" s="2" t="inlineStr">
         <is>
           <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
-      <c r="R88" s="2" t="inlineStr"/>
-      <c r="S88" s="2" t="inlineStr"/>
-      <c r="T88" s="2" t="inlineStr"/>
-      <c r="U88" s="2" t="inlineStr"/>
-      <c r="V88" s="2" t="inlineStr"/>
-      <c r="W88" s="2" t="inlineStr"/>
+      <c r="R88" s="2" t="n"/>
+      <c r="S88" s="2" t="n"/>
+      <c r="T88" s="2" t="n"/>
+      <c r="U88" s="2" t="n"/>
+      <c r="V88" s="2" t="n"/>
+      <c r="W88" s="2" t="n"/>
       <c r="X88" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y88" s="2" t="inlineStr"/>
-      <c r="Z88" s="2" t="inlineStr"/>
+      <c r="Y88" s="2" t="n"/>
+      <c r="Z88" s="2" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -5430,37 +5402,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D89" s="2" t="inlineStr"/>
-      <c r="E89" s="2" t="inlineStr"/>
-      <c r="F89" s="2" t="inlineStr"/>
-      <c r="G89" s="2" t="inlineStr"/>
-      <c r="H89" s="2" t="inlineStr"/>
-      <c r="I89" s="2" t="inlineStr"/>
-      <c r="J89" s="2" t="inlineStr"/>
-      <c r="K89" s="2" t="inlineStr"/>
-      <c r="L89" s="2" t="inlineStr"/>
-      <c r="M89" s="2" t="inlineStr"/>
-      <c r="N89" s="2" t="inlineStr"/>
-      <c r="O89" s="2" t="inlineStr"/>
-      <c r="P89" s="2" t="inlineStr"/>
+      <c r="D89" s="2" t="n"/>
+      <c r="E89" s="2" t="n"/>
+      <c r="F89" s="2" t="n"/>
+      <c r="G89" s="2" t="n"/>
+      <c r="H89" s="2" t="n"/>
+      <c r="I89" s="2" t="n"/>
+      <c r="J89" s="2" t="n"/>
+      <c r="K89" s="2" t="n"/>
+      <c r="L89" s="2" t="n"/>
+      <c r="M89" s="2" t="n"/>
+      <c r="N89" s="2" t="n"/>
+      <c r="O89" s="2" t="n"/>
+      <c r="P89" s="2" t="n"/>
       <c r="Q89" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
-      <c r="R89" s="2" t="inlineStr"/>
-      <c r="S89" s="2" t="inlineStr"/>
-      <c r="T89" s="2" t="inlineStr"/>
-      <c r="U89" s="2" t="inlineStr"/>
-      <c r="V89" s="2" t="inlineStr"/>
-      <c r="W89" s="2" t="inlineStr"/>
+      <c r="R89" s="2" t="n"/>
+      <c r="S89" s="2" t="n"/>
+      <c r="T89" s="2" t="n"/>
+      <c r="U89" s="2" t="n"/>
+      <c r="V89" s="2" t="n"/>
+      <c r="W89" s="2" t="n"/>
       <c r="X89" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y89" s="2" t="inlineStr"/>
-      <c r="Z89" s="2" t="inlineStr"/>
+      <c r="Y89" s="2" t="n"/>
+      <c r="Z89" s="2" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -5478,19 +5450,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D90" s="2" t="inlineStr"/>
-      <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr"/>
-      <c r="G90" s="2" t="inlineStr"/>
-      <c r="H90" s="2" t="inlineStr"/>
-      <c r="I90" s="2" t="inlineStr"/>
-      <c r="J90" s="2" t="inlineStr"/>
-      <c r="K90" s="2" t="inlineStr"/>
-      <c r="L90" s="2" t="inlineStr"/>
-      <c r="M90" s="2" t="inlineStr"/>
-      <c r="N90" s="2" t="inlineStr"/>
-      <c r="O90" s="2" t="inlineStr"/>
-      <c r="P90" s="2" t="inlineStr"/>
+      <c r="D90" s="2" t="n"/>
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="n"/>
+      <c r="G90" s="2" t="n"/>
+      <c r="H90" s="2" t="n"/>
+      <c r="I90" s="2" t="n"/>
+      <c r="J90" s="2" t="n"/>
+      <c r="K90" s="2" t="n"/>
+      <c r="L90" s="2" t="n"/>
+      <c r="M90" s="2" t="n"/>
+      <c r="N90" s="2" t="n"/>
+      <c r="O90" s="2" t="n"/>
+      <c r="P90" s="2" t="n"/>
       <c r="Q90" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
@@ -5511,16 +5483,16 @@
           <t>Personal carer</t>
         </is>
       </c>
-      <c r="U90" s="2" t="inlineStr"/>
-      <c r="V90" s="2" t="inlineStr"/>
-      <c r="W90" s="2" t="inlineStr"/>
+      <c r="U90" s="2" t="n"/>
+      <c r="V90" s="2" t="n"/>
+      <c r="W90" s="2" t="n"/>
       <c r="X90" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y90" s="2" t="inlineStr"/>
-      <c r="Z90" s="2" t="inlineStr"/>
+      <c r="Y90" s="2" t="n"/>
+      <c r="Z90" s="2" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -5538,37 +5510,37 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D91" s="2" t="inlineStr"/>
-      <c r="E91" s="2" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr"/>
-      <c r="G91" s="2" t="inlineStr"/>
-      <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr"/>
-      <c r="J91" s="2" t="inlineStr"/>
-      <c r="K91" s="2" t="inlineStr"/>
-      <c r="L91" s="2" t="inlineStr"/>
-      <c r="M91" s="2" t="inlineStr"/>
-      <c r="N91" s="2" t="inlineStr"/>
-      <c r="O91" s="2" t="inlineStr"/>
-      <c r="P91" s="2" t="inlineStr"/>
+      <c r="D91" s="2" t="n"/>
+      <c r="E91" s="2" t="n"/>
+      <c r="F91" s="2" t="n"/>
+      <c r="G91" s="2" t="n"/>
+      <c r="H91" s="2" t="n"/>
+      <c r="I91" s="2" t="n"/>
+      <c r="J91" s="2" t="n"/>
+      <c r="K91" s="2" t="n"/>
+      <c r="L91" s="2" t="n"/>
+      <c r="M91" s="2" t="n"/>
+      <c r="N91" s="2" t="n"/>
+      <c r="O91" s="2" t="n"/>
+      <c r="P91" s="2" t="n"/>
       <c r="Q91" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A role that inheres in a person source. </t>
         </is>
       </c>
-      <c r="R91" s="2" t="inlineStr"/>
-      <c r="S91" s="2" t="inlineStr"/>
-      <c r="T91" s="2" t="inlineStr"/>
-      <c r="U91" s="2" t="inlineStr"/>
-      <c r="V91" s="2" t="inlineStr"/>
-      <c r="W91" s="2" t="inlineStr"/>
+      <c r="R91" s="2" t="n"/>
+      <c r="S91" s="2" t="n"/>
+      <c r="T91" s="2" t="n"/>
+      <c r="U91" s="2" t="n"/>
+      <c r="V91" s="2" t="n"/>
+      <c r="W91" s="2" t="n"/>
       <c r="X91" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y91" s="2" t="inlineStr"/>
-      <c r="Z91" s="2" t="inlineStr"/>
+      <c r="Y91" s="2" t="n"/>
+      <c r="Z91" s="2" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -5586,19 +5558,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D92" s="2" t="inlineStr"/>
-      <c r="E92" s="2" t="inlineStr"/>
-      <c r="F92" s="2" t="inlineStr"/>
-      <c r="G92" s="2" t="inlineStr"/>
-      <c r="H92" s="2" t="inlineStr"/>
-      <c r="I92" s="2" t="inlineStr"/>
-      <c r="J92" s="2" t="inlineStr"/>
-      <c r="K92" s="2" t="inlineStr"/>
-      <c r="L92" s="2" t="inlineStr"/>
-      <c r="M92" s="2" t="inlineStr"/>
-      <c r="N92" s="2" t="inlineStr"/>
-      <c r="O92" s="2" t="inlineStr"/>
-      <c r="P92" s="2" t="inlineStr"/>
+      <c r="D92" s="2" t="n"/>
+      <c r="E92" s="2" t="n"/>
+      <c r="F92" s="2" t="n"/>
+      <c r="G92" s="2" t="n"/>
+      <c r="H92" s="2" t="n"/>
+      <c r="I92" s="2" t="n"/>
+      <c r="J92" s="2" t="n"/>
+      <c r="K92" s="2" t="n"/>
+      <c r="L92" s="2" t="n"/>
+      <c r="M92" s="2" t="n"/>
+      <c r="N92" s="2" t="n"/>
+      <c r="O92" s="2" t="n"/>
+      <c r="P92" s="2" t="n"/>
       <c r="Q92" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
@@ -5619,16 +5591,16 @@
           <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
-      <c r="U92" s="2" t="inlineStr"/>
-      <c r="V92" s="2" t="inlineStr"/>
-      <c r="W92" s="2" t="inlineStr"/>
+      <c r="U92" s="2" t="n"/>
+      <c r="V92" s="2" t="n"/>
+      <c r="W92" s="2" t="n"/>
       <c r="X92" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y92" s="2" t="inlineStr"/>
-      <c r="Z92" s="2" t="inlineStr"/>
+      <c r="Y92" s="2" t="n"/>
+      <c r="Z92" s="2" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
@@ -5646,19 +5618,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D93" s="2" t="inlineStr"/>
-      <c r="E93" s="2" t="inlineStr"/>
-      <c r="F93" s="2" t="inlineStr"/>
-      <c r="G93" s="2" t="inlineStr"/>
-      <c r="H93" s="2" t="inlineStr"/>
-      <c r="I93" s="2" t="inlineStr"/>
-      <c r="J93" s="2" t="inlineStr"/>
-      <c r="K93" s="2" t="inlineStr"/>
-      <c r="L93" s="2" t="inlineStr"/>
-      <c r="M93" s="2" t="inlineStr"/>
-      <c r="N93" s="2" t="inlineStr"/>
-      <c r="O93" s="2" t="inlineStr"/>
-      <c r="P93" s="2" t="inlineStr"/>
+      <c r="D93" s="2" t="n"/>
+      <c r="E93" s="2" t="n"/>
+      <c r="F93" s="2" t="n"/>
+      <c r="G93" s="2" t="n"/>
+      <c r="H93" s="2" t="n"/>
+      <c r="I93" s="2" t="n"/>
+      <c r="J93" s="2" t="n"/>
+      <c r="K93" s="2" t="n"/>
+      <c r="L93" s="2" t="n"/>
+      <c r="M93" s="2" t="n"/>
+      <c r="N93" s="2" t="n"/>
+      <c r="O93" s="2" t="n"/>
+      <c r="P93" s="2" t="n"/>
       <c r="Q93" s="2" t="inlineStr">
         <is>
           <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
@@ -5679,16 +5651,16 @@
           <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
-      <c r="U93" s="2" t="inlineStr"/>
-      <c r="V93" s="2" t="inlineStr"/>
-      <c r="W93" s="2" t="inlineStr"/>
+      <c r="U93" s="2" t="n"/>
+      <c r="V93" s="2" t="n"/>
+      <c r="W93" s="2" t="n"/>
       <c r="X93" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y93" s="2" t="inlineStr"/>
-      <c r="Z93" s="2" t="inlineStr"/>
+      <c r="Y93" s="2" t="n"/>
+      <c r="Z93" s="2" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
@@ -5706,19 +5678,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D94" s="2" t="inlineStr"/>
-      <c r="E94" s="2" t="inlineStr"/>
-      <c r="F94" s="2" t="inlineStr"/>
-      <c r="G94" s="2" t="inlineStr"/>
-      <c r="H94" s="2" t="inlineStr"/>
-      <c r="I94" s="2" t="inlineStr"/>
-      <c r="J94" s="2" t="inlineStr"/>
-      <c r="K94" s="2" t="inlineStr"/>
-      <c r="L94" s="2" t="inlineStr"/>
-      <c r="M94" s="2" t="inlineStr"/>
-      <c r="N94" s="2" t="inlineStr"/>
-      <c r="O94" s="2" t="inlineStr"/>
-      <c r="P94" s="2" t="inlineStr"/>
+      <c r="D94" s="2" t="n"/>
+      <c r="E94" s="2" t="n"/>
+      <c r="F94" s="2" t="n"/>
+      <c r="G94" s="2" t="n"/>
+      <c r="H94" s="2" t="n"/>
+      <c r="I94" s="2" t="n"/>
+      <c r="J94" s="2" t="n"/>
+      <c r="K94" s="2" t="n"/>
+      <c r="L94" s="2" t="n"/>
+      <c r="M94" s="2" t="n"/>
+      <c r="N94" s="2" t="n"/>
+      <c r="O94" s="2" t="n"/>
+      <c r="P94" s="2" t="n"/>
       <c r="Q94" s="2" t="inlineStr">
         <is>
           <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
@@ -5739,16 +5711,16 @@
           <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
-      <c r="U94" s="2" t="inlineStr"/>
-      <c r="V94" s="2" t="inlineStr"/>
-      <c r="W94" s="2" t="inlineStr"/>
+      <c r="U94" s="2" t="n"/>
+      <c r="V94" s="2" t="n"/>
+      <c r="W94" s="2" t="n"/>
       <c r="X94" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y94" s="2" t="inlineStr"/>
-      <c r="Z94" s="2" t="inlineStr"/>
+      <c r="Y94" s="2" t="n"/>
+      <c r="Z94" s="2" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
@@ -5766,19 +5738,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D95" s="2" t="inlineStr"/>
-      <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr"/>
-      <c r="G95" s="2" t="inlineStr"/>
-      <c r="H95" s="2" t="inlineStr"/>
-      <c r="I95" s="2" t="inlineStr"/>
-      <c r="J95" s="2" t="inlineStr"/>
-      <c r="K95" s="2" t="inlineStr"/>
-      <c r="L95" s="2" t="inlineStr"/>
-      <c r="M95" s="2" t="inlineStr"/>
-      <c r="N95" s="2" t="inlineStr"/>
-      <c r="O95" s="2" t="inlineStr"/>
-      <c r="P95" s="2" t="inlineStr"/>
+      <c r="D95" s="2" t="n"/>
+      <c r="E95" s="2" t="n"/>
+      <c r="F95" s="2" t="n"/>
+      <c r="G95" s="2" t="n"/>
+      <c r="H95" s="2" t="n"/>
+      <c r="I95" s="2" t="n"/>
+      <c r="J95" s="2" t="n"/>
+      <c r="K95" s="2" t="n"/>
+      <c r="L95" s="2" t="n"/>
+      <c r="M95" s="2" t="n"/>
+      <c r="N95" s="2" t="n"/>
+      <c r="O95" s="2" t="n"/>
+      <c r="P95" s="2" t="n"/>
       <c r="Q95" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
@@ -5799,16 +5771,16 @@
           <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
-      <c r="U95" s="2" t="inlineStr"/>
-      <c r="V95" s="2" t="inlineStr"/>
-      <c r="W95" s="2" t="inlineStr"/>
+      <c r="U95" s="2" t="n"/>
+      <c r="V95" s="2" t="n"/>
+      <c r="W95" s="2" t="n"/>
       <c r="X95" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y95" s="2" t="inlineStr"/>
-      <c r="Z95" s="2" t="inlineStr"/>
+      <c r="Y95" s="2" t="n"/>
+      <c r="Z95" s="2" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -5826,19 +5798,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr"/>
-      <c r="E96" s="2" t="inlineStr"/>
-      <c r="F96" s="2" t="inlineStr"/>
-      <c r="G96" s="2" t="inlineStr"/>
-      <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr"/>
-      <c r="J96" s="2" t="inlineStr"/>
-      <c r="K96" s="2" t="inlineStr"/>
-      <c r="L96" s="2" t="inlineStr"/>
-      <c r="M96" s="2" t="inlineStr"/>
-      <c r="N96" s="2" t="inlineStr"/>
-      <c r="O96" s="2" t="inlineStr"/>
-      <c r="P96" s="2" t="inlineStr"/>
+      <c r="D96" s="2" t="n"/>
+      <c r="E96" s="2" t="n"/>
+      <c r="F96" s="2" t="n"/>
+      <c r="G96" s="2" t="n"/>
+      <c r="H96" s="2" t="n"/>
+      <c r="I96" s="2" t="n"/>
+      <c r="J96" s="2" t="n"/>
+      <c r="K96" s="2" t="n"/>
+      <c r="L96" s="2" t="n"/>
+      <c r="M96" s="2" t="n"/>
+      <c r="N96" s="2" t="n"/>
+      <c r="O96" s="2" t="n"/>
+      <c r="P96" s="2" t="n"/>
       <c r="Q96" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment. </t>
@@ -5859,16 +5831,16 @@
           <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
-      <c r="U96" s="2" t="inlineStr"/>
-      <c r="V96" s="2" t="inlineStr"/>
-      <c r="W96" s="2" t="inlineStr"/>
+      <c r="U96" s="2" t="n"/>
+      <c r="V96" s="2" t="n"/>
+      <c r="W96" s="2" t="n"/>
       <c r="X96" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y96" s="2" t="inlineStr"/>
-      <c r="Z96" s="2" t="inlineStr"/>
+      <c r="Y96" s="2" t="n"/>
+      <c r="Z96" s="2" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
@@ -5886,41 +5858,41 @@
           <t>knowledge or skill</t>
         </is>
       </c>
-      <c r="D97" s="2" t="inlineStr"/>
-      <c r="E97" s="2" t="inlineStr"/>
-      <c r="F97" s="2" t="inlineStr"/>
-      <c r="G97" s="2" t="inlineStr"/>
-      <c r="H97" s="2" t="inlineStr"/>
-      <c r="I97" s="2" t="inlineStr"/>
-      <c r="J97" s="2" t="inlineStr"/>
-      <c r="K97" s="2" t="inlineStr"/>
-      <c r="L97" s="2" t="inlineStr"/>
-      <c r="M97" s="2" t="inlineStr"/>
-      <c r="N97" s="2" t="inlineStr"/>
-      <c r="O97" s="2" t="inlineStr"/>
-      <c r="P97" s="2" t="inlineStr"/>
+      <c r="D97" s="2" t="n"/>
+      <c r="E97" s="2" t="n"/>
+      <c r="F97" s="2" t="n"/>
+      <c r="G97" s="2" t="n"/>
+      <c r="H97" s="2" t="n"/>
+      <c r="I97" s="2" t="n"/>
+      <c r="J97" s="2" t="n"/>
+      <c r="K97" s="2" t="n"/>
+      <c r="L97" s="2" t="n"/>
+      <c r="M97" s="2" t="n"/>
+      <c r="N97" s="2" t="n"/>
+      <c r="O97" s="2" t="n"/>
+      <c r="P97" s="2" t="n"/>
       <c r="Q97" s="2" t="inlineStr">
         <is>
           <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
-      <c r="R97" s="2" t="inlineStr"/>
-      <c r="S97" s="2" t="inlineStr"/>
+      <c r="R97" s="2" t="n"/>
+      <c r="S97" s="2" t="n"/>
       <c r="T97" s="2" t="inlineStr">
         <is>
           <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
-      <c r="U97" s="2" t="inlineStr"/>
-      <c r="V97" s="2" t="inlineStr"/>
-      <c r="W97" s="2" t="inlineStr"/>
+      <c r="U97" s="2" t="n"/>
+      <c r="V97" s="2" t="n"/>
+      <c r="W97" s="2" t="n"/>
       <c r="X97" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y97" s="2" t="inlineStr"/>
-      <c r="Z97" s="2" t="inlineStr"/>
+      <c r="Y97" s="2" t="n"/>
+      <c r="Z97" s="2" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
@@ -5938,19 +5910,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D98" s="2" t="inlineStr"/>
-      <c r="E98" s="2" t="inlineStr"/>
-      <c r="F98" s="2" t="inlineStr"/>
-      <c r="G98" s="2" t="inlineStr"/>
-      <c r="H98" s="2" t="inlineStr"/>
-      <c r="I98" s="2" t="inlineStr"/>
-      <c r="J98" s="2" t="inlineStr"/>
-      <c r="K98" s="2" t="inlineStr"/>
-      <c r="L98" s="2" t="inlineStr"/>
-      <c r="M98" s="2" t="inlineStr"/>
-      <c r="N98" s="2" t="inlineStr"/>
-      <c r="O98" s="2" t="inlineStr"/>
-      <c r="P98" s="2" t="inlineStr"/>
+      <c r="D98" s="2" t="n"/>
+      <c r="E98" s="2" t="n"/>
+      <c r="F98" s="2" t="n"/>
+      <c r="G98" s="2" t="n"/>
+      <c r="H98" s="2" t="n"/>
+      <c r="I98" s="2" t="n"/>
+      <c r="J98" s="2" t="n"/>
+      <c r="K98" s="2" t="n"/>
+      <c r="L98" s="2" t="n"/>
+      <c r="M98" s="2" t="n"/>
+      <c r="N98" s="2" t="n"/>
+      <c r="O98" s="2" t="n"/>
+      <c r="P98" s="2" t="n"/>
       <c r="Q98" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
@@ -5966,17 +5938,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T98" s="2" t="inlineStr"/>
-      <c r="U98" s="2" t="inlineStr"/>
-      <c r="V98" s="2" t="inlineStr"/>
-      <c r="W98" s="2" t="inlineStr"/>
+      <c r="T98" s="2" t="n"/>
+      <c r="U98" s="2" t="n"/>
+      <c r="V98" s="2" t="n"/>
+      <c r="W98" s="2" t="n"/>
       <c r="X98" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y98" s="2" t="inlineStr"/>
-      <c r="Z98" s="2" t="inlineStr"/>
+      <c r="Y98" s="2" t="n"/>
+      <c r="Z98" s="2" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
@@ -5994,19 +5966,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D99" s="2" t="inlineStr"/>
-      <c r="E99" s="2" t="inlineStr"/>
-      <c r="F99" s="2" t="inlineStr"/>
-      <c r="G99" s="2" t="inlineStr"/>
-      <c r="H99" s="2" t="inlineStr"/>
-      <c r="I99" s="2" t="inlineStr"/>
-      <c r="J99" s="2" t="inlineStr"/>
-      <c r="K99" s="2" t="inlineStr"/>
-      <c r="L99" s="2" t="inlineStr"/>
-      <c r="M99" s="2" t="inlineStr"/>
-      <c r="N99" s="2" t="inlineStr"/>
-      <c r="O99" s="2" t="inlineStr"/>
-      <c r="P99" s="2" t="inlineStr"/>
+      <c r="D99" s="2" t="n"/>
+      <c r="E99" s="2" t="n"/>
+      <c r="F99" s="2" t="n"/>
+      <c r="G99" s="2" t="n"/>
+      <c r="H99" s="2" t="n"/>
+      <c r="I99" s="2" t="n"/>
+      <c r="J99" s="2" t="n"/>
+      <c r="K99" s="2" t="n"/>
+      <c r="L99" s="2" t="n"/>
+      <c r="M99" s="2" t="n"/>
+      <c r="N99" s="2" t="n"/>
+      <c r="O99" s="2" t="n"/>
+      <c r="P99" s="2" t="n"/>
       <c r="Q99" s="2" t="inlineStr">
         <is>
           <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
@@ -6022,17 +5994,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T99" s="2" t="inlineStr"/>
-      <c r="U99" s="2" t="inlineStr"/>
-      <c r="V99" s="2" t="inlineStr"/>
-      <c r="W99" s="2" t="inlineStr"/>
+      <c r="T99" s="2" t="n"/>
+      <c r="U99" s="2" t="n"/>
+      <c r="V99" s="2" t="n"/>
+      <c r="W99" s="2" t="n"/>
       <c r="X99" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y99" s="2" t="inlineStr"/>
-      <c r="Z99" s="2" t="inlineStr"/>
+      <c r="Y99" s="2" t="n"/>
+      <c r="Z99" s="2" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
@@ -6050,19 +6022,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D100" s="2" t="inlineStr"/>
-      <c r="E100" s="2" t="inlineStr"/>
-      <c r="F100" s="2" t="inlineStr"/>
-      <c r="G100" s="2" t="inlineStr"/>
-      <c r="H100" s="2" t="inlineStr"/>
-      <c r="I100" s="2" t="inlineStr"/>
-      <c r="J100" s="2" t="inlineStr"/>
-      <c r="K100" s="2" t="inlineStr"/>
-      <c r="L100" s="2" t="inlineStr"/>
-      <c r="M100" s="2" t="inlineStr"/>
-      <c r="N100" s="2" t="inlineStr"/>
-      <c r="O100" s="2" t="inlineStr"/>
-      <c r="P100" s="2" t="inlineStr"/>
+      <c r="D100" s="2" t="n"/>
+      <c r="E100" s="2" t="n"/>
+      <c r="F100" s="2" t="n"/>
+      <c r="G100" s="2" t="n"/>
+      <c r="H100" s="2" t="n"/>
+      <c r="I100" s="2" t="n"/>
+      <c r="J100" s="2" t="n"/>
+      <c r="K100" s="2" t="n"/>
+      <c r="L100" s="2" t="n"/>
+      <c r="M100" s="2" t="n"/>
+      <c r="N100" s="2" t="n"/>
+      <c r="O100" s="2" t="n"/>
+      <c r="P100" s="2" t="n"/>
       <c r="Q100" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
@@ -6083,16 +6055,16 @@
           <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
-      <c r="U100" s="2" t="inlineStr"/>
-      <c r="V100" s="2" t="inlineStr"/>
-      <c r="W100" s="2" t="inlineStr"/>
+      <c r="U100" s="2" t="n"/>
+      <c r="V100" s="2" t="n"/>
+      <c r="W100" s="2" t="n"/>
       <c r="X100" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y100" s="2" t="inlineStr"/>
-      <c r="Z100" s="2" t="inlineStr"/>
+      <c r="Y100" s="2" t="n"/>
+      <c r="Z100" s="2" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
@@ -6110,37 +6082,37 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D101" s="2" t="inlineStr"/>
-      <c r="E101" s="2" t="inlineStr"/>
-      <c r="F101" s="2" t="inlineStr"/>
-      <c r="G101" s="2" t="inlineStr"/>
-      <c r="H101" s="2" t="inlineStr"/>
-      <c r="I101" s="2" t="inlineStr"/>
-      <c r="J101" s="2" t="inlineStr"/>
-      <c r="K101" s="2" t="inlineStr"/>
-      <c r="L101" s="2" t="inlineStr"/>
-      <c r="M101" s="2" t="inlineStr"/>
-      <c r="N101" s="2" t="inlineStr"/>
-      <c r="O101" s="2" t="inlineStr"/>
-      <c r="P101" s="2" t="inlineStr"/>
+      <c r="D101" s="2" t="n"/>
+      <c r="E101" s="2" t="n"/>
+      <c r="F101" s="2" t="n"/>
+      <c r="G101" s="2" t="n"/>
+      <c r="H101" s="2" t="n"/>
+      <c r="I101" s="2" t="n"/>
+      <c r="J101" s="2" t="n"/>
+      <c r="K101" s="2" t="n"/>
+      <c r="L101" s="2" t="n"/>
+      <c r="M101" s="2" t="n"/>
+      <c r="N101" s="2" t="n"/>
+      <c r="O101" s="2" t="n"/>
+      <c r="P101" s="2" t="n"/>
       <c r="Q101" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
         </is>
       </c>
-      <c r="R101" s="2" t="inlineStr"/>
-      <c r="S101" s="2" t="inlineStr"/>
-      <c r="T101" s="2" t="inlineStr"/>
-      <c r="U101" s="2" t="inlineStr"/>
-      <c r="V101" s="2" t="inlineStr"/>
-      <c r="W101" s="2" t="inlineStr"/>
+      <c r="R101" s="2" t="n"/>
+      <c r="S101" s="2" t="n"/>
+      <c r="T101" s="2" t="n"/>
+      <c r="U101" s="2" t="n"/>
+      <c r="V101" s="2" t="n"/>
+      <c r="W101" s="2" t="n"/>
       <c r="X101" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y101" s="2" t="inlineStr"/>
-      <c r="Z101" s="2" t="inlineStr"/>
+      <c r="Y101" s="2" t="n"/>
+      <c r="Z101" s="2" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
@@ -6158,19 +6130,19 @@
           <t xml:space="preserve">social professional </t>
         </is>
       </c>
-      <c r="D102" s="2" t="inlineStr"/>
-      <c r="E102" s="2" t="inlineStr"/>
-      <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr"/>
-      <c r="H102" s="2" t="inlineStr"/>
-      <c r="I102" s="2" t="inlineStr"/>
-      <c r="J102" s="2" t="inlineStr"/>
-      <c r="K102" s="2" t="inlineStr"/>
-      <c r="L102" s="2" t="inlineStr"/>
-      <c r="M102" s="2" t="inlineStr"/>
-      <c r="N102" s="2" t="inlineStr"/>
-      <c r="O102" s="2" t="inlineStr"/>
-      <c r="P102" s="2" t="inlineStr"/>
+      <c r="D102" s="2" t="n"/>
+      <c r="E102" s="2" t="n"/>
+      <c r="F102" s="2" t="n"/>
+      <c r="G102" s="2" t="n"/>
+      <c r="H102" s="2" t="n"/>
+      <c r="I102" s="2" t="n"/>
+      <c r="J102" s="2" t="n"/>
+      <c r="K102" s="2" t="n"/>
+      <c r="L102" s="2" t="n"/>
+      <c r="M102" s="2" t="n"/>
+      <c r="N102" s="2" t="n"/>
+      <c r="O102" s="2" t="n"/>
+      <c r="P102" s="2" t="n"/>
       <c r="Q102" s="2" t="inlineStr">
         <is>
           <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
@@ -6191,16 +6163,16 @@
           <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
-      <c r="U102" s="2" t="inlineStr"/>
-      <c r="V102" s="2" t="inlineStr"/>
-      <c r="W102" s="2" t="inlineStr"/>
+      <c r="U102" s="2" t="n"/>
+      <c r="V102" s="2" t="n"/>
+      <c r="W102" s="2" t="n"/>
       <c r="X102" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y102" s="2" t="inlineStr"/>
-      <c r="Z102" s="2" t="inlineStr"/>
+      <c r="Y102" s="2" t="n"/>
+      <c r="Z102" s="2" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
@@ -6218,37 +6190,37 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D103" s="2" t="inlineStr"/>
-      <c r="E103" s="2" t="inlineStr"/>
-      <c r="F103" s="2" t="inlineStr"/>
-      <c r="G103" s="2" t="inlineStr"/>
-      <c r="H103" s="2" t="inlineStr"/>
-      <c r="I103" s="2" t="inlineStr"/>
-      <c r="J103" s="2" t="inlineStr"/>
-      <c r="K103" s="2" t="inlineStr"/>
-      <c r="L103" s="2" t="inlineStr"/>
-      <c r="M103" s="2" t="inlineStr"/>
-      <c r="N103" s="2" t="inlineStr"/>
-      <c r="O103" s="2" t="inlineStr"/>
-      <c r="P103" s="2" t="inlineStr"/>
+      <c r="D103" s="2" t="n"/>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+      <c r="H103" s="2" t="n"/>
+      <c r="I103" s="2" t="n"/>
+      <c r="J103" s="2" t="n"/>
+      <c r="K103" s="2" t="n"/>
+      <c r="L103" s="2" t="n"/>
+      <c r="M103" s="2" t="n"/>
+      <c r="N103" s="2" t="n"/>
+      <c r="O103" s="2" t="n"/>
+      <c r="P103" s="2" t="n"/>
       <c r="Q103" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
         </is>
       </c>
-      <c r="R103" s="2" t="inlineStr"/>
-      <c r="S103" s="2" t="inlineStr"/>
-      <c r="T103" s="2" t="inlineStr"/>
-      <c r="U103" s="2" t="inlineStr"/>
-      <c r="V103" s="2" t="inlineStr"/>
-      <c r="W103" s="2" t="inlineStr"/>
+      <c r="R103" s="2" t="n"/>
+      <c r="S103" s="2" t="n"/>
+      <c r="T103" s="2" t="n"/>
+      <c r="U103" s="2" t="n"/>
+      <c r="V103" s="2" t="n"/>
+      <c r="W103" s="2" t="n"/>
       <c r="X103" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y103" s="2" t="inlineStr"/>
-      <c r="Z103" s="2" t="inlineStr"/>
+      <c r="Y103" s="2" t="n"/>
+      <c r="Z103" s="2" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
@@ -6266,19 +6238,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D104" s="2" t="inlineStr"/>
-      <c r="E104" s="2" t="inlineStr"/>
-      <c r="F104" s="2" t="inlineStr"/>
-      <c r="G104" s="2" t="inlineStr"/>
-      <c r="H104" s="2" t="inlineStr"/>
-      <c r="I104" s="2" t="inlineStr"/>
-      <c r="J104" s="2" t="inlineStr"/>
-      <c r="K104" s="2" t="inlineStr"/>
-      <c r="L104" s="2" t="inlineStr"/>
-      <c r="M104" s="2" t="inlineStr"/>
-      <c r="N104" s="2" t="inlineStr"/>
-      <c r="O104" s="2" t="inlineStr"/>
-      <c r="P104" s="2" t="inlineStr"/>
+      <c r="D104" s="2" t="n"/>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+      <c r="H104" s="2" t="n"/>
+      <c r="I104" s="2" t="n"/>
+      <c r="J104" s="2" t="n"/>
+      <c r="K104" s="2" t="n"/>
+      <c r="L104" s="2" t="n"/>
+      <c r="M104" s="2" t="n"/>
+      <c r="N104" s="2" t="n"/>
+      <c r="O104" s="2" t="n"/>
+      <c r="P104" s="2" t="n"/>
       <c r="Q104" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
@@ -6299,16 +6271,16 @@
           <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
-      <c r="U104" s="2" t="inlineStr"/>
-      <c r="V104" s="2" t="inlineStr"/>
-      <c r="W104" s="2" t="inlineStr"/>
+      <c r="U104" s="2" t="n"/>
+      <c r="V104" s="2" t="n"/>
+      <c r="W104" s="2" t="n"/>
       <c r="X104" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y104" s="2" t="inlineStr"/>
-      <c r="Z104" s="2" t="inlineStr"/>
+      <c r="Y104" s="2" t="n"/>
+      <c r="Z104" s="2" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
@@ -6326,41 +6298,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D105" s="2" t="inlineStr"/>
-      <c r="E105" s="2" t="inlineStr"/>
-      <c r="F105" s="2" t="inlineStr"/>
-      <c r="G105" s="2" t="inlineStr"/>
-      <c r="H105" s="2" t="inlineStr"/>
-      <c r="I105" s="2" t="inlineStr"/>
-      <c r="J105" s="2" t="inlineStr"/>
-      <c r="K105" s="2" t="inlineStr"/>
-      <c r="L105" s="2" t="inlineStr"/>
-      <c r="M105" s="2" t="inlineStr"/>
-      <c r="N105" s="2" t="inlineStr"/>
-      <c r="O105" s="2" t="inlineStr"/>
-      <c r="P105" s="2" t="inlineStr"/>
+      <c r="D105" s="2" t="n"/>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+      <c r="H105" s="2" t="n"/>
+      <c r="I105" s="2" t="n"/>
+      <c r="J105" s="2" t="n"/>
+      <c r="K105" s="2" t="n"/>
+      <c r="L105" s="2" t="n"/>
+      <c r="M105" s="2" t="n"/>
+      <c r="N105" s="2" t="n"/>
+      <c r="O105" s="2" t="n"/>
+      <c r="P105" s="2" t="n"/>
       <c r="Q105" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion. </t>
         </is>
       </c>
-      <c r="R105" s="2" t="inlineStr"/>
-      <c r="S105" s="2" t="inlineStr"/>
+      <c r="R105" s="2" t="n"/>
+      <c r="S105" s="2" t="n"/>
       <c r="T105" s="2" t="inlineStr">
         <is>
           <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
-      <c r="U105" s="2" t="inlineStr"/>
-      <c r="V105" s="2" t="inlineStr"/>
-      <c r="W105" s="2" t="inlineStr"/>
+      <c r="U105" s="2" t="n"/>
+      <c r="V105" s="2" t="n"/>
+      <c r="W105" s="2" t="n"/>
       <c r="X105" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y105" s="2" t="inlineStr"/>
-      <c r="Z105" s="2" t="inlineStr"/>
+      <c r="Y105" s="2" t="n"/>
+      <c r="Z105" s="2" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
@@ -6378,19 +6350,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D106" s="2" t="inlineStr"/>
-      <c r="E106" s="2" t="inlineStr"/>
-      <c r="F106" s="2" t="inlineStr"/>
-      <c r="G106" s="2" t="inlineStr"/>
-      <c r="H106" s="2" t="inlineStr"/>
-      <c r="I106" s="2" t="inlineStr"/>
-      <c r="J106" s="2" t="inlineStr"/>
-      <c r="K106" s="2" t="inlineStr"/>
-      <c r="L106" s="2" t="inlineStr"/>
-      <c r="M106" s="2" t="inlineStr"/>
-      <c r="N106" s="2" t="inlineStr"/>
-      <c r="O106" s="2" t="inlineStr"/>
-      <c r="P106" s="2" t="inlineStr"/>
+      <c r="D106" s="2" t="n"/>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+      <c r="H106" s="2" t="n"/>
+      <c r="I106" s="2" t="n"/>
+      <c r="J106" s="2" t="n"/>
+      <c r="K106" s="2" t="n"/>
+      <c r="L106" s="2" t="n"/>
+      <c r="M106" s="2" t="n"/>
+      <c r="N106" s="2" t="n"/>
+      <c r="O106" s="2" t="n"/>
+      <c r="P106" s="2" t="n"/>
       <c r="Q106" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
@@ -6411,16 +6383,16 @@
           <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
-      <c r="U106" s="2" t="inlineStr"/>
-      <c r="V106" s="2" t="inlineStr"/>
-      <c r="W106" s="2" t="inlineStr"/>
+      <c r="U106" s="2" t="n"/>
+      <c r="V106" s="2" t="n"/>
+      <c r="W106" s="2" t="n"/>
       <c r="X106" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y106" s="2" t="inlineStr"/>
-      <c r="Z106" s="2" t="inlineStr"/>
+      <c r="Y106" s="2" t="n"/>
+      <c r="Z106" s="2" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
@@ -6438,41 +6410,41 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D107" s="2" t="inlineStr"/>
-      <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr"/>
-      <c r="H107" s="2" t="inlineStr"/>
-      <c r="I107" s="2" t="inlineStr"/>
-      <c r="J107" s="2" t="inlineStr"/>
-      <c r="K107" s="2" t="inlineStr"/>
-      <c r="L107" s="2" t="inlineStr"/>
-      <c r="M107" s="2" t="inlineStr"/>
-      <c r="N107" s="2" t="inlineStr"/>
-      <c r="O107" s="2" t="inlineStr"/>
-      <c r="P107" s="2" t="inlineStr"/>
+      <c r="D107" s="2" t="n"/>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+      <c r="H107" s="2" t="n"/>
+      <c r="I107" s="2" t="n"/>
+      <c r="J107" s="2" t="n"/>
+      <c r="K107" s="2" t="n"/>
+      <c r="L107" s="2" t="n"/>
+      <c r="M107" s="2" t="n"/>
+      <c r="N107" s="2" t="n"/>
+      <c r="O107" s="2" t="n"/>
+      <c r="P107" s="2" t="n"/>
       <c r="Q107" s="2" t="inlineStr">
         <is>
           <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
-      <c r="R107" s="2" t="inlineStr"/>
-      <c r="S107" s="2" t="inlineStr"/>
+      <c r="R107" s="2" t="n"/>
+      <c r="S107" s="2" t="n"/>
       <c r="T107" s="2" t="inlineStr">
         <is>
           <t>researcher, research assistant, investigator</t>
         </is>
       </c>
-      <c r="U107" s="2" t="inlineStr"/>
-      <c r="V107" s="2" t="inlineStr"/>
-      <c r="W107" s="2" t="inlineStr"/>
+      <c r="U107" s="2" t="n"/>
+      <c r="V107" s="2" t="n"/>
+      <c r="W107" s="2" t="n"/>
       <c r="X107" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y107" s="2" t="inlineStr"/>
-      <c r="Z107" s="2" t="inlineStr"/>
+      <c r="Y107" s="2" t="n"/>
+      <c r="Z107" s="2" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
@@ -6490,19 +6462,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D108" s="2" t="inlineStr"/>
-      <c r="E108" s="2" t="inlineStr"/>
-      <c r="F108" s="2" t="inlineStr"/>
-      <c r="G108" s="2" t="inlineStr"/>
-      <c r="H108" s="2" t="inlineStr"/>
-      <c r="I108" s="2" t="inlineStr"/>
-      <c r="J108" s="2" t="inlineStr"/>
-      <c r="K108" s="2" t="inlineStr"/>
-      <c r="L108" s="2" t="inlineStr"/>
-      <c r="M108" s="2" t="inlineStr"/>
-      <c r="N108" s="2" t="inlineStr"/>
-      <c r="O108" s="2" t="inlineStr"/>
-      <c r="P108" s="2" t="inlineStr"/>
+      <c r="D108" s="2" t="n"/>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+      <c r="H108" s="2" t="n"/>
+      <c r="I108" s="2" t="n"/>
+      <c r="J108" s="2" t="n"/>
+      <c r="K108" s="2" t="n"/>
+      <c r="L108" s="2" t="n"/>
+      <c r="M108" s="2" t="n"/>
+      <c r="N108" s="2" t="n"/>
+      <c r="O108" s="2" t="n"/>
+      <c r="P108" s="2" t="n"/>
       <c r="Q108" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets. </t>
@@ -6523,16 +6495,16 @@
           <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
-      <c r="U108" s="2" t="inlineStr"/>
-      <c r="V108" s="2" t="inlineStr"/>
-      <c r="W108" s="2" t="inlineStr"/>
+      <c r="U108" s="2" t="n"/>
+      <c r="V108" s="2" t="n"/>
+      <c r="W108" s="2" t="n"/>
       <c r="X108" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y108" s="2" t="inlineStr"/>
-      <c r="Z108" s="2" t="inlineStr"/>
+      <c r="Y108" s="2" t="n"/>
+      <c r="Z108" s="2" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
@@ -6550,37 +6522,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D109" s="2" t="inlineStr"/>
-      <c r="E109" s="2" t="inlineStr"/>
-      <c r="F109" s="2" t="inlineStr"/>
-      <c r="G109" s="2" t="inlineStr"/>
-      <c r="H109" s="2" t="inlineStr"/>
-      <c r="I109" s="2" t="inlineStr"/>
-      <c r="J109" s="2" t="inlineStr"/>
-      <c r="K109" s="2" t="inlineStr"/>
-      <c r="L109" s="2" t="inlineStr"/>
-      <c r="M109" s="2" t="inlineStr"/>
-      <c r="N109" s="2" t="inlineStr"/>
-      <c r="O109" s="2" t="inlineStr"/>
-      <c r="P109" s="2" t="inlineStr"/>
+      <c r="D109" s="2" t="n"/>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+      <c r="H109" s="2" t="n"/>
+      <c r="I109" s="2" t="n"/>
+      <c r="J109" s="2" t="n"/>
+      <c r="K109" s="2" t="n"/>
+      <c r="L109" s="2" t="n"/>
+      <c r="M109" s="2" t="n"/>
+      <c r="N109" s="2" t="n"/>
+      <c r="O109" s="2" t="n"/>
+      <c r="P109" s="2" t="n"/>
       <c r="Q109" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
-      <c r="R109" s="2" t="inlineStr"/>
-      <c r="S109" s="2" t="inlineStr"/>
-      <c r="T109" s="2" t="inlineStr"/>
-      <c r="U109" s="2" t="inlineStr"/>
-      <c r="V109" s="2" t="inlineStr"/>
-      <c r="W109" s="2" t="inlineStr"/>
+      <c r="R109" s="2" t="n"/>
+      <c r="S109" s="2" t="n"/>
+      <c r="T109" s="2" t="n"/>
+      <c r="U109" s="2" t="n"/>
+      <c r="V109" s="2" t="n"/>
+      <c r="W109" s="2" t="n"/>
       <c r="X109" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y109" s="2" t="inlineStr"/>
-      <c r="Z109" s="2" t="inlineStr"/>
+      <c r="Y109" s="2" t="n"/>
+      <c r="Z109" s="2" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
@@ -6598,19 +6570,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D110" s="2" t="inlineStr"/>
-      <c r="E110" s="2" t="inlineStr"/>
-      <c r="F110" s="2" t="inlineStr"/>
-      <c r="G110" s="2" t="inlineStr"/>
-      <c r="H110" s="2" t="inlineStr"/>
-      <c r="I110" s="2" t="inlineStr"/>
-      <c r="J110" s="2" t="inlineStr"/>
-      <c r="K110" s="2" t="inlineStr"/>
-      <c r="L110" s="2" t="inlineStr"/>
-      <c r="M110" s="2" t="inlineStr"/>
-      <c r="N110" s="2" t="inlineStr"/>
-      <c r="O110" s="2" t="inlineStr"/>
-      <c r="P110" s="2" t="inlineStr"/>
+      <c r="D110" s="2" t="n"/>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+      <c r="H110" s="2" t="n"/>
+      <c r="I110" s="2" t="n"/>
+      <c r="J110" s="2" t="n"/>
+      <c r="K110" s="2" t="n"/>
+      <c r="L110" s="2" t="n"/>
+      <c r="M110" s="2" t="n"/>
+      <c r="N110" s="2" t="n"/>
+      <c r="O110" s="2" t="n"/>
+      <c r="P110" s="2" t="n"/>
       <c r="Q110" s="2" t="inlineStr">
         <is>
           <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
@@ -6631,16 +6603,16 @@
           <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
-      <c r="U110" s="2" t="inlineStr"/>
-      <c r="V110" s="2" t="inlineStr"/>
-      <c r="W110" s="2" t="inlineStr"/>
+      <c r="U110" s="2" t="n"/>
+      <c r="V110" s="2" t="n"/>
+      <c r="W110" s="2" t="n"/>
       <c r="X110" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y110" s="2" t="inlineStr"/>
-      <c r="Z110" s="2" t="inlineStr"/>
+      <c r="Y110" s="2" t="n"/>
+      <c r="Z110" s="2" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
@@ -6658,19 +6630,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D111" s="2" t="inlineStr"/>
-      <c r="E111" s="2" t="inlineStr"/>
-      <c r="F111" s="2" t="inlineStr"/>
-      <c r="G111" s="2" t="inlineStr"/>
-      <c r="H111" s="2" t="inlineStr"/>
-      <c r="I111" s="2" t="inlineStr"/>
-      <c r="J111" s="2" t="inlineStr"/>
-      <c r="K111" s="2" t="inlineStr"/>
-      <c r="L111" s="2" t="inlineStr"/>
-      <c r="M111" s="2" t="inlineStr"/>
-      <c r="N111" s="2" t="inlineStr"/>
-      <c r="O111" s="2" t="inlineStr"/>
-      <c r="P111" s="2" t="inlineStr"/>
+      <c r="D111" s="2" t="n"/>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+      <c r="H111" s="2" t="n"/>
+      <c r="I111" s="2" t="n"/>
+      <c r="J111" s="2" t="n"/>
+      <c r="K111" s="2" t="n"/>
+      <c r="L111" s="2" t="n"/>
+      <c r="M111" s="2" t="n"/>
+      <c r="N111" s="2" t="n"/>
+      <c r="O111" s="2" t="n"/>
+      <c r="P111" s="2" t="n"/>
       <c r="Q111" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
@@ -6691,16 +6663,16 @@
           <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
-      <c r="U111" s="2" t="inlineStr"/>
-      <c r="V111" s="2" t="inlineStr"/>
-      <c r="W111" s="2" t="inlineStr"/>
+      <c r="U111" s="2" t="n"/>
+      <c r="V111" s="2" t="n"/>
+      <c r="W111" s="2" t="n"/>
       <c r="X111" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y111" s="2" t="inlineStr"/>
-      <c r="Z111" s="2" t="inlineStr"/>
+      <c r="Y111" s="2" t="n"/>
+      <c r="Z111" s="2" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
@@ -6718,19 +6690,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D112" s="2" t="inlineStr"/>
-      <c r="E112" s="2" t="inlineStr"/>
-      <c r="F112" s="2" t="inlineStr"/>
-      <c r="G112" s="2" t="inlineStr"/>
-      <c r="H112" s="2" t="inlineStr"/>
-      <c r="I112" s="2" t="inlineStr"/>
-      <c r="J112" s="2" t="inlineStr"/>
-      <c r="K112" s="2" t="inlineStr"/>
-      <c r="L112" s="2" t="inlineStr"/>
-      <c r="M112" s="2" t="inlineStr"/>
-      <c r="N112" s="2" t="inlineStr"/>
-      <c r="O112" s="2" t="inlineStr"/>
-      <c r="P112" s="2" t="inlineStr"/>
+      <c r="D112" s="2" t="n"/>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+      <c r="H112" s="2" t="n"/>
+      <c r="I112" s="2" t="n"/>
+      <c r="J112" s="2" t="n"/>
+      <c r="K112" s="2" t="n"/>
+      <c r="L112" s="2" t="n"/>
+      <c r="M112" s="2" t="n"/>
+      <c r="N112" s="2" t="n"/>
+      <c r="O112" s="2" t="n"/>
+      <c r="P112" s="2" t="n"/>
       <c r="Q112" s="2" t="inlineStr">
         <is>
           <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
@@ -6746,17 +6718,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T112" s="2" t="inlineStr"/>
-      <c r="U112" s="2" t="inlineStr"/>
-      <c r="V112" s="2" t="inlineStr"/>
-      <c r="W112" s="2" t="inlineStr"/>
+      <c r="T112" s="2" t="n"/>
+      <c r="U112" s="2" t="n"/>
+      <c r="V112" s="2" t="n"/>
+      <c r="W112" s="2" t="n"/>
       <c r="X112" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y112" s="2" t="inlineStr"/>
-      <c r="Z112" s="2" t="inlineStr"/>
+      <c r="Y112" s="2" t="n"/>
+      <c r="Z112" s="2" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
@@ -6774,41 +6746,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D113" s="2" t="inlineStr"/>
-      <c r="E113" s="2" t="inlineStr"/>
-      <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr"/>
-      <c r="H113" s="2" t="inlineStr"/>
-      <c r="I113" s="2" t="inlineStr"/>
-      <c r="J113" s="2" t="inlineStr"/>
-      <c r="K113" s="2" t="inlineStr"/>
-      <c r="L113" s="2" t="inlineStr"/>
-      <c r="M113" s="2" t="inlineStr"/>
-      <c r="N113" s="2" t="inlineStr"/>
-      <c r="O113" s="2" t="inlineStr"/>
-      <c r="P113" s="2" t="inlineStr"/>
+      <c r="D113" s="2" t="n"/>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+      <c r="H113" s="2" t="n"/>
+      <c r="I113" s="2" t="n"/>
+      <c r="J113" s="2" t="n"/>
+      <c r="K113" s="2" t="n"/>
+      <c r="L113" s="2" t="n"/>
+      <c r="M113" s="2" t="n"/>
+      <c r="N113" s="2" t="n"/>
+      <c r="O113" s="2" t="n"/>
+      <c r="P113" s="2" t="n"/>
       <c r="Q113" s="2" t="inlineStr">
         <is>
           <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
-      <c r="R113" s="2" t="inlineStr"/>
-      <c r="S113" s="2" t="inlineStr"/>
+      <c r="R113" s="2" t="n"/>
+      <c r="S113" s="2" t="n"/>
       <c r="T113" s="2" t="inlineStr">
         <is>
           <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
-      <c r="U113" s="2" t="inlineStr"/>
-      <c r="V113" s="2" t="inlineStr"/>
-      <c r="W113" s="2" t="inlineStr"/>
+      <c r="U113" s="2" t="n"/>
+      <c r="V113" s="2" t="n"/>
+      <c r="W113" s="2" t="n"/>
       <c r="X113" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y113" s="2" t="inlineStr"/>
-      <c r="Z113" s="2" t="inlineStr"/>
+      <c r="Y113" s="2" t="n"/>
+      <c r="Z113" s="2" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
@@ -6826,19 +6798,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D114" s="2" t="inlineStr"/>
-      <c r="E114" s="2" t="inlineStr"/>
-      <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="2" t="inlineStr"/>
-      <c r="H114" s="2" t="inlineStr"/>
-      <c r="I114" s="2" t="inlineStr"/>
-      <c r="J114" s="2" t="inlineStr"/>
-      <c r="K114" s="2" t="inlineStr"/>
-      <c r="L114" s="2" t="inlineStr"/>
-      <c r="M114" s="2" t="inlineStr"/>
-      <c r="N114" s="2" t="inlineStr"/>
-      <c r="O114" s="2" t="inlineStr"/>
-      <c r="P114" s="2" t="inlineStr"/>
+      <c r="D114" s="2" t="n"/>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+      <c r="H114" s="2" t="n"/>
+      <c r="I114" s="2" t="n"/>
+      <c r="J114" s="2" t="n"/>
+      <c r="K114" s="2" t="n"/>
+      <c r="L114" s="2" t="n"/>
+      <c r="M114" s="2" t="n"/>
+      <c r="N114" s="2" t="n"/>
+      <c r="O114" s="2" t="n"/>
+      <c r="P114" s="2" t="n"/>
       <c r="Q114" s="2" t="inlineStr">
         <is>
           <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
@@ -6859,16 +6831,16 @@
           <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
-      <c r="U114" s="2" t="inlineStr"/>
-      <c r="V114" s="2" t="inlineStr"/>
-      <c r="W114" s="2" t="inlineStr"/>
+      <c r="U114" s="2" t="n"/>
+      <c r="V114" s="2" t="n"/>
+      <c r="W114" s="2" t="n"/>
       <c r="X114" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y114" s="2" t="inlineStr"/>
-      <c r="Z114" s="2" t="inlineStr"/>
+      <c r="Y114" s="2" t="n"/>
+      <c r="Z114" s="2" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
@@ -6886,19 +6858,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D115" s="2" t="inlineStr"/>
-      <c r="E115" s="2" t="inlineStr"/>
-      <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr"/>
-      <c r="H115" s="2" t="inlineStr"/>
-      <c r="I115" s="2" t="inlineStr"/>
-      <c r="J115" s="2" t="inlineStr"/>
-      <c r="K115" s="2" t="inlineStr"/>
-      <c r="L115" s="2" t="inlineStr"/>
-      <c r="M115" s="2" t="inlineStr"/>
-      <c r="N115" s="2" t="inlineStr"/>
-      <c r="O115" s="2" t="inlineStr"/>
-      <c r="P115" s="2" t="inlineStr"/>
+      <c r="D115" s="2" t="n"/>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+      <c r="H115" s="2" t="n"/>
+      <c r="I115" s="2" t="n"/>
+      <c r="J115" s="2" t="n"/>
+      <c r="K115" s="2" t="n"/>
+      <c r="L115" s="2" t="n"/>
+      <c r="M115" s="2" t="n"/>
+      <c r="N115" s="2" t="n"/>
+      <c r="O115" s="2" t="n"/>
+      <c r="P115" s="2" t="n"/>
       <c r="Q115" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
@@ -6919,16 +6891,16 @@
           <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
-      <c r="U115" s="2" t="inlineStr"/>
-      <c r="V115" s="2" t="inlineStr"/>
-      <c r="W115" s="2" t="inlineStr"/>
+      <c r="U115" s="2" t="n"/>
+      <c r="V115" s="2" t="n"/>
+      <c r="W115" s="2" t="n"/>
       <c r="X115" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y115" s="2" t="inlineStr"/>
-      <c r="Z115" s="2" t="inlineStr"/>
+      <c r="Y115" s="2" t="n"/>
+      <c r="Z115" s="2" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
@@ -6946,19 +6918,19 @@
           <t xml:space="preserve">social professional </t>
         </is>
       </c>
-      <c r="D116" s="2" t="inlineStr"/>
-      <c r="E116" s="2" t="inlineStr"/>
-      <c r="F116" s="2" t="inlineStr"/>
-      <c r="G116" s="2" t="inlineStr"/>
-      <c r="H116" s="2" t="inlineStr"/>
-      <c r="I116" s="2" t="inlineStr"/>
-      <c r="J116" s="2" t="inlineStr"/>
-      <c r="K116" s="2" t="inlineStr"/>
-      <c r="L116" s="2" t="inlineStr"/>
-      <c r="M116" s="2" t="inlineStr"/>
-      <c r="N116" s="2" t="inlineStr"/>
-      <c r="O116" s="2" t="inlineStr"/>
-      <c r="P116" s="2" t="inlineStr"/>
+      <c r="D116" s="2" t="n"/>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+      <c r="H116" s="2" t="n"/>
+      <c r="I116" s="2" t="n"/>
+      <c r="J116" s="2" t="n"/>
+      <c r="K116" s="2" t="n"/>
+      <c r="L116" s="2" t="n"/>
+      <c r="M116" s="2" t="n"/>
+      <c r="N116" s="2" t="n"/>
+      <c r="O116" s="2" t="n"/>
+      <c r="P116" s="2" t="n"/>
       <c r="Q116" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems. </t>
@@ -6979,16 +6951,16 @@
           <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
-      <c r="U116" s="2" t="inlineStr"/>
-      <c r="V116" s="2" t="inlineStr"/>
-      <c r="W116" s="2" t="inlineStr"/>
+      <c r="U116" s="2" t="n"/>
+      <c r="V116" s="2" t="n"/>
+      <c r="W116" s="2" t="n"/>
       <c r="X116" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y116" s="2" t="inlineStr"/>
-      <c r="Z116" s="2" t="inlineStr"/>
+      <c r="Y116" s="2" t="n"/>
+      <c r="Z116" s="2" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
@@ -7006,19 +6978,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D117" s="2" t="inlineStr"/>
-      <c r="E117" s="2" t="inlineStr"/>
-      <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr"/>
-      <c r="H117" s="2" t="inlineStr"/>
-      <c r="I117" s="2" t="inlineStr"/>
-      <c r="J117" s="2" t="inlineStr"/>
-      <c r="K117" s="2" t="inlineStr"/>
-      <c r="L117" s="2" t="inlineStr"/>
-      <c r="M117" s="2" t="inlineStr"/>
-      <c r="N117" s="2" t="inlineStr"/>
-      <c r="O117" s="2" t="inlineStr"/>
-      <c r="P117" s="2" t="inlineStr"/>
+      <c r="D117" s="2" t="n"/>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+      <c r="H117" s="2" t="n"/>
+      <c r="I117" s="2" t="n"/>
+      <c r="J117" s="2" t="n"/>
+      <c r="K117" s="2" t="n"/>
+      <c r="L117" s="2" t="n"/>
+      <c r="M117" s="2" t="n"/>
+      <c r="N117" s="2" t="n"/>
+      <c r="O117" s="2" t="n"/>
+      <c r="P117" s="2" t="n"/>
       <c r="Q117" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
@@ -7039,16 +7011,16 @@
           <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
-      <c r="U117" s="2" t="inlineStr"/>
-      <c r="V117" s="2" t="inlineStr"/>
-      <c r="W117" s="2" t="inlineStr"/>
+      <c r="U117" s="2" t="n"/>
+      <c r="V117" s="2" t="n"/>
+      <c r="W117" s="2" t="n"/>
       <c r="X117" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y117" s="2" t="inlineStr"/>
-      <c r="Z117" s="2" t="inlineStr"/>
+      <c r="Y117" s="2" t="n"/>
+      <c r="Z117" s="2" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
@@ -7066,18 +7038,18 @@
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D118" s="2" t="inlineStr"/>
-      <c r="E118" s="2" t="inlineStr"/>
-      <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr"/>
-      <c r="H118" s="2" t="inlineStr"/>
-      <c r="I118" s="2" t="inlineStr"/>
-      <c r="J118" s="2" t="inlineStr"/>
-      <c r="K118" s="2" t="inlineStr"/>
-      <c r="L118" s="2" t="inlineStr"/>
-      <c r="M118" s="2" t="inlineStr"/>
-      <c r="N118" s="2" t="inlineStr"/>
-      <c r="O118" s="2" t="inlineStr"/>
+      <c r="D118" s="2" t="n"/>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+      <c r="H118" s="2" t="n"/>
+      <c r="I118" s="2" t="n"/>
+      <c r="J118" s="2" t="n"/>
+      <c r="K118" s="2" t="n"/>
+      <c r="L118" s="2" t="n"/>
+      <c r="M118" s="2" t="n"/>
+      <c r="N118" s="2" t="n"/>
+      <c r="O118" s="2" t="n"/>
       <c r="P118" s="2" t="inlineStr">
         <is>
           <t>person source</t>
@@ -7088,19 +7060,19 @@
           <t xml:space="preserve">A social or demographic characteristic of a human being who is the bearer of a person source role. </t>
         </is>
       </c>
-      <c r="R118" s="2" t="inlineStr"/>
-      <c r="S118" s="2" t="inlineStr"/>
-      <c r="T118" s="2" t="inlineStr"/>
-      <c r="U118" s="2" t="inlineStr"/>
-      <c r="V118" s="2" t="inlineStr"/>
-      <c r="W118" s="2" t="inlineStr"/>
+      <c r="R118" s="2" t="n"/>
+      <c r="S118" s="2" t="n"/>
+      <c r="T118" s="2" t="n"/>
+      <c r="U118" s="2" t="n"/>
+      <c r="V118" s="2" t="n"/>
+      <c r="W118" s="2" t="n"/>
       <c r="X118" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y118" s="2" t="inlineStr"/>
-      <c r="Z118" s="2" t="inlineStr"/>
+      <c r="Y118" s="2" t="n"/>
+      <c r="Z118" s="2" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
@@ -7118,37 +7090,37 @@
           <t>source involved in development of intervention</t>
         </is>
       </c>
-      <c r="D119" s="2" t="inlineStr"/>
-      <c r="E119" s="2" t="inlineStr"/>
-      <c r="F119" s="2" t="inlineStr"/>
-      <c r="G119" s="2" t="inlineStr"/>
-      <c r="H119" s="2" t="inlineStr"/>
-      <c r="I119" s="2" t="inlineStr"/>
-      <c r="J119" s="2" t="inlineStr"/>
-      <c r="K119" s="2" t="inlineStr"/>
-      <c r="L119" s="2" t="inlineStr"/>
-      <c r="M119" s="2" t="inlineStr"/>
-      <c r="N119" s="2" t="inlineStr"/>
-      <c r="O119" s="2" t="inlineStr"/>
-      <c r="P119" s="2" t="inlineStr"/>
+      <c r="D119" s="2" t="n"/>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+      <c r="H119" s="2" t="n"/>
+      <c r="I119" s="2" t="n"/>
+      <c r="J119" s="2" t="n"/>
+      <c r="K119" s="2" t="n"/>
+      <c r="L119" s="2" t="n"/>
+      <c r="M119" s="2" t="n"/>
+      <c r="N119" s="2" t="n"/>
+      <c r="O119" s="2" t="n"/>
+      <c r="P119" s="2" t="n"/>
       <c r="Q119" s="2" t="inlineStr">
         <is>
           <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
-      <c r="R119" s="2" t="inlineStr"/>
-      <c r="S119" s="2" t="inlineStr"/>
-      <c r="T119" s="2" t="inlineStr"/>
-      <c r="U119" s="2" t="inlineStr"/>
-      <c r="V119" s="2" t="inlineStr"/>
-      <c r="W119" s="2" t="inlineStr"/>
+      <c r="R119" s="2" t="n"/>
+      <c r="S119" s="2" t="n"/>
+      <c r="T119" s="2" t="n"/>
+      <c r="U119" s="2" t="n"/>
+      <c r="V119" s="2" t="n"/>
+      <c r="W119" s="2" t="n"/>
       <c r="X119" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y119" s="2" t="inlineStr"/>
-      <c r="Z119" s="2" t="inlineStr"/>
+      <c r="Y119" s="2" t="n"/>
+      <c r="Z119" s="2" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
@@ -7166,37 +7138,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D120" s="2" t="inlineStr"/>
-      <c r="E120" s="2" t="inlineStr"/>
-      <c r="F120" s="2" t="inlineStr"/>
-      <c r="G120" s="2" t="inlineStr"/>
-      <c r="H120" s="2" t="inlineStr"/>
-      <c r="I120" s="2" t="inlineStr"/>
-      <c r="J120" s="2" t="inlineStr"/>
-      <c r="K120" s="2" t="inlineStr"/>
-      <c r="L120" s="2" t="inlineStr"/>
-      <c r="M120" s="2" t="inlineStr"/>
-      <c r="N120" s="2" t="inlineStr"/>
-      <c r="O120" s="2" t="inlineStr"/>
-      <c r="P120" s="2" t="inlineStr"/>
+      <c r="D120" s="2" t="n"/>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+      <c r="H120" s="2" t="n"/>
+      <c r="I120" s="2" t="n"/>
+      <c r="J120" s="2" t="n"/>
+      <c r="K120" s="2" t="n"/>
+      <c r="L120" s="2" t="n"/>
+      <c r="M120" s="2" t="n"/>
+      <c r="N120" s="2" t="n"/>
+      <c r="O120" s="2" t="n"/>
+      <c r="P120" s="2" t="n"/>
       <c r="Q120" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI source that is involved in the development of intervention content. </t>
         </is>
       </c>
-      <c r="R120" s="2" t="inlineStr"/>
-      <c r="S120" s="2" t="inlineStr"/>
-      <c r="T120" s="2" t="inlineStr"/>
-      <c r="U120" s="2" t="inlineStr"/>
-      <c r="V120" s="2" t="inlineStr"/>
-      <c r="W120" s="2" t="inlineStr"/>
+      <c r="R120" s="2" t="n"/>
+      <c r="S120" s="2" t="n"/>
+      <c r="T120" s="2" t="n"/>
+      <c r="U120" s="2" t="n"/>
+      <c r="V120" s="2" t="n"/>
+      <c r="W120" s="2" t="n"/>
       <c r="X120" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y120" s="2" t="inlineStr"/>
-      <c r="Z120" s="2" t="inlineStr"/>
+      <c r="Y120" s="2" t="n"/>
+      <c r="Z120" s="2" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
@@ -7214,37 +7186,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D121" s="2" t="inlineStr"/>
-      <c r="E121" s="2" t="inlineStr"/>
-      <c r="F121" s="2" t="inlineStr"/>
-      <c r="G121" s="2" t="inlineStr"/>
-      <c r="H121" s="2" t="inlineStr"/>
-      <c r="I121" s="2" t="inlineStr"/>
-      <c r="J121" s="2" t="inlineStr"/>
-      <c r="K121" s="2" t="inlineStr"/>
-      <c r="L121" s="2" t="inlineStr"/>
-      <c r="M121" s="2" t="inlineStr"/>
-      <c r="N121" s="2" t="inlineStr"/>
-      <c r="O121" s="2" t="inlineStr"/>
-      <c r="P121" s="2" t="inlineStr"/>
+      <c r="D121" s="2" t="n"/>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+      <c r="H121" s="2" t="n"/>
+      <c r="I121" s="2" t="n"/>
+      <c r="J121" s="2" t="n"/>
+      <c r="K121" s="2" t="n"/>
+      <c r="L121" s="2" t="n"/>
+      <c r="M121" s="2" t="n"/>
+      <c r="N121" s="2" t="n"/>
+      <c r="O121" s="2" t="n"/>
+      <c r="P121" s="2" t="n"/>
       <c r="Q121" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention. </t>
         </is>
       </c>
-      <c r="R121" s="2" t="inlineStr"/>
-      <c r="S121" s="2" t="inlineStr"/>
-      <c r="T121" s="2" t="inlineStr"/>
-      <c r="U121" s="2" t="inlineStr"/>
-      <c r="V121" s="2" t="inlineStr"/>
-      <c r="W121" s="2" t="inlineStr"/>
+      <c r="R121" s="2" t="n"/>
+      <c r="S121" s="2" t="n"/>
+      <c r="T121" s="2" t="n"/>
+      <c r="U121" s="2" t="n"/>
+      <c r="V121" s="2" t="n"/>
+      <c r="W121" s="2" t="n"/>
       <c r="X121" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y121" s="2" t="inlineStr"/>
-      <c r="Z121" s="2" t="inlineStr"/>
+      <c r="Y121" s="2" t="n"/>
+      <c r="Z121" s="2" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
@@ -7262,19 +7234,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D122" s="2" t="inlineStr"/>
-      <c r="E122" s="2" t="inlineStr"/>
-      <c r="F122" s="2" t="inlineStr"/>
-      <c r="G122" s="2" t="inlineStr"/>
-      <c r="H122" s="2" t="inlineStr"/>
-      <c r="I122" s="2" t="inlineStr"/>
-      <c r="J122" s="2" t="inlineStr"/>
-      <c r="K122" s="2" t="inlineStr"/>
-      <c r="L122" s="2" t="inlineStr"/>
-      <c r="M122" s="2" t="inlineStr"/>
-      <c r="N122" s="2" t="inlineStr"/>
-      <c r="O122" s="2" t="inlineStr"/>
-      <c r="P122" s="2" t="inlineStr"/>
+      <c r="D122" s="2" t="n"/>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+      <c r="H122" s="2" t="n"/>
+      <c r="I122" s="2" t="n"/>
+      <c r="J122" s="2" t="n"/>
+      <c r="K122" s="2" t="n"/>
+      <c r="L122" s="2" t="n"/>
+      <c r="M122" s="2" t="n"/>
+      <c r="N122" s="2" t="n"/>
+      <c r="O122" s="2" t="n"/>
+      <c r="P122" s="2" t="n"/>
       <c r="Q122" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A teaching professional that teaches children, young persons or adults with physical or intellectual special needs. </t>
@@ -7295,16 +7267,16 @@
           <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
-      <c r="U122" s="2" t="inlineStr"/>
-      <c r="V122" s="2" t="inlineStr"/>
-      <c r="W122" s="2" t="inlineStr"/>
+      <c r="U122" s="2" t="n"/>
+      <c r="V122" s="2" t="n"/>
+      <c r="W122" s="2" t="n"/>
       <c r="X122" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y122" s="2" t="inlineStr"/>
-      <c r="Z122" s="2" t="inlineStr"/>
+      <c r="Y122" s="2" t="n"/>
+      <c r="Z122" s="2" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
@@ -7322,19 +7294,19 @@
           <t xml:space="preserve">medical doctor </t>
         </is>
       </c>
-      <c r="D123" s="2" t="inlineStr"/>
-      <c r="E123" s="2" t="inlineStr"/>
-      <c r="F123" s="2" t="inlineStr"/>
-      <c r="G123" s="2" t="inlineStr"/>
-      <c r="H123" s="2" t="inlineStr"/>
-      <c r="I123" s="2" t="inlineStr"/>
-      <c r="J123" s="2" t="inlineStr"/>
-      <c r="K123" s="2" t="inlineStr"/>
-      <c r="L123" s="2" t="inlineStr"/>
-      <c r="M123" s="2" t="inlineStr"/>
-      <c r="N123" s="2" t="inlineStr"/>
-      <c r="O123" s="2" t="inlineStr"/>
-      <c r="P123" s="2" t="inlineStr"/>
+      <c r="D123" s="2" t="n"/>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+      <c r="H123" s="2" t="n"/>
+      <c r="I123" s="2" t="n"/>
+      <c r="J123" s="2" t="n"/>
+      <c r="K123" s="2" t="n"/>
+      <c r="L123" s="2" t="n"/>
+      <c r="M123" s="2" t="n"/>
+      <c r="N123" s="2" t="n"/>
+      <c r="O123" s="2" t="n"/>
+      <c r="P123" s="2" t="n"/>
       <c r="Q123" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization. </t>
@@ -7355,16 +7327,16 @@
           <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
-      <c r="U123" s="2" t="inlineStr"/>
-      <c r="V123" s="2" t="inlineStr"/>
-      <c r="W123" s="2" t="inlineStr"/>
+      <c r="U123" s="2" t="n"/>
+      <c r="V123" s="2" t="n"/>
+      <c r="W123" s="2" t="n"/>
       <c r="X123" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y123" s="2" t="inlineStr"/>
-      <c r="Z123" s="2" t="inlineStr"/>
+      <c r="Y123" s="2" t="n"/>
+      <c r="Z123" s="2" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
@@ -7382,19 +7354,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D124" s="2" t="inlineStr"/>
-      <c r="E124" s="2" t="inlineStr"/>
-      <c r="F124" s="2" t="inlineStr"/>
-      <c r="G124" s="2" t="inlineStr"/>
-      <c r="H124" s="2" t="inlineStr"/>
-      <c r="I124" s="2" t="inlineStr"/>
-      <c r="J124" s="2" t="inlineStr"/>
-      <c r="K124" s="2" t="inlineStr"/>
-      <c r="L124" s="2" t="inlineStr"/>
-      <c r="M124" s="2" t="inlineStr"/>
-      <c r="N124" s="2" t="inlineStr"/>
-      <c r="O124" s="2" t="inlineStr"/>
-      <c r="P124" s="2" t="inlineStr"/>
+      <c r="D124" s="2" t="n"/>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+      <c r="H124" s="2" t="n"/>
+      <c r="I124" s="2" t="n"/>
+      <c r="J124" s="2" t="n"/>
+      <c r="K124" s="2" t="n"/>
+      <c r="L124" s="2" t="n"/>
+      <c r="M124" s="2" t="n"/>
+      <c r="N124" s="2" t="n"/>
+      <c r="O124" s="2" t="n"/>
+      <c r="P124" s="2" t="n"/>
       <c r="Q124" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
@@ -7415,16 +7387,16 @@
           <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
-      <c r="U124" s="2" t="inlineStr"/>
-      <c r="V124" s="2" t="inlineStr"/>
-      <c r="W124" s="2" t="inlineStr"/>
+      <c r="U124" s="2" t="n"/>
+      <c r="V124" s="2" t="n"/>
+      <c r="W124" s="2" t="n"/>
       <c r="X124" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y124" s="2" t="inlineStr"/>
-      <c r="Z124" s="2" t="inlineStr"/>
+      <c r="Y124" s="2" t="n"/>
+      <c r="Z124" s="2" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
@@ -7442,19 +7414,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D125" s="2" t="inlineStr"/>
-      <c r="E125" s="2" t="inlineStr"/>
-      <c r="F125" s="2" t="inlineStr"/>
-      <c r="G125" s="2" t="inlineStr"/>
-      <c r="H125" s="2" t="inlineStr"/>
-      <c r="I125" s="2" t="inlineStr"/>
-      <c r="J125" s="2" t="inlineStr"/>
-      <c r="K125" s="2" t="inlineStr"/>
-      <c r="L125" s="2" t="inlineStr"/>
-      <c r="M125" s="2" t="inlineStr"/>
-      <c r="N125" s="2" t="inlineStr"/>
-      <c r="O125" s="2" t="inlineStr"/>
-      <c r="P125" s="2" t="inlineStr"/>
+      <c r="D125" s="2" t="n"/>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+      <c r="H125" s="2" t="n"/>
+      <c r="I125" s="2" t="n"/>
+      <c r="J125" s="2" t="n"/>
+      <c r="K125" s="2" t="n"/>
+      <c r="L125" s="2" t="n"/>
+      <c r="M125" s="2" t="n"/>
+      <c r="N125" s="2" t="n"/>
+      <c r="O125" s="2" t="n"/>
+      <c r="P125" s="2" t="n"/>
       <c r="Q125" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
@@ -7475,16 +7447,16 @@
           <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
-      <c r="U125" s="2" t="inlineStr"/>
-      <c r="V125" s="2" t="inlineStr"/>
-      <c r="W125" s="2" t="inlineStr"/>
+      <c r="U125" s="2" t="n"/>
+      <c r="V125" s="2" t="n"/>
+      <c r="W125" s="2" t="n"/>
       <c r="X125" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y125" s="2" t="inlineStr"/>
-      <c r="Z125" s="2" t="inlineStr"/>
+      <c r="Y125" s="2" t="n"/>
+      <c r="Z125" s="2" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
@@ -7502,41 +7474,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D126" s="2" t="inlineStr"/>
-      <c r="E126" s="2" t="inlineStr"/>
-      <c r="F126" s="2" t="inlineStr"/>
-      <c r="G126" s="2" t="inlineStr"/>
-      <c r="H126" s="2" t="inlineStr"/>
-      <c r="I126" s="2" t="inlineStr"/>
-      <c r="J126" s="2" t="inlineStr"/>
-      <c r="K126" s="2" t="inlineStr"/>
-      <c r="L126" s="2" t="inlineStr"/>
-      <c r="M126" s="2" t="inlineStr"/>
-      <c r="N126" s="2" t="inlineStr"/>
-      <c r="O126" s="2" t="inlineStr"/>
-      <c r="P126" s="2" t="inlineStr"/>
+      <c r="D126" s="2" t="n"/>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
+      <c r="H126" s="2" t="n"/>
+      <c r="I126" s="2" t="n"/>
+      <c r="J126" s="2" t="n"/>
+      <c r="K126" s="2" t="n"/>
+      <c r="L126" s="2" t="n"/>
+      <c r="M126" s="2" t="n"/>
+      <c r="N126" s="2" t="n"/>
+      <c r="O126" s="2" t="n"/>
+      <c r="P126" s="2" t="n"/>
       <c r="Q126" s="2" t="inlineStr">
         <is>
           <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
-      <c r="R126" s="2" t="inlineStr"/>
-      <c r="S126" s="2" t="inlineStr"/>
+      <c r="R126" s="2" t="n"/>
+      <c r="S126" s="2" t="n"/>
       <c r="T126" s="2" t="inlineStr">
         <is>
           <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
-      <c r="U126" s="2" t="inlineStr"/>
-      <c r="V126" s="2" t="inlineStr"/>
-      <c r="W126" s="2" t="inlineStr"/>
+      <c r="U126" s="2" t="n"/>
+      <c r="V126" s="2" t="n"/>
+      <c r="W126" s="2" t="n"/>
       <c r="X126" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y126" s="2" t="inlineStr"/>
-      <c r="Z126" s="2" t="inlineStr"/>
+      <c r="Y126" s="2" t="n"/>
+      <c r="Z126" s="2" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
@@ -7554,37 +7526,37 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D127" s="2" t="inlineStr"/>
-      <c r="E127" s="2" t="inlineStr"/>
-      <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="inlineStr"/>
-      <c r="H127" s="2" t="inlineStr"/>
-      <c r="I127" s="2" t="inlineStr"/>
-      <c r="J127" s="2" t="inlineStr"/>
-      <c r="K127" s="2" t="inlineStr"/>
-      <c r="L127" s="2" t="inlineStr"/>
-      <c r="M127" s="2" t="inlineStr"/>
-      <c r="N127" s="2" t="inlineStr"/>
-      <c r="O127" s="2" t="inlineStr"/>
-      <c r="P127" s="2" t="inlineStr"/>
+      <c r="D127" s="2" t="n"/>
+      <c r="E127" s="2" t="n"/>
+      <c r="F127" s="2" t="n"/>
+      <c r="G127" s="2" t="n"/>
+      <c r="H127" s="2" t="n"/>
+      <c r="I127" s="2" t="n"/>
+      <c r="J127" s="2" t="n"/>
+      <c r="K127" s="2" t="n"/>
+      <c r="L127" s="2" t="n"/>
+      <c r="M127" s="2" t="n"/>
+      <c r="N127" s="2" t="n"/>
+      <c r="O127" s="2" t="n"/>
+      <c r="P127" s="2" t="n"/>
       <c r="Q127" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
-      <c r="R127" s="2" t="inlineStr"/>
-      <c r="S127" s="2" t="inlineStr"/>
-      <c r="T127" s="2" t="inlineStr"/>
-      <c r="U127" s="2" t="inlineStr"/>
-      <c r="V127" s="2" t="inlineStr"/>
-      <c r="W127" s="2" t="inlineStr"/>
+      <c r="R127" s="2" t="n"/>
+      <c r="S127" s="2" t="n"/>
+      <c r="T127" s="2" t="n"/>
+      <c r="U127" s="2" t="n"/>
+      <c r="V127" s="2" t="n"/>
+      <c r="W127" s="2" t="n"/>
       <c r="X127" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y127" s="2" t="inlineStr"/>
-      <c r="Z127" s="2" t="inlineStr"/>
+      <c r="Y127" s="2" t="n"/>
+      <c r="Z127" s="2" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
@@ -7602,45 +7574,45 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D128" s="2" t="inlineStr"/>
-      <c r="E128" s="2" t="inlineStr"/>
+      <c r="D128" s="2" t="n"/>
+      <c r="E128" s="2" t="n"/>
       <c r="F128" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G128" s="2" t="inlineStr"/>
-      <c r="H128" s="2" t="inlineStr"/>
-      <c r="I128" s="2" t="inlineStr"/>
-      <c r="J128" s="2" t="inlineStr"/>
-      <c r="K128" s="2" t="inlineStr"/>
-      <c r="L128" s="2" t="inlineStr"/>
-      <c r="M128" s="2" t="inlineStr"/>
-      <c r="N128" s="2" t="inlineStr"/>
-      <c r="O128" s="2" t="inlineStr"/>
-      <c r="P128" s="2" t="inlineStr"/>
+      <c r="G128" s="2" t="n"/>
+      <c r="H128" s="2" t="n"/>
+      <c r="I128" s="2" t="n"/>
+      <c r="J128" s="2" t="n"/>
+      <c r="K128" s="2" t="n"/>
+      <c r="L128" s="2" t="n"/>
+      <c r="M128" s="2" t="n"/>
+      <c r="N128" s="2" t="n"/>
+      <c r="O128" s="2" t="n"/>
+      <c r="P128" s="2" t="n"/>
       <c r="Q128" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
-      <c r="R128" s="2" t="inlineStr"/>
-      <c r="S128" s="2" t="inlineStr"/>
+      <c r="R128" s="2" t="n"/>
+      <c r="S128" s="2" t="n"/>
       <c r="T128" s="2" t="inlineStr">
         <is>
           <t>supervised</t>
         </is>
       </c>
-      <c r="U128" s="2" t="inlineStr"/>
-      <c r="V128" s="2" t="inlineStr"/>
-      <c r="W128" s="2" t="inlineStr"/>
+      <c r="U128" s="2" t="n"/>
+      <c r="V128" s="2" t="n"/>
+      <c r="W128" s="2" t="n"/>
       <c r="X128" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y128" s="2" t="inlineStr"/>
-      <c r="Z128" s="2" t="inlineStr"/>
+      <c r="Y128" s="2" t="n"/>
+      <c r="Z128" s="2" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
@@ -7658,41 +7630,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D129" s="2" t="inlineStr"/>
-      <c r="E129" s="2" t="inlineStr"/>
-      <c r="F129" s="2" t="inlineStr"/>
-      <c r="G129" s="2" t="inlineStr"/>
-      <c r="H129" s="2" t="inlineStr"/>
-      <c r="I129" s="2" t="inlineStr"/>
-      <c r="J129" s="2" t="inlineStr"/>
-      <c r="K129" s="2" t="inlineStr"/>
-      <c r="L129" s="2" t="inlineStr"/>
-      <c r="M129" s="2" t="inlineStr"/>
-      <c r="N129" s="2" t="inlineStr"/>
-      <c r="O129" s="2" t="inlineStr"/>
-      <c r="P129" s="2" t="inlineStr"/>
+      <c r="D129" s="2" t="n"/>
+      <c r="E129" s="2" t="n"/>
+      <c r="F129" s="2" t="n"/>
+      <c r="G129" s="2" t="n"/>
+      <c r="H129" s="2" t="n"/>
+      <c r="I129" s="2" t="n"/>
+      <c r="J129" s="2" t="n"/>
+      <c r="K129" s="2" t="n"/>
+      <c r="L129" s="2" t="n"/>
+      <c r="M129" s="2" t="n"/>
+      <c r="N129" s="2" t="n"/>
+      <c r="O129" s="2" t="n"/>
+      <c r="P129" s="2" t="n"/>
       <c r="Q129" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
         </is>
       </c>
-      <c r="R129" s="2" t="inlineStr"/>
-      <c r="S129" s="2" t="inlineStr"/>
+      <c r="R129" s="2" t="n"/>
+      <c r="S129" s="2" t="n"/>
       <c r="T129" s="2" t="inlineStr">
         <is>
           <t>source is highly physically active</t>
         </is>
       </c>
-      <c r="U129" s="2" t="inlineStr"/>
-      <c r="V129" s="2" t="inlineStr"/>
-      <c r="W129" s="2" t="inlineStr"/>
+      <c r="U129" s="2" t="n"/>
+      <c r="V129" s="2" t="n"/>
+      <c r="W129" s="2" t="n"/>
       <c r="X129" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y129" s="2" t="inlineStr"/>
-      <c r="Z129" s="2" t="inlineStr"/>
+      <c r="Y129" s="2" t="n"/>
+      <c r="Z129" s="2" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
@@ -7710,19 +7682,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D130" s="2" t="inlineStr"/>
-      <c r="E130" s="2" t="inlineStr"/>
-      <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr"/>
-      <c r="H130" s="2" t="inlineStr"/>
-      <c r="I130" s="2" t="inlineStr"/>
-      <c r="J130" s="2" t="inlineStr"/>
-      <c r="K130" s="2" t="inlineStr"/>
-      <c r="L130" s="2" t="inlineStr"/>
-      <c r="M130" s="2" t="inlineStr"/>
-      <c r="N130" s="2" t="inlineStr"/>
-      <c r="O130" s="2" t="inlineStr"/>
-      <c r="P130" s="2" t="inlineStr"/>
+      <c r="D130" s="2" t="n"/>
+      <c r="E130" s="2" t="n"/>
+      <c r="F130" s="2" t="n"/>
+      <c r="G130" s="2" t="n"/>
+      <c r="H130" s="2" t="n"/>
+      <c r="I130" s="2" t="n"/>
+      <c r="J130" s="2" t="n"/>
+      <c r="K130" s="2" t="n"/>
+      <c r="L130" s="2" t="n"/>
+      <c r="M130" s="2" t="n"/>
+      <c r="N130" s="2" t="n"/>
+      <c r="O130" s="2" t="n"/>
+      <c r="P130" s="2" t="n"/>
       <c r="Q130" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
@@ -7743,16 +7715,16 @@
           <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
-      <c r="U130" s="2" t="inlineStr"/>
-      <c r="V130" s="2" t="inlineStr"/>
-      <c r="W130" s="2" t="inlineStr"/>
+      <c r="U130" s="2" t="n"/>
+      <c r="V130" s="2" t="n"/>
+      <c r="W130" s="2" t="n"/>
       <c r="X130" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y130" s="2" t="inlineStr"/>
-      <c r="Z130" s="2" t="inlineStr"/>
+      <c r="Y130" s="2" t="n"/>
+      <c r="Z130" s="2" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
@@ -7770,19 +7742,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D131" s="2" t="inlineStr"/>
-      <c r="E131" s="2" t="inlineStr"/>
-      <c r="F131" s="2" t="inlineStr"/>
-      <c r="G131" s="2" t="inlineStr"/>
-      <c r="H131" s="2" t="inlineStr"/>
-      <c r="I131" s="2" t="inlineStr"/>
-      <c r="J131" s="2" t="inlineStr"/>
-      <c r="K131" s="2" t="inlineStr"/>
-      <c r="L131" s="2" t="inlineStr"/>
-      <c r="M131" s="2" t="inlineStr"/>
-      <c r="N131" s="2" t="inlineStr"/>
-      <c r="O131" s="2" t="inlineStr"/>
-      <c r="P131" s="2" t="inlineStr"/>
+      <c r="D131" s="2" t="n"/>
+      <c r="E131" s="2" t="n"/>
+      <c r="F131" s="2" t="n"/>
+      <c r="G131" s="2" t="n"/>
+      <c r="H131" s="2" t="n"/>
+      <c r="I131" s="2" t="n"/>
+      <c r="J131" s="2" t="n"/>
+      <c r="K131" s="2" t="n"/>
+      <c r="L131" s="2" t="n"/>
+      <c r="M131" s="2" t="n"/>
+      <c r="N131" s="2" t="n"/>
+      <c r="O131" s="2" t="n"/>
+      <c r="P131" s="2" t="n"/>
       <c r="Q131" s="2" t="inlineStr">
         <is>
           <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
@@ -7803,8 +7775,8 @@
           <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
-      <c r="U131" s="2" t="inlineStr"/>
-      <c r="V131" s="2" t="inlineStr"/>
+      <c r="U131" s="2" t="n"/>
+      <c r="V131" s="2" t="n"/>
       <c r="W131" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -7815,8 +7787,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y131" s="2" t="inlineStr"/>
-      <c r="Z131" s="2" t="inlineStr"/>
+      <c r="Y131" s="2" t="n"/>
+      <c r="Z131" s="2" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
@@ -7834,19 +7806,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D132" s="2" t="inlineStr"/>
-      <c r="E132" s="2" t="inlineStr"/>
-      <c r="F132" s="2" t="inlineStr"/>
-      <c r="G132" s="2" t="inlineStr"/>
-      <c r="H132" s="2" t="inlineStr"/>
-      <c r="I132" s="2" t="inlineStr"/>
-      <c r="J132" s="2" t="inlineStr"/>
-      <c r="K132" s="2" t="inlineStr"/>
-      <c r="L132" s="2" t="inlineStr"/>
-      <c r="M132" s="2" t="inlineStr"/>
-      <c r="N132" s="2" t="inlineStr"/>
-      <c r="O132" s="2" t="inlineStr"/>
-      <c r="P132" s="2" t="inlineStr"/>
+      <c r="D132" s="2" t="n"/>
+      <c r="E132" s="2" t="n"/>
+      <c r="F132" s="2" t="n"/>
+      <c r="G132" s="2" t="n"/>
+      <c r="H132" s="2" t="n"/>
+      <c r="I132" s="2" t="n"/>
+      <c r="J132" s="2" t="n"/>
+      <c r="K132" s="2" t="n"/>
+      <c r="L132" s="2" t="n"/>
+      <c r="M132" s="2" t="n"/>
+      <c r="N132" s="2" t="n"/>
+      <c r="O132" s="2" t="n"/>
+      <c r="P132" s="2" t="n"/>
       <c r="Q132" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations. </t>
@@ -7862,17 +7834,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T132" s="2" t="inlineStr"/>
-      <c r="U132" s="2" t="inlineStr"/>
-      <c r="V132" s="2" t="inlineStr"/>
-      <c r="W132" s="2" t="inlineStr"/>
+      <c r="T132" s="2" t="n"/>
+      <c r="U132" s="2" t="n"/>
+      <c r="V132" s="2" t="n"/>
+      <c r="W132" s="2" t="n"/>
       <c r="X132" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y132" s="2" t="inlineStr"/>
-      <c r="Z132" s="2" t="inlineStr"/>
+      <c r="Y132" s="2" t="n"/>
+      <c r="Z132" s="2" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
@@ -7890,41 +7862,41 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D133" s="2" t="inlineStr"/>
-      <c r="E133" s="2" t="inlineStr"/>
-      <c r="F133" s="2" t="inlineStr"/>
-      <c r="G133" s="2" t="inlineStr"/>
-      <c r="H133" s="2" t="inlineStr"/>
-      <c r="I133" s="2" t="inlineStr"/>
-      <c r="J133" s="2" t="inlineStr"/>
-      <c r="K133" s="2" t="inlineStr"/>
-      <c r="L133" s="2" t="inlineStr"/>
-      <c r="M133" s="2" t="inlineStr"/>
-      <c r="N133" s="2" t="inlineStr"/>
+      <c r="D133" s="2" t="n"/>
+      <c r="E133" s="2" t="n"/>
+      <c r="F133" s="2" t="n"/>
+      <c r="G133" s="2" t="n"/>
+      <c r="H133" s="2" t="n"/>
+      <c r="I133" s="2" t="n"/>
+      <c r="J133" s="2" t="n"/>
+      <c r="K133" s="2" t="n"/>
+      <c r="L133" s="2" t="n"/>
+      <c r="M133" s="2" t="n"/>
+      <c r="N133" s="2" t="n"/>
       <c r="O133" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="P133" s="2" t="inlineStr"/>
+      <c r="P133" s="2" t="n"/>
       <c r="Q133" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A count data item that is the total number of providers that are available and able to deliver the intervention. </t>
         </is>
       </c>
-      <c r="R133" s="2" t="inlineStr"/>
-      <c r="S133" s="2" t="inlineStr"/>
-      <c r="T133" s="2" t="inlineStr"/>
-      <c r="U133" s="2" t="inlineStr"/>
-      <c r="V133" s="2" t="inlineStr"/>
-      <c r="W133" s="2" t="inlineStr"/>
+      <c r="R133" s="2" t="n"/>
+      <c r="S133" s="2" t="n"/>
+      <c r="T133" s="2" t="n"/>
+      <c r="U133" s="2" t="n"/>
+      <c r="V133" s="2" t="n"/>
+      <c r="W133" s="2" t="n"/>
       <c r="X133" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y133" s="2" t="inlineStr"/>
-      <c r="Z133" s="2" t="inlineStr"/>
+      <c r="Y133" s="2" t="n"/>
+      <c r="Z133" s="2" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
@@ -7942,19 +7914,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D134" s="2" t="inlineStr"/>
-      <c r="E134" s="2" t="inlineStr"/>
-      <c r="F134" s="2" t="inlineStr"/>
-      <c r="G134" s="2" t="inlineStr"/>
-      <c r="H134" s="2" t="inlineStr"/>
-      <c r="I134" s="2" t="inlineStr"/>
-      <c r="J134" s="2" t="inlineStr"/>
-      <c r="K134" s="2" t="inlineStr"/>
-      <c r="L134" s="2" t="inlineStr"/>
-      <c r="M134" s="2" t="inlineStr"/>
-      <c r="N134" s="2" t="inlineStr"/>
-      <c r="O134" s="2" t="inlineStr"/>
-      <c r="P134" s="2" t="inlineStr"/>
+      <c r="D134" s="2" t="n"/>
+      <c r="E134" s="2" t="n"/>
+      <c r="F134" s="2" t="n"/>
+      <c r="G134" s="2" t="n"/>
+      <c r="H134" s="2" t="n"/>
+      <c r="I134" s="2" t="n"/>
+      <c r="J134" s="2" t="n"/>
+      <c r="K134" s="2" t="n"/>
+      <c r="L134" s="2" t="n"/>
+      <c r="M134" s="2" t="n"/>
+      <c r="N134" s="2" t="n"/>
+      <c r="O134" s="2" t="n"/>
+      <c r="P134" s="2" t="n"/>
       <c r="Q134" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional. </t>
@@ -7975,16 +7947,16 @@
           <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
-      <c r="U134" s="2" t="inlineStr"/>
-      <c r="V134" s="2" t="inlineStr"/>
-      <c r="W134" s="2" t="inlineStr"/>
+      <c r="U134" s="2" t="n"/>
+      <c r="V134" s="2" t="n"/>
+      <c r="W134" s="2" t="n"/>
       <c r="X134" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y134" s="2" t="inlineStr"/>
-      <c r="Z134" s="2" t="inlineStr"/>
+      <c r="Y134" s="2" t="n"/>
+      <c r="Z134" s="2" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
@@ -8002,19 +7974,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D135" s="2" t="inlineStr"/>
-      <c r="E135" s="2" t="inlineStr"/>
-      <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr"/>
-      <c r="H135" s="2" t="inlineStr"/>
-      <c r="I135" s="2" t="inlineStr"/>
-      <c r="J135" s="2" t="inlineStr"/>
-      <c r="K135" s="2" t="inlineStr"/>
-      <c r="L135" s="2" t="inlineStr"/>
-      <c r="M135" s="2" t="inlineStr"/>
-      <c r="N135" s="2" t="inlineStr"/>
-      <c r="O135" s="2" t="inlineStr"/>
-      <c r="P135" s="2" t="inlineStr"/>
+      <c r="D135" s="2" t="n"/>
+      <c r="E135" s="2" t="n"/>
+      <c r="F135" s="2" t="n"/>
+      <c r="G135" s="2" t="n"/>
+      <c r="H135" s="2" t="n"/>
+      <c r="I135" s="2" t="n"/>
+      <c r="J135" s="2" t="n"/>
+      <c r="K135" s="2" t="n"/>
+      <c r="L135" s="2" t="n"/>
+      <c r="M135" s="2" t="n"/>
+      <c r="N135" s="2" t="n"/>
+      <c r="O135" s="2" t="n"/>
+      <c r="P135" s="2" t="n"/>
       <c r="Q135" s="2" t="inlineStr">
         <is>
           <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
@@ -8035,16 +8007,16 @@
           <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
-      <c r="U135" s="2" t="inlineStr"/>
-      <c r="V135" s="2" t="inlineStr"/>
-      <c r="W135" s="2" t="inlineStr"/>
+      <c r="U135" s="2" t="n"/>
+      <c r="V135" s="2" t="n"/>
+      <c r="W135" s="2" t="n"/>
       <c r="X135" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y135" s="2" t="inlineStr"/>
-      <c r="Z135" s="2" t="inlineStr"/>
+      <c r="Y135" s="2" t="n"/>
+      <c r="Z135" s="2" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
@@ -8062,41 +8034,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D136" s="2" t="inlineStr"/>
-      <c r="E136" s="2" t="inlineStr"/>
-      <c r="F136" s="2" t="inlineStr"/>
-      <c r="G136" s="2" t="inlineStr"/>
-      <c r="H136" s="2" t="inlineStr"/>
-      <c r="I136" s="2" t="inlineStr"/>
-      <c r="J136" s="2" t="inlineStr"/>
-      <c r="K136" s="2" t="inlineStr"/>
-      <c r="L136" s="2" t="inlineStr"/>
-      <c r="M136" s="2" t="inlineStr"/>
-      <c r="N136" s="2" t="inlineStr"/>
-      <c r="O136" s="2" t="inlineStr"/>
-      <c r="P136" s="2" t="inlineStr"/>
+      <c r="D136" s="2" t="n"/>
+      <c r="E136" s="2" t="n"/>
+      <c r="F136" s="2" t="n"/>
+      <c r="G136" s="2" t="n"/>
+      <c r="H136" s="2" t="n"/>
+      <c r="I136" s="2" t="n"/>
+      <c r="J136" s="2" t="n"/>
+      <c r="K136" s="2" t="n"/>
+      <c r="L136" s="2" t="n"/>
+      <c r="M136" s="2" t="n"/>
+      <c r="N136" s="2" t="n"/>
+      <c r="O136" s="2" t="n"/>
+      <c r="P136" s="2" t="n"/>
       <c r="Q136" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
-      <c r="R136" s="2" t="inlineStr"/>
-      <c r="S136" s="2" t="inlineStr"/>
+      <c r="R136" s="2" t="n"/>
+      <c r="S136" s="2" t="n"/>
       <c r="T136" s="2" t="inlineStr">
         <is>
           <t>undergraduate student</t>
         </is>
       </c>
-      <c r="U136" s="2" t="inlineStr"/>
-      <c r="V136" s="2" t="inlineStr"/>
-      <c r="W136" s="2" t="inlineStr"/>
+      <c r="U136" s="2" t="n"/>
+      <c r="V136" s="2" t="n"/>
+      <c r="W136" s="2" t="n"/>
       <c r="X136" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y136" s="2" t="inlineStr"/>
-      <c r="Z136" s="2" t="inlineStr"/>
+      <c r="Y136" s="2" t="n"/>
+      <c r="Z136" s="2" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
@@ -8115,19 +8087,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D137" s="2" t="inlineStr"/>
-      <c r="E137" s="2" t="inlineStr"/>
-      <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr"/>
-      <c r="H137" s="2" t="inlineStr"/>
-      <c r="I137" s="2" t="inlineStr"/>
-      <c r="J137" s="2" t="inlineStr"/>
-      <c r="K137" s="2" t="inlineStr"/>
-      <c r="L137" s="2" t="inlineStr"/>
-      <c r="M137" s="2" t="inlineStr"/>
-      <c r="N137" s="2" t="inlineStr"/>
-      <c r="O137" s="2" t="inlineStr"/>
-      <c r="P137" s="2" t="inlineStr"/>
+      <c r="D137" s="2" t="n"/>
+      <c r="E137" s="2" t="n"/>
+      <c r="F137" s="2" t="n"/>
+      <c r="G137" s="2" t="n"/>
+      <c r="H137" s="2" t="n"/>
+      <c r="I137" s="2" t="n"/>
+      <c r="J137" s="2" t="n"/>
+      <c r="K137" s="2" t="n"/>
+      <c r="L137" s="2" t="n"/>
+      <c r="M137" s="2" t="n"/>
+      <c r="N137" s="2" t="n"/>
+      <c r="O137" s="2" t="n"/>
+      <c r="P137" s="2" t="n"/>
       <c r="Q137" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
@@ -8148,16 +8120,16 @@
           <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
-      <c r="U137" s="2" t="inlineStr"/>
-      <c r="V137" s="2" t="inlineStr"/>
-      <c r="W137" s="2" t="inlineStr"/>
+      <c r="U137" s="2" t="n"/>
+      <c r="V137" s="2" t="n"/>
+      <c r="W137" s="2" t="n"/>
       <c r="X137" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y137" s="2" t="inlineStr"/>
-      <c r="Z137" s="2" t="inlineStr"/>
+      <c r="Y137" s="2" t="n"/>
+      <c r="Z137" s="2" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
@@ -8175,19 +8147,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D138" s="2" t="inlineStr"/>
-      <c r="E138" s="2" t="inlineStr"/>
-      <c r="F138" s="2" t="inlineStr"/>
-      <c r="G138" s="2" t="inlineStr"/>
-      <c r="H138" s="2" t="inlineStr"/>
-      <c r="I138" s="2" t="inlineStr"/>
-      <c r="J138" s="2" t="inlineStr"/>
-      <c r="K138" s="2" t="inlineStr"/>
-      <c r="L138" s="2" t="inlineStr"/>
-      <c r="M138" s="2" t="inlineStr"/>
-      <c r="N138" s="2" t="inlineStr"/>
-      <c r="O138" s="2" t="inlineStr"/>
-      <c r="P138" s="2" t="inlineStr"/>
+      <c r="D138" s="2" t="n"/>
+      <c r="E138" s="2" t="n"/>
+      <c r="F138" s="2" t="n"/>
+      <c r="G138" s="2" t="n"/>
+      <c r="H138" s="2" t="n"/>
+      <c r="I138" s="2" t="n"/>
+      <c r="J138" s="2" t="n"/>
+      <c r="K138" s="2" t="n"/>
+      <c r="L138" s="2" t="n"/>
+      <c r="M138" s="2" t="n"/>
+      <c r="N138" s="2" t="n"/>
+      <c r="O138" s="2" t="n"/>
+      <c r="P138" s="2" t="n"/>
       <c r="Q138" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals. </t>
@@ -8208,16 +8180,16 @@
           <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
-      <c r="U138" s="2" t="inlineStr"/>
-      <c r="V138" s="2" t="inlineStr"/>
-      <c r="W138" s="2" t="inlineStr"/>
+      <c r="U138" s="2" t="n"/>
+      <c r="V138" s="2" t="n"/>
+      <c r="W138" s="2" t="n"/>
       <c r="X138" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y138" s="2" t="inlineStr"/>
-      <c r="Z138" s="2" t="inlineStr"/>
+      <c r="Y138" s="2" t="n"/>
+      <c r="Z138" s="2" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
@@ -8235,19 +8207,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D139" s="2" t="inlineStr"/>
-      <c r="E139" s="2" t="inlineStr"/>
-      <c r="F139" s="2" t="inlineStr"/>
-      <c r="G139" s="2" t="inlineStr"/>
-      <c r="H139" s="2" t="inlineStr"/>
-      <c r="I139" s="2" t="inlineStr"/>
-      <c r="J139" s="2" t="inlineStr"/>
-      <c r="K139" s="2" t="inlineStr"/>
-      <c r="L139" s="2" t="inlineStr"/>
-      <c r="M139" s="2" t="inlineStr"/>
-      <c r="N139" s="2" t="inlineStr"/>
-      <c r="O139" s="2" t="inlineStr"/>
-      <c r="P139" s="2" t="inlineStr"/>
+      <c r="D139" s="2" t="n"/>
+      <c r="E139" s="2" t="n"/>
+      <c r="F139" s="2" t="n"/>
+      <c r="G139" s="2" t="n"/>
+      <c r="H139" s="2" t="n"/>
+      <c r="I139" s="2" t="n"/>
+      <c r="J139" s="2" t="n"/>
+      <c r="K139" s="2" t="n"/>
+      <c r="L139" s="2" t="n"/>
+      <c r="M139" s="2" t="n"/>
+      <c r="N139" s="2" t="n"/>
+      <c r="O139" s="2" t="n"/>
+      <c r="P139" s="2" t="n"/>
       <c r="Q139" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges. </t>
@@ -8268,16 +8240,16 @@
           <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
-      <c r="U139" s="2" t="inlineStr"/>
-      <c r="V139" s="2" t="inlineStr"/>
-      <c r="W139" s="2" t="inlineStr"/>
+      <c r="U139" s="2" t="n"/>
+      <c r="V139" s="2" t="n"/>
+      <c r="W139" s="2" t="n"/>
       <c r="X139" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y139" s="2" t="inlineStr"/>
-      <c r="Z139" s="2" t="inlineStr"/>
+      <c r="Y139" s="2" t="n"/>
+      <c r="Z139" s="2" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
@@ -8295,37 +8267,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D140" s="2" t="inlineStr"/>
-      <c r="E140" s="2" t="inlineStr"/>
-      <c r="F140" s="2" t="inlineStr"/>
-      <c r="G140" s="2" t="inlineStr"/>
-      <c r="H140" s="2" t="inlineStr"/>
-      <c r="I140" s="2" t="inlineStr"/>
-      <c r="J140" s="2" t="inlineStr"/>
-      <c r="K140" s="2" t="inlineStr"/>
-      <c r="L140" s="2" t="inlineStr"/>
-      <c r="M140" s="2" t="inlineStr"/>
-      <c r="N140" s="2" t="inlineStr"/>
-      <c r="O140" s="2" t="inlineStr"/>
-      <c r="P140" s="2" t="inlineStr"/>
+      <c r="D140" s="2" t="n"/>
+      <c r="E140" s="2" t="n"/>
+      <c r="F140" s="2" t="n"/>
+      <c r="G140" s="2" t="n"/>
+      <c r="H140" s="2" t="n"/>
+      <c r="I140" s="2" t="n"/>
+      <c r="J140" s="2" t="n"/>
+      <c r="K140" s="2" t="n"/>
+      <c r="L140" s="2" t="n"/>
+      <c r="M140" s="2" t="n"/>
+      <c r="N140" s="2" t="n"/>
+      <c r="O140" s="2" t="n"/>
+      <c r="P140" s="2" t="n"/>
       <c r="Q140" s="2" t="inlineStr">
         <is>
           <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
-      <c r="R140" s="2" t="inlineStr"/>
-      <c r="S140" s="2" t="inlineStr"/>
-      <c r="T140" s="2" t="inlineStr"/>
-      <c r="U140" s="2" t="inlineStr"/>
-      <c r="V140" s="2" t="inlineStr"/>
-      <c r="W140" s="2" t="inlineStr"/>
+      <c r="R140" s="2" t="n"/>
+      <c r="S140" s="2" t="n"/>
+      <c r="T140" s="2" t="n"/>
+      <c r="U140" s="2" t="n"/>
+      <c r="V140" s="2" t="n"/>
+      <c r="W140" s="2" t="n"/>
       <c r="X140" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y140" s="2" t="inlineStr"/>
-      <c r="Z140" s="2" t="inlineStr"/>
+      <c r="Y140" s="2" t="n"/>
+      <c r="Z140" s="2" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
@@ -8343,45 +8315,45 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D141" s="2" t="inlineStr"/>
-      <c r="E141" s="2" t="inlineStr"/>
+      <c r="D141" s="2" t="n"/>
+      <c r="E141" s="2" t="n"/>
       <c r="F141" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G141" s="2" t="inlineStr"/>
-      <c r="H141" s="2" t="inlineStr"/>
-      <c r="I141" s="2" t="inlineStr"/>
-      <c r="J141" s="2" t="inlineStr"/>
-      <c r="K141" s="2" t="inlineStr"/>
-      <c r="L141" s="2" t="inlineStr"/>
-      <c r="M141" s="2" t="inlineStr"/>
-      <c r="N141" s="2" t="inlineStr"/>
-      <c r="O141" s="2" t="inlineStr"/>
-      <c r="P141" s="2" t="inlineStr"/>
+      <c r="G141" s="2" t="n"/>
+      <c r="H141" s="2" t="n"/>
+      <c r="I141" s="2" t="n"/>
+      <c r="J141" s="2" t="n"/>
+      <c r="K141" s="2" t="n"/>
+      <c r="L141" s="2" t="n"/>
+      <c r="M141" s="2" t="n"/>
+      <c r="N141" s="2" t="n"/>
+      <c r="O141" s="2" t="n"/>
+      <c r="P141" s="2" t="n"/>
       <c r="Q141" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
-      <c r="R141" s="2" t="inlineStr"/>
-      <c r="S141" s="2" t="inlineStr"/>
+      <c r="R141" s="2" t="n"/>
+      <c r="S141" s="2" t="n"/>
       <c r="T141" s="2" t="inlineStr">
         <is>
           <t>voluntary basis, volunteering</t>
         </is>
       </c>
-      <c r="U141" s="2" t="inlineStr"/>
-      <c r="V141" s="2" t="inlineStr"/>
-      <c r="W141" s="2" t="inlineStr"/>
+      <c r="U141" s="2" t="n"/>
+      <c r="V141" s="2" t="n"/>
+      <c r="W141" s="2" t="n"/>
       <c r="X141" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y141" s="2" t="inlineStr"/>
-      <c r="Z141" s="2" t="inlineStr"/>
+      <c r="Y141" s="2" t="n"/>
+      <c r="Z141" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -582,31 +582,31 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test5</t>
+          <t>test5andtest6</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
       <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -617,8 +617,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y2" s="2" t="n"/>
-      <c r="Z2" s="2" t="n"/>
+      <c r="Y2" s="2" t="inlineStr"/>
+      <c r="Z2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -646,27 +646,27 @@
           <t>test4</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
       <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -677,8 +677,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y3" s="2" t="n"/>
-      <c r="Z3" s="2" t="n"/>
+      <c r="Y3" s="2" t="inlineStr"/>
+      <c r="Z3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -696,41 +696,41 @@
           <t>pre-existing knowledge or skill</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="n"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
       <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
         </is>
       </c>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
           <t>member of British Psychological Society</t>
         </is>
       </c>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
-      <c r="W4" s="2" t="n"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
+      <c r="W4" s="2" t="inlineStr"/>
       <c r="X4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y4" s="2" t="n"/>
-      <c r="Z4" s="2" t="n"/>
+      <c r="Y4" s="2" t="inlineStr"/>
+      <c r="Z4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -748,37 +748,37 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
       <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="n"/>
-      <c r="W5" s="2" t="n"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr"/>
+      <c r="W5" s="2" t="inlineStr"/>
       <c r="X5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y5" s="2" t="n"/>
-      <c r="Z5" s="2" t="n"/>
+      <c r="Y5" s="2" t="inlineStr"/>
+      <c r="Z5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -796,19 +796,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="n"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
@@ -829,16 +829,16 @@
           <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
-      <c r="W6" s="2" t="n"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr"/>
       <c r="X6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y6" s="2" t="n"/>
-      <c r="Z6" s="2" t="n"/>
+      <c r="Y6" s="2" t="inlineStr"/>
+      <c r="Z6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -856,45 +856,45 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr">
         <is>
           <t>knowledge or skill</t>
         </is>
       </c>
-      <c r="P7" s="2" t="n"/>
+      <c r="P7" s="2" t="inlineStr"/>
       <c r="Q7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A knowledge or skill that is the duration of experience in related domain held by person source. </t>
         </is>
       </c>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
+      <c r="R7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
           <t>full-day, 6 years</t>
         </is>
       </c>
-      <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="n"/>
-      <c r="W7" s="2" t="n"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr"/>
+      <c r="W7" s="2" t="inlineStr"/>
       <c r="X7" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y7" s="2" t="n"/>
-      <c r="Z7" s="2" t="n"/>
+      <c r="Y7" s="2" t="inlineStr"/>
+      <c r="Z7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -912,19 +912,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
-      <c r="P8" s="2" t="n"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that includes all jobs held by members of the armed forces. </t>
@@ -945,16 +945,16 @@
           <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
-      <c r="U8" s="2" t="n"/>
-      <c r="V8" s="2" t="n"/>
-      <c r="W8" s="2" t="n"/>
+      <c r="U8" s="2" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr"/>
+      <c r="W8" s="2" t="inlineStr"/>
       <c r="X8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y8" s="2" t="n"/>
-      <c r="Z8" s="2" t="n"/>
+      <c r="Y8" s="2" t="inlineStr"/>
+      <c r="Z8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -972,19 +972,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
@@ -1005,16 +1005,16 @@
           <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
-      <c r="U9" s="2" t="n"/>
-      <c r="V9" s="2" t="n"/>
-      <c r="W9" s="2" t="n"/>
+      <c r="U9" s="2" t="inlineStr"/>
+      <c r="V9" s="2" t="inlineStr"/>
+      <c r="W9" s="2" t="inlineStr"/>
       <c r="X9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y9" s="2" t="n"/>
-      <c r="Z9" s="2" t="n"/>
+      <c r="Y9" s="2" t="inlineStr"/>
+      <c r="Z9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1032,19 +1032,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="n"/>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
@@ -1065,16 +1065,16 @@
           <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
-      <c r="U10" s="2" t="n"/>
-      <c r="V10" s="2" t="n"/>
-      <c r="W10" s="2" t="n"/>
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr"/>
+      <c r="W10" s="2" t="inlineStr"/>
       <c r="X10" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y10" s="2" t="n"/>
-      <c r="Z10" s="2" t="n"/>
+      <c r="Y10" s="2" t="inlineStr"/>
+      <c r="Z10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1092,19 +1092,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
@@ -1120,17 +1120,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
-      <c r="W11" s="2" t="n"/>
+      <c r="T11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr"/>
+      <c r="W11" s="2" t="inlineStr"/>
       <c r="X11" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y11" s="2" t="n"/>
-      <c r="Z11" s="2" t="n"/>
+      <c r="Y11" s="2" t="inlineStr"/>
+      <c r="Z11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1148,19 +1148,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="n"/>
-      <c r="P12" s="2" t="n"/>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
@@ -1181,16 +1181,16 @@
           <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
-      <c r="U12" s="2" t="n"/>
-      <c r="V12" s="2" t="n"/>
-      <c r="W12" s="2" t="n"/>
+      <c r="U12" s="2" t="inlineStr"/>
+      <c r="V12" s="2" t="inlineStr"/>
+      <c r="W12" s="2" t="inlineStr"/>
       <c r="X12" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y12" s="2" t="n"/>
-      <c r="Z12" s="2" t="n"/>
+      <c r="Y12" s="2" t="inlineStr"/>
+      <c r="Z12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1208,19 +1208,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing. </t>
@@ -1241,16 +1241,16 @@
           <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
-      <c r="U13" s="2" t="n"/>
-      <c r="V13" s="2" t="n"/>
-      <c r="W13" s="2" t="n"/>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr"/>
+      <c r="W13" s="2" t="inlineStr"/>
       <c r="X13" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y13" s="2" t="n"/>
-      <c r="Z13" s="2" t="n"/>
+      <c r="Y13" s="2" t="inlineStr"/>
+      <c r="Z13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1268,19 +1268,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="n"/>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr"/>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
@@ -1301,16 +1301,16 @@
           <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
-      <c r="U14" s="2" t="n"/>
-      <c r="V14" s="2" t="n"/>
-      <c r="W14" s="2" t="n"/>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr"/>
+      <c r="W14" s="2" t="inlineStr"/>
       <c r="X14" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y14" s="2" t="n"/>
-      <c r="Z14" s="2" t="n"/>
+      <c r="Y14" s="2" t="inlineStr"/>
+      <c r="Z14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1328,19 +1328,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
-      <c r="P15" s="2" t="n"/>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr"/>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
@@ -1361,16 +1361,16 @@
           <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
-      <c r="U15" s="2" t="n"/>
-      <c r="V15" s="2" t="n"/>
-      <c r="W15" s="2" t="n"/>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr"/>
+      <c r="W15" s="2" t="inlineStr"/>
       <c r="X15" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y15" s="2" t="n"/>
-      <c r="Z15" s="2" t="n"/>
+      <c r="Y15" s="2" t="inlineStr"/>
+      <c r="Z15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1388,41 +1388,41 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
-      <c r="P16" s="2" t="n"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr"/>
       <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>carer</t>
         </is>
       </c>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="n"/>
-      <c r="W16" s="2" t="n"/>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr"/>
+      <c r="W16" s="2" t="inlineStr"/>
       <c r="X16" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y16" s="2" t="n"/>
-      <c r="Z16" s="2" t="n"/>
+      <c r="Y16" s="2" t="inlineStr"/>
+      <c r="Z16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1440,19 +1440,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
-      <c r="P17" s="2" t="n"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr"/>
       <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
@@ -1473,16 +1473,16 @@
           <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
-      <c r="U17" s="2" t="n"/>
-      <c r="V17" s="2" t="n"/>
-      <c r="W17" s="2" t="n"/>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr"/>
+      <c r="W17" s="2" t="inlineStr"/>
       <c r="X17" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y17" s="2" t="n"/>
-      <c r="Z17" s="2" t="n"/>
+      <c r="Y17" s="2" t="inlineStr"/>
+      <c r="Z17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1500,41 +1500,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr"/>
       <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
-      <c r="W18" s="2" t="n"/>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
+      <c r="W18" s="2" t="inlineStr"/>
       <c r="X18" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y18" s="2" t="n"/>
-      <c r="Z18" s="2" t="n"/>
+      <c r="Y18" s="2" t="inlineStr"/>
+      <c r="Z18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1552,19 +1552,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
-      <c r="P19" s="2" t="n"/>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr"/>
       <c r="Q19" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments. </t>
@@ -1585,16 +1585,16 @@
           <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="n"/>
-      <c r="W19" s="2" t="n"/>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr"/>
       <c r="X19" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y19" s="2" t="n"/>
-      <c r="Z19" s="2" t="n"/>
+      <c r="Y19" s="2" t="inlineStr"/>
+      <c r="Z19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1612,37 +1612,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
-      <c r="P20" s="2" t="n"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr"/>
       <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
         </is>
       </c>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="n"/>
-      <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="n"/>
-      <c r="W20" s="2" t="n"/>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr"/>
+      <c r="W20" s="2" t="inlineStr"/>
       <c r="X20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y20" s="2" t="n"/>
-      <c r="Z20" s="2" t="n"/>
+      <c r="Y20" s="2" t="inlineStr"/>
+      <c r="Z20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1660,19 +1660,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
-      <c r="P21" s="2" t="n"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr"/>
       <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
@@ -1693,16 +1693,16 @@
           <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
-      <c r="U21" s="2" t="n"/>
-      <c r="V21" s="2" t="n"/>
-      <c r="W21" s="2" t="n"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr"/>
+      <c r="W21" s="2" t="inlineStr"/>
       <c r="X21" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y21" s="2" t="n"/>
-      <c r="Z21" s="2" t="n"/>
+      <c r="Y21" s="2" t="inlineStr"/>
+      <c r="Z21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1720,19 +1720,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="n"/>
-      <c r="O22" s="2" t="n"/>
-      <c r="P22" s="2" t="n"/>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr"/>
       <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
@@ -1753,16 +1753,16 @@
           <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
-      <c r="U22" s="2" t="n"/>
-      <c r="V22" s="2" t="n"/>
-      <c r="W22" s="2" t="n"/>
+      <c r="U22" s="2" t="inlineStr"/>
+      <c r="V22" s="2" t="inlineStr"/>
+      <c r="W22" s="2" t="inlineStr"/>
       <c r="X22" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y22" s="2" t="n"/>
-      <c r="Z22" s="2" t="n"/>
+      <c r="Y22" s="2" t="inlineStr"/>
+      <c r="Z22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1780,19 +1780,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="n"/>
-      <c r="P23" s="2" t="n"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr"/>
       <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
@@ -1813,16 +1813,16 @@
           <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
-      <c r="U23" s="2" t="n"/>
-      <c r="V23" s="2" t="n"/>
-      <c r="W23" s="2" t="n"/>
+      <c r="U23" s="2" t="inlineStr"/>
+      <c r="V23" s="2" t="inlineStr"/>
+      <c r="W23" s="2" t="inlineStr"/>
       <c r="X23" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y23" s="2" t="n"/>
-      <c r="Z23" s="2" t="n"/>
+      <c r="Y23" s="2" t="inlineStr"/>
+      <c r="Z23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1840,19 +1840,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="n"/>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr"/>
       <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
@@ -1873,16 +1873,16 @@
           <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
-      <c r="U24" s="2" t="n"/>
-      <c r="V24" s="2" t="n"/>
-      <c r="W24" s="2" t="n"/>
+      <c r="U24" s="2" t="inlineStr"/>
+      <c r="V24" s="2" t="inlineStr"/>
+      <c r="W24" s="2" t="inlineStr"/>
       <c r="X24" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y24" s="2" t="n"/>
-      <c r="Z24" s="2" t="n"/>
+      <c r="Y24" s="2" t="inlineStr"/>
+      <c r="Z24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1900,19 +1900,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
-      <c r="P25" s="2" t="n"/>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
       <c r="Q25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry. </t>
@@ -1933,16 +1933,16 @@
           <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
-      <c r="U25" s="2" t="n"/>
-      <c r="V25" s="2" t="n"/>
-      <c r="W25" s="2" t="n"/>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr"/>
+      <c r="W25" s="2" t="inlineStr"/>
       <c r="X25" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y25" s="2" t="n"/>
-      <c r="Z25" s="2" t="n"/>
+      <c r="Y25" s="2" t="inlineStr"/>
+      <c r="Z25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1960,19 +1960,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="n"/>
-      <c r="M26" s="2" t="n"/>
-      <c r="N26" s="2" t="n"/>
-      <c r="O26" s="2" t="n"/>
-      <c r="P26" s="2" t="n"/>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr"/>
       <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
@@ -1993,16 +1993,16 @@
           <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
-      <c r="U26" s="2" t="n"/>
-      <c r="V26" s="2" t="n"/>
-      <c r="W26" s="2" t="n"/>
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr"/>
+      <c r="W26" s="2" t="inlineStr"/>
       <c r="X26" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y26" s="2" t="n"/>
-      <c r="Z26" s="2" t="n"/>
+      <c r="Y26" s="2" t="inlineStr"/>
+      <c r="Z26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2020,41 +2020,41 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
-      <c r="P27" s="2" t="n"/>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr"/>
       <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>A specific domain of study undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
-      <c r="R27" s="2" t="n"/>
-      <c r="S27" s="2" t="n"/>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr"/>
       <c r="T27" s="2" t="inlineStr">
         <is>
           <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
-      <c r="W27" s="2" t="n"/>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr"/>
+      <c r="W27" s="2" t="inlineStr"/>
       <c r="X27" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y27" s="2" t="n"/>
-      <c r="Z27" s="2" t="n"/>
+      <c r="Y27" s="2" t="inlineStr"/>
+      <c r="Z27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2072,18 +2072,18 @@
           <t>expertise discipline</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="inlineStr">
         <is>
           <t>pre-existing knowledge or skill</t>
@@ -2094,23 +2094,23 @@
           <t xml:space="preserve">The expertise discipline in which the person source has acquired their pre-existing knowledge and skills. </t>
         </is>
       </c>
-      <c r="R28" s="2" t="n"/>
-      <c r="S28" s="2" t="n"/>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr"/>
       <c r="T28" s="2" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="n"/>
-      <c r="W28" s="2" t="n"/>
+      <c r="U28" s="2" t="inlineStr"/>
+      <c r="V28" s="2" t="inlineStr"/>
+      <c r="W28" s="2" t="inlineStr"/>
       <c r="X28" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y28" s="2" t="n"/>
-      <c r="Z28" s="2" t="n"/>
+      <c r="Y28" s="2" t="inlineStr"/>
+      <c r="Z28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2128,41 +2128,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="n"/>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr"/>
       <c r="Q29" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
-      <c r="R29" s="2" t="n"/>
-      <c r="S29" s="2" t="n"/>
+      <c r="R29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="inlineStr"/>
       <c r="T29" s="2" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="U29" s="2" t="n"/>
-      <c r="V29" s="2" t="n"/>
-      <c r="W29" s="2" t="n"/>
+      <c r="U29" s="2" t="inlineStr"/>
+      <c r="V29" s="2" t="inlineStr"/>
+      <c r="W29" s="2" t="inlineStr"/>
       <c r="X29" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y29" s="2" t="n"/>
-      <c r="Z29" s="2" t="n"/>
+      <c r="Y29" s="2" t="inlineStr"/>
+      <c r="Z29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2180,19 +2180,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="n"/>
-      <c r="P30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr"/>
       <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
@@ -2213,16 +2213,16 @@
           <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
-      <c r="U30" s="2" t="n"/>
-      <c r="V30" s="2" t="n"/>
-      <c r="W30" s="2" t="n"/>
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr"/>
+      <c r="W30" s="2" t="inlineStr"/>
       <c r="X30" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y30" s="2" t="n"/>
-      <c r="Z30" s="2" t="n"/>
+      <c r="Y30" s="2" t="inlineStr"/>
+      <c r="Z30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2240,19 +2240,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
-      <c r="M31" s="2" t="n"/>
-      <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="n"/>
-      <c r="P31" s="2" t="n"/>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr"/>
       <c r="Q31" s="2" t="inlineStr">
         <is>
           <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
@@ -2273,16 +2273,16 @@
           <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="n"/>
-      <c r="W31" s="2" t="n"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr"/>
+      <c r="W31" s="2" t="inlineStr"/>
       <c r="X31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y31" s="2" t="n"/>
-      <c r="Z31" s="2" t="n"/>
+      <c r="Y31" s="2" t="inlineStr"/>
+      <c r="Z31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2300,37 +2300,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
-      <c r="M32" s="2" t="n"/>
-      <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="n"/>
-      <c r="P32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr"/>
       <c r="Q32" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
         </is>
       </c>
-      <c r="R32" s="2" t="n"/>
-      <c r="S32" s="2" t="n"/>
-      <c r="T32" s="2" t="n"/>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="n"/>
-      <c r="W32" s="2" t="n"/>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr"/>
+      <c r="W32" s="2" t="inlineStr"/>
       <c r="X32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y32" s="2" t="n"/>
-      <c r="Z32" s="2" t="n"/>
+      <c r="Y32" s="2" t="inlineStr"/>
+      <c r="Z32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2348,37 +2348,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
-      <c r="P33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
       <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
         </is>
       </c>
-      <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="n"/>
-      <c r="T33" s="2" t="n"/>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="n"/>
-      <c r="W33" s="2" t="n"/>
+      <c r="R33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr"/>
+      <c r="W33" s="2" t="inlineStr"/>
       <c r="X33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y33" s="2" t="n"/>
-      <c r="Z33" s="2" t="n"/>
+      <c r="Y33" s="2" t="inlineStr"/>
+      <c r="Z33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2396,19 +2396,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr"/>
       <c r="Q34" s="2" t="inlineStr">
         <is>
           <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
@@ -2429,16 +2429,16 @@
           <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
-      <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="n"/>
-      <c r="W34" s="2" t="n"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr"/>
+      <c r="W34" s="2" t="inlineStr"/>
       <c r="X34" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y34" s="2" t="n"/>
-      <c r="Z34" s="2" t="n"/>
+      <c r="Y34" s="2" t="inlineStr"/>
+      <c r="Z34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2456,19 +2456,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
-      <c r="P35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
       <c r="Q35" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
@@ -2491,16 +2491,16 @@
           <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
-      <c r="U35" s="2" t="n"/>
-      <c r="V35" s="2" t="n"/>
-      <c r="W35" s="2" t="n"/>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr"/>
+      <c r="W35" s="2" t="inlineStr"/>
       <c r="X35" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y35" s="2" t="n"/>
-      <c r="Z35" s="2" t="n"/>
+      <c r="Y35" s="2" t="inlineStr"/>
+      <c r="Z35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2518,41 +2518,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="n"/>
-      <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="n"/>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr"/>
       <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
-      <c r="R36" s="2" t="n"/>
-      <c r="S36" s="2" t="n"/>
+      <c r="R36" s="2" t="inlineStr"/>
+      <c r="S36" s="2" t="inlineStr"/>
       <c r="T36" s="2" t="inlineStr">
         <is>
           <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
-      <c r="U36" s="2" t="n"/>
-      <c r="V36" s="2" t="n"/>
-      <c r="W36" s="2" t="n"/>
+      <c r="U36" s="2" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr"/>
+      <c r="W36" s="2" t="inlineStr"/>
       <c r="X36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y36" s="2" t="n"/>
-      <c r="Z36" s="2" t="n"/>
+      <c r="Y36" s="2" t="inlineStr"/>
+      <c r="Z36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2570,26 +2570,26 @@
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
-      <c r="L37" s="2" t="n"/>
-      <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
-      <c r="P37" s="2" t="n"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr"/>
       <c r="Q37" s="2" t="inlineStr">
         <is>
           <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
-      <c r="R37" s="2" t="n"/>
-      <c r="S37" s="2" t="n"/>
+      <c r="R37" s="2" t="inlineStr"/>
+      <c r="S37" s="2" t="inlineStr"/>
       <c r="T37" s="2" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
@@ -2600,15 +2600,15 @@
           <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
-      <c r="V37" s="2" t="n"/>
-      <c r="W37" s="2" t="n"/>
+      <c r="V37" s="2" t="inlineStr"/>
+      <c r="W37" s="2" t="inlineStr"/>
       <c r="X37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y37" s="2" t="n"/>
-      <c r="Z37" s="2" t="n"/>
+      <c r="Y37" s="2" t="inlineStr"/>
+      <c r="Z37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2626,18 +2626,18 @@
           <t>disposition</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="n"/>
-      <c r="H38" s="2" t="n"/>
-      <c r="I38" s="2" t="n"/>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="n"/>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="inlineStr">
         <is>
           <t>person source</t>
@@ -2648,19 +2648,19 @@
           <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
         </is>
       </c>
-      <c r="R38" s="2" t="n"/>
-      <c r="S38" s="2" t="n"/>
-      <c r="T38" s="2" t="n"/>
-      <c r="U38" s="2" t="n"/>
-      <c r="V38" s="2" t="n"/>
-      <c r="W38" s="2" t="n"/>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="inlineStr"/>
+      <c r="W38" s="2" t="inlineStr"/>
       <c r="X38" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y38" s="2" t="n"/>
-      <c r="Z38" s="2" t="n"/>
+      <c r="Y38" s="2" t="inlineStr"/>
+      <c r="Z38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2678,37 +2678,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
-      <c r="P39" s="2" t="n"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
       <c r="Q39" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is an individual who is related to another person as they are descended from a common progenitor, related by marriage or other legal tie, or by a feeling of closeness.</t>
         </is>
       </c>
-      <c r="R39" s="2" t="n"/>
-      <c r="S39" s="2" t="n"/>
-      <c r="T39" s="2" t="n"/>
-      <c r="U39" s="2" t="n"/>
-      <c r="V39" s="2" t="n"/>
-      <c r="W39" s="2" t="n"/>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr"/>
+      <c r="W39" s="2" t="inlineStr"/>
       <c r="X39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y39" s="2" t="n"/>
-      <c r="Z39" s="2" t="n"/>
+      <c r="Y39" s="2" t="inlineStr"/>
+      <c r="Z39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2726,41 +2726,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
-      <c r="H40" s="2" t="n"/>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
-      <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="n"/>
-      <c r="P40" s="2" t="n"/>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
       <c r="Q40" s="2" t="inlineStr">
         <is>
           <t>A gender of person source that is the cultural gender role of female.</t>
         </is>
       </c>
-      <c r="R40" s="2" t="n"/>
-      <c r="S40" s="2" t="n"/>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr"/>
       <c r="T40" s="2" t="inlineStr">
         <is>
           <t>female, woman</t>
         </is>
       </c>
-      <c r="U40" s="2" t="n"/>
-      <c r="V40" s="2" t="n"/>
-      <c r="W40" s="2" t="n"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr"/>
+      <c r="W40" s="2" t="inlineStr"/>
       <c r="X40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y40" s="2" t="n"/>
-      <c r="Z40" s="2" t="n"/>
+      <c r="Y40" s="2" t="inlineStr"/>
+      <c r="Z40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2778,19 +2778,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="2" t="n"/>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="n"/>
-      <c r="K41" s="2" t="n"/>
-      <c r="L41" s="2" t="n"/>
-      <c r="M41" s="2" t="n"/>
-      <c r="N41" s="2" t="n"/>
-      <c r="O41" s="2" t="n"/>
-      <c r="P41" s="2" t="n"/>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr"/>
       <c r="Q41" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
@@ -2811,16 +2811,16 @@
           <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
-      <c r="U41" s="2" t="n"/>
-      <c r="V41" s="2" t="n"/>
-      <c r="W41" s="2" t="n"/>
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr"/>
+      <c r="W41" s="2" t="inlineStr"/>
       <c r="X41" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y41" s="2" t="n"/>
-      <c r="Z41" s="2" t="n"/>
+      <c r="Y41" s="2" t="inlineStr"/>
+      <c r="Z41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2838,37 +2838,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
-      <c r="L42" s="2" t="n"/>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
-      <c r="P42" s="2" t="n"/>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr"/>
       <c r="Q42" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
         </is>
       </c>
-      <c r="R42" s="2" t="n"/>
-      <c r="S42" s="2" t="n"/>
-      <c r="T42" s="2" t="n"/>
-      <c r="U42" s="2" t="n"/>
-      <c r="V42" s="2" t="n"/>
-      <c r="W42" s="2" t="n"/>
+      <c r="R42" s="2" t="inlineStr"/>
+      <c r="S42" s="2" t="inlineStr"/>
+      <c r="T42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr"/>
+      <c r="W42" s="2" t="inlineStr"/>
       <c r="X42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y42" s="2" t="n"/>
-      <c r="Z42" s="2" t="n"/>
+      <c r="Y42" s="2" t="inlineStr"/>
+      <c r="Z42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2886,41 +2886,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
-      <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="n"/>
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr"/>
       <c r="Q43" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
-      <c r="R43" s="2" t="n"/>
-      <c r="S43" s="2" t="n"/>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr"/>
       <c r="T43" s="2" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="n"/>
-      <c r="W43" s="2" t="n"/>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr"/>
+      <c r="W43" s="2" t="inlineStr"/>
       <c r="X43" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y43" s="2" t="n"/>
-      <c r="Z43" s="2" t="n"/>
+      <c r="Y43" s="2" t="inlineStr"/>
+      <c r="Z43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2938,19 +2938,19 @@
           <t xml:space="preserve">medical doctor </t>
         </is>
       </c>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="n"/>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
-      <c r="P44" s="2" t="n"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr"/>
       <c r="Q44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities. </t>
@@ -2971,16 +2971,16 @@
           <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="n"/>
-      <c r="W44" s="2" t="n"/>
+      <c r="U44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="inlineStr"/>
+      <c r="W44" s="2" t="inlineStr"/>
       <c r="X44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y44" s="2" t="n"/>
-      <c r="Z44" s="2" t="n"/>
+      <c r="Y44" s="2" t="inlineStr"/>
+      <c r="Z44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2998,41 +2998,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
-      <c r="P45" s="2" t="n"/>
+      <c r="D45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="inlineStr"/>
       <c r="Q45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A higher education student or trainee that has completed an undergraduate degree. </t>
         </is>
       </c>
-      <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="n"/>
+      <c r="R45" s="2" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr"/>
       <c r="T45" s="2" t="inlineStr">
         <is>
           <t>graduate student</t>
         </is>
       </c>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
-      <c r="W45" s="2" t="n"/>
+      <c r="U45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr"/>
+      <c r="W45" s="2" t="inlineStr"/>
       <c r="X45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y45" s="2" t="n"/>
-      <c r="Z45" s="2" t="n"/>
+      <c r="Y45" s="2" t="inlineStr"/>
+      <c r="Z45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -3050,19 +3050,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
-      <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="n"/>
-      <c r="H46" s="2" t="n"/>
-      <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n"/>
-      <c r="K46" s="2" t="n"/>
-      <c r="L46" s="2" t="n"/>
-      <c r="M46" s="2" t="n"/>
-      <c r="N46" s="2" t="n"/>
-      <c r="O46" s="2" t="n"/>
-      <c r="P46" s="2" t="n"/>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr"/>
       <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
@@ -3083,16 +3083,16 @@
           <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
-      <c r="U46" s="2" t="n"/>
-      <c r="V46" s="2" t="n"/>
-      <c r="W46" s="2" t="n"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr"/>
+      <c r="W46" s="2" t="inlineStr"/>
       <c r="X46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y46" s="2" t="n"/>
-      <c r="Z46" s="2" t="n"/>
+      <c r="Y46" s="2" t="inlineStr"/>
+      <c r="Z46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3110,19 +3110,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D47" s="2" t="n"/>
-      <c r="E47" s="2" t="n"/>
-      <c r="F47" s="2" t="n"/>
-      <c r="G47" s="2" t="n"/>
-      <c r="H47" s="2" t="n"/>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="n"/>
-      <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="n"/>
-      <c r="O47" s="2" t="n"/>
-      <c r="P47" s="2" t="n"/>
+      <c r="D47" s="2" t="inlineStr"/>
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr"/>
       <c r="Q47" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
@@ -3143,16 +3143,16 @@
           <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
-      <c r="U47" s="2" t="n"/>
-      <c r="V47" s="2" t="n"/>
-      <c r="W47" s="2" t="n"/>
+      <c r="U47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="inlineStr"/>
+      <c r="W47" s="2" t="inlineStr"/>
       <c r="X47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y47" s="2" t="n"/>
-      <c r="Z47" s="2" t="n"/>
+      <c r="Y47" s="2" t="inlineStr"/>
+      <c r="Z47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3170,19 +3170,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n"/>
-      <c r="E48" s="2" t="n"/>
-      <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="n"/>
-      <c r="H48" s="2" t="n"/>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
-      <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="n"/>
-      <c r="P48" s="2" t="n"/>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr"/>
       <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
@@ -3203,16 +3203,16 @@
           <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
-      <c r="U48" s="2" t="n"/>
-      <c r="V48" s="2" t="n"/>
-      <c r="W48" s="2" t="n"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr"/>
+      <c r="W48" s="2" t="inlineStr"/>
       <c r="X48" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y48" s="2" t="n"/>
-      <c r="Z48" s="2" t="n"/>
+      <c r="Y48" s="2" t="inlineStr"/>
+      <c r="Z48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3230,41 +3230,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n"/>
-      <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
-      <c r="G49" s="2" t="n"/>
-      <c r="H49" s="2" t="n"/>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
-      <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
-      <c r="P49" s="2" t="n"/>
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr"/>
       <c r="Q49" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
-      <c r="R49" s="2" t="n"/>
-      <c r="S49" s="2" t="n"/>
+      <c r="R49" s="2" t="inlineStr"/>
+      <c r="S49" s="2" t="inlineStr"/>
       <c r="T49" s="2" t="inlineStr">
         <is>
           <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
-      <c r="U49" s="2" t="n"/>
-      <c r="V49" s="2" t="n"/>
-      <c r="W49" s="2" t="n"/>
+      <c r="U49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr"/>
+      <c r="W49" s="2" t="inlineStr"/>
       <c r="X49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y49" s="2" t="n"/>
-      <c r="Z49" s="2" t="n"/>
+      <c r="Y49" s="2" t="inlineStr"/>
+      <c r="Z49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3282,41 +3282,41 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n"/>
-      <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
-      <c r="G50" s="2" t="n"/>
-      <c r="H50" s="2" t="n"/>
-      <c r="I50" s="2" t="n"/>
-      <c r="J50" s="2" t="n"/>
-      <c r="K50" s="2" t="n"/>
-      <c r="L50" s="2" t="n"/>
-      <c r="M50" s="2" t="n"/>
-      <c r="N50" s="2" t="n"/>
-      <c r="O50" s="2" t="n"/>
-      <c r="P50" s="2" t="n"/>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr"/>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr"/>
+      <c r="M50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr"/>
+      <c r="P50" s="2" t="inlineStr"/>
       <c r="Q50" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school. </t>
         </is>
       </c>
-      <c r="R50" s="2" t="n"/>
-      <c r="S50" s="2" t="n"/>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr">
         <is>
           <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
-      <c r="U50" s="2" t="n"/>
-      <c r="V50" s="2" t="n"/>
-      <c r="W50" s="2" t="n"/>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr"/>
+      <c r="W50" s="2" t="inlineStr"/>
       <c r="X50" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y50" s="2" t="n"/>
-      <c r="Z50" s="2" t="n"/>
+      <c r="Y50" s="2" t="inlineStr"/>
+      <c r="Z50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3334,19 +3334,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D51" s="2" t="n"/>
-      <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="n"/>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="n"/>
-      <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="n"/>
-      <c r="O51" s="2" t="n"/>
-      <c r="P51" s="2" t="n"/>
+      <c r="D51" s="2" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="inlineStr"/>
       <c r="Q51" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
@@ -3367,16 +3367,16 @@
           <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
-      <c r="U51" s="2" t="n"/>
-      <c r="V51" s="2" t="n"/>
-      <c r="W51" s="2" t="n"/>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr"/>
+      <c r="W51" s="2" t="inlineStr"/>
       <c r="X51" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y51" s="2" t="n"/>
-      <c r="Z51" s="2" t="n"/>
+      <c r="Y51" s="2" t="inlineStr"/>
+      <c r="Z51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3394,37 +3394,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n"/>
-      <c r="E52" s="2" t="n"/>
-      <c r="F52" s="2" t="n"/>
-      <c r="G52" s="2" t="n"/>
-      <c r="H52" s="2" t="n"/>
-      <c r="I52" s="2" t="n"/>
-      <c r="J52" s="2" t="n"/>
-      <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="n"/>
-      <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
-      <c r="O52" s="2" t="n"/>
-      <c r="P52" s="2" t="n"/>
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr"/>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
+      <c r="P52" s="2" t="inlineStr"/>
       <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
-      <c r="R52" s="2" t="n"/>
-      <c r="S52" s="2" t="n"/>
-      <c r="T52" s="2" t="n"/>
-      <c r="U52" s="2" t="n"/>
-      <c r="V52" s="2" t="n"/>
-      <c r="W52" s="2" t="n"/>
+      <c r="R52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr"/>
+      <c r="T52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr"/>
+      <c r="W52" s="2" t="inlineStr"/>
       <c r="X52" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y52" s="2" t="n"/>
-      <c r="Z52" s="2" t="n"/>
+      <c r="Y52" s="2" t="inlineStr"/>
+      <c r="Z52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3442,19 +3442,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D53" s="2" t="n"/>
-      <c r="E53" s="2" t="n"/>
-      <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="n"/>
-      <c r="H53" s="2" t="n"/>
-      <c r="I53" s="2" t="n"/>
-      <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="n"/>
-      <c r="L53" s="2" t="n"/>
-      <c r="M53" s="2" t="n"/>
-      <c r="N53" s="2" t="n"/>
-      <c r="O53" s="2" t="n"/>
-      <c r="P53" s="2" t="n"/>
+      <c r="D53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr"/>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="inlineStr"/>
       <c r="Q53" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
@@ -3475,16 +3475,16 @@
           <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
-      <c r="U53" s="2" t="n"/>
-      <c r="V53" s="2" t="n"/>
-      <c r="W53" s="2" t="n"/>
+      <c r="U53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="inlineStr"/>
+      <c r="W53" s="2" t="inlineStr"/>
       <c r="X53" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y53" s="2" t="n"/>
-      <c r="Z53" s="2" t="n"/>
+      <c r="Y53" s="2" t="inlineStr"/>
+      <c r="Z53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -3502,41 +3502,41 @@
           <t>expertise of person source</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="n"/>
-      <c r="H54" s="2" t="n"/>
-      <c r="I54" s="2" t="n"/>
-      <c r="J54" s="2" t="n"/>
-      <c r="K54" s="2" t="n"/>
-      <c r="L54" s="2" t="n"/>
-      <c r="M54" s="2" t="n"/>
-      <c r="N54" s="2" t="n"/>
-      <c r="O54" s="2" t="n"/>
-      <c r="P54" s="2" t="n"/>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="inlineStr"/>
       <c r="Q54" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention. </t>
         </is>
       </c>
-      <c r="R54" s="2" t="n"/>
-      <c r="S54" s="2" t="n"/>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
-      <c r="U54" s="2" t="n"/>
-      <c r="V54" s="2" t="n"/>
-      <c r="W54" s="2" t="n"/>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr"/>
+      <c r="W54" s="2" t="inlineStr"/>
       <c r="X54" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y54" s="2" t="n"/>
-      <c r="Z54" s="2" t="n"/>
+      <c r="Y54" s="2" t="inlineStr"/>
+      <c r="Z54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3554,41 +3554,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n"/>
-      <c r="E55" s="2" t="n"/>
-      <c r="F55" s="2" t="n"/>
-      <c r="G55" s="2" t="n"/>
-      <c r="H55" s="2" t="n"/>
-      <c r="I55" s="2" t="n"/>
-      <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
-      <c r="L55" s="2" t="n"/>
-      <c r="M55" s="2" t="n"/>
-      <c r="N55" s="2" t="n"/>
-      <c r="O55" s="2" t="n"/>
-      <c r="P55" s="2" t="n"/>
+      <c r="D55" s="2" t="inlineStr"/>
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr"/>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr"/>
       <c r="Q55" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
-      <c r="R55" s="2" t="n"/>
-      <c r="S55" s="2" t="n"/>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
           <t>fluent, native</t>
         </is>
       </c>
-      <c r="U55" s="2" t="n"/>
-      <c r="V55" s="2" t="n"/>
-      <c r="W55" s="2" t="n"/>
+      <c r="U55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="inlineStr"/>
+      <c r="W55" s="2" t="inlineStr"/>
       <c r="X55" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y55" s="2" t="n"/>
-      <c r="Z55" s="2" t="n"/>
+      <c r="Y55" s="2" t="inlineStr"/>
+      <c r="Z55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3606,19 +3606,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="2" t="n"/>
-      <c r="F56" s="2" t="n"/>
-      <c r="G56" s="2" t="n"/>
-      <c r="H56" s="2" t="n"/>
-      <c r="I56" s="2" t="n"/>
-      <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
-      <c r="M56" s="2" t="n"/>
-      <c r="N56" s="2" t="n"/>
-      <c r="O56" s="2" t="n"/>
-      <c r="P56" s="2" t="n"/>
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr"/>
+      <c r="P56" s="2" t="inlineStr"/>
       <c r="Q56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients. </t>
@@ -3639,16 +3639,16 @@
           <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
-      <c r="U56" s="2" t="n"/>
-      <c r="V56" s="2" t="n"/>
-      <c r="W56" s="2" t="n"/>
+      <c r="U56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="inlineStr"/>
+      <c r="W56" s="2" t="inlineStr"/>
       <c r="X56" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y56" s="2" t="n"/>
-      <c r="Z56" s="2" t="n"/>
+      <c r="Y56" s="2" t="inlineStr"/>
+      <c r="Z56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3666,19 +3666,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D57" s="2" t="n"/>
-      <c r="E57" s="2" t="n"/>
-      <c r="F57" s="2" t="n"/>
-      <c r="G57" s="2" t="n"/>
-      <c r="H57" s="2" t="n"/>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
-      <c r="L57" s="2" t="n"/>
-      <c r="M57" s="2" t="n"/>
-      <c r="N57" s="2" t="n"/>
-      <c r="O57" s="2" t="n"/>
-      <c r="P57" s="2" t="n"/>
+      <c r="D57" s="2" t="inlineStr"/>
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="inlineStr"/>
       <c r="Q57" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
@@ -3699,16 +3699,16 @@
           <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
-      <c r="U57" s="2" t="n"/>
-      <c r="V57" s="2" t="n"/>
-      <c r="W57" s="2" t="n"/>
+      <c r="U57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="inlineStr"/>
+      <c r="W57" s="2" t="inlineStr"/>
       <c r="X57" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y57" s="2" t="n"/>
-      <c r="Z57" s="2" t="n"/>
+      <c r="Y57" s="2" t="inlineStr"/>
+      <c r="Z57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3726,19 +3726,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n"/>
-      <c r="E58" s="2" t="n"/>
-      <c r="F58" s="2" t="n"/>
-      <c r="G58" s="2" t="n"/>
-      <c r="H58" s="2" t="n"/>
-      <c r="I58" s="2" t="n"/>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
-      <c r="L58" s="2" t="n"/>
-      <c r="M58" s="2" t="n"/>
-      <c r="N58" s="2" t="n"/>
-      <c r="O58" s="2" t="n"/>
-      <c r="P58" s="2" t="n"/>
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr"/>
       <c r="Q58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies. </t>
@@ -3754,17 +3754,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n"/>
-      <c r="U58" s="2" t="n"/>
-      <c r="V58" s="2" t="n"/>
-      <c r="W58" s="2" t="n"/>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="inlineStr"/>
+      <c r="W58" s="2" t="inlineStr"/>
       <c r="X58" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y58" s="2" t="n"/>
-      <c r="Z58" s="2" t="n"/>
+      <c r="Y58" s="2" t="inlineStr"/>
+      <c r="Z58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3782,19 +3782,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D59" s="2" t="n"/>
-      <c r="E59" s="2" t="n"/>
-      <c r="F59" s="2" t="n"/>
-      <c r="G59" s="2" t="n"/>
-      <c r="H59" s="2" t="n"/>
-      <c r="I59" s="2" t="n"/>
-      <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="n"/>
-      <c r="L59" s="2" t="n"/>
-      <c r="M59" s="2" t="n"/>
-      <c r="N59" s="2" t="n"/>
-      <c r="O59" s="2" t="n"/>
-      <c r="P59" s="2" t="n"/>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr"/>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
+      <c r="P59" s="2" t="inlineStr"/>
       <c r="Q59" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments. </t>
@@ -3815,16 +3815,16 @@
           <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
-      <c r="U59" s="2" t="n"/>
-      <c r="V59" s="2" t="n"/>
-      <c r="W59" s="2" t="n"/>
+      <c r="U59" s="2" t="inlineStr"/>
+      <c r="V59" s="2" t="inlineStr"/>
+      <c r="W59" s="2" t="inlineStr"/>
       <c r="X59" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y59" s="2" t="n"/>
-      <c r="Z59" s="2" t="n"/>
+      <c r="Y59" s="2" t="inlineStr"/>
+      <c r="Z59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3842,41 +3842,41 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D60" s="2" t="n"/>
-      <c r="E60" s="2" t="n"/>
-      <c r="F60" s="2" t="n"/>
-      <c r="G60" s="2" t="n"/>
-      <c r="H60" s="2" t="n"/>
-      <c r="I60" s="2" t="n"/>
-      <c r="J60" s="2" t="n"/>
-      <c r="K60" s="2" t="n"/>
-      <c r="L60" s="2" t="n"/>
-      <c r="M60" s="2" t="n"/>
-      <c r="N60" s="2" t="n"/>
-      <c r="O60" s="2" t="n"/>
-      <c r="P60" s="2" t="n"/>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr"/>
       <c r="Q60" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
-      <c r="R60" s="2" t="n"/>
-      <c r="S60" s="2" t="n"/>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr"/>
       <c r="T60" s="2" t="inlineStr">
         <is>
           <t>Interpretator; other linguist</t>
         </is>
       </c>
-      <c r="U60" s="2" t="n"/>
-      <c r="V60" s="2" t="n"/>
-      <c r="W60" s="2" t="n"/>
+      <c r="U60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr"/>
+      <c r="W60" s="2" t="inlineStr"/>
       <c r="X60" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y60" s="2" t="n"/>
-      <c r="Z60" s="2" t="n"/>
+      <c r="Y60" s="2" t="inlineStr"/>
+      <c r="Z60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3894,41 +3894,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-      <c r="G61" s="2" t="n"/>
-      <c r="H61" s="2" t="n"/>
-      <c r="I61" s="2" t="n"/>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
-      <c r="M61" s="2" t="n"/>
-      <c r="N61" s="2" t="n"/>
-      <c r="O61" s="2" t="n"/>
-      <c r="P61" s="2" t="n"/>
+      <c r="D61" s="2" t="inlineStr"/>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="inlineStr"/>
       <c r="Q61" s="2" t="inlineStr">
         <is>
           <t>A gender of person source that is the cultural gender role of male.</t>
         </is>
       </c>
-      <c r="R61" s="2" t="n"/>
-      <c r="S61" s="2" t="n"/>
+      <c r="R61" s="2" t="inlineStr"/>
+      <c r="S61" s="2" t="inlineStr"/>
       <c r="T61" s="2" t="inlineStr">
         <is>
           <t>male, man</t>
         </is>
       </c>
-      <c r="U61" s="2" t="n"/>
-      <c r="V61" s="2" t="n"/>
-      <c r="W61" s="2" t="n"/>
+      <c r="U61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr"/>
+      <c r="W61" s="2" t="inlineStr"/>
       <c r="X61" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y61" s="2" t="n"/>
-      <c r="Z61" s="2" t="n"/>
+      <c r="Y61" s="2" t="inlineStr"/>
+      <c r="Z61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3946,19 +3946,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n"/>
-      <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
-      <c r="G62" s="2" t="n"/>
-      <c r="H62" s="2" t="n"/>
-      <c r="I62" s="2" t="n"/>
-      <c r="J62" s="2" t="n"/>
-      <c r="K62" s="2" t="n"/>
-      <c r="L62" s="2" t="n"/>
-      <c r="M62" s="2" t="n"/>
-      <c r="N62" s="2" t="n"/>
-      <c r="O62" s="2" t="n"/>
-      <c r="P62" s="2" t="n"/>
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr"/>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="inlineStr"/>
+      <c r="M62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="inlineStr"/>
+      <c r="O62" s="2" t="inlineStr"/>
+      <c r="P62" s="2" t="inlineStr"/>
       <c r="Q62" s="2" t="inlineStr">
         <is>
           <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
@@ -3979,16 +3979,16 @@
           <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
-      <c r="U62" s="2" t="n"/>
-      <c r="V62" s="2" t="n"/>
-      <c r="W62" s="2" t="n"/>
+      <c r="U62" s="2" t="inlineStr"/>
+      <c r="V62" s="2" t="inlineStr"/>
+      <c r="W62" s="2" t="inlineStr"/>
       <c r="X62" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y62" s="2" t="n"/>
-      <c r="Z62" s="2" t="n"/>
+      <c r="Y62" s="2" t="inlineStr"/>
+      <c r="Z62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -4006,41 +4006,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n"/>
-      <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
-      <c r="G63" s="2" t="n"/>
-      <c r="H63" s="2" t="n"/>
-      <c r="I63" s="2" t="n"/>
-      <c r="J63" s="2" t="n"/>
-      <c r="K63" s="2" t="n"/>
-      <c r="L63" s="2" t="n"/>
-      <c r="M63" s="2" t="n"/>
-      <c r="N63" s="2" t="n"/>
-      <c r="O63" s="2" t="n"/>
-      <c r="P63" s="2" t="n"/>
+      <c r="D63" s="2" t="inlineStr"/>
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr"/>
+      <c r="L63" s="2" t="inlineStr"/>
+      <c r="M63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="inlineStr"/>
+      <c r="O63" s="2" t="inlineStr"/>
+      <c r="P63" s="2" t="inlineStr"/>
       <c r="Q63" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
-      <c r="R63" s="2" t="n"/>
-      <c r="S63" s="2" t="n"/>
+      <c r="R63" s="2" t="inlineStr"/>
+      <c r="S63" s="2" t="inlineStr"/>
       <c r="T63" s="2" t="inlineStr">
         <is>
           <t>MSc student, Masters student</t>
         </is>
       </c>
-      <c r="U63" s="2" t="n"/>
-      <c r="V63" s="2" t="n"/>
-      <c r="W63" s="2" t="n"/>
+      <c r="U63" s="2" t="inlineStr"/>
+      <c r="V63" s="2" t="inlineStr"/>
+      <c r="W63" s="2" t="inlineStr"/>
       <c r="X63" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y63" s="2" t="n"/>
-      <c r="Z63" s="2" t="n"/>
+      <c r="Y63" s="2" t="inlineStr"/>
+      <c r="Z63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -4058,19 +4058,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D64" s="2" t="n"/>
-      <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
-      <c r="G64" s="2" t="n"/>
-      <c r="H64" s="2" t="n"/>
-      <c r="I64" s="2" t="n"/>
-      <c r="J64" s="2" t="n"/>
-      <c r="K64" s="2" t="n"/>
-      <c r="L64" s="2" t="n"/>
-      <c r="M64" s="2" t="n"/>
-      <c r="N64" s="2" t="n"/>
-      <c r="O64" s="2" t="n"/>
-      <c r="P64" s="2" t="n"/>
+      <c r="D64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr"/>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
+      <c r="L64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr"/>
       <c r="Q64" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
@@ -4091,16 +4091,16 @@
           <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
-      <c r="U64" s="2" t="n"/>
-      <c r="V64" s="2" t="n"/>
-      <c r="W64" s="2" t="n"/>
+      <c r="U64" s="2" t="inlineStr"/>
+      <c r="V64" s="2" t="inlineStr"/>
+      <c r="W64" s="2" t="inlineStr"/>
       <c r="X64" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y64" s="2" t="n"/>
-      <c r="Z64" s="2" t="n"/>
+      <c r="Y64" s="2" t="inlineStr"/>
+      <c r="Z64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -4118,19 +4118,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D65" s="2" t="n"/>
-      <c r="E65" s="2" t="n"/>
-      <c r="F65" s="2" t="n"/>
-      <c r="G65" s="2" t="n"/>
-      <c r="H65" s="2" t="n"/>
-      <c r="I65" s="2" t="n"/>
-      <c r="J65" s="2" t="n"/>
-      <c r="K65" s="2" t="n"/>
-      <c r="L65" s="2" t="n"/>
-      <c r="M65" s="2" t="n"/>
-      <c r="N65" s="2" t="n"/>
-      <c r="O65" s="2" t="n"/>
-      <c r="P65" s="2" t="n"/>
+      <c r="D65" s="2" t="inlineStr"/>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr"/>
+      <c r="L65" s="2" t="inlineStr"/>
+      <c r="M65" s="2" t="inlineStr"/>
+      <c r="N65" s="2" t="inlineStr"/>
+      <c r="O65" s="2" t="inlineStr"/>
+      <c r="P65" s="2" t="inlineStr"/>
       <c r="Q65" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional. </t>
@@ -4151,16 +4151,16 @@
           <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
-      <c r="U65" s="2" t="n"/>
-      <c r="V65" s="2" t="n"/>
-      <c r="W65" s="2" t="n"/>
+      <c r="U65" s="2" t="inlineStr"/>
+      <c r="V65" s="2" t="inlineStr"/>
+      <c r="W65" s="2" t="inlineStr"/>
       <c r="X65" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y65" s="2" t="n"/>
-      <c r="Z65" s="2" t="n"/>
+      <c r="Y65" s="2" t="inlineStr"/>
+      <c r="Z65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -4178,19 +4178,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D66" s="2" t="n"/>
-      <c r="E66" s="2" t="n"/>
-      <c r="F66" s="2" t="n"/>
-      <c r="G66" s="2" t="n"/>
-      <c r="H66" s="2" t="n"/>
-      <c r="I66" s="2" t="n"/>
-      <c r="J66" s="2" t="n"/>
-      <c r="K66" s="2" t="n"/>
-      <c r="L66" s="2" t="n"/>
-      <c r="M66" s="2" t="n"/>
-      <c r="N66" s="2" t="n"/>
-      <c r="O66" s="2" t="n"/>
-      <c r="P66" s="2" t="n"/>
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr"/>
+      <c r="L66" s="2" t="inlineStr"/>
+      <c r="M66" s="2" t="inlineStr"/>
+      <c r="N66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="inlineStr"/>
       <c r="Q66" s="2" t="inlineStr">
         <is>
           <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
@@ -4211,16 +4211,16 @@
           <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
-      <c r="U66" s="2" t="n"/>
-      <c r="V66" s="2" t="n"/>
-      <c r="W66" s="2" t="n"/>
+      <c r="U66" s="2" t="inlineStr"/>
+      <c r="V66" s="2" t="inlineStr"/>
+      <c r="W66" s="2" t="inlineStr"/>
       <c r="X66" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y66" s="2" t="n"/>
-      <c r="Z66" s="2" t="n"/>
+      <c r="Y66" s="2" t="inlineStr"/>
+      <c r="Z66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -4238,19 +4238,19 @@
           <t xml:space="preserve">nursing and midwifery associate professional </t>
         </is>
       </c>
-      <c r="D67" s="2" t="n"/>
-      <c r="E67" s="2" t="n"/>
-      <c r="F67" s="2" t="n"/>
-      <c r="G67" s="2" t="n"/>
-      <c r="H67" s="2" t="n"/>
-      <c r="I67" s="2" t="n"/>
-      <c r="J67" s="2" t="n"/>
-      <c r="K67" s="2" t="n"/>
-      <c r="L67" s="2" t="n"/>
-      <c r="M67" s="2" t="n"/>
-      <c r="N67" s="2" t="n"/>
-      <c r="O67" s="2" t="n"/>
-      <c r="P67" s="2" t="n"/>
+      <c r="D67" s="2" t="inlineStr"/>
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr"/>
+      <c r="K67" s="2" t="inlineStr"/>
+      <c r="L67" s="2" t="inlineStr"/>
+      <c r="M67" s="2" t="inlineStr"/>
+      <c r="N67" s="2" t="inlineStr"/>
+      <c r="O67" s="2" t="inlineStr"/>
+      <c r="P67" s="2" t="inlineStr"/>
       <c r="Q67" s="2" t="inlineStr">
         <is>
           <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
@@ -4271,16 +4271,16 @@
           <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
-      <c r="U67" s="2" t="n"/>
-      <c r="V67" s="2" t="n"/>
-      <c r="W67" s="2" t="n"/>
+      <c r="U67" s="2" t="inlineStr"/>
+      <c r="V67" s="2" t="inlineStr"/>
+      <c r="W67" s="2" t="inlineStr"/>
       <c r="X67" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y67" s="2" t="n"/>
-      <c r="Z67" s="2" t="n"/>
+      <c r="Y67" s="2" t="inlineStr"/>
+      <c r="Z67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -4298,19 +4298,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D68" s="2" t="n"/>
-      <c r="E68" s="2" t="n"/>
-      <c r="F68" s="2" t="n"/>
-      <c r="G68" s="2" t="n"/>
-      <c r="H68" s="2" t="n"/>
-      <c r="I68" s="2" t="n"/>
-      <c r="J68" s="2" t="n"/>
-      <c r="K68" s="2" t="n"/>
-      <c r="L68" s="2" t="n"/>
-      <c r="M68" s="2" t="n"/>
-      <c r="N68" s="2" t="n"/>
-      <c r="O68" s="2" t="n"/>
-      <c r="P68" s="2" t="n"/>
+      <c r="D68" s="2" t="inlineStr"/>
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr"/>
+      <c r="K68" s="2" t="inlineStr"/>
+      <c r="L68" s="2" t="inlineStr"/>
+      <c r="M68" s="2" t="inlineStr"/>
+      <c r="N68" s="2" t="inlineStr"/>
+      <c r="O68" s="2" t="inlineStr"/>
+      <c r="P68" s="2" t="inlineStr"/>
       <c r="Q68" s="2" t="inlineStr">
         <is>
           <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
@@ -4331,16 +4331,16 @@
           <t>Midwife</t>
         </is>
       </c>
-      <c r="U68" s="2" t="n"/>
-      <c r="V68" s="2" t="n"/>
-      <c r="W68" s="2" t="n"/>
+      <c r="U68" s="2" t="inlineStr"/>
+      <c r="V68" s="2" t="inlineStr"/>
+      <c r="W68" s="2" t="inlineStr"/>
       <c r="X68" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y68" s="2" t="n"/>
-      <c r="Z68" s="2" t="n"/>
+      <c r="Y68" s="2" t="inlineStr"/>
+      <c r="Z68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -4358,41 +4358,41 @@
           <t>payment of person source</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n"/>
-      <c r="E69" s="2" t="n"/>
-      <c r="F69" s="2" t="n"/>
-      <c r="G69" s="2" t="n"/>
-      <c r="H69" s="2" t="n"/>
-      <c r="I69" s="2" t="n"/>
-      <c r="J69" s="2" t="n"/>
-      <c r="K69" s="2" t="n"/>
-      <c r="L69" s="2" t="n"/>
-      <c r="M69" s="2" t="n"/>
-      <c r="N69" s="2" t="n"/>
-      <c r="O69" s="2" t="n"/>
-      <c r="P69" s="2" t="n"/>
+      <c r="D69" s="2" t="inlineStr"/>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
+      <c r="L69" s="2" t="inlineStr"/>
+      <c r="M69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="inlineStr"/>
+      <c r="O69" s="2" t="inlineStr"/>
+      <c r="P69" s="2" t="inlineStr"/>
       <c r="Q69" s="2" t="inlineStr">
         <is>
           <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R69" s="2" t="n"/>
-      <c r="S69" s="2" t="n"/>
+      <c r="R69" s="2" t="inlineStr"/>
+      <c r="S69" s="2" t="inlineStr"/>
       <c r="T69" s="2" t="inlineStr">
         <is>
           <t>paid in cash, vouchers</t>
         </is>
       </c>
-      <c r="U69" s="2" t="n"/>
-      <c r="V69" s="2" t="n"/>
-      <c r="W69" s="2" t="n"/>
+      <c r="U69" s="2" t="inlineStr"/>
+      <c r="V69" s="2" t="inlineStr"/>
+      <c r="W69" s="2" t="inlineStr"/>
       <c r="X69" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y69" s="2" t="n"/>
-      <c r="Z69" s="2" t="n"/>
+      <c r="Y69" s="2" t="inlineStr"/>
+      <c r="Z69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -4410,19 +4410,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D70" s="2" t="n"/>
-      <c r="E70" s="2" t="n"/>
-      <c r="F70" s="2" t="n"/>
-      <c r="G70" s="2" t="n"/>
-      <c r="H70" s="2" t="n"/>
-      <c r="I70" s="2" t="n"/>
-      <c r="J70" s="2" t="n"/>
-      <c r="K70" s="2" t="n"/>
-      <c r="L70" s="2" t="n"/>
-      <c r="M70" s="2" t="n"/>
-      <c r="N70" s="2" t="n"/>
-      <c r="O70" s="2" t="n"/>
-      <c r="P70" s="2" t="n"/>
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+      <c r="L70" s="2" t="inlineStr"/>
+      <c r="M70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr"/>
       <c r="Q70" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
@@ -4443,16 +4443,16 @@
           <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
-      <c r="U70" s="2" t="n"/>
-      <c r="V70" s="2" t="n"/>
-      <c r="W70" s="2" t="n"/>
+      <c r="U70" s="2" t="inlineStr"/>
+      <c r="V70" s="2" t="inlineStr"/>
+      <c r="W70" s="2" t="inlineStr"/>
       <c r="X70" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y70" s="2" t="n"/>
-      <c r="Z70" s="2" t="n"/>
+      <c r="Y70" s="2" t="inlineStr"/>
+      <c r="Z70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -4470,41 +4470,41 @@
           <t>payment of person source</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n"/>
-      <c r="E71" s="2" t="n"/>
-      <c r="F71" s="2" t="n"/>
-      <c r="G71" s="2" t="n"/>
-      <c r="H71" s="2" t="n"/>
-      <c r="I71" s="2" t="n"/>
-      <c r="J71" s="2" t="n"/>
-      <c r="K71" s="2" t="n"/>
-      <c r="L71" s="2" t="n"/>
-      <c r="M71" s="2" t="n"/>
-      <c r="N71" s="2" t="n"/>
-      <c r="O71" s="2" t="n"/>
-      <c r="P71" s="2" t="n"/>
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
+      <c r="M71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="inlineStr"/>
+      <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr"/>
       <c r="Q71" s="2" t="inlineStr">
         <is>
           <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R71" s="2" t="n"/>
-      <c r="S71" s="2" t="n"/>
+      <c r="R71" s="2" t="inlineStr"/>
+      <c r="S71" s="2" t="inlineStr"/>
       <c r="T71" s="2" t="inlineStr">
         <is>
           <t>course credit</t>
         </is>
       </c>
-      <c r="U71" s="2" t="n"/>
-      <c r="V71" s="2" t="n"/>
-      <c r="W71" s="2" t="n"/>
+      <c r="U71" s="2" t="inlineStr"/>
+      <c r="V71" s="2" t="inlineStr"/>
+      <c r="W71" s="2" t="inlineStr"/>
       <c r="X71" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y71" s="2" t="n"/>
-      <c r="Z71" s="2" t="n"/>
+      <c r="Y71" s="2" t="inlineStr"/>
+      <c r="Z71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -4522,41 +4522,41 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D72" s="2" t="n"/>
-      <c r="E72" s="2" t="n"/>
-      <c r="F72" s="2" t="n"/>
-      <c r="G72" s="2" t="n"/>
-      <c r="H72" s="2" t="n"/>
-      <c r="I72" s="2" t="n"/>
-      <c r="J72" s="2" t="n"/>
-      <c r="K72" s="2" t="n"/>
-      <c r="L72" s="2" t="n"/>
-      <c r="M72" s="2" t="n"/>
-      <c r="N72" s="2" t="n"/>
+      <c r="D72" s="2" t="inlineStr"/>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+      <c r="L72" s="2" t="inlineStr"/>
+      <c r="M72" s="2" t="inlineStr"/>
+      <c r="N72" s="2" t="inlineStr"/>
       <c r="O72" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="P72" s="2" t="n"/>
+      <c r="P72" s="2" t="inlineStr"/>
       <c r="Q72" s="2" t="inlineStr">
         <is>
           <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
         </is>
       </c>
-      <c r="R72" s="2" t="n"/>
-      <c r="S72" s="2" t="n"/>
-      <c r="T72" s="2" t="n"/>
-      <c r="U72" s="2" t="n"/>
-      <c r="V72" s="2" t="n"/>
-      <c r="W72" s="2" t="n"/>
+      <c r="R72" s="2" t="inlineStr"/>
+      <c r="S72" s="2" t="inlineStr"/>
+      <c r="T72" s="2" t="inlineStr"/>
+      <c r="U72" s="2" t="inlineStr"/>
+      <c r="V72" s="2" t="inlineStr"/>
+      <c r="W72" s="2" t="inlineStr"/>
       <c r="X72" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y72" s="2" t="n"/>
-      <c r="Z72" s="2" t="n"/>
+      <c r="Y72" s="2" t="inlineStr"/>
+      <c r="Z72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -4574,19 +4574,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D73" s="2" t="n"/>
-      <c r="E73" s="2" t="n"/>
-      <c r="F73" s="2" t="n"/>
-      <c r="G73" s="2" t="n"/>
-      <c r="H73" s="2" t="n"/>
-      <c r="I73" s="2" t="n"/>
-      <c r="J73" s="2" t="n"/>
-      <c r="K73" s="2" t="n"/>
-      <c r="L73" s="2" t="n"/>
-      <c r="M73" s="2" t="n"/>
-      <c r="N73" s="2" t="n"/>
-      <c r="O73" s="2" t="n"/>
-      <c r="P73" s="2" t="n"/>
+      <c r="D73" s="2" t="inlineStr"/>
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr"/>
+      <c r="H73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr"/>
+      <c r="J73" s="2" t="inlineStr"/>
+      <c r="K73" s="2" t="inlineStr"/>
+      <c r="L73" s="2" t="inlineStr"/>
+      <c r="M73" s="2" t="inlineStr"/>
+      <c r="N73" s="2" t="inlineStr"/>
+      <c r="O73" s="2" t="inlineStr"/>
+      <c r="P73" s="2" t="inlineStr"/>
       <c r="Q73" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
@@ -4607,16 +4607,16 @@
           <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
-      <c r="U73" s="2" t="n"/>
-      <c r="V73" s="2" t="n"/>
-      <c r="W73" s="2" t="n"/>
+      <c r="U73" s="2" t="inlineStr"/>
+      <c r="V73" s="2" t="inlineStr"/>
+      <c r="W73" s="2" t="inlineStr"/>
       <c r="X73" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y73" s="2" t="n"/>
-      <c r="Z73" s="2" t="n"/>
+      <c r="Y73" s="2" t="inlineStr"/>
+      <c r="Z73" s="2" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -4634,19 +4634,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D74" s="2" t="n"/>
-      <c r="E74" s="2" t="n"/>
-      <c r="F74" s="2" t="n"/>
-      <c r="G74" s="2" t="n"/>
-      <c r="H74" s="2" t="n"/>
-      <c r="I74" s="2" t="n"/>
-      <c r="J74" s="2" t="n"/>
-      <c r="K74" s="2" t="n"/>
-      <c r="L74" s="2" t="n"/>
-      <c r="M74" s="2" t="n"/>
-      <c r="N74" s="2" t="n"/>
-      <c r="O74" s="2" t="n"/>
-      <c r="P74" s="2" t="n"/>
+      <c r="D74" s="2" t="inlineStr"/>
+      <c r="E74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr"/>
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr"/>
+      <c r="J74" s="2" t="inlineStr"/>
+      <c r="K74" s="2" t="inlineStr"/>
+      <c r="L74" s="2" t="inlineStr"/>
+      <c r="M74" s="2" t="inlineStr"/>
+      <c r="N74" s="2" t="inlineStr"/>
+      <c r="O74" s="2" t="inlineStr"/>
+      <c r="P74" s="2" t="inlineStr"/>
       <c r="Q74" s="2" t="inlineStr">
         <is>
           <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
@@ -4662,17 +4662,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T74" s="2" t="n"/>
-      <c r="U74" s="2" t="n"/>
-      <c r="V74" s="2" t="n"/>
-      <c r="W74" s="2" t="n"/>
+      <c r="T74" s="2" t="inlineStr"/>
+      <c r="U74" s="2" t="inlineStr"/>
+      <c r="V74" s="2" t="inlineStr"/>
+      <c r="W74" s="2" t="inlineStr"/>
       <c r="X74" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y74" s="2" t="n"/>
-      <c r="Z74" s="2" t="n"/>
+      <c r="Y74" s="2" t="inlineStr"/>
+      <c r="Z74" s="2" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
@@ -4690,19 +4690,19 @@
           <t xml:space="preserve">nursing and midwifery associate professional </t>
         </is>
       </c>
-      <c r="D75" s="2" t="n"/>
-      <c r="E75" s="2" t="n"/>
-      <c r="F75" s="2" t="n"/>
-      <c r="G75" s="2" t="n"/>
-      <c r="H75" s="2" t="n"/>
-      <c r="I75" s="2" t="n"/>
-      <c r="J75" s="2" t="n"/>
-      <c r="K75" s="2" t="n"/>
-      <c r="L75" s="2" t="n"/>
-      <c r="M75" s="2" t="n"/>
-      <c r="N75" s="2" t="n"/>
-      <c r="O75" s="2" t="n"/>
-      <c r="P75" s="2" t="n"/>
+      <c r="D75" s="2" t="inlineStr"/>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr"/>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr"/>
+      <c r="K75" s="2" t="inlineStr"/>
+      <c r="L75" s="2" t="inlineStr"/>
+      <c r="M75" s="2" t="inlineStr"/>
+      <c r="N75" s="2" t="inlineStr"/>
+      <c r="O75" s="2" t="inlineStr"/>
+      <c r="P75" s="2" t="inlineStr"/>
       <c r="Q75" s="2" t="inlineStr">
         <is>
           <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
@@ -4723,16 +4723,16 @@
           <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
-      <c r="U75" s="2" t="n"/>
-      <c r="V75" s="2" t="n"/>
-      <c r="W75" s="2" t="n"/>
+      <c r="U75" s="2" t="inlineStr"/>
+      <c r="V75" s="2" t="inlineStr"/>
+      <c r="W75" s="2" t="inlineStr"/>
       <c r="X75" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y75" s="2" t="n"/>
-      <c r="Z75" s="2" t="n"/>
+      <c r="Y75" s="2" t="inlineStr"/>
+      <c r="Z75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -4750,19 +4750,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D76" s="2" t="n"/>
-      <c r="E76" s="2" t="n"/>
-      <c r="F76" s="2" t="n"/>
-      <c r="G76" s="2" t="n"/>
-      <c r="H76" s="2" t="n"/>
-      <c r="I76" s="2" t="n"/>
-      <c r="J76" s="2" t="n"/>
-      <c r="K76" s="2" t="n"/>
-      <c r="L76" s="2" t="n"/>
-      <c r="M76" s="2" t="n"/>
-      <c r="N76" s="2" t="n"/>
-      <c r="O76" s="2" t="n"/>
-      <c r="P76" s="2" t="n"/>
+      <c r="D76" s="2" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr"/>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr"/>
+      <c r="K76" s="2" t="inlineStr"/>
+      <c r="L76" s="2" t="inlineStr"/>
+      <c r="M76" s="2" t="inlineStr"/>
+      <c r="N76" s="2" t="inlineStr"/>
+      <c r="O76" s="2" t="inlineStr"/>
+      <c r="P76" s="2" t="inlineStr"/>
       <c r="Q76" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health. </t>
@@ -4783,16 +4783,16 @@
           <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
-      <c r="U76" s="2" t="n"/>
-      <c r="V76" s="2" t="n"/>
-      <c r="W76" s="2" t="n"/>
+      <c r="U76" s="2" t="inlineStr"/>
+      <c r="V76" s="2" t="inlineStr"/>
+      <c r="W76" s="2" t="inlineStr"/>
       <c r="X76" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y76" s="2" t="n"/>
-      <c r="Z76" s="2" t="n"/>
+      <c r="Y76" s="2" t="inlineStr"/>
+      <c r="Z76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -4810,41 +4810,41 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n"/>
-      <c r="E77" s="2" t="n"/>
-      <c r="F77" s="2" t="n"/>
-      <c r="G77" s="2" t="n"/>
-      <c r="H77" s="2" t="n"/>
-      <c r="I77" s="2" t="n"/>
-      <c r="J77" s="2" t="n"/>
-      <c r="K77" s="2" t="n"/>
-      <c r="L77" s="2" t="n"/>
-      <c r="M77" s="2" t="n"/>
-      <c r="N77" s="2" t="n"/>
-      <c r="O77" s="2" t="n"/>
-      <c r="P77" s="2" t="n"/>
+      <c r="D77" s="2" t="inlineStr"/>
+      <c r="E77" s="2" t="inlineStr"/>
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr"/>
+      <c r="H77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr"/>
+      <c r="K77" s="2" t="inlineStr"/>
+      <c r="L77" s="2" t="inlineStr"/>
+      <c r="M77" s="2" t="inlineStr"/>
+      <c r="N77" s="2" t="inlineStr"/>
+      <c r="O77" s="2" t="inlineStr"/>
+      <c r="P77" s="2" t="inlineStr"/>
       <c r="Q77" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
-      <c r="R77" s="2" t="n"/>
-      <c r="S77" s="2" t="n"/>
+      <c r="R77" s="2" t="inlineStr"/>
+      <c r="S77" s="2" t="inlineStr"/>
       <c r="T77" s="2" t="inlineStr">
         <is>
           <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
-      <c r="U77" s="2" t="n"/>
-      <c r="V77" s="2" t="n"/>
-      <c r="W77" s="2" t="n"/>
+      <c r="U77" s="2" t="inlineStr"/>
+      <c r="V77" s="2" t="inlineStr"/>
+      <c r="W77" s="2" t="inlineStr"/>
       <c r="X77" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y77" s="2" t="n"/>
-      <c r="Z77" s="2" t="n"/>
+      <c r="Y77" s="2" t="inlineStr"/>
+      <c r="Z77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
@@ -4862,19 +4862,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D78" s="2" t="n"/>
-      <c r="E78" s="2" t="n"/>
-      <c r="F78" s="2" t="n"/>
-      <c r="G78" s="2" t="n"/>
-      <c r="H78" s="2" t="n"/>
-      <c r="I78" s="2" t="n"/>
-      <c r="J78" s="2" t="n"/>
-      <c r="K78" s="2" t="n"/>
-      <c r="L78" s="2" t="n"/>
-      <c r="M78" s="2" t="n"/>
-      <c r="N78" s="2" t="n"/>
-      <c r="O78" s="2" t="n"/>
-      <c r="P78" s="2" t="n"/>
+      <c r="D78" s="2" t="inlineStr"/>
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr"/>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr"/>
+      <c r="J78" s="2" t="inlineStr"/>
+      <c r="K78" s="2" t="inlineStr"/>
+      <c r="L78" s="2" t="inlineStr"/>
+      <c r="M78" s="2" t="inlineStr"/>
+      <c r="N78" s="2" t="inlineStr"/>
+      <c r="O78" s="2" t="inlineStr"/>
+      <c r="P78" s="2" t="inlineStr"/>
       <c r="Q78" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system. </t>
@@ -4895,16 +4895,16 @@
           <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
-      <c r="U78" s="2" t="n"/>
-      <c r="V78" s="2" t="n"/>
-      <c r="W78" s="2" t="n"/>
+      <c r="U78" s="2" t="inlineStr"/>
+      <c r="V78" s="2" t="inlineStr"/>
+      <c r="W78" s="2" t="inlineStr"/>
       <c r="X78" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y78" s="2" t="n"/>
-      <c r="Z78" s="2" t="n"/>
+      <c r="Y78" s="2" t="inlineStr"/>
+      <c r="Z78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4922,21 +4922,41 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>organisational source role</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
           <t xml:space="preserve">An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members. </t>
         </is>
       </c>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -4959,36 +4979,36 @@
           <t>(organisation and RO:0000053 some 'organisational source role')</t>
         </is>
       </c>
-      <c r="E80" s="2" t="n"/>
-      <c r="F80" s="2" t="n"/>
-      <c r="G80" s="2" t="n"/>
-      <c r="H80" s="2" t="n"/>
-      <c r="I80" s="2" t="n"/>
-      <c r="J80" s="2" t="n"/>
-      <c r="K80" s="2" t="n"/>
-      <c r="L80" s="2" t="n"/>
-      <c r="M80" s="2" t="n"/>
-      <c r="N80" s="2" t="n"/>
-      <c r="O80" s="2" t="n"/>
-      <c r="P80" s="2" t="n"/>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr"/>
+      <c r="K80" s="2" t="inlineStr"/>
+      <c r="L80" s="2" t="inlineStr"/>
+      <c r="M80" s="2" t="inlineStr"/>
+      <c r="N80" s="2" t="inlineStr"/>
+      <c r="O80" s="2" t="inlineStr"/>
+      <c r="P80" s="2" t="inlineStr"/>
       <c r="Q80" s="2" t="inlineStr">
         <is>
           <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="R80" s="2" t="n"/>
-      <c r="S80" s="2" t="n"/>
-      <c r="T80" s="2" t="n"/>
-      <c r="U80" s="2" t="n"/>
-      <c r="V80" s="2" t="n"/>
-      <c r="W80" s="2" t="n"/>
+      <c r="R80" s="2" t="inlineStr"/>
+      <c r="S80" s="2" t="inlineStr"/>
+      <c r="T80" s="2" t="inlineStr"/>
+      <c r="U80" s="2" t="inlineStr"/>
+      <c r="V80" s="2" t="inlineStr"/>
+      <c r="W80" s="2" t="inlineStr"/>
       <c r="X80" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y80" s="2" t="n"/>
-      <c r="Z80" s="2" t="n"/>
+      <c r="Y80" s="2" t="inlineStr"/>
+      <c r="Z80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
@@ -5006,37 +5026,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n"/>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-      <c r="G81" s="2" t="n"/>
-      <c r="H81" s="2" t="n"/>
-      <c r="I81" s="2" t="n"/>
-      <c r="J81" s="2" t="n"/>
-      <c r="K81" s="2" t="n"/>
-      <c r="L81" s="2" t="n"/>
-      <c r="M81" s="2" t="n"/>
-      <c r="N81" s="2" t="n"/>
-      <c r="O81" s="2" t="n"/>
-      <c r="P81" s="2" t="n"/>
+      <c r="D81" s="2" t="inlineStr"/>
+      <c r="E81" s="2" t="inlineStr"/>
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr"/>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
+      <c r="J81" s="2" t="inlineStr"/>
+      <c r="K81" s="2" t="inlineStr"/>
+      <c r="L81" s="2" t="inlineStr"/>
+      <c r="M81" s="2" t="inlineStr"/>
+      <c r="N81" s="2" t="inlineStr"/>
+      <c r="O81" s="2" t="inlineStr"/>
+      <c r="P81" s="2" t="inlineStr"/>
       <c r="Q81" s="2" t="inlineStr">
         <is>
           <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
-      <c r="R81" s="2" t="n"/>
-      <c r="S81" s="2" t="n"/>
-      <c r="T81" s="2" t="n"/>
-      <c r="U81" s="2" t="n"/>
-      <c r="V81" s="2" t="n"/>
-      <c r="W81" s="2" t="n"/>
+      <c r="R81" s="2" t="inlineStr"/>
+      <c r="S81" s="2" t="inlineStr"/>
+      <c r="T81" s="2" t="inlineStr"/>
+      <c r="U81" s="2" t="inlineStr"/>
+      <c r="V81" s="2" t="inlineStr"/>
+      <c r="W81" s="2" t="inlineStr"/>
       <c r="X81" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y81" s="2" t="n"/>
-      <c r="Z81" s="2" t="n"/>
+      <c r="Y81" s="2" t="inlineStr"/>
+      <c r="Z81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -5054,41 +5074,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n"/>
-      <c r="E82" s="2" t="n"/>
-      <c r="F82" s="2" t="n"/>
-      <c r="G82" s="2" t="n"/>
-      <c r="H82" s="2" t="n"/>
-      <c r="I82" s="2" t="n"/>
-      <c r="J82" s="2" t="n"/>
-      <c r="K82" s="2" t="n"/>
-      <c r="L82" s="2" t="n"/>
-      <c r="M82" s="2" t="n"/>
-      <c r="N82" s="2" t="n"/>
-      <c r="O82" s="2" t="n"/>
-      <c r="P82" s="2" t="n"/>
+      <c r="D82" s="2" t="inlineStr"/>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr"/>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
+      <c r="J82" s="2" t="inlineStr"/>
+      <c r="K82" s="2" t="inlineStr"/>
+      <c r="L82" s="2" t="inlineStr"/>
+      <c r="M82" s="2" t="inlineStr"/>
+      <c r="N82" s="2" t="inlineStr"/>
+      <c r="O82" s="2" t="inlineStr"/>
+      <c r="P82" s="2" t="inlineStr"/>
       <c r="Q82" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female. </t>
         </is>
       </c>
-      <c r="R82" s="2" t="n"/>
-      <c r="S82" s="2" t="n"/>
+      <c r="R82" s="2" t="inlineStr"/>
+      <c r="S82" s="2" t="inlineStr"/>
       <c r="T82" s="2" t="inlineStr">
         <is>
           <t>non-binary, transexual</t>
         </is>
       </c>
-      <c r="U82" s="2" t="n"/>
-      <c r="V82" s="2" t="n"/>
-      <c r="W82" s="2" t="n"/>
+      <c r="U82" s="2" t="inlineStr"/>
+      <c r="V82" s="2" t="inlineStr"/>
+      <c r="W82" s="2" t="inlineStr"/>
       <c r="X82" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y82" s="2" t="n"/>
-      <c r="Z82" s="2" t="n"/>
+      <c r="Y82" s="2" t="inlineStr"/>
+      <c r="Z82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -5106,19 +5126,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D83" s="2" t="n"/>
-      <c r="E83" s="2" t="n"/>
-      <c r="F83" s="2" t="n"/>
-      <c r="G83" s="2" t="n"/>
-      <c r="H83" s="2" t="n"/>
-      <c r="I83" s="2" t="n"/>
-      <c r="J83" s="2" t="n"/>
-      <c r="K83" s="2" t="n"/>
-      <c r="L83" s="2" t="n"/>
-      <c r="M83" s="2" t="n"/>
-      <c r="N83" s="2" t="n"/>
-      <c r="O83" s="2" t="n"/>
-      <c r="P83" s="2" t="n"/>
+      <c r="D83" s="2" t="inlineStr"/>
+      <c r="E83" s="2" t="inlineStr"/>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr"/>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
+      <c r="J83" s="2" t="inlineStr"/>
+      <c r="K83" s="2" t="inlineStr"/>
+      <c r="L83" s="2" t="inlineStr"/>
+      <c r="M83" s="2" t="inlineStr"/>
+      <c r="N83" s="2" t="inlineStr"/>
+      <c r="O83" s="2" t="inlineStr"/>
+      <c r="P83" s="2" t="inlineStr"/>
       <c r="Q83" s="2" t="inlineStr">
         <is>
           <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
@@ -5139,16 +5159,16 @@
           <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
-      <c r="U83" s="2" t="n"/>
-      <c r="V83" s="2" t="n"/>
-      <c r="W83" s="2" t="n"/>
+      <c r="U83" s="2" t="inlineStr"/>
+      <c r="V83" s="2" t="inlineStr"/>
+      <c r="W83" s="2" t="inlineStr"/>
       <c r="X83" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y83" s="2" t="n"/>
-      <c r="Z83" s="2" t="n"/>
+      <c r="Y83" s="2" t="inlineStr"/>
+      <c r="Z83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -5166,41 +5186,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n"/>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-      <c r="G84" s="2" t="n"/>
-      <c r="H84" s="2" t="n"/>
-      <c r="I84" s="2" t="n"/>
-      <c r="J84" s="2" t="n"/>
-      <c r="K84" s="2" t="n"/>
-      <c r="L84" s="2" t="n"/>
-      <c r="M84" s="2" t="n"/>
-      <c r="N84" s="2" t="n"/>
-      <c r="O84" s="2" t="n"/>
-      <c r="P84" s="2" t="n"/>
+      <c r="D84" s="2" t="inlineStr"/>
+      <c r="E84" s="2" t="inlineStr"/>
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr"/>
+      <c r="H84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr"/>
+      <c r="J84" s="2" t="inlineStr"/>
+      <c r="K84" s="2" t="inlineStr"/>
+      <c r="L84" s="2" t="inlineStr"/>
+      <c r="M84" s="2" t="inlineStr"/>
+      <c r="N84" s="2" t="inlineStr"/>
+      <c r="O84" s="2" t="inlineStr"/>
+      <c r="P84" s="2" t="inlineStr"/>
       <c r="Q84" s="2" t="inlineStr">
         <is>
           <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
-      <c r="R84" s="2" t="n"/>
-      <c r="S84" s="2" t="n"/>
+      <c r="R84" s="2" t="inlineStr"/>
+      <c r="S84" s="2" t="inlineStr"/>
       <c r="T84" s="2" t="inlineStr">
         <is>
           <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
-      <c r="U84" s="2" t="n"/>
-      <c r="V84" s="2" t="n"/>
-      <c r="W84" s="2" t="n"/>
+      <c r="U84" s="2" t="inlineStr"/>
+      <c r="V84" s="2" t="inlineStr"/>
+      <c r="W84" s="2" t="inlineStr"/>
       <c r="X84" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y84" s="2" t="n"/>
-      <c r="Z84" s="2" t="n"/>
+      <c r="Y84" s="2" t="inlineStr"/>
+      <c r="Z84" s="2" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
@@ -5218,41 +5238,41 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n"/>
-      <c r="E85" s="2" t="n"/>
+      <c r="D85" s="2" t="inlineStr"/>
+      <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G85" s="2" t="n"/>
-      <c r="H85" s="2" t="n"/>
-      <c r="I85" s="2" t="n"/>
-      <c r="J85" s="2" t="n"/>
-      <c r="K85" s="2" t="n"/>
-      <c r="L85" s="2" t="n"/>
-      <c r="M85" s="2" t="n"/>
-      <c r="N85" s="2" t="n"/>
-      <c r="O85" s="2" t="n"/>
-      <c r="P85" s="2" t="n"/>
+      <c r="G85" s="2" t="inlineStr"/>
+      <c r="H85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr"/>
+      <c r="J85" s="2" t="inlineStr"/>
+      <c r="K85" s="2" t="inlineStr"/>
+      <c r="L85" s="2" t="inlineStr"/>
+      <c r="M85" s="2" t="inlineStr"/>
+      <c r="N85" s="2" t="inlineStr"/>
+      <c r="O85" s="2" t="inlineStr"/>
+      <c r="P85" s="2" t="inlineStr"/>
       <c r="Q85" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R85" s="2" t="n"/>
-      <c r="S85" s="2" t="n"/>
-      <c r="T85" s="2" t="n"/>
-      <c r="U85" s="2" t="n"/>
-      <c r="V85" s="2" t="n"/>
-      <c r="W85" s="2" t="n"/>
+      <c r="R85" s="2" t="inlineStr"/>
+      <c r="S85" s="2" t="inlineStr"/>
+      <c r="T85" s="2" t="inlineStr"/>
+      <c r="U85" s="2" t="inlineStr"/>
+      <c r="V85" s="2" t="inlineStr"/>
+      <c r="W85" s="2" t="inlineStr"/>
       <c r="X85" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y85" s="2" t="n"/>
-      <c r="Z85" s="2" t="n"/>
+      <c r="Y85" s="2" t="inlineStr"/>
+      <c r="Z85" s="2" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -5270,37 +5290,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n"/>
-      <c r="E86" s="2" t="n"/>
-      <c r="F86" s="2" t="n"/>
-      <c r="G86" s="2" t="n"/>
-      <c r="H86" s="2" t="n"/>
-      <c r="I86" s="2" t="n"/>
-      <c r="J86" s="2" t="n"/>
-      <c r="K86" s="2" t="n"/>
-      <c r="L86" s="2" t="n"/>
-      <c r="M86" s="2" t="n"/>
-      <c r="N86" s="2" t="n"/>
-      <c r="O86" s="2" t="n"/>
-      <c r="P86" s="2" t="n"/>
+      <c r="D86" s="2" t="inlineStr"/>
+      <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr"/>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
+      <c r="J86" s="2" t="inlineStr"/>
+      <c r="K86" s="2" t="inlineStr"/>
+      <c r="L86" s="2" t="inlineStr"/>
+      <c r="M86" s="2" t="inlineStr"/>
+      <c r="N86" s="2" t="inlineStr"/>
+      <c r="O86" s="2" t="inlineStr"/>
+      <c r="P86" s="2" t="inlineStr"/>
       <c r="Q86" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc. </t>
         </is>
       </c>
-      <c r="R86" s="2" t="n"/>
-      <c r="S86" s="2" t="n"/>
-      <c r="T86" s="2" t="n"/>
-      <c r="U86" s="2" t="n"/>
-      <c r="V86" s="2" t="n"/>
-      <c r="W86" s="2" t="n"/>
+      <c r="R86" s="2" t="inlineStr"/>
+      <c r="S86" s="2" t="inlineStr"/>
+      <c r="T86" s="2" t="inlineStr"/>
+      <c r="U86" s="2" t="inlineStr"/>
+      <c r="V86" s="2" t="inlineStr"/>
+      <c r="W86" s="2" t="inlineStr"/>
       <c r="X86" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y86" s="2" t="n"/>
-      <c r="Z86" s="2" t="n"/>
+      <c r="Y86" s="2" t="inlineStr"/>
+      <c r="Z86" s="2" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5318,21 +5338,41 @@
           <t>extended organism</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>person source role</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
           <t xml:space="preserve">A member of the species Homo Sapiens. </t>
         </is>
       </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -5355,36 +5395,36 @@
           <t>(person and RO:0000053 some 'person source role')</t>
         </is>
       </c>
-      <c r="E88" s="2" t="n"/>
-      <c r="F88" s="2" t="n"/>
-      <c r="G88" s="2" t="n"/>
-      <c r="H88" s="2" t="n"/>
-      <c r="I88" s="2" t="n"/>
-      <c r="J88" s="2" t="n"/>
-      <c r="K88" s="2" t="n"/>
-      <c r="L88" s="2" t="n"/>
-      <c r="M88" s="2" t="n"/>
-      <c r="N88" s="2" t="n"/>
-      <c r="O88" s="2" t="n"/>
-      <c r="P88" s="2" t="n"/>
+      <c r="E88" s="2" t="inlineStr"/>
+      <c r="F88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="inlineStr"/>
+      <c r="H88" s="2" t="inlineStr"/>
+      <c r="I88" s="2" t="inlineStr"/>
+      <c r="J88" s="2" t="inlineStr"/>
+      <c r="K88" s="2" t="inlineStr"/>
+      <c r="L88" s="2" t="inlineStr"/>
+      <c r="M88" s="2" t="inlineStr"/>
+      <c r="N88" s="2" t="inlineStr"/>
+      <c r="O88" s="2" t="inlineStr"/>
+      <c r="P88" s="2" t="inlineStr"/>
       <c r="Q88" s="2" t="inlineStr">
         <is>
           <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
-      <c r="R88" s="2" t="n"/>
-      <c r="S88" s="2" t="n"/>
-      <c r="T88" s="2" t="n"/>
-      <c r="U88" s="2" t="n"/>
-      <c r="V88" s="2" t="n"/>
-      <c r="W88" s="2" t="n"/>
+      <c r="R88" s="2" t="inlineStr"/>
+      <c r="S88" s="2" t="inlineStr"/>
+      <c r="T88" s="2" t="inlineStr"/>
+      <c r="U88" s="2" t="inlineStr"/>
+      <c r="V88" s="2" t="inlineStr"/>
+      <c r="W88" s="2" t="inlineStr"/>
       <c r="X88" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y88" s="2" t="n"/>
-      <c r="Z88" s="2" t="n"/>
+      <c r="Y88" s="2" t="inlineStr"/>
+      <c r="Z88" s="2" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -5402,37 +5442,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n"/>
-      <c r="E89" s="2" t="n"/>
-      <c r="F89" s="2" t="n"/>
-      <c r="G89" s="2" t="n"/>
-      <c r="H89" s="2" t="n"/>
-      <c r="I89" s="2" t="n"/>
-      <c r="J89" s="2" t="n"/>
-      <c r="K89" s="2" t="n"/>
-      <c r="L89" s="2" t="n"/>
-      <c r="M89" s="2" t="n"/>
-      <c r="N89" s="2" t="n"/>
-      <c r="O89" s="2" t="n"/>
-      <c r="P89" s="2" t="n"/>
+      <c r="D89" s="2" t="inlineStr"/>
+      <c r="E89" s="2" t="inlineStr"/>
+      <c r="F89" s="2" t="inlineStr"/>
+      <c r="G89" s="2" t="inlineStr"/>
+      <c r="H89" s="2" t="inlineStr"/>
+      <c r="I89" s="2" t="inlineStr"/>
+      <c r="J89" s="2" t="inlineStr"/>
+      <c r="K89" s="2" t="inlineStr"/>
+      <c r="L89" s="2" t="inlineStr"/>
+      <c r="M89" s="2" t="inlineStr"/>
+      <c r="N89" s="2" t="inlineStr"/>
+      <c r="O89" s="2" t="inlineStr"/>
+      <c r="P89" s="2" t="inlineStr"/>
       <c r="Q89" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
-      <c r="R89" s="2" t="n"/>
-      <c r="S89" s="2" t="n"/>
-      <c r="T89" s="2" t="n"/>
-      <c r="U89" s="2" t="n"/>
-      <c r="V89" s="2" t="n"/>
-      <c r="W89" s="2" t="n"/>
+      <c r="R89" s="2" t="inlineStr"/>
+      <c r="S89" s="2" t="inlineStr"/>
+      <c r="T89" s="2" t="inlineStr"/>
+      <c r="U89" s="2" t="inlineStr"/>
+      <c r="V89" s="2" t="inlineStr"/>
+      <c r="W89" s="2" t="inlineStr"/>
       <c r="X89" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y89" s="2" t="n"/>
-      <c r="Z89" s="2" t="n"/>
+      <c r="Y89" s="2" t="inlineStr"/>
+      <c r="Z89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -5450,19 +5490,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D90" s="2" t="n"/>
-      <c r="E90" s="2" t="n"/>
-      <c r="F90" s="2" t="n"/>
-      <c r="G90" s="2" t="n"/>
-      <c r="H90" s="2" t="n"/>
-      <c r="I90" s="2" t="n"/>
-      <c r="J90" s="2" t="n"/>
-      <c r="K90" s="2" t="n"/>
-      <c r="L90" s="2" t="n"/>
-      <c r="M90" s="2" t="n"/>
-      <c r="N90" s="2" t="n"/>
-      <c r="O90" s="2" t="n"/>
-      <c r="P90" s="2" t="n"/>
+      <c r="D90" s="2" t="inlineStr"/>
+      <c r="E90" s="2" t="inlineStr"/>
+      <c r="F90" s="2" t="inlineStr"/>
+      <c r="G90" s="2" t="inlineStr"/>
+      <c r="H90" s="2" t="inlineStr"/>
+      <c r="I90" s="2" t="inlineStr"/>
+      <c r="J90" s="2" t="inlineStr"/>
+      <c r="K90" s="2" t="inlineStr"/>
+      <c r="L90" s="2" t="inlineStr"/>
+      <c r="M90" s="2" t="inlineStr"/>
+      <c r="N90" s="2" t="inlineStr"/>
+      <c r="O90" s="2" t="inlineStr"/>
+      <c r="P90" s="2" t="inlineStr"/>
       <c r="Q90" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
@@ -5483,16 +5523,16 @@
           <t>Personal carer</t>
         </is>
       </c>
-      <c r="U90" s="2" t="n"/>
-      <c r="V90" s="2" t="n"/>
-      <c r="W90" s="2" t="n"/>
+      <c r="U90" s="2" t="inlineStr"/>
+      <c r="V90" s="2" t="inlineStr"/>
+      <c r="W90" s="2" t="inlineStr"/>
       <c r="X90" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y90" s="2" t="n"/>
-      <c r="Z90" s="2" t="n"/>
+      <c r="Y90" s="2" t="inlineStr"/>
+      <c r="Z90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -5510,37 +5550,37 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D91" s="2" t="n"/>
-      <c r="E91" s="2" t="n"/>
-      <c r="F91" s="2" t="n"/>
-      <c r="G91" s="2" t="n"/>
-      <c r="H91" s="2" t="n"/>
-      <c r="I91" s="2" t="n"/>
-      <c r="J91" s="2" t="n"/>
-      <c r="K91" s="2" t="n"/>
-      <c r="L91" s="2" t="n"/>
-      <c r="M91" s="2" t="n"/>
-      <c r="N91" s="2" t="n"/>
-      <c r="O91" s="2" t="n"/>
-      <c r="P91" s="2" t="n"/>
+      <c r="D91" s="2" t="inlineStr"/>
+      <c r="E91" s="2" t="inlineStr"/>
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr"/>
+      <c r="H91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr"/>
+      <c r="J91" s="2" t="inlineStr"/>
+      <c r="K91" s="2" t="inlineStr"/>
+      <c r="L91" s="2" t="inlineStr"/>
+      <c r="M91" s="2" t="inlineStr"/>
+      <c r="N91" s="2" t="inlineStr"/>
+      <c r="O91" s="2" t="inlineStr"/>
+      <c r="P91" s="2" t="inlineStr"/>
       <c r="Q91" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A role that inheres in a person source. </t>
         </is>
       </c>
-      <c r="R91" s="2" t="n"/>
-      <c r="S91" s="2" t="n"/>
-      <c r="T91" s="2" t="n"/>
-      <c r="U91" s="2" t="n"/>
-      <c r="V91" s="2" t="n"/>
-      <c r="W91" s="2" t="n"/>
+      <c r="R91" s="2" t="inlineStr"/>
+      <c r="S91" s="2" t="inlineStr"/>
+      <c r="T91" s="2" t="inlineStr"/>
+      <c r="U91" s="2" t="inlineStr"/>
+      <c r="V91" s="2" t="inlineStr"/>
+      <c r="W91" s="2" t="inlineStr"/>
       <c r="X91" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y91" s="2" t="n"/>
-      <c r="Z91" s="2" t="n"/>
+      <c r="Y91" s="2" t="inlineStr"/>
+      <c r="Z91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -5558,19 +5598,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D92" s="2" t="n"/>
-      <c r="E92" s="2" t="n"/>
-      <c r="F92" s="2" t="n"/>
-      <c r="G92" s="2" t="n"/>
-      <c r="H92" s="2" t="n"/>
-      <c r="I92" s="2" t="n"/>
-      <c r="J92" s="2" t="n"/>
-      <c r="K92" s="2" t="n"/>
-      <c r="L92" s="2" t="n"/>
-      <c r="M92" s="2" t="n"/>
-      <c r="N92" s="2" t="n"/>
-      <c r="O92" s="2" t="n"/>
-      <c r="P92" s="2" t="n"/>
+      <c r="D92" s="2" t="inlineStr"/>
+      <c r="E92" s="2" t="inlineStr"/>
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr"/>
+      <c r="H92" s="2" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr"/>
+      <c r="J92" s="2" t="inlineStr"/>
+      <c r="K92" s="2" t="inlineStr"/>
+      <c r="L92" s="2" t="inlineStr"/>
+      <c r="M92" s="2" t="inlineStr"/>
+      <c r="N92" s="2" t="inlineStr"/>
+      <c r="O92" s="2" t="inlineStr"/>
+      <c r="P92" s="2" t="inlineStr"/>
       <c r="Q92" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
@@ -5591,16 +5631,16 @@
           <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
-      <c r="U92" s="2" t="n"/>
-      <c r="V92" s="2" t="n"/>
-      <c r="W92" s="2" t="n"/>
+      <c r="U92" s="2" t="inlineStr"/>
+      <c r="V92" s="2" t="inlineStr"/>
+      <c r="W92" s="2" t="inlineStr"/>
       <c r="X92" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y92" s="2" t="n"/>
-      <c r="Z92" s="2" t="n"/>
+      <c r="Y92" s="2" t="inlineStr"/>
+      <c r="Z92" s="2" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
@@ -5618,19 +5658,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D93" s="2" t="n"/>
-      <c r="E93" s="2" t="n"/>
-      <c r="F93" s="2" t="n"/>
-      <c r="G93" s="2" t="n"/>
-      <c r="H93" s="2" t="n"/>
-      <c r="I93" s="2" t="n"/>
-      <c r="J93" s="2" t="n"/>
-      <c r="K93" s="2" t="n"/>
-      <c r="L93" s="2" t="n"/>
-      <c r="M93" s="2" t="n"/>
-      <c r="N93" s="2" t="n"/>
-      <c r="O93" s="2" t="n"/>
-      <c r="P93" s="2" t="n"/>
+      <c r="D93" s="2" t="inlineStr"/>
+      <c r="E93" s="2" t="inlineStr"/>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr"/>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr"/>
+      <c r="J93" s="2" t="inlineStr"/>
+      <c r="K93" s="2" t="inlineStr"/>
+      <c r="L93" s="2" t="inlineStr"/>
+      <c r="M93" s="2" t="inlineStr"/>
+      <c r="N93" s="2" t="inlineStr"/>
+      <c r="O93" s="2" t="inlineStr"/>
+      <c r="P93" s="2" t="inlineStr"/>
       <c r="Q93" s="2" t="inlineStr">
         <is>
           <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
@@ -5651,16 +5691,16 @@
           <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
-      <c r="U93" s="2" t="n"/>
-      <c r="V93" s="2" t="n"/>
-      <c r="W93" s="2" t="n"/>
+      <c r="U93" s="2" t="inlineStr"/>
+      <c r="V93" s="2" t="inlineStr"/>
+      <c r="W93" s="2" t="inlineStr"/>
       <c r="X93" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y93" s="2" t="n"/>
-      <c r="Z93" s="2" t="n"/>
+      <c r="Y93" s="2" t="inlineStr"/>
+      <c r="Z93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
@@ -5678,19 +5718,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D94" s="2" t="n"/>
-      <c r="E94" s="2" t="n"/>
-      <c r="F94" s="2" t="n"/>
-      <c r="G94" s="2" t="n"/>
-      <c r="H94" s="2" t="n"/>
-      <c r="I94" s="2" t="n"/>
-      <c r="J94" s="2" t="n"/>
-      <c r="K94" s="2" t="n"/>
-      <c r="L94" s="2" t="n"/>
-      <c r="M94" s="2" t="n"/>
-      <c r="N94" s="2" t="n"/>
-      <c r="O94" s="2" t="n"/>
-      <c r="P94" s="2" t="n"/>
+      <c r="D94" s="2" t="inlineStr"/>
+      <c r="E94" s="2" t="inlineStr"/>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr"/>
+      <c r="H94" s="2" t="inlineStr"/>
+      <c r="I94" s="2" t="inlineStr"/>
+      <c r="J94" s="2" t="inlineStr"/>
+      <c r="K94" s="2" t="inlineStr"/>
+      <c r="L94" s="2" t="inlineStr"/>
+      <c r="M94" s="2" t="inlineStr"/>
+      <c r="N94" s="2" t="inlineStr"/>
+      <c r="O94" s="2" t="inlineStr"/>
+      <c r="P94" s="2" t="inlineStr"/>
       <c r="Q94" s="2" t="inlineStr">
         <is>
           <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
@@ -5711,16 +5751,16 @@
           <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
-      <c r="U94" s="2" t="n"/>
-      <c r="V94" s="2" t="n"/>
-      <c r="W94" s="2" t="n"/>
+      <c r="U94" s="2" t="inlineStr"/>
+      <c r="V94" s="2" t="inlineStr"/>
+      <c r="W94" s="2" t="inlineStr"/>
       <c r="X94" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y94" s="2" t="n"/>
-      <c r="Z94" s="2" t="n"/>
+      <c r="Y94" s="2" t="inlineStr"/>
+      <c r="Z94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
@@ -5738,19 +5778,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D95" s="2" t="n"/>
-      <c r="E95" s="2" t="n"/>
-      <c r="F95" s="2" t="n"/>
-      <c r="G95" s="2" t="n"/>
-      <c r="H95" s="2" t="n"/>
-      <c r="I95" s="2" t="n"/>
-      <c r="J95" s="2" t="n"/>
-      <c r="K95" s="2" t="n"/>
-      <c r="L95" s="2" t="n"/>
-      <c r="M95" s="2" t="n"/>
-      <c r="N95" s="2" t="n"/>
-      <c r="O95" s="2" t="n"/>
-      <c r="P95" s="2" t="n"/>
+      <c r="D95" s="2" t="inlineStr"/>
+      <c r="E95" s="2" t="inlineStr"/>
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr"/>
+      <c r="H95" s="2" t="inlineStr"/>
+      <c r="I95" s="2" t="inlineStr"/>
+      <c r="J95" s="2" t="inlineStr"/>
+      <c r="K95" s="2" t="inlineStr"/>
+      <c r="L95" s="2" t="inlineStr"/>
+      <c r="M95" s="2" t="inlineStr"/>
+      <c r="N95" s="2" t="inlineStr"/>
+      <c r="O95" s="2" t="inlineStr"/>
+      <c r="P95" s="2" t="inlineStr"/>
       <c r="Q95" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
@@ -5771,16 +5811,16 @@
           <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
-      <c r="U95" s="2" t="n"/>
-      <c r="V95" s="2" t="n"/>
-      <c r="W95" s="2" t="n"/>
+      <c r="U95" s="2" t="inlineStr"/>
+      <c r="V95" s="2" t="inlineStr"/>
+      <c r="W95" s="2" t="inlineStr"/>
       <c r="X95" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y95" s="2" t="n"/>
-      <c r="Z95" s="2" t="n"/>
+      <c r="Y95" s="2" t="inlineStr"/>
+      <c r="Z95" s="2" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -5798,19 +5838,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n"/>
-      <c r="E96" s="2" t="n"/>
-      <c r="F96" s="2" t="n"/>
-      <c r="G96" s="2" t="n"/>
-      <c r="H96" s="2" t="n"/>
-      <c r="I96" s="2" t="n"/>
-      <c r="J96" s="2" t="n"/>
-      <c r="K96" s="2" t="n"/>
-      <c r="L96" s="2" t="n"/>
-      <c r="M96" s="2" t="n"/>
-      <c r="N96" s="2" t="n"/>
-      <c r="O96" s="2" t="n"/>
-      <c r="P96" s="2" t="n"/>
+      <c r="D96" s="2" t="inlineStr"/>
+      <c r="E96" s="2" t="inlineStr"/>
+      <c r="F96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr"/>
+      <c r="H96" s="2" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr"/>
+      <c r="J96" s="2" t="inlineStr"/>
+      <c r="K96" s="2" t="inlineStr"/>
+      <c r="L96" s="2" t="inlineStr"/>
+      <c r="M96" s="2" t="inlineStr"/>
+      <c r="N96" s="2" t="inlineStr"/>
+      <c r="O96" s="2" t="inlineStr"/>
+      <c r="P96" s="2" t="inlineStr"/>
       <c r="Q96" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment. </t>
@@ -5831,16 +5871,16 @@
           <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
-      <c r="U96" s="2" t="n"/>
-      <c r="V96" s="2" t="n"/>
-      <c r="W96" s="2" t="n"/>
+      <c r="U96" s="2" t="inlineStr"/>
+      <c r="V96" s="2" t="inlineStr"/>
+      <c r="W96" s="2" t="inlineStr"/>
       <c r="X96" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y96" s="2" t="n"/>
-      <c r="Z96" s="2" t="n"/>
+      <c r="Y96" s="2" t="inlineStr"/>
+      <c r="Z96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
@@ -5858,41 +5898,41 @@
           <t>knowledge or skill</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n"/>
-      <c r="E97" s="2" t="n"/>
-      <c r="F97" s="2" t="n"/>
-      <c r="G97" s="2" t="n"/>
-      <c r="H97" s="2" t="n"/>
-      <c r="I97" s="2" t="n"/>
-      <c r="J97" s="2" t="n"/>
-      <c r="K97" s="2" t="n"/>
-      <c r="L97" s="2" t="n"/>
-      <c r="M97" s="2" t="n"/>
-      <c r="N97" s="2" t="n"/>
-      <c r="O97" s="2" t="n"/>
-      <c r="P97" s="2" t="n"/>
+      <c r="D97" s="2" t="inlineStr"/>
+      <c r="E97" s="2" t="inlineStr"/>
+      <c r="F97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr"/>
+      <c r="H97" s="2" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr"/>
+      <c r="J97" s="2" t="inlineStr"/>
+      <c r="K97" s="2" t="inlineStr"/>
+      <c r="L97" s="2" t="inlineStr"/>
+      <c r="M97" s="2" t="inlineStr"/>
+      <c r="N97" s="2" t="inlineStr"/>
+      <c r="O97" s="2" t="inlineStr"/>
+      <c r="P97" s="2" t="inlineStr"/>
       <c r="Q97" s="2" t="inlineStr">
         <is>
           <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
-      <c r="R97" s="2" t="n"/>
-      <c r="S97" s="2" t="n"/>
+      <c r="R97" s="2" t="inlineStr"/>
+      <c r="S97" s="2" t="inlineStr"/>
       <c r="T97" s="2" t="inlineStr">
         <is>
           <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
-      <c r="U97" s="2" t="n"/>
-      <c r="V97" s="2" t="n"/>
-      <c r="W97" s="2" t="n"/>
+      <c r="U97" s="2" t="inlineStr"/>
+      <c r="V97" s="2" t="inlineStr"/>
+      <c r="W97" s="2" t="inlineStr"/>
       <c r="X97" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y97" s="2" t="n"/>
-      <c r="Z97" s="2" t="n"/>
+      <c r="Y97" s="2" t="inlineStr"/>
+      <c r="Z97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
@@ -5910,19 +5950,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D98" s="2" t="n"/>
-      <c r="E98" s="2" t="n"/>
-      <c r="F98" s="2" t="n"/>
-      <c r="G98" s="2" t="n"/>
-      <c r="H98" s="2" t="n"/>
-      <c r="I98" s="2" t="n"/>
-      <c r="J98" s="2" t="n"/>
-      <c r="K98" s="2" t="n"/>
-      <c r="L98" s="2" t="n"/>
-      <c r="M98" s="2" t="n"/>
-      <c r="N98" s="2" t="n"/>
-      <c r="O98" s="2" t="n"/>
-      <c r="P98" s="2" t="n"/>
+      <c r="D98" s="2" t="inlineStr"/>
+      <c r="E98" s="2" t="inlineStr"/>
+      <c r="F98" s="2" t="inlineStr"/>
+      <c r="G98" s="2" t="inlineStr"/>
+      <c r="H98" s="2" t="inlineStr"/>
+      <c r="I98" s="2" t="inlineStr"/>
+      <c r="J98" s="2" t="inlineStr"/>
+      <c r="K98" s="2" t="inlineStr"/>
+      <c r="L98" s="2" t="inlineStr"/>
+      <c r="M98" s="2" t="inlineStr"/>
+      <c r="N98" s="2" t="inlineStr"/>
+      <c r="O98" s="2" t="inlineStr"/>
+      <c r="P98" s="2" t="inlineStr"/>
       <c r="Q98" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
@@ -5938,17 +5978,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T98" s="2" t="n"/>
-      <c r="U98" s="2" t="n"/>
-      <c r="V98" s="2" t="n"/>
-      <c r="W98" s="2" t="n"/>
+      <c r="T98" s="2" t="inlineStr"/>
+      <c r="U98" s="2" t="inlineStr"/>
+      <c r="V98" s="2" t="inlineStr"/>
+      <c r="W98" s="2" t="inlineStr"/>
       <c r="X98" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y98" s="2" t="n"/>
-      <c r="Z98" s="2" t="n"/>
+      <c r="Y98" s="2" t="inlineStr"/>
+      <c r="Z98" s="2" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
@@ -5966,19 +6006,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n"/>
-      <c r="E99" s="2" t="n"/>
-      <c r="F99" s="2" t="n"/>
-      <c r="G99" s="2" t="n"/>
-      <c r="H99" s="2" t="n"/>
-      <c r="I99" s="2" t="n"/>
-      <c r="J99" s="2" t="n"/>
-      <c r="K99" s="2" t="n"/>
-      <c r="L99" s="2" t="n"/>
-      <c r="M99" s="2" t="n"/>
-      <c r="N99" s="2" t="n"/>
-      <c r="O99" s="2" t="n"/>
-      <c r="P99" s="2" t="n"/>
+      <c r="D99" s="2" t="inlineStr"/>
+      <c r="E99" s="2" t="inlineStr"/>
+      <c r="F99" s="2" t="inlineStr"/>
+      <c r="G99" s="2" t="inlineStr"/>
+      <c r="H99" s="2" t="inlineStr"/>
+      <c r="I99" s="2" t="inlineStr"/>
+      <c r="J99" s="2" t="inlineStr"/>
+      <c r="K99" s="2" t="inlineStr"/>
+      <c r="L99" s="2" t="inlineStr"/>
+      <c r="M99" s="2" t="inlineStr"/>
+      <c r="N99" s="2" t="inlineStr"/>
+      <c r="O99" s="2" t="inlineStr"/>
+      <c r="P99" s="2" t="inlineStr"/>
       <c r="Q99" s="2" t="inlineStr">
         <is>
           <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
@@ -5994,17 +6034,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T99" s="2" t="n"/>
-      <c r="U99" s="2" t="n"/>
-      <c r="V99" s="2" t="n"/>
-      <c r="W99" s="2" t="n"/>
+      <c r="T99" s="2" t="inlineStr"/>
+      <c r="U99" s="2" t="inlineStr"/>
+      <c r="V99" s="2" t="inlineStr"/>
+      <c r="W99" s="2" t="inlineStr"/>
       <c r="X99" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y99" s="2" t="n"/>
-      <c r="Z99" s="2" t="n"/>
+      <c r="Y99" s="2" t="inlineStr"/>
+      <c r="Z99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
@@ -6022,19 +6062,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D100" s="2" t="n"/>
-      <c r="E100" s="2" t="n"/>
-      <c r="F100" s="2" t="n"/>
-      <c r="G100" s="2" t="n"/>
-      <c r="H100" s="2" t="n"/>
-      <c r="I100" s="2" t="n"/>
-      <c r="J100" s="2" t="n"/>
-      <c r="K100" s="2" t="n"/>
-      <c r="L100" s="2" t="n"/>
-      <c r="M100" s="2" t="n"/>
-      <c r="N100" s="2" t="n"/>
-      <c r="O100" s="2" t="n"/>
-      <c r="P100" s="2" t="n"/>
+      <c r="D100" s="2" t="inlineStr"/>
+      <c r="E100" s="2" t="inlineStr"/>
+      <c r="F100" s="2" t="inlineStr"/>
+      <c r="G100" s="2" t="inlineStr"/>
+      <c r="H100" s="2" t="inlineStr"/>
+      <c r="I100" s="2" t="inlineStr"/>
+      <c r="J100" s="2" t="inlineStr"/>
+      <c r="K100" s="2" t="inlineStr"/>
+      <c r="L100" s="2" t="inlineStr"/>
+      <c r="M100" s="2" t="inlineStr"/>
+      <c r="N100" s="2" t="inlineStr"/>
+      <c r="O100" s="2" t="inlineStr"/>
+      <c r="P100" s="2" t="inlineStr"/>
       <c r="Q100" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
@@ -6055,16 +6095,16 @@
           <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
-      <c r="U100" s="2" t="n"/>
-      <c r="V100" s="2" t="n"/>
-      <c r="W100" s="2" t="n"/>
+      <c r="U100" s="2" t="inlineStr"/>
+      <c r="V100" s="2" t="inlineStr"/>
+      <c r="W100" s="2" t="inlineStr"/>
       <c r="X100" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y100" s="2" t="n"/>
-      <c r="Z100" s="2" t="n"/>
+      <c r="Y100" s="2" t="inlineStr"/>
+      <c r="Z100" s="2" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
@@ -6082,37 +6122,37 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n"/>
-      <c r="E101" s="2" t="n"/>
-      <c r="F101" s="2" t="n"/>
-      <c r="G101" s="2" t="n"/>
-      <c r="H101" s="2" t="n"/>
-      <c r="I101" s="2" t="n"/>
-      <c r="J101" s="2" t="n"/>
-      <c r="K101" s="2" t="n"/>
-      <c r="L101" s="2" t="n"/>
-      <c r="M101" s="2" t="n"/>
-      <c r="N101" s="2" t="n"/>
-      <c r="O101" s="2" t="n"/>
-      <c r="P101" s="2" t="n"/>
+      <c r="D101" s="2" t="inlineStr"/>
+      <c r="E101" s="2" t="inlineStr"/>
+      <c r="F101" s="2" t="inlineStr"/>
+      <c r="G101" s="2" t="inlineStr"/>
+      <c r="H101" s="2" t="inlineStr"/>
+      <c r="I101" s="2" t="inlineStr"/>
+      <c r="J101" s="2" t="inlineStr"/>
+      <c r="K101" s="2" t="inlineStr"/>
+      <c r="L101" s="2" t="inlineStr"/>
+      <c r="M101" s="2" t="inlineStr"/>
+      <c r="N101" s="2" t="inlineStr"/>
+      <c r="O101" s="2" t="inlineStr"/>
+      <c r="P101" s="2" t="inlineStr"/>
       <c r="Q101" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
         </is>
       </c>
-      <c r="R101" s="2" t="n"/>
-      <c r="S101" s="2" t="n"/>
-      <c r="T101" s="2" t="n"/>
-      <c r="U101" s="2" t="n"/>
-      <c r="V101" s="2" t="n"/>
-      <c r="W101" s="2" t="n"/>
+      <c r="R101" s="2" t="inlineStr"/>
+      <c r="S101" s="2" t="inlineStr"/>
+      <c r="T101" s="2" t="inlineStr"/>
+      <c r="U101" s="2" t="inlineStr"/>
+      <c r="V101" s="2" t="inlineStr"/>
+      <c r="W101" s="2" t="inlineStr"/>
       <c r="X101" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y101" s="2" t="n"/>
-      <c r="Z101" s="2" t="n"/>
+      <c r="Y101" s="2" t="inlineStr"/>
+      <c r="Z101" s="2" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
@@ -6130,19 +6170,19 @@
           <t xml:space="preserve">social professional </t>
         </is>
       </c>
-      <c r="D102" s="2" t="n"/>
-      <c r="E102" s="2" t="n"/>
-      <c r="F102" s="2" t="n"/>
-      <c r="G102" s="2" t="n"/>
-      <c r="H102" s="2" t="n"/>
-      <c r="I102" s="2" t="n"/>
-      <c r="J102" s="2" t="n"/>
-      <c r="K102" s="2" t="n"/>
-      <c r="L102" s="2" t="n"/>
-      <c r="M102" s="2" t="n"/>
-      <c r="N102" s="2" t="n"/>
-      <c r="O102" s="2" t="n"/>
-      <c r="P102" s="2" t="n"/>
+      <c r="D102" s="2" t="inlineStr"/>
+      <c r="E102" s="2" t="inlineStr"/>
+      <c r="F102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="inlineStr"/>
+      <c r="H102" s="2" t="inlineStr"/>
+      <c r="I102" s="2" t="inlineStr"/>
+      <c r="J102" s="2" t="inlineStr"/>
+      <c r="K102" s="2" t="inlineStr"/>
+      <c r="L102" s="2" t="inlineStr"/>
+      <c r="M102" s="2" t="inlineStr"/>
+      <c r="N102" s="2" t="inlineStr"/>
+      <c r="O102" s="2" t="inlineStr"/>
+      <c r="P102" s="2" t="inlineStr"/>
       <c r="Q102" s="2" t="inlineStr">
         <is>
           <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
@@ -6163,16 +6203,16 @@
           <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
-      <c r="U102" s="2" t="n"/>
-      <c r="V102" s="2" t="n"/>
-      <c r="W102" s="2" t="n"/>
+      <c r="U102" s="2" t="inlineStr"/>
+      <c r="V102" s="2" t="inlineStr"/>
+      <c r="W102" s="2" t="inlineStr"/>
       <c r="X102" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y102" s="2" t="n"/>
-      <c r="Z102" s="2" t="n"/>
+      <c r="Y102" s="2" t="inlineStr"/>
+      <c r="Z102" s="2" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
@@ -6190,37 +6230,37 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n"/>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-      <c r="H103" s="2" t="n"/>
-      <c r="I103" s="2" t="n"/>
-      <c r="J103" s="2" t="n"/>
-      <c r="K103" s="2" t="n"/>
-      <c r="L103" s="2" t="n"/>
-      <c r="M103" s="2" t="n"/>
-      <c r="N103" s="2" t="n"/>
-      <c r="O103" s="2" t="n"/>
-      <c r="P103" s="2" t="n"/>
+      <c r="D103" s="2" t="inlineStr"/>
+      <c r="E103" s="2" t="inlineStr"/>
+      <c r="F103" s="2" t="inlineStr"/>
+      <c r="G103" s="2" t="inlineStr"/>
+      <c r="H103" s="2" t="inlineStr"/>
+      <c r="I103" s="2" t="inlineStr"/>
+      <c r="J103" s="2" t="inlineStr"/>
+      <c r="K103" s="2" t="inlineStr"/>
+      <c r="L103" s="2" t="inlineStr"/>
+      <c r="M103" s="2" t="inlineStr"/>
+      <c r="N103" s="2" t="inlineStr"/>
+      <c r="O103" s="2" t="inlineStr"/>
+      <c r="P103" s="2" t="inlineStr"/>
       <c r="Q103" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
         </is>
       </c>
-      <c r="R103" s="2" t="n"/>
-      <c r="S103" s="2" t="n"/>
-      <c r="T103" s="2" t="n"/>
-      <c r="U103" s="2" t="n"/>
-      <c r="V103" s="2" t="n"/>
-      <c r="W103" s="2" t="n"/>
+      <c r="R103" s="2" t="inlineStr"/>
+      <c r="S103" s="2" t="inlineStr"/>
+      <c r="T103" s="2" t="inlineStr"/>
+      <c r="U103" s="2" t="inlineStr"/>
+      <c r="V103" s="2" t="inlineStr"/>
+      <c r="W103" s="2" t="inlineStr"/>
       <c r="X103" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y103" s="2" t="n"/>
-      <c r="Z103" s="2" t="n"/>
+      <c r="Y103" s="2" t="inlineStr"/>
+      <c r="Z103" s="2" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
@@ -6238,19 +6278,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D104" s="2" t="n"/>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-      <c r="H104" s="2" t="n"/>
-      <c r="I104" s="2" t="n"/>
-      <c r="J104" s="2" t="n"/>
-      <c r="K104" s="2" t="n"/>
-      <c r="L104" s="2" t="n"/>
-      <c r="M104" s="2" t="n"/>
-      <c r="N104" s="2" t="n"/>
-      <c r="O104" s="2" t="n"/>
-      <c r="P104" s="2" t="n"/>
+      <c r="D104" s="2" t="inlineStr"/>
+      <c r="E104" s="2" t="inlineStr"/>
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr"/>
+      <c r="H104" s="2" t="inlineStr"/>
+      <c r="I104" s="2" t="inlineStr"/>
+      <c r="J104" s="2" t="inlineStr"/>
+      <c r="K104" s="2" t="inlineStr"/>
+      <c r="L104" s="2" t="inlineStr"/>
+      <c r="M104" s="2" t="inlineStr"/>
+      <c r="N104" s="2" t="inlineStr"/>
+      <c r="O104" s="2" t="inlineStr"/>
+      <c r="P104" s="2" t="inlineStr"/>
       <c r="Q104" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
@@ -6271,16 +6311,16 @@
           <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
-      <c r="U104" s="2" t="n"/>
-      <c r="V104" s="2" t="n"/>
-      <c r="W104" s="2" t="n"/>
+      <c r="U104" s="2" t="inlineStr"/>
+      <c r="V104" s="2" t="inlineStr"/>
+      <c r="W104" s="2" t="inlineStr"/>
       <c r="X104" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y104" s="2" t="n"/>
-      <c r="Z104" s="2" t="n"/>
+      <c r="Y104" s="2" t="inlineStr"/>
+      <c r="Z104" s="2" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
@@ -6298,41 +6338,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n"/>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-      <c r="H105" s="2" t="n"/>
-      <c r="I105" s="2" t="n"/>
-      <c r="J105" s="2" t="n"/>
-      <c r="K105" s="2" t="n"/>
-      <c r="L105" s="2" t="n"/>
-      <c r="M105" s="2" t="n"/>
-      <c r="N105" s="2" t="n"/>
-      <c r="O105" s="2" t="n"/>
-      <c r="P105" s="2" t="n"/>
+      <c r="D105" s="2" t="inlineStr"/>
+      <c r="E105" s="2" t="inlineStr"/>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr"/>
+      <c r="H105" s="2" t="inlineStr"/>
+      <c r="I105" s="2" t="inlineStr"/>
+      <c r="J105" s="2" t="inlineStr"/>
+      <c r="K105" s="2" t="inlineStr"/>
+      <c r="L105" s="2" t="inlineStr"/>
+      <c r="M105" s="2" t="inlineStr"/>
+      <c r="N105" s="2" t="inlineStr"/>
+      <c r="O105" s="2" t="inlineStr"/>
+      <c r="P105" s="2" t="inlineStr"/>
       <c r="Q105" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion. </t>
         </is>
       </c>
-      <c r="R105" s="2" t="n"/>
-      <c r="S105" s="2" t="n"/>
+      <c r="R105" s="2" t="inlineStr"/>
+      <c r="S105" s="2" t="inlineStr"/>
       <c r="T105" s="2" t="inlineStr">
         <is>
           <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
-      <c r="U105" s="2" t="n"/>
-      <c r="V105" s="2" t="n"/>
-      <c r="W105" s="2" t="n"/>
+      <c r="U105" s="2" t="inlineStr"/>
+      <c r="V105" s="2" t="inlineStr"/>
+      <c r="W105" s="2" t="inlineStr"/>
       <c r="X105" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y105" s="2" t="n"/>
-      <c r="Z105" s="2" t="n"/>
+      <c r="Y105" s="2" t="inlineStr"/>
+      <c r="Z105" s="2" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
@@ -6350,19 +6390,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D106" s="2" t="n"/>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-      <c r="H106" s="2" t="n"/>
-      <c r="I106" s="2" t="n"/>
-      <c r="J106" s="2" t="n"/>
-      <c r="K106" s="2" t="n"/>
-      <c r="L106" s="2" t="n"/>
-      <c r="M106" s="2" t="n"/>
-      <c r="N106" s="2" t="n"/>
-      <c r="O106" s="2" t="n"/>
-      <c r="P106" s="2" t="n"/>
+      <c r="D106" s="2" t="inlineStr"/>
+      <c r="E106" s="2" t="inlineStr"/>
+      <c r="F106" s="2" t="inlineStr"/>
+      <c r="G106" s="2" t="inlineStr"/>
+      <c r="H106" s="2" t="inlineStr"/>
+      <c r="I106" s="2" t="inlineStr"/>
+      <c r="J106" s="2" t="inlineStr"/>
+      <c r="K106" s="2" t="inlineStr"/>
+      <c r="L106" s="2" t="inlineStr"/>
+      <c r="M106" s="2" t="inlineStr"/>
+      <c r="N106" s="2" t="inlineStr"/>
+      <c r="O106" s="2" t="inlineStr"/>
+      <c r="P106" s="2" t="inlineStr"/>
       <c r="Q106" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
@@ -6383,16 +6423,16 @@
           <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
-      <c r="U106" s="2" t="n"/>
-      <c r="V106" s="2" t="n"/>
-      <c r="W106" s="2" t="n"/>
+      <c r="U106" s="2" t="inlineStr"/>
+      <c r="V106" s="2" t="inlineStr"/>
+      <c r="W106" s="2" t="inlineStr"/>
       <c r="X106" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y106" s="2" t="n"/>
-      <c r="Z106" s="2" t="n"/>
+      <c r="Y106" s="2" t="inlineStr"/>
+      <c r="Z106" s="2" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
@@ -6410,41 +6450,41 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n"/>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-      <c r="H107" s="2" t="n"/>
-      <c r="I107" s="2" t="n"/>
-      <c r="J107" s="2" t="n"/>
-      <c r="K107" s="2" t="n"/>
-      <c r="L107" s="2" t="n"/>
-      <c r="M107" s="2" t="n"/>
-      <c r="N107" s="2" t="n"/>
-      <c r="O107" s="2" t="n"/>
-      <c r="P107" s="2" t="n"/>
+      <c r="D107" s="2" t="inlineStr"/>
+      <c r="E107" s="2" t="inlineStr"/>
+      <c r="F107" s="2" t="inlineStr"/>
+      <c r="G107" s="2" t="inlineStr"/>
+      <c r="H107" s="2" t="inlineStr"/>
+      <c r="I107" s="2" t="inlineStr"/>
+      <c r="J107" s="2" t="inlineStr"/>
+      <c r="K107" s="2" t="inlineStr"/>
+      <c r="L107" s="2" t="inlineStr"/>
+      <c r="M107" s="2" t="inlineStr"/>
+      <c r="N107" s="2" t="inlineStr"/>
+      <c r="O107" s="2" t="inlineStr"/>
+      <c r="P107" s="2" t="inlineStr"/>
       <c r="Q107" s="2" t="inlineStr">
         <is>
           <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
-      <c r="R107" s="2" t="n"/>
-      <c r="S107" s="2" t="n"/>
+      <c r="R107" s="2" t="inlineStr"/>
+      <c r="S107" s="2" t="inlineStr"/>
       <c r="T107" s="2" t="inlineStr">
         <is>
           <t>researcher, research assistant, investigator</t>
         </is>
       </c>
-      <c r="U107" s="2" t="n"/>
-      <c r="V107" s="2" t="n"/>
-      <c r="W107" s="2" t="n"/>
+      <c r="U107" s="2" t="inlineStr"/>
+      <c r="V107" s="2" t="inlineStr"/>
+      <c r="W107" s="2" t="inlineStr"/>
       <c r="X107" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y107" s="2" t="n"/>
-      <c r="Z107" s="2" t="n"/>
+      <c r="Y107" s="2" t="inlineStr"/>
+      <c r="Z107" s="2" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
@@ -6462,19 +6502,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D108" s="2" t="n"/>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-      <c r="H108" s="2" t="n"/>
-      <c r="I108" s="2" t="n"/>
-      <c r="J108" s="2" t="n"/>
-      <c r="K108" s="2" t="n"/>
-      <c r="L108" s="2" t="n"/>
-      <c r="M108" s="2" t="n"/>
-      <c r="N108" s="2" t="n"/>
-      <c r="O108" s="2" t="n"/>
-      <c r="P108" s="2" t="n"/>
+      <c r="D108" s="2" t="inlineStr"/>
+      <c r="E108" s="2" t="inlineStr"/>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
+      <c r="H108" s="2" t="inlineStr"/>
+      <c r="I108" s="2" t="inlineStr"/>
+      <c r="J108" s="2" t="inlineStr"/>
+      <c r="K108" s="2" t="inlineStr"/>
+      <c r="L108" s="2" t="inlineStr"/>
+      <c r="M108" s="2" t="inlineStr"/>
+      <c r="N108" s="2" t="inlineStr"/>
+      <c r="O108" s="2" t="inlineStr"/>
+      <c r="P108" s="2" t="inlineStr"/>
       <c r="Q108" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets. </t>
@@ -6495,16 +6535,16 @@
           <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
-      <c r="U108" s="2" t="n"/>
-      <c r="V108" s="2" t="n"/>
-      <c r="W108" s="2" t="n"/>
+      <c r="U108" s="2" t="inlineStr"/>
+      <c r="V108" s="2" t="inlineStr"/>
+      <c r="W108" s="2" t="inlineStr"/>
       <c r="X108" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y108" s="2" t="n"/>
-      <c r="Z108" s="2" t="n"/>
+      <c r="Y108" s="2" t="inlineStr"/>
+      <c r="Z108" s="2" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
@@ -6522,37 +6562,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n"/>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-      <c r="H109" s="2" t="n"/>
-      <c r="I109" s="2" t="n"/>
-      <c r="J109" s="2" t="n"/>
-      <c r="K109" s="2" t="n"/>
-      <c r="L109" s="2" t="n"/>
-      <c r="M109" s="2" t="n"/>
-      <c r="N109" s="2" t="n"/>
-      <c r="O109" s="2" t="n"/>
-      <c r="P109" s="2" t="n"/>
+      <c r="D109" s="2" t="inlineStr"/>
+      <c r="E109" s="2" t="inlineStr"/>
+      <c r="F109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr"/>
+      <c r="H109" s="2" t="inlineStr"/>
+      <c r="I109" s="2" t="inlineStr"/>
+      <c r="J109" s="2" t="inlineStr"/>
+      <c r="K109" s="2" t="inlineStr"/>
+      <c r="L109" s="2" t="inlineStr"/>
+      <c r="M109" s="2" t="inlineStr"/>
+      <c r="N109" s="2" t="inlineStr"/>
+      <c r="O109" s="2" t="inlineStr"/>
+      <c r="P109" s="2" t="inlineStr"/>
       <c r="Q109" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
-      <c r="R109" s="2" t="n"/>
-      <c r="S109" s="2" t="n"/>
-      <c r="T109" s="2" t="n"/>
-      <c r="U109" s="2" t="n"/>
-      <c r="V109" s="2" t="n"/>
-      <c r="W109" s="2" t="n"/>
+      <c r="R109" s="2" t="inlineStr"/>
+      <c r="S109" s="2" t="inlineStr"/>
+      <c r="T109" s="2" t="inlineStr"/>
+      <c r="U109" s="2" t="inlineStr"/>
+      <c r="V109" s="2" t="inlineStr"/>
+      <c r="W109" s="2" t="inlineStr"/>
       <c r="X109" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y109" s="2" t="n"/>
-      <c r="Z109" s="2" t="n"/>
+      <c r="Y109" s="2" t="inlineStr"/>
+      <c r="Z109" s="2" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
@@ -6570,19 +6610,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n"/>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-      <c r="H110" s="2" t="n"/>
-      <c r="I110" s="2" t="n"/>
-      <c r="J110" s="2" t="n"/>
-      <c r="K110" s="2" t="n"/>
-      <c r="L110" s="2" t="n"/>
-      <c r="M110" s="2" t="n"/>
-      <c r="N110" s="2" t="n"/>
-      <c r="O110" s="2" t="n"/>
-      <c r="P110" s="2" t="n"/>
+      <c r="D110" s="2" t="inlineStr"/>
+      <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr"/>
+      <c r="H110" s="2" t="inlineStr"/>
+      <c r="I110" s="2" t="inlineStr"/>
+      <c r="J110" s="2" t="inlineStr"/>
+      <c r="K110" s="2" t="inlineStr"/>
+      <c r="L110" s="2" t="inlineStr"/>
+      <c r="M110" s="2" t="inlineStr"/>
+      <c r="N110" s="2" t="inlineStr"/>
+      <c r="O110" s="2" t="inlineStr"/>
+      <c r="P110" s="2" t="inlineStr"/>
       <c r="Q110" s="2" t="inlineStr">
         <is>
           <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
@@ -6603,16 +6643,16 @@
           <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
-      <c r="U110" s="2" t="n"/>
-      <c r="V110" s="2" t="n"/>
-      <c r="W110" s="2" t="n"/>
+      <c r="U110" s="2" t="inlineStr"/>
+      <c r="V110" s="2" t="inlineStr"/>
+      <c r="W110" s="2" t="inlineStr"/>
       <c r="X110" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y110" s="2" t="n"/>
-      <c r="Z110" s="2" t="n"/>
+      <c r="Y110" s="2" t="inlineStr"/>
+      <c r="Z110" s="2" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
@@ -6630,19 +6670,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D111" s="2" t="n"/>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-      <c r="H111" s="2" t="n"/>
-      <c r="I111" s="2" t="n"/>
-      <c r="J111" s="2" t="n"/>
-      <c r="K111" s="2" t="n"/>
-      <c r="L111" s="2" t="n"/>
-      <c r="M111" s="2" t="n"/>
-      <c r="N111" s="2" t="n"/>
-      <c r="O111" s="2" t="n"/>
-      <c r="P111" s="2" t="n"/>
+      <c r="D111" s="2" t="inlineStr"/>
+      <c r="E111" s="2" t="inlineStr"/>
+      <c r="F111" s="2" t="inlineStr"/>
+      <c r="G111" s="2" t="inlineStr"/>
+      <c r="H111" s="2" t="inlineStr"/>
+      <c r="I111" s="2" t="inlineStr"/>
+      <c r="J111" s="2" t="inlineStr"/>
+      <c r="K111" s="2" t="inlineStr"/>
+      <c r="L111" s="2" t="inlineStr"/>
+      <c r="M111" s="2" t="inlineStr"/>
+      <c r="N111" s="2" t="inlineStr"/>
+      <c r="O111" s="2" t="inlineStr"/>
+      <c r="P111" s="2" t="inlineStr"/>
       <c r="Q111" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
@@ -6663,16 +6703,16 @@
           <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
-      <c r="U111" s="2" t="n"/>
-      <c r="V111" s="2" t="n"/>
-      <c r="W111" s="2" t="n"/>
+      <c r="U111" s="2" t="inlineStr"/>
+      <c r="V111" s="2" t="inlineStr"/>
+      <c r="W111" s="2" t="inlineStr"/>
       <c r="X111" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y111" s="2" t="n"/>
-      <c r="Z111" s="2" t="n"/>
+      <c r="Y111" s="2" t="inlineStr"/>
+      <c r="Z111" s="2" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
@@ -6690,19 +6730,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n"/>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-      <c r="H112" s="2" t="n"/>
-      <c r="I112" s="2" t="n"/>
-      <c r="J112" s="2" t="n"/>
-      <c r="K112" s="2" t="n"/>
-      <c r="L112" s="2" t="n"/>
-      <c r="M112" s="2" t="n"/>
-      <c r="N112" s="2" t="n"/>
-      <c r="O112" s="2" t="n"/>
-      <c r="P112" s="2" t="n"/>
+      <c r="D112" s="2" t="inlineStr"/>
+      <c r="E112" s="2" t="inlineStr"/>
+      <c r="F112" s="2" t="inlineStr"/>
+      <c r="G112" s="2" t="inlineStr"/>
+      <c r="H112" s="2" t="inlineStr"/>
+      <c r="I112" s="2" t="inlineStr"/>
+      <c r="J112" s="2" t="inlineStr"/>
+      <c r="K112" s="2" t="inlineStr"/>
+      <c r="L112" s="2" t="inlineStr"/>
+      <c r="M112" s="2" t="inlineStr"/>
+      <c r="N112" s="2" t="inlineStr"/>
+      <c r="O112" s="2" t="inlineStr"/>
+      <c r="P112" s="2" t="inlineStr"/>
       <c r="Q112" s="2" t="inlineStr">
         <is>
           <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
@@ -6718,17 +6758,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T112" s="2" t="n"/>
-      <c r="U112" s="2" t="n"/>
-      <c r="V112" s="2" t="n"/>
-      <c r="W112" s="2" t="n"/>
+      <c r="T112" s="2" t="inlineStr"/>
+      <c r="U112" s="2" t="inlineStr"/>
+      <c r="V112" s="2" t="inlineStr"/>
+      <c r="W112" s="2" t="inlineStr"/>
       <c r="X112" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y112" s="2" t="n"/>
-      <c r="Z112" s="2" t="n"/>
+      <c r="Y112" s="2" t="inlineStr"/>
+      <c r="Z112" s="2" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
@@ -6746,41 +6786,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n"/>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-      <c r="H113" s="2" t="n"/>
-      <c r="I113" s="2" t="n"/>
-      <c r="J113" s="2" t="n"/>
-      <c r="K113" s="2" t="n"/>
-      <c r="L113" s="2" t="n"/>
-      <c r="M113" s="2" t="n"/>
-      <c r="N113" s="2" t="n"/>
-      <c r="O113" s="2" t="n"/>
-      <c r="P113" s="2" t="n"/>
+      <c r="D113" s="2" t="inlineStr"/>
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr"/>
+      <c r="H113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr"/>
+      <c r="J113" s="2" t="inlineStr"/>
+      <c r="K113" s="2" t="inlineStr"/>
+      <c r="L113" s="2" t="inlineStr"/>
+      <c r="M113" s="2" t="inlineStr"/>
+      <c r="N113" s="2" t="inlineStr"/>
+      <c r="O113" s="2" t="inlineStr"/>
+      <c r="P113" s="2" t="inlineStr"/>
       <c r="Q113" s="2" t="inlineStr">
         <is>
           <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
-      <c r="R113" s="2" t="n"/>
-      <c r="S113" s="2" t="n"/>
+      <c r="R113" s="2" t="inlineStr"/>
+      <c r="S113" s="2" t="inlineStr"/>
       <c r="T113" s="2" t="inlineStr">
         <is>
           <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
-      <c r="U113" s="2" t="n"/>
-      <c r="V113" s="2" t="n"/>
-      <c r="W113" s="2" t="n"/>
+      <c r="U113" s="2" t="inlineStr"/>
+      <c r="V113" s="2" t="inlineStr"/>
+      <c r="W113" s="2" t="inlineStr"/>
       <c r="X113" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y113" s="2" t="n"/>
-      <c r="Z113" s="2" t="n"/>
+      <c r="Y113" s="2" t="inlineStr"/>
+      <c r="Z113" s="2" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
@@ -6798,19 +6838,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n"/>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-      <c r="H114" s="2" t="n"/>
-      <c r="I114" s="2" t="n"/>
-      <c r="J114" s="2" t="n"/>
-      <c r="K114" s="2" t="n"/>
-      <c r="L114" s="2" t="n"/>
-      <c r="M114" s="2" t="n"/>
-      <c r="N114" s="2" t="n"/>
-      <c r="O114" s="2" t="n"/>
-      <c r="P114" s="2" t="n"/>
+      <c r="D114" s="2" t="inlineStr"/>
+      <c r="E114" s="2" t="inlineStr"/>
+      <c r="F114" s="2" t="inlineStr"/>
+      <c r="G114" s="2" t="inlineStr"/>
+      <c r="H114" s="2" t="inlineStr"/>
+      <c r="I114" s="2" t="inlineStr"/>
+      <c r="J114" s="2" t="inlineStr"/>
+      <c r="K114" s="2" t="inlineStr"/>
+      <c r="L114" s="2" t="inlineStr"/>
+      <c r="M114" s="2" t="inlineStr"/>
+      <c r="N114" s="2" t="inlineStr"/>
+      <c r="O114" s="2" t="inlineStr"/>
+      <c r="P114" s="2" t="inlineStr"/>
       <c r="Q114" s="2" t="inlineStr">
         <is>
           <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
@@ -6831,16 +6871,16 @@
           <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
-      <c r="U114" s="2" t="n"/>
-      <c r="V114" s="2" t="n"/>
-      <c r="W114" s="2" t="n"/>
+      <c r="U114" s="2" t="inlineStr"/>
+      <c r="V114" s="2" t="inlineStr"/>
+      <c r="W114" s="2" t="inlineStr"/>
       <c r="X114" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y114" s="2" t="n"/>
-      <c r="Z114" s="2" t="n"/>
+      <c r="Y114" s="2" t="inlineStr"/>
+      <c r="Z114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
@@ -6858,19 +6898,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D115" s="2" t="n"/>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-      <c r="H115" s="2" t="n"/>
-      <c r="I115" s="2" t="n"/>
-      <c r="J115" s="2" t="n"/>
-      <c r="K115" s="2" t="n"/>
-      <c r="L115" s="2" t="n"/>
-      <c r="M115" s="2" t="n"/>
-      <c r="N115" s="2" t="n"/>
-      <c r="O115" s="2" t="n"/>
-      <c r="P115" s="2" t="n"/>
+      <c r="D115" s="2" t="inlineStr"/>
+      <c r="E115" s="2" t="inlineStr"/>
+      <c r="F115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr"/>
+      <c r="H115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr"/>
+      <c r="J115" s="2" t="inlineStr"/>
+      <c r="K115" s="2" t="inlineStr"/>
+      <c r="L115" s="2" t="inlineStr"/>
+      <c r="M115" s="2" t="inlineStr"/>
+      <c r="N115" s="2" t="inlineStr"/>
+      <c r="O115" s="2" t="inlineStr"/>
+      <c r="P115" s="2" t="inlineStr"/>
       <c r="Q115" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
@@ -6891,16 +6931,16 @@
           <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
-      <c r="U115" s="2" t="n"/>
-      <c r="V115" s="2" t="n"/>
-      <c r="W115" s="2" t="n"/>
+      <c r="U115" s="2" t="inlineStr"/>
+      <c r="V115" s="2" t="inlineStr"/>
+      <c r="W115" s="2" t="inlineStr"/>
       <c r="X115" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y115" s="2" t="n"/>
-      <c r="Z115" s="2" t="n"/>
+      <c r="Y115" s="2" t="inlineStr"/>
+      <c r="Z115" s="2" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
@@ -6918,19 +6958,19 @@
           <t xml:space="preserve">social professional </t>
         </is>
       </c>
-      <c r="D116" s="2" t="n"/>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-      <c r="H116" s="2" t="n"/>
-      <c r="I116" s="2" t="n"/>
-      <c r="J116" s="2" t="n"/>
-      <c r="K116" s="2" t="n"/>
-      <c r="L116" s="2" t="n"/>
-      <c r="M116" s="2" t="n"/>
-      <c r="N116" s="2" t="n"/>
-      <c r="O116" s="2" t="n"/>
-      <c r="P116" s="2" t="n"/>
+      <c r="D116" s="2" t="inlineStr"/>
+      <c r="E116" s="2" t="inlineStr"/>
+      <c r="F116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr"/>
+      <c r="H116" s="2" t="inlineStr"/>
+      <c r="I116" s="2" t="inlineStr"/>
+      <c r="J116" s="2" t="inlineStr"/>
+      <c r="K116" s="2" t="inlineStr"/>
+      <c r="L116" s="2" t="inlineStr"/>
+      <c r="M116" s="2" t="inlineStr"/>
+      <c r="N116" s="2" t="inlineStr"/>
+      <c r="O116" s="2" t="inlineStr"/>
+      <c r="P116" s="2" t="inlineStr"/>
       <c r="Q116" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems. </t>
@@ -6951,16 +6991,16 @@
           <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
-      <c r="U116" s="2" t="n"/>
-      <c r="V116" s="2" t="n"/>
-      <c r="W116" s="2" t="n"/>
+      <c r="U116" s="2" t="inlineStr"/>
+      <c r="V116" s="2" t="inlineStr"/>
+      <c r="W116" s="2" t="inlineStr"/>
       <c r="X116" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y116" s="2" t="n"/>
-      <c r="Z116" s="2" t="n"/>
+      <c r="Y116" s="2" t="inlineStr"/>
+      <c r="Z116" s="2" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
@@ -6978,19 +7018,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D117" s="2" t="n"/>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-      <c r="H117" s="2" t="n"/>
-      <c r="I117" s="2" t="n"/>
-      <c r="J117" s="2" t="n"/>
-      <c r="K117" s="2" t="n"/>
-      <c r="L117" s="2" t="n"/>
-      <c r="M117" s="2" t="n"/>
-      <c r="N117" s="2" t="n"/>
-      <c r="O117" s="2" t="n"/>
-      <c r="P117" s="2" t="n"/>
+      <c r="D117" s="2" t="inlineStr"/>
+      <c r="E117" s="2" t="inlineStr"/>
+      <c r="F117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr"/>
+      <c r="H117" s="2" t="inlineStr"/>
+      <c r="I117" s="2" t="inlineStr"/>
+      <c r="J117" s="2" t="inlineStr"/>
+      <c r="K117" s="2" t="inlineStr"/>
+      <c r="L117" s="2" t="inlineStr"/>
+      <c r="M117" s="2" t="inlineStr"/>
+      <c r="N117" s="2" t="inlineStr"/>
+      <c r="O117" s="2" t="inlineStr"/>
+      <c r="P117" s="2" t="inlineStr"/>
       <c r="Q117" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
@@ -7011,16 +7051,16 @@
           <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
-      <c r="U117" s="2" t="n"/>
-      <c r="V117" s="2" t="n"/>
-      <c r="W117" s="2" t="n"/>
+      <c r="U117" s="2" t="inlineStr"/>
+      <c r="V117" s="2" t="inlineStr"/>
+      <c r="W117" s="2" t="inlineStr"/>
       <c r="X117" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y117" s="2" t="n"/>
-      <c r="Z117" s="2" t="n"/>
+      <c r="Y117" s="2" t="inlineStr"/>
+      <c r="Z117" s="2" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
@@ -7038,18 +7078,18 @@
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n"/>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-      <c r="H118" s="2" t="n"/>
-      <c r="I118" s="2" t="n"/>
-      <c r="J118" s="2" t="n"/>
-      <c r="K118" s="2" t="n"/>
-      <c r="L118" s="2" t="n"/>
-      <c r="M118" s="2" t="n"/>
-      <c r="N118" s="2" t="n"/>
-      <c r="O118" s="2" t="n"/>
+      <c r="D118" s="2" t="inlineStr"/>
+      <c r="E118" s="2" t="inlineStr"/>
+      <c r="F118" s="2" t="inlineStr"/>
+      <c r="G118" s="2" t="inlineStr"/>
+      <c r="H118" s="2" t="inlineStr"/>
+      <c r="I118" s="2" t="inlineStr"/>
+      <c r="J118" s="2" t="inlineStr"/>
+      <c r="K118" s="2" t="inlineStr"/>
+      <c r="L118" s="2" t="inlineStr"/>
+      <c r="M118" s="2" t="inlineStr"/>
+      <c r="N118" s="2" t="inlineStr"/>
+      <c r="O118" s="2" t="inlineStr"/>
       <c r="P118" s="2" t="inlineStr">
         <is>
           <t>person source</t>
@@ -7060,19 +7100,19 @@
           <t xml:space="preserve">A social or demographic characteristic of a human being who is the bearer of a person source role. </t>
         </is>
       </c>
-      <c r="R118" s="2" t="n"/>
-      <c r="S118" s="2" t="n"/>
-      <c r="T118" s="2" t="n"/>
-      <c r="U118" s="2" t="n"/>
-      <c r="V118" s="2" t="n"/>
-      <c r="W118" s="2" t="n"/>
+      <c r="R118" s="2" t="inlineStr"/>
+      <c r="S118" s="2" t="inlineStr"/>
+      <c r="T118" s="2" t="inlineStr"/>
+      <c r="U118" s="2" t="inlineStr"/>
+      <c r="V118" s="2" t="inlineStr"/>
+      <c r="W118" s="2" t="inlineStr"/>
       <c r="X118" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y118" s="2" t="n"/>
-      <c r="Z118" s="2" t="n"/>
+      <c r="Y118" s="2" t="inlineStr"/>
+      <c r="Z118" s="2" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
@@ -7090,37 +7130,37 @@
           <t>source involved in development of intervention</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n"/>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-      <c r="H119" s="2" t="n"/>
-      <c r="I119" s="2" t="n"/>
-      <c r="J119" s="2" t="n"/>
-      <c r="K119" s="2" t="n"/>
-      <c r="L119" s="2" t="n"/>
-      <c r="M119" s="2" t="n"/>
-      <c r="N119" s="2" t="n"/>
-      <c r="O119" s="2" t="n"/>
-      <c r="P119" s="2" t="n"/>
+      <c r="D119" s="2" t="inlineStr"/>
+      <c r="E119" s="2" t="inlineStr"/>
+      <c r="F119" s="2" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr"/>
+      <c r="H119" s="2" t="inlineStr"/>
+      <c r="I119" s="2" t="inlineStr"/>
+      <c r="J119" s="2" t="inlineStr"/>
+      <c r="K119" s="2" t="inlineStr"/>
+      <c r="L119" s="2" t="inlineStr"/>
+      <c r="M119" s="2" t="inlineStr"/>
+      <c r="N119" s="2" t="inlineStr"/>
+      <c r="O119" s="2" t="inlineStr"/>
+      <c r="P119" s="2" t="inlineStr"/>
       <c r="Q119" s="2" t="inlineStr">
         <is>
           <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
-      <c r="R119" s="2" t="n"/>
-      <c r="S119" s="2" t="n"/>
-      <c r="T119" s="2" t="n"/>
-      <c r="U119" s="2" t="n"/>
-      <c r="V119" s="2" t="n"/>
-      <c r="W119" s="2" t="n"/>
+      <c r="R119" s="2" t="inlineStr"/>
+      <c r="S119" s="2" t="inlineStr"/>
+      <c r="T119" s="2" t="inlineStr"/>
+      <c r="U119" s="2" t="inlineStr"/>
+      <c r="V119" s="2" t="inlineStr"/>
+      <c r="W119" s="2" t="inlineStr"/>
       <c r="X119" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y119" s="2" t="n"/>
-      <c r="Z119" s="2" t="n"/>
+      <c r="Y119" s="2" t="inlineStr"/>
+      <c r="Z119" s="2" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
@@ -7138,37 +7178,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n"/>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-      <c r="H120" s="2" t="n"/>
-      <c r="I120" s="2" t="n"/>
-      <c r="J120" s="2" t="n"/>
-      <c r="K120" s="2" t="n"/>
-      <c r="L120" s="2" t="n"/>
-      <c r="M120" s="2" t="n"/>
-      <c r="N120" s="2" t="n"/>
-      <c r="O120" s="2" t="n"/>
-      <c r="P120" s="2" t="n"/>
+      <c r="D120" s="2" t="inlineStr"/>
+      <c r="E120" s="2" t="inlineStr"/>
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr"/>
+      <c r="H120" s="2" t="inlineStr"/>
+      <c r="I120" s="2" t="inlineStr"/>
+      <c r="J120" s="2" t="inlineStr"/>
+      <c r="K120" s="2" t="inlineStr"/>
+      <c r="L120" s="2" t="inlineStr"/>
+      <c r="M120" s="2" t="inlineStr"/>
+      <c r="N120" s="2" t="inlineStr"/>
+      <c r="O120" s="2" t="inlineStr"/>
+      <c r="P120" s="2" t="inlineStr"/>
       <c r="Q120" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI source that is involved in the development of intervention content. </t>
         </is>
       </c>
-      <c r="R120" s="2" t="n"/>
-      <c r="S120" s="2" t="n"/>
-      <c r="T120" s="2" t="n"/>
-      <c r="U120" s="2" t="n"/>
-      <c r="V120" s="2" t="n"/>
-      <c r="W120" s="2" t="n"/>
+      <c r="R120" s="2" t="inlineStr"/>
+      <c r="S120" s="2" t="inlineStr"/>
+      <c r="T120" s="2" t="inlineStr"/>
+      <c r="U120" s="2" t="inlineStr"/>
+      <c r="V120" s="2" t="inlineStr"/>
+      <c r="W120" s="2" t="inlineStr"/>
       <c r="X120" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y120" s="2" t="n"/>
-      <c r="Z120" s="2" t="n"/>
+      <c r="Y120" s="2" t="inlineStr"/>
+      <c r="Z120" s="2" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
@@ -7186,37 +7226,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n"/>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-      <c r="H121" s="2" t="n"/>
-      <c r="I121" s="2" t="n"/>
-      <c r="J121" s="2" t="n"/>
-      <c r="K121" s="2" t="n"/>
-      <c r="L121" s="2" t="n"/>
-      <c r="M121" s="2" t="n"/>
-      <c r="N121" s="2" t="n"/>
-      <c r="O121" s="2" t="n"/>
-      <c r="P121" s="2" t="n"/>
+      <c r="D121" s="2" t="inlineStr"/>
+      <c r="E121" s="2" t="inlineStr"/>
+      <c r="F121" s="2" t="inlineStr"/>
+      <c r="G121" s="2" t="inlineStr"/>
+      <c r="H121" s="2" t="inlineStr"/>
+      <c r="I121" s="2" t="inlineStr"/>
+      <c r="J121" s="2" t="inlineStr"/>
+      <c r="K121" s="2" t="inlineStr"/>
+      <c r="L121" s="2" t="inlineStr"/>
+      <c r="M121" s="2" t="inlineStr"/>
+      <c r="N121" s="2" t="inlineStr"/>
+      <c r="O121" s="2" t="inlineStr"/>
+      <c r="P121" s="2" t="inlineStr"/>
       <c r="Q121" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention. </t>
         </is>
       </c>
-      <c r="R121" s="2" t="n"/>
-      <c r="S121" s="2" t="n"/>
-      <c r="T121" s="2" t="n"/>
-      <c r="U121" s="2" t="n"/>
-      <c r="V121" s="2" t="n"/>
-      <c r="W121" s="2" t="n"/>
+      <c r="R121" s="2" t="inlineStr"/>
+      <c r="S121" s="2" t="inlineStr"/>
+      <c r="T121" s="2" t="inlineStr"/>
+      <c r="U121" s="2" t="inlineStr"/>
+      <c r="V121" s="2" t="inlineStr"/>
+      <c r="W121" s="2" t="inlineStr"/>
       <c r="X121" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y121" s="2" t="n"/>
-      <c r="Z121" s="2" t="n"/>
+      <c r="Y121" s="2" t="inlineStr"/>
+      <c r="Z121" s="2" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
@@ -7234,19 +7274,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D122" s="2" t="n"/>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-      <c r="H122" s="2" t="n"/>
-      <c r="I122" s="2" t="n"/>
-      <c r="J122" s="2" t="n"/>
-      <c r="K122" s="2" t="n"/>
-      <c r="L122" s="2" t="n"/>
-      <c r="M122" s="2" t="n"/>
-      <c r="N122" s="2" t="n"/>
-      <c r="O122" s="2" t="n"/>
-      <c r="P122" s="2" t="n"/>
+      <c r="D122" s="2" t="inlineStr"/>
+      <c r="E122" s="2" t="inlineStr"/>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="inlineStr"/>
+      <c r="H122" s="2" t="inlineStr"/>
+      <c r="I122" s="2" t="inlineStr"/>
+      <c r="J122" s="2" t="inlineStr"/>
+      <c r="K122" s="2" t="inlineStr"/>
+      <c r="L122" s="2" t="inlineStr"/>
+      <c r="M122" s="2" t="inlineStr"/>
+      <c r="N122" s="2" t="inlineStr"/>
+      <c r="O122" s="2" t="inlineStr"/>
+      <c r="P122" s="2" t="inlineStr"/>
       <c r="Q122" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A teaching professional that teaches children, young persons or adults with physical or intellectual special needs. </t>
@@ -7267,16 +7307,16 @@
           <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
-      <c r="U122" s="2" t="n"/>
-      <c r="V122" s="2" t="n"/>
-      <c r="W122" s="2" t="n"/>
+      <c r="U122" s="2" t="inlineStr"/>
+      <c r="V122" s="2" t="inlineStr"/>
+      <c r="W122" s="2" t="inlineStr"/>
       <c r="X122" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y122" s="2" t="n"/>
-      <c r="Z122" s="2" t="n"/>
+      <c r="Y122" s="2" t="inlineStr"/>
+      <c r="Z122" s="2" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
@@ -7294,19 +7334,19 @@
           <t xml:space="preserve">medical doctor </t>
         </is>
       </c>
-      <c r="D123" s="2" t="n"/>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-      <c r="H123" s="2" t="n"/>
-      <c r="I123" s="2" t="n"/>
-      <c r="J123" s="2" t="n"/>
-      <c r="K123" s="2" t="n"/>
-      <c r="L123" s="2" t="n"/>
-      <c r="M123" s="2" t="n"/>
-      <c r="N123" s="2" t="n"/>
-      <c r="O123" s="2" t="n"/>
-      <c r="P123" s="2" t="n"/>
+      <c r="D123" s="2" t="inlineStr"/>
+      <c r="E123" s="2" t="inlineStr"/>
+      <c r="F123" s="2" t="inlineStr"/>
+      <c r="G123" s="2" t="inlineStr"/>
+      <c r="H123" s="2" t="inlineStr"/>
+      <c r="I123" s="2" t="inlineStr"/>
+      <c r="J123" s="2" t="inlineStr"/>
+      <c r="K123" s="2" t="inlineStr"/>
+      <c r="L123" s="2" t="inlineStr"/>
+      <c r="M123" s="2" t="inlineStr"/>
+      <c r="N123" s="2" t="inlineStr"/>
+      <c r="O123" s="2" t="inlineStr"/>
+      <c r="P123" s="2" t="inlineStr"/>
       <c r="Q123" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization. </t>
@@ -7327,16 +7367,16 @@
           <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
-      <c r="U123" s="2" t="n"/>
-      <c r="V123" s="2" t="n"/>
-      <c r="W123" s="2" t="n"/>
+      <c r="U123" s="2" t="inlineStr"/>
+      <c r="V123" s="2" t="inlineStr"/>
+      <c r="W123" s="2" t="inlineStr"/>
       <c r="X123" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y123" s="2" t="n"/>
-      <c r="Z123" s="2" t="n"/>
+      <c r="Y123" s="2" t="inlineStr"/>
+      <c r="Z123" s="2" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
@@ -7354,19 +7394,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D124" s="2" t="n"/>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-      <c r="H124" s="2" t="n"/>
-      <c r="I124" s="2" t="n"/>
-      <c r="J124" s="2" t="n"/>
-      <c r="K124" s="2" t="n"/>
-      <c r="L124" s="2" t="n"/>
-      <c r="M124" s="2" t="n"/>
-      <c r="N124" s="2" t="n"/>
-      <c r="O124" s="2" t="n"/>
-      <c r="P124" s="2" t="n"/>
+      <c r="D124" s="2" t="inlineStr"/>
+      <c r="E124" s="2" t="inlineStr"/>
+      <c r="F124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr"/>
+      <c r="H124" s="2" t="inlineStr"/>
+      <c r="I124" s="2" t="inlineStr"/>
+      <c r="J124" s="2" t="inlineStr"/>
+      <c r="K124" s="2" t="inlineStr"/>
+      <c r="L124" s="2" t="inlineStr"/>
+      <c r="M124" s="2" t="inlineStr"/>
+      <c r="N124" s="2" t="inlineStr"/>
+      <c r="O124" s="2" t="inlineStr"/>
+      <c r="P124" s="2" t="inlineStr"/>
       <c r="Q124" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
@@ -7387,16 +7427,16 @@
           <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
-      <c r="U124" s="2" t="n"/>
-      <c r="V124" s="2" t="n"/>
-      <c r="W124" s="2" t="n"/>
+      <c r="U124" s="2" t="inlineStr"/>
+      <c r="V124" s="2" t="inlineStr"/>
+      <c r="W124" s="2" t="inlineStr"/>
       <c r="X124" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y124" s="2" t="n"/>
-      <c r="Z124" s="2" t="n"/>
+      <c r="Y124" s="2" t="inlineStr"/>
+      <c r="Z124" s="2" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
@@ -7414,19 +7454,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D125" s="2" t="n"/>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-      <c r="H125" s="2" t="n"/>
-      <c r="I125" s="2" t="n"/>
-      <c r="J125" s="2" t="n"/>
-      <c r="K125" s="2" t="n"/>
-      <c r="L125" s="2" t="n"/>
-      <c r="M125" s="2" t="n"/>
-      <c r="N125" s="2" t="n"/>
-      <c r="O125" s="2" t="n"/>
-      <c r="P125" s="2" t="n"/>
+      <c r="D125" s="2" t="inlineStr"/>
+      <c r="E125" s="2" t="inlineStr"/>
+      <c r="F125" s="2" t="inlineStr"/>
+      <c r="G125" s="2" t="inlineStr"/>
+      <c r="H125" s="2" t="inlineStr"/>
+      <c r="I125" s="2" t="inlineStr"/>
+      <c r="J125" s="2" t="inlineStr"/>
+      <c r="K125" s="2" t="inlineStr"/>
+      <c r="L125" s="2" t="inlineStr"/>
+      <c r="M125" s="2" t="inlineStr"/>
+      <c r="N125" s="2" t="inlineStr"/>
+      <c r="O125" s="2" t="inlineStr"/>
+      <c r="P125" s="2" t="inlineStr"/>
       <c r="Q125" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
@@ -7447,16 +7487,16 @@
           <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
-      <c r="U125" s="2" t="n"/>
-      <c r="V125" s="2" t="n"/>
-      <c r="W125" s="2" t="n"/>
+      <c r="U125" s="2" t="inlineStr"/>
+      <c r="V125" s="2" t="inlineStr"/>
+      <c r="W125" s="2" t="inlineStr"/>
       <c r="X125" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y125" s="2" t="n"/>
-      <c r="Z125" s="2" t="n"/>
+      <c r="Y125" s="2" t="inlineStr"/>
+      <c r="Z125" s="2" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
@@ -7474,41 +7514,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n"/>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
-      <c r="H126" s="2" t="n"/>
-      <c r="I126" s="2" t="n"/>
-      <c r="J126" s="2" t="n"/>
-      <c r="K126" s="2" t="n"/>
-      <c r="L126" s="2" t="n"/>
-      <c r="M126" s="2" t="n"/>
-      <c r="N126" s="2" t="n"/>
-      <c r="O126" s="2" t="n"/>
-      <c r="P126" s="2" t="n"/>
+      <c r="D126" s="2" t="inlineStr"/>
+      <c r="E126" s="2" t="inlineStr"/>
+      <c r="F126" s="2" t="inlineStr"/>
+      <c r="G126" s="2" t="inlineStr"/>
+      <c r="H126" s="2" t="inlineStr"/>
+      <c r="I126" s="2" t="inlineStr"/>
+      <c r="J126" s="2" t="inlineStr"/>
+      <c r="K126" s="2" t="inlineStr"/>
+      <c r="L126" s="2" t="inlineStr"/>
+      <c r="M126" s="2" t="inlineStr"/>
+      <c r="N126" s="2" t="inlineStr"/>
+      <c r="O126" s="2" t="inlineStr"/>
+      <c r="P126" s="2" t="inlineStr"/>
       <c r="Q126" s="2" t="inlineStr">
         <is>
           <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
-      <c r="R126" s="2" t="n"/>
-      <c r="S126" s="2" t="n"/>
+      <c r="R126" s="2" t="inlineStr"/>
+      <c r="S126" s="2" t="inlineStr"/>
       <c r="T126" s="2" t="inlineStr">
         <is>
           <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
-      <c r="U126" s="2" t="n"/>
-      <c r="V126" s="2" t="n"/>
-      <c r="W126" s="2" t="n"/>
+      <c r="U126" s="2" t="inlineStr"/>
+      <c r="V126" s="2" t="inlineStr"/>
+      <c r="W126" s="2" t="inlineStr"/>
       <c r="X126" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y126" s="2" t="n"/>
-      <c r="Z126" s="2" t="n"/>
+      <c r="Y126" s="2" t="inlineStr"/>
+      <c r="Z126" s="2" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
@@ -7526,37 +7566,37 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n"/>
-      <c r="E127" s="2" t="n"/>
-      <c r="F127" s="2" t="n"/>
-      <c r="G127" s="2" t="n"/>
-      <c r="H127" s="2" t="n"/>
-      <c r="I127" s="2" t="n"/>
-      <c r="J127" s="2" t="n"/>
-      <c r="K127" s="2" t="n"/>
-      <c r="L127" s="2" t="n"/>
-      <c r="M127" s="2" t="n"/>
-      <c r="N127" s="2" t="n"/>
-      <c r="O127" s="2" t="n"/>
-      <c r="P127" s="2" t="n"/>
+      <c r="D127" s="2" t="inlineStr"/>
+      <c r="E127" s="2" t="inlineStr"/>
+      <c r="F127" s="2" t="inlineStr"/>
+      <c r="G127" s="2" t="inlineStr"/>
+      <c r="H127" s="2" t="inlineStr"/>
+      <c r="I127" s="2" t="inlineStr"/>
+      <c r="J127" s="2" t="inlineStr"/>
+      <c r="K127" s="2" t="inlineStr"/>
+      <c r="L127" s="2" t="inlineStr"/>
+      <c r="M127" s="2" t="inlineStr"/>
+      <c r="N127" s="2" t="inlineStr"/>
+      <c r="O127" s="2" t="inlineStr"/>
+      <c r="P127" s="2" t="inlineStr"/>
       <c r="Q127" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
-      <c r="R127" s="2" t="n"/>
-      <c r="S127" s="2" t="n"/>
-      <c r="T127" s="2" t="n"/>
-      <c r="U127" s="2" t="n"/>
-      <c r="V127" s="2" t="n"/>
-      <c r="W127" s="2" t="n"/>
+      <c r="R127" s="2" t="inlineStr"/>
+      <c r="S127" s="2" t="inlineStr"/>
+      <c r="T127" s="2" t="inlineStr"/>
+      <c r="U127" s="2" t="inlineStr"/>
+      <c r="V127" s="2" t="inlineStr"/>
+      <c r="W127" s="2" t="inlineStr"/>
       <c r="X127" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y127" s="2" t="n"/>
-      <c r="Z127" s="2" t="n"/>
+      <c r="Y127" s="2" t="inlineStr"/>
+      <c r="Z127" s="2" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
@@ -7574,45 +7614,45 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n"/>
-      <c r="E128" s="2" t="n"/>
+      <c r="D128" s="2" t="inlineStr"/>
+      <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G128" s="2" t="n"/>
-      <c r="H128" s="2" t="n"/>
-      <c r="I128" s="2" t="n"/>
-      <c r="J128" s="2" t="n"/>
-      <c r="K128" s="2" t="n"/>
-      <c r="L128" s="2" t="n"/>
-      <c r="M128" s="2" t="n"/>
-      <c r="N128" s="2" t="n"/>
-      <c r="O128" s="2" t="n"/>
-      <c r="P128" s="2" t="n"/>
+      <c r="G128" s="2" t="inlineStr"/>
+      <c r="H128" s="2" t="inlineStr"/>
+      <c r="I128" s="2" t="inlineStr"/>
+      <c r="J128" s="2" t="inlineStr"/>
+      <c r="K128" s="2" t="inlineStr"/>
+      <c r="L128" s="2" t="inlineStr"/>
+      <c r="M128" s="2" t="inlineStr"/>
+      <c r="N128" s="2" t="inlineStr"/>
+      <c r="O128" s="2" t="inlineStr"/>
+      <c r="P128" s="2" t="inlineStr"/>
       <c r="Q128" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
-      <c r="R128" s="2" t="n"/>
-      <c r="S128" s="2" t="n"/>
+      <c r="R128" s="2" t="inlineStr"/>
+      <c r="S128" s="2" t="inlineStr"/>
       <c r="T128" s="2" t="inlineStr">
         <is>
           <t>supervised</t>
         </is>
       </c>
-      <c r="U128" s="2" t="n"/>
-      <c r="V128" s="2" t="n"/>
-      <c r="W128" s="2" t="n"/>
+      <c r="U128" s="2" t="inlineStr"/>
+      <c r="V128" s="2" t="inlineStr"/>
+      <c r="W128" s="2" t="inlineStr"/>
       <c r="X128" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y128" s="2" t="n"/>
-      <c r="Z128" s="2" t="n"/>
+      <c r="Y128" s="2" t="inlineStr"/>
+      <c r="Z128" s="2" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
@@ -7630,41 +7670,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n"/>
-      <c r="E129" s="2" t="n"/>
-      <c r="F129" s="2" t="n"/>
-      <c r="G129" s="2" t="n"/>
-      <c r="H129" s="2" t="n"/>
-      <c r="I129" s="2" t="n"/>
-      <c r="J129" s="2" t="n"/>
-      <c r="K129" s="2" t="n"/>
-      <c r="L129" s="2" t="n"/>
-      <c r="M129" s="2" t="n"/>
-      <c r="N129" s="2" t="n"/>
-      <c r="O129" s="2" t="n"/>
-      <c r="P129" s="2" t="n"/>
+      <c r="D129" s="2" t="inlineStr"/>
+      <c r="E129" s="2" t="inlineStr"/>
+      <c r="F129" s="2" t="inlineStr"/>
+      <c r="G129" s="2" t="inlineStr"/>
+      <c r="H129" s="2" t="inlineStr"/>
+      <c r="I129" s="2" t="inlineStr"/>
+      <c r="J129" s="2" t="inlineStr"/>
+      <c r="K129" s="2" t="inlineStr"/>
+      <c r="L129" s="2" t="inlineStr"/>
+      <c r="M129" s="2" t="inlineStr"/>
+      <c r="N129" s="2" t="inlineStr"/>
+      <c r="O129" s="2" t="inlineStr"/>
+      <c r="P129" s="2" t="inlineStr"/>
       <c r="Q129" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
         </is>
       </c>
-      <c r="R129" s="2" t="n"/>
-      <c r="S129" s="2" t="n"/>
+      <c r="R129" s="2" t="inlineStr"/>
+      <c r="S129" s="2" t="inlineStr"/>
       <c r="T129" s="2" t="inlineStr">
         <is>
           <t>source is highly physically active</t>
         </is>
       </c>
-      <c r="U129" s="2" t="n"/>
-      <c r="V129" s="2" t="n"/>
-      <c r="W129" s="2" t="n"/>
+      <c r="U129" s="2" t="inlineStr"/>
+      <c r="V129" s="2" t="inlineStr"/>
+      <c r="W129" s="2" t="inlineStr"/>
       <c r="X129" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y129" s="2" t="n"/>
-      <c r="Z129" s="2" t="n"/>
+      <c r="Y129" s="2" t="inlineStr"/>
+      <c r="Z129" s="2" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
@@ -7682,19 +7722,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D130" s="2" t="n"/>
-      <c r="E130" s="2" t="n"/>
-      <c r="F130" s="2" t="n"/>
-      <c r="G130" s="2" t="n"/>
-      <c r="H130" s="2" t="n"/>
-      <c r="I130" s="2" t="n"/>
-      <c r="J130" s="2" t="n"/>
-      <c r="K130" s="2" t="n"/>
-      <c r="L130" s="2" t="n"/>
-      <c r="M130" s="2" t="n"/>
-      <c r="N130" s="2" t="n"/>
-      <c r="O130" s="2" t="n"/>
-      <c r="P130" s="2" t="n"/>
+      <c r="D130" s="2" t="inlineStr"/>
+      <c r="E130" s="2" t="inlineStr"/>
+      <c r="F130" s="2" t="inlineStr"/>
+      <c r="G130" s="2" t="inlineStr"/>
+      <c r="H130" s="2" t="inlineStr"/>
+      <c r="I130" s="2" t="inlineStr"/>
+      <c r="J130" s="2" t="inlineStr"/>
+      <c r="K130" s="2" t="inlineStr"/>
+      <c r="L130" s="2" t="inlineStr"/>
+      <c r="M130" s="2" t="inlineStr"/>
+      <c r="N130" s="2" t="inlineStr"/>
+      <c r="O130" s="2" t="inlineStr"/>
+      <c r="P130" s="2" t="inlineStr"/>
       <c r="Q130" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
@@ -7715,16 +7755,16 @@
           <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
-      <c r="U130" s="2" t="n"/>
-      <c r="V130" s="2" t="n"/>
-      <c r="W130" s="2" t="n"/>
+      <c r="U130" s="2" t="inlineStr"/>
+      <c r="V130" s="2" t="inlineStr"/>
+      <c r="W130" s="2" t="inlineStr"/>
       <c r="X130" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y130" s="2" t="n"/>
-      <c r="Z130" s="2" t="n"/>
+      <c r="Y130" s="2" t="inlineStr"/>
+      <c r="Z130" s="2" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
@@ -7742,19 +7782,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n"/>
-      <c r="E131" s="2" t="n"/>
-      <c r="F131" s="2" t="n"/>
-      <c r="G131" s="2" t="n"/>
-      <c r="H131" s="2" t="n"/>
-      <c r="I131" s="2" t="n"/>
-      <c r="J131" s="2" t="n"/>
-      <c r="K131" s="2" t="n"/>
-      <c r="L131" s="2" t="n"/>
-      <c r="M131" s="2" t="n"/>
-      <c r="N131" s="2" t="n"/>
-      <c r="O131" s="2" t="n"/>
-      <c r="P131" s="2" t="n"/>
+      <c r="D131" s="2" t="inlineStr"/>
+      <c r="E131" s="2" t="inlineStr"/>
+      <c r="F131" s="2" t="inlineStr"/>
+      <c r="G131" s="2" t="inlineStr"/>
+      <c r="H131" s="2" t="inlineStr"/>
+      <c r="I131" s="2" t="inlineStr"/>
+      <c r="J131" s="2" t="inlineStr"/>
+      <c r="K131" s="2" t="inlineStr"/>
+      <c r="L131" s="2" t="inlineStr"/>
+      <c r="M131" s="2" t="inlineStr"/>
+      <c r="N131" s="2" t="inlineStr"/>
+      <c r="O131" s="2" t="inlineStr"/>
+      <c r="P131" s="2" t="inlineStr"/>
       <c r="Q131" s="2" t="inlineStr">
         <is>
           <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
@@ -7775,8 +7815,8 @@
           <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
-      <c r="U131" s="2" t="n"/>
-      <c r="V131" s="2" t="n"/>
+      <c r="U131" s="2" t="inlineStr"/>
+      <c r="V131" s="2" t="inlineStr"/>
       <c r="W131" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -7787,8 +7827,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y131" s="2" t="n"/>
-      <c r="Z131" s="2" t="n"/>
+      <c r="Y131" s="2" t="inlineStr"/>
+      <c r="Z131" s="2" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
@@ -7806,19 +7846,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n"/>
-      <c r="E132" s="2" t="n"/>
-      <c r="F132" s="2" t="n"/>
-      <c r="G132" s="2" t="n"/>
-      <c r="H132" s="2" t="n"/>
-      <c r="I132" s="2" t="n"/>
-      <c r="J132" s="2" t="n"/>
-      <c r="K132" s="2" t="n"/>
-      <c r="L132" s="2" t="n"/>
-      <c r="M132" s="2" t="n"/>
-      <c r="N132" s="2" t="n"/>
-      <c r="O132" s="2" t="n"/>
-      <c r="P132" s="2" t="n"/>
+      <c r="D132" s="2" t="inlineStr"/>
+      <c r="E132" s="2" t="inlineStr"/>
+      <c r="F132" s="2" t="inlineStr"/>
+      <c r="G132" s="2" t="inlineStr"/>
+      <c r="H132" s="2" t="inlineStr"/>
+      <c r="I132" s="2" t="inlineStr"/>
+      <c r="J132" s="2" t="inlineStr"/>
+      <c r="K132" s="2" t="inlineStr"/>
+      <c r="L132" s="2" t="inlineStr"/>
+      <c r="M132" s="2" t="inlineStr"/>
+      <c r="N132" s="2" t="inlineStr"/>
+      <c r="O132" s="2" t="inlineStr"/>
+      <c r="P132" s="2" t="inlineStr"/>
       <c r="Q132" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations. </t>
@@ -7834,17 +7874,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T132" s="2" t="n"/>
-      <c r="U132" s="2" t="n"/>
-      <c r="V132" s="2" t="n"/>
-      <c r="W132" s="2" t="n"/>
+      <c r="T132" s="2" t="inlineStr"/>
+      <c r="U132" s="2" t="inlineStr"/>
+      <c r="V132" s="2" t="inlineStr"/>
+      <c r="W132" s="2" t="inlineStr"/>
       <c r="X132" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y132" s="2" t="n"/>
-      <c r="Z132" s="2" t="n"/>
+      <c r="Y132" s="2" t="inlineStr"/>
+      <c r="Z132" s="2" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
@@ -7862,41 +7902,41 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n"/>
-      <c r="E133" s="2" t="n"/>
-      <c r="F133" s="2" t="n"/>
-      <c r="G133" s="2" t="n"/>
-      <c r="H133" s="2" t="n"/>
-      <c r="I133" s="2" t="n"/>
-      <c r="J133" s="2" t="n"/>
-      <c r="K133" s="2" t="n"/>
-      <c r="L133" s="2" t="n"/>
-      <c r="M133" s="2" t="n"/>
-      <c r="N133" s="2" t="n"/>
+      <c r="D133" s="2" t="inlineStr"/>
+      <c r="E133" s="2" t="inlineStr"/>
+      <c r="F133" s="2" t="inlineStr"/>
+      <c r="G133" s="2" t="inlineStr"/>
+      <c r="H133" s="2" t="inlineStr"/>
+      <c r="I133" s="2" t="inlineStr"/>
+      <c r="J133" s="2" t="inlineStr"/>
+      <c r="K133" s="2" t="inlineStr"/>
+      <c r="L133" s="2" t="inlineStr"/>
+      <c r="M133" s="2" t="inlineStr"/>
+      <c r="N133" s="2" t="inlineStr"/>
       <c r="O133" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="P133" s="2" t="n"/>
+      <c r="P133" s="2" t="inlineStr"/>
       <c r="Q133" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A count data item that is the total number of providers that are available and able to deliver the intervention. </t>
         </is>
       </c>
-      <c r="R133" s="2" t="n"/>
-      <c r="S133" s="2" t="n"/>
-      <c r="T133" s="2" t="n"/>
-      <c r="U133" s="2" t="n"/>
-      <c r="V133" s="2" t="n"/>
-      <c r="W133" s="2" t="n"/>
+      <c r="R133" s="2" t="inlineStr"/>
+      <c r="S133" s="2" t="inlineStr"/>
+      <c r="T133" s="2" t="inlineStr"/>
+      <c r="U133" s="2" t="inlineStr"/>
+      <c r="V133" s="2" t="inlineStr"/>
+      <c r="W133" s="2" t="inlineStr"/>
       <c r="X133" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y133" s="2" t="n"/>
-      <c r="Z133" s="2" t="n"/>
+      <c r="Y133" s="2" t="inlineStr"/>
+      <c r="Z133" s="2" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
@@ -7914,19 +7954,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D134" s="2" t="n"/>
-      <c r="E134" s="2" t="n"/>
-      <c r="F134" s="2" t="n"/>
-      <c r="G134" s="2" t="n"/>
-      <c r="H134" s="2" t="n"/>
-      <c r="I134" s="2" t="n"/>
-      <c r="J134" s="2" t="n"/>
-      <c r="K134" s="2" t="n"/>
-      <c r="L134" s="2" t="n"/>
-      <c r="M134" s="2" t="n"/>
-      <c r="N134" s="2" t="n"/>
-      <c r="O134" s="2" t="n"/>
-      <c r="P134" s="2" t="n"/>
+      <c r="D134" s="2" t="inlineStr"/>
+      <c r="E134" s="2" t="inlineStr"/>
+      <c r="F134" s="2" t="inlineStr"/>
+      <c r="G134" s="2" t="inlineStr"/>
+      <c r="H134" s="2" t="inlineStr"/>
+      <c r="I134" s="2" t="inlineStr"/>
+      <c r="J134" s="2" t="inlineStr"/>
+      <c r="K134" s="2" t="inlineStr"/>
+      <c r="L134" s="2" t="inlineStr"/>
+      <c r="M134" s="2" t="inlineStr"/>
+      <c r="N134" s="2" t="inlineStr"/>
+      <c r="O134" s="2" t="inlineStr"/>
+      <c r="P134" s="2" t="inlineStr"/>
       <c r="Q134" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional. </t>
@@ -7947,16 +7987,16 @@
           <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
-      <c r="U134" s="2" t="n"/>
-      <c r="V134" s="2" t="n"/>
-      <c r="W134" s="2" t="n"/>
+      <c r="U134" s="2" t="inlineStr"/>
+      <c r="V134" s="2" t="inlineStr"/>
+      <c r="W134" s="2" t="inlineStr"/>
       <c r="X134" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y134" s="2" t="n"/>
-      <c r="Z134" s="2" t="n"/>
+      <c r="Y134" s="2" t="inlineStr"/>
+      <c r="Z134" s="2" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
@@ -7974,19 +8014,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D135" s="2" t="n"/>
-      <c r="E135" s="2" t="n"/>
-      <c r="F135" s="2" t="n"/>
-      <c r="G135" s="2" t="n"/>
-      <c r="H135" s="2" t="n"/>
-      <c r="I135" s="2" t="n"/>
-      <c r="J135" s="2" t="n"/>
-      <c r="K135" s="2" t="n"/>
-      <c r="L135" s="2" t="n"/>
-      <c r="M135" s="2" t="n"/>
-      <c r="N135" s="2" t="n"/>
-      <c r="O135" s="2" t="n"/>
-      <c r="P135" s="2" t="n"/>
+      <c r="D135" s="2" t="inlineStr"/>
+      <c r="E135" s="2" t="inlineStr"/>
+      <c r="F135" s="2" t="inlineStr"/>
+      <c r="G135" s="2" t="inlineStr"/>
+      <c r="H135" s="2" t="inlineStr"/>
+      <c r="I135" s="2" t="inlineStr"/>
+      <c r="J135" s="2" t="inlineStr"/>
+      <c r="K135" s="2" t="inlineStr"/>
+      <c r="L135" s="2" t="inlineStr"/>
+      <c r="M135" s="2" t="inlineStr"/>
+      <c r="N135" s="2" t="inlineStr"/>
+      <c r="O135" s="2" t="inlineStr"/>
+      <c r="P135" s="2" t="inlineStr"/>
       <c r="Q135" s="2" t="inlineStr">
         <is>
           <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
@@ -8007,16 +8047,16 @@
           <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
-      <c r="U135" s="2" t="n"/>
-      <c r="V135" s="2" t="n"/>
-      <c r="W135" s="2" t="n"/>
+      <c r="U135" s="2" t="inlineStr"/>
+      <c r="V135" s="2" t="inlineStr"/>
+      <c r="W135" s="2" t="inlineStr"/>
       <c r="X135" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y135" s="2" t="n"/>
-      <c r="Z135" s="2" t="n"/>
+      <c r="Y135" s="2" t="inlineStr"/>
+      <c r="Z135" s="2" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
@@ -8034,41 +8074,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n"/>
-      <c r="E136" s="2" t="n"/>
-      <c r="F136" s="2" t="n"/>
-      <c r="G136" s="2" t="n"/>
-      <c r="H136" s="2" t="n"/>
-      <c r="I136" s="2" t="n"/>
-      <c r="J136" s="2" t="n"/>
-      <c r="K136" s="2" t="n"/>
-      <c r="L136" s="2" t="n"/>
-      <c r="M136" s="2" t="n"/>
-      <c r="N136" s="2" t="n"/>
-      <c r="O136" s="2" t="n"/>
-      <c r="P136" s="2" t="n"/>
+      <c r="D136" s="2" t="inlineStr"/>
+      <c r="E136" s="2" t="inlineStr"/>
+      <c r="F136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr"/>
+      <c r="H136" s="2" t="inlineStr"/>
+      <c r="I136" s="2" t="inlineStr"/>
+      <c r="J136" s="2" t="inlineStr"/>
+      <c r="K136" s="2" t="inlineStr"/>
+      <c r="L136" s="2" t="inlineStr"/>
+      <c r="M136" s="2" t="inlineStr"/>
+      <c r="N136" s="2" t="inlineStr"/>
+      <c r="O136" s="2" t="inlineStr"/>
+      <c r="P136" s="2" t="inlineStr"/>
       <c r="Q136" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
-      <c r="R136" s="2" t="n"/>
-      <c r="S136" s="2" t="n"/>
+      <c r="R136" s="2" t="inlineStr"/>
+      <c r="S136" s="2" t="inlineStr"/>
       <c r="T136" s="2" t="inlineStr">
         <is>
           <t>undergraduate student</t>
         </is>
       </c>
-      <c r="U136" s="2" t="n"/>
-      <c r="V136" s="2" t="n"/>
-      <c r="W136" s="2" t="n"/>
+      <c r="U136" s="2" t="inlineStr"/>
+      <c r="V136" s="2" t="inlineStr"/>
+      <c r="W136" s="2" t="inlineStr"/>
       <c r="X136" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y136" s="2" t="n"/>
-      <c r="Z136" s="2" t="n"/>
+      <c r="Y136" s="2" t="inlineStr"/>
+      <c r="Z136" s="2" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
@@ -8087,19 +8127,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D137" s="2" t="n"/>
-      <c r="E137" s="2" t="n"/>
-      <c r="F137" s="2" t="n"/>
-      <c r="G137" s="2" t="n"/>
-      <c r="H137" s="2" t="n"/>
-      <c r="I137" s="2" t="n"/>
-      <c r="J137" s="2" t="n"/>
-      <c r="K137" s="2" t="n"/>
-      <c r="L137" s="2" t="n"/>
-      <c r="M137" s="2" t="n"/>
-      <c r="N137" s="2" t="n"/>
-      <c r="O137" s="2" t="n"/>
-      <c r="P137" s="2" t="n"/>
+      <c r="D137" s="2" t="inlineStr"/>
+      <c r="E137" s="2" t="inlineStr"/>
+      <c r="F137" s="2" t="inlineStr"/>
+      <c r="G137" s="2" t="inlineStr"/>
+      <c r="H137" s="2" t="inlineStr"/>
+      <c r="I137" s="2" t="inlineStr"/>
+      <c r="J137" s="2" t="inlineStr"/>
+      <c r="K137" s="2" t="inlineStr"/>
+      <c r="L137" s="2" t="inlineStr"/>
+      <c r="M137" s="2" t="inlineStr"/>
+      <c r="N137" s="2" t="inlineStr"/>
+      <c r="O137" s="2" t="inlineStr"/>
+      <c r="P137" s="2" t="inlineStr"/>
       <c r="Q137" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
@@ -8120,16 +8160,16 @@
           <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
-      <c r="U137" s="2" t="n"/>
-      <c r="V137" s="2" t="n"/>
-      <c r="W137" s="2" t="n"/>
+      <c r="U137" s="2" t="inlineStr"/>
+      <c r="V137" s="2" t="inlineStr"/>
+      <c r="W137" s="2" t="inlineStr"/>
       <c r="X137" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y137" s="2" t="n"/>
-      <c r="Z137" s="2" t="n"/>
+      <c r="Y137" s="2" t="inlineStr"/>
+      <c r="Z137" s="2" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
@@ -8147,19 +8187,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D138" s="2" t="n"/>
-      <c r="E138" s="2" t="n"/>
-      <c r="F138" s="2" t="n"/>
-      <c r="G138" s="2" t="n"/>
-      <c r="H138" s="2" t="n"/>
-      <c r="I138" s="2" t="n"/>
-      <c r="J138" s="2" t="n"/>
-      <c r="K138" s="2" t="n"/>
-      <c r="L138" s="2" t="n"/>
-      <c r="M138" s="2" t="n"/>
-      <c r="N138" s="2" t="n"/>
-      <c r="O138" s="2" t="n"/>
-      <c r="P138" s="2" t="n"/>
+      <c r="D138" s="2" t="inlineStr"/>
+      <c r="E138" s="2" t="inlineStr"/>
+      <c r="F138" s="2" t="inlineStr"/>
+      <c r="G138" s="2" t="inlineStr"/>
+      <c r="H138" s="2" t="inlineStr"/>
+      <c r="I138" s="2" t="inlineStr"/>
+      <c r="J138" s="2" t="inlineStr"/>
+      <c r="K138" s="2" t="inlineStr"/>
+      <c r="L138" s="2" t="inlineStr"/>
+      <c r="M138" s="2" t="inlineStr"/>
+      <c r="N138" s="2" t="inlineStr"/>
+      <c r="O138" s="2" t="inlineStr"/>
+      <c r="P138" s="2" t="inlineStr"/>
       <c r="Q138" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals. </t>
@@ -8180,16 +8220,16 @@
           <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
-      <c r="U138" s="2" t="n"/>
-      <c r="V138" s="2" t="n"/>
-      <c r="W138" s="2" t="n"/>
+      <c r="U138" s="2" t="inlineStr"/>
+      <c r="V138" s="2" t="inlineStr"/>
+      <c r="W138" s="2" t="inlineStr"/>
       <c r="X138" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y138" s="2" t="n"/>
-      <c r="Z138" s="2" t="n"/>
+      <c r="Y138" s="2" t="inlineStr"/>
+      <c r="Z138" s="2" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
@@ -8207,19 +8247,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D139" s="2" t="n"/>
-      <c r="E139" s="2" t="n"/>
-      <c r="F139" s="2" t="n"/>
-      <c r="G139" s="2" t="n"/>
-      <c r="H139" s="2" t="n"/>
-      <c r="I139" s="2" t="n"/>
-      <c r="J139" s="2" t="n"/>
-      <c r="K139" s="2" t="n"/>
-      <c r="L139" s="2" t="n"/>
-      <c r="M139" s="2" t="n"/>
-      <c r="N139" s="2" t="n"/>
-      <c r="O139" s="2" t="n"/>
-      <c r="P139" s="2" t="n"/>
+      <c r="D139" s="2" t="inlineStr"/>
+      <c r="E139" s="2" t="inlineStr"/>
+      <c r="F139" s="2" t="inlineStr"/>
+      <c r="G139" s="2" t="inlineStr"/>
+      <c r="H139" s="2" t="inlineStr"/>
+      <c r="I139" s="2" t="inlineStr"/>
+      <c r="J139" s="2" t="inlineStr"/>
+      <c r="K139" s="2" t="inlineStr"/>
+      <c r="L139" s="2" t="inlineStr"/>
+      <c r="M139" s="2" t="inlineStr"/>
+      <c r="N139" s="2" t="inlineStr"/>
+      <c r="O139" s="2" t="inlineStr"/>
+      <c r="P139" s="2" t="inlineStr"/>
       <c r="Q139" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges. </t>
@@ -8240,16 +8280,16 @@
           <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
-      <c r="U139" s="2" t="n"/>
-      <c r="V139" s="2" t="n"/>
-      <c r="W139" s="2" t="n"/>
+      <c r="U139" s="2" t="inlineStr"/>
+      <c r="V139" s="2" t="inlineStr"/>
+      <c r="W139" s="2" t="inlineStr"/>
       <c r="X139" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y139" s="2" t="n"/>
-      <c r="Z139" s="2" t="n"/>
+      <c r="Y139" s="2" t="inlineStr"/>
+      <c r="Z139" s="2" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
@@ -8267,37 +8307,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n"/>
-      <c r="E140" s="2" t="n"/>
-      <c r="F140" s="2" t="n"/>
-      <c r="G140" s="2" t="n"/>
-      <c r="H140" s="2" t="n"/>
-      <c r="I140" s="2" t="n"/>
-      <c r="J140" s="2" t="n"/>
-      <c r="K140" s="2" t="n"/>
-      <c r="L140" s="2" t="n"/>
-      <c r="M140" s="2" t="n"/>
-      <c r="N140" s="2" t="n"/>
-      <c r="O140" s="2" t="n"/>
-      <c r="P140" s="2" t="n"/>
+      <c r="D140" s="2" t="inlineStr"/>
+      <c r="E140" s="2" t="inlineStr"/>
+      <c r="F140" s="2" t="inlineStr"/>
+      <c r="G140" s="2" t="inlineStr"/>
+      <c r="H140" s="2" t="inlineStr"/>
+      <c r="I140" s="2" t="inlineStr"/>
+      <c r="J140" s="2" t="inlineStr"/>
+      <c r="K140" s="2" t="inlineStr"/>
+      <c r="L140" s="2" t="inlineStr"/>
+      <c r="M140" s="2" t="inlineStr"/>
+      <c r="N140" s="2" t="inlineStr"/>
+      <c r="O140" s="2" t="inlineStr"/>
+      <c r="P140" s="2" t="inlineStr"/>
       <c r="Q140" s="2" t="inlineStr">
         <is>
           <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
-      <c r="R140" s="2" t="n"/>
-      <c r="S140" s="2" t="n"/>
-      <c r="T140" s="2" t="n"/>
-      <c r="U140" s="2" t="n"/>
-      <c r="V140" s="2" t="n"/>
-      <c r="W140" s="2" t="n"/>
+      <c r="R140" s="2" t="inlineStr"/>
+      <c r="S140" s="2" t="inlineStr"/>
+      <c r="T140" s="2" t="inlineStr"/>
+      <c r="U140" s="2" t="inlineStr"/>
+      <c r="V140" s="2" t="inlineStr"/>
+      <c r="W140" s="2" t="inlineStr"/>
       <c r="X140" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y140" s="2" t="n"/>
-      <c r="Z140" s="2" t="n"/>
+      <c r="Y140" s="2" t="inlineStr"/>
+      <c r="Z140" s="2" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
@@ -8315,45 +8355,45 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n"/>
-      <c r="E141" s="2" t="n"/>
+      <c r="D141" s="2" t="inlineStr"/>
+      <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G141" s="2" t="n"/>
-      <c r="H141" s="2" t="n"/>
-      <c r="I141" s="2" t="n"/>
-      <c r="J141" s="2" t="n"/>
-      <c r="K141" s="2" t="n"/>
-      <c r="L141" s="2" t="n"/>
-      <c r="M141" s="2" t="n"/>
-      <c r="N141" s="2" t="n"/>
-      <c r="O141" s="2" t="n"/>
-      <c r="P141" s="2" t="n"/>
+      <c r="G141" s="2" t="inlineStr"/>
+      <c r="H141" s="2" t="inlineStr"/>
+      <c r="I141" s="2" t="inlineStr"/>
+      <c r="J141" s="2" t="inlineStr"/>
+      <c r="K141" s="2" t="inlineStr"/>
+      <c r="L141" s="2" t="inlineStr"/>
+      <c r="M141" s="2" t="inlineStr"/>
+      <c r="N141" s="2" t="inlineStr"/>
+      <c r="O141" s="2" t="inlineStr"/>
+      <c r="P141" s="2" t="inlineStr"/>
       <c r="Q141" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
-      <c r="R141" s="2" t="n"/>
-      <c r="S141" s="2" t="n"/>
+      <c r="R141" s="2" t="inlineStr"/>
+      <c r="S141" s="2" t="inlineStr"/>
       <c r="T141" s="2" t="inlineStr">
         <is>
           <t>voluntary basis, volunteering</t>
         </is>
       </c>
-      <c r="U141" s="2" t="n"/>
-      <c r="V141" s="2" t="n"/>
-      <c r="W141" s="2" t="n"/>
+      <c r="U141" s="2" t="inlineStr"/>
+      <c r="V141" s="2" t="inlineStr"/>
+      <c r="W141" s="2" t="inlineStr"/>
       <c r="X141" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y141" s="2" t="n"/>
-      <c r="Z141" s="2" t="n"/>
+      <c r="Y141" s="2" t="inlineStr"/>
+      <c r="Z141" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test5andtest6</t>
+          <t>test2andtest7</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -636,16 +636,8 @@
           <t>knowledge or skill</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>test3</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>test4</t>
-        </is>
-      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="inlineStr"/>
@@ -667,11 +659,7 @@
       <c r="T3" s="2" t="inlineStr"/>
       <c r="U3" s="2" t="inlineStr"/>
       <c r="V3" s="2" t="inlineStr"/>
-      <c r="W3" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
+      <c r="W3" s="2" t="inlineStr"/>
       <c r="X3" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -638,7 +638,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>test5</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -643,10 +643,15 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>test5</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
+          <t>test7</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">test8and
+</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="inlineStr"/>
       <c r="I3" s="2" t="inlineStr"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -585,28 +585,28 @@
           <t>test5andtest6</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
       <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -617,8 +617,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y2" s="2" t="inlineStr"/>
-      <c r="Z2" s="2" t="inlineStr"/>
+      <c r="Y2" s="2" t="n"/>
+      <c r="Z2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -643,30 +643,35 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>test5</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
+          <t>test7</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">test8and
+</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
       <c r="W3" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -677,8 +682,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y3" s="2" t="inlineStr"/>
-      <c r="Z3" s="2" t="inlineStr"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -696,41 +701,41 @@
           <t>pre-existing knowledge or skill</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
       <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
         </is>
       </c>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
           <t>member of British Psychological Society</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
-      <c r="W4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
+      <c r="W4" s="2" t="n"/>
       <c r="X4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y4" s="2" t="inlineStr"/>
-      <c r="Z4" s="2" t="inlineStr"/>
+      <c r="Y4" s="2" t="n"/>
+      <c r="Z4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -748,37 +753,37 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
       <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
-      <c r="W5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
+      <c r="W5" s="2" t="n"/>
       <c r="X5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y5" s="2" t="inlineStr"/>
-      <c r="Z5" s="2" t="inlineStr"/>
+      <c r="Y5" s="2" t="n"/>
+      <c r="Z5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -796,19 +801,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
       <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
@@ -829,16 +834,16 @@
           <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
-      <c r="W6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
+      <c r="W6" s="2" t="n"/>
       <c r="X6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y6" s="2" t="inlineStr"/>
-      <c r="Z6" s="2" t="inlineStr"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -856,45 +861,45 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="inlineStr">
         <is>
           <t>knowledge or skill</t>
         </is>
       </c>
-      <c r="P7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="n"/>
       <c r="Q7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A knowledge or skill that is the duration of experience in related domain held by person source. </t>
         </is>
       </c>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
           <t>full-day, 6 years</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
-      <c r="W7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
+      <c r="W7" s="2" t="n"/>
       <c r="X7" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y7" s="2" t="inlineStr"/>
-      <c r="Z7" s="2" t="inlineStr"/>
+      <c r="Y7" s="2" t="n"/>
+      <c r="Z7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -912,19 +917,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
       <c r="Q8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that includes all jobs held by members of the armed forces. </t>
@@ -945,16 +950,16 @@
           <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
-      <c r="W8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
+      <c r="W8" s="2" t="n"/>
       <c r="X8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y8" s="2" t="inlineStr"/>
-      <c r="Z8" s="2" t="inlineStr"/>
+      <c r="Y8" s="2" t="n"/>
+      <c r="Z8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -972,19 +977,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
       <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
@@ -1005,16 +1010,16 @@
           <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr"/>
-      <c r="W9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="n"/>
+      <c r="V9" s="2" t="n"/>
+      <c r="W9" s="2" t="n"/>
       <c r="X9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y9" s="2" t="inlineStr"/>
-      <c r="Z9" s="2" t="inlineStr"/>
+      <c r="Y9" s="2" t="n"/>
+      <c r="Z9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1032,19 +1037,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
       <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
@@ -1065,16 +1070,16 @@
           <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
-      <c r="W10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="n"/>
+      <c r="W10" s="2" t="n"/>
       <c r="X10" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y10" s="2" t="inlineStr"/>
-      <c r="Z10" s="2" t="inlineStr"/>
+      <c r="Y10" s="2" t="n"/>
+      <c r="Z10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1092,19 +1097,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
@@ -1120,17 +1125,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
-      <c r="W11" s="2" t="inlineStr"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
+      <c r="W11" s="2" t="n"/>
       <c r="X11" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y11" s="2" t="inlineStr"/>
-      <c r="Z11" s="2" t="inlineStr"/>
+      <c r="Y11" s="2" t="n"/>
+      <c r="Z11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1148,19 +1153,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
@@ -1181,16 +1186,16 @@
           <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
-      <c r="U12" s="2" t="inlineStr"/>
-      <c r="V12" s="2" t="inlineStr"/>
-      <c r="W12" s="2" t="inlineStr"/>
+      <c r="U12" s="2" t="n"/>
+      <c r="V12" s="2" t="n"/>
+      <c r="W12" s="2" t="n"/>
       <c r="X12" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y12" s="2" t="inlineStr"/>
-      <c r="Z12" s="2" t="inlineStr"/>
+      <c r="Y12" s="2" t="n"/>
+      <c r="Z12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1208,19 +1213,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing. </t>
@@ -1241,16 +1246,16 @@
           <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
-      <c r="W13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="n"/>
+      <c r="W13" s="2" t="n"/>
       <c r="X13" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y13" s="2" t="inlineStr"/>
-      <c r="Z13" s="2" t="inlineStr"/>
+      <c r="Y13" s="2" t="n"/>
+      <c r="Z13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1268,19 +1273,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
@@ -1301,16 +1306,16 @@
           <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
-      <c r="W14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="n"/>
+      <c r="W14" s="2" t="n"/>
       <c r="X14" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y14" s="2" t="inlineStr"/>
-      <c r="Z14" s="2" t="inlineStr"/>
+      <c r="Y14" s="2" t="n"/>
+      <c r="Z14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1328,19 +1333,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
@@ -1361,16 +1366,16 @@
           <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
-      <c r="W15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="n"/>
+      <c r="W15" s="2" t="n"/>
       <c r="X15" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y15" s="2" t="inlineStr"/>
-      <c r="Z15" s="2" t="inlineStr"/>
+      <c r="Y15" s="2" t="n"/>
+      <c r="Z15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1388,41 +1393,41 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
       <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>carer</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
-      <c r="W16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
+      <c r="W16" s="2" t="n"/>
       <c r="X16" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y16" s="2" t="inlineStr"/>
-      <c r="Z16" s="2" t="inlineStr"/>
+      <c r="Y16" s="2" t="n"/>
+      <c r="Z16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1440,19 +1445,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
       <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
@@ -1473,16 +1478,16 @@
           <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
-      <c r="W17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="n"/>
+      <c r="W17" s="2" t="n"/>
       <c r="X17" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y17" s="2" t="inlineStr"/>
-      <c r="Z17" s="2" t="inlineStr"/>
+      <c r="Y17" s="2" t="n"/>
+      <c r="Z17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1500,41 +1505,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
       <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
-      <c r="W18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
+      <c r="W18" s="2" t="n"/>
       <c r="X18" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y18" s="2" t="inlineStr"/>
-      <c r="Z18" s="2" t="inlineStr"/>
+      <c r="Y18" s="2" t="n"/>
+      <c r="Z18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1552,19 +1557,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
       <c r="Q19" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments. </t>
@@ -1585,16 +1590,16 @@
           <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
-      <c r="W19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="n"/>
+      <c r="W19" s="2" t="n"/>
       <c r="X19" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y19" s="2" t="inlineStr"/>
-      <c r="Z19" s="2" t="inlineStr"/>
+      <c r="Y19" s="2" t="n"/>
+      <c r="Z19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1612,37 +1617,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
       <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
         </is>
       </c>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
-      <c r="W20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="n"/>
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="n"/>
+      <c r="W20" s="2" t="n"/>
       <c r="X20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y20" s="2" t="inlineStr"/>
-      <c r="Z20" s="2" t="inlineStr"/>
+      <c r="Y20" s="2" t="n"/>
+      <c r="Z20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1660,19 +1665,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
       <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
@@ -1693,16 +1698,16 @@
           <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
-      <c r="W21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="n"/>
+      <c r="V21" s="2" t="n"/>
+      <c r="W21" s="2" t="n"/>
       <c r="X21" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y21" s="2" t="inlineStr"/>
-      <c r="Z21" s="2" t="inlineStr"/>
+      <c r="Y21" s="2" t="n"/>
+      <c r="Z21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1720,19 +1725,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
       <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
@@ -1753,16 +1758,16 @@
           <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr"/>
-      <c r="W22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="n"/>
+      <c r="W22" s="2" t="n"/>
       <c r="X22" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y22" s="2" t="inlineStr"/>
-      <c r="Z22" s="2" t="inlineStr"/>
+      <c r="Y22" s="2" t="n"/>
+      <c r="Z22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1780,19 +1785,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
       <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
@@ -1813,16 +1818,16 @@
           <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr"/>
-      <c r="W23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="n"/>
+      <c r="V23" s="2" t="n"/>
+      <c r="W23" s="2" t="n"/>
       <c r="X23" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y23" s="2" t="inlineStr"/>
-      <c r="Z23" s="2" t="inlineStr"/>
+      <c r="Y23" s="2" t="n"/>
+      <c r="Z23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1840,19 +1845,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
       <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
@@ -1873,16 +1878,16 @@
           <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr"/>
-      <c r="W24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="n"/>
+      <c r="V24" s="2" t="n"/>
+      <c r="W24" s="2" t="n"/>
       <c r="X24" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y24" s="2" t="inlineStr"/>
-      <c r="Z24" s="2" t="inlineStr"/>
+      <c r="Y24" s="2" t="n"/>
+      <c r="Z24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1900,19 +1905,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
       <c r="Q25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry. </t>
@@ -1933,16 +1938,16 @@
           <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
-      <c r="W25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="n"/>
+      <c r="W25" s="2" t="n"/>
       <c r="X25" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y25" s="2" t="inlineStr"/>
-      <c r="Z25" s="2" t="inlineStr"/>
+      <c r="Y25" s="2" t="n"/>
+      <c r="Z25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1960,19 +1965,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
       <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
@@ -1993,16 +1998,16 @@
           <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr"/>
-      <c r="W26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="n"/>
+      <c r="V26" s="2" t="n"/>
+      <c r="W26" s="2" t="n"/>
       <c r="X26" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y26" s="2" t="inlineStr"/>
-      <c r="Z26" s="2" t="inlineStr"/>
+      <c r="Y26" s="2" t="n"/>
+      <c r="Z26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2020,41 +2025,41 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
       <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>A specific domain of study undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="n"/>
+      <c r="S27" s="2" t="n"/>
       <c r="T27" s="2" t="inlineStr">
         <is>
           <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
-      <c r="W27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="n"/>
+      <c r="V27" s="2" t="n"/>
+      <c r="W27" s="2" t="n"/>
       <c r="X27" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y27" s="2" t="inlineStr"/>
-      <c r="Z27" s="2" t="inlineStr"/>
+      <c r="Y27" s="2" t="n"/>
+      <c r="Z27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2072,18 +2077,18 @@
           <t>expertise discipline</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="inlineStr">
         <is>
           <t>pre-existing knowledge or skill</t>
@@ -2094,23 +2099,23 @@
           <t xml:space="preserve">The expertise discipline in which the person source has acquired their pre-existing knowledge and skills. </t>
         </is>
       </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr"/>
+      <c r="R28" s="2" t="n"/>
+      <c r="S28" s="2" t="n"/>
       <c r="T28" s="2" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr"/>
-      <c r="W28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="n"/>
+      <c r="V28" s="2" t="n"/>
+      <c r="W28" s="2" t="n"/>
       <c r="X28" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y28" s="2" t="inlineStr"/>
-      <c r="Z28" s="2" t="inlineStr"/>
+      <c r="Y28" s="2" t="n"/>
+      <c r="Z28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2128,41 +2133,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
       <c r="Q29" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr"/>
+      <c r="R29" s="2" t="n"/>
+      <c r="S29" s="2" t="n"/>
       <c r="T29" s="2" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
-      <c r="W29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="n"/>
+      <c r="W29" s="2" t="n"/>
       <c r="X29" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y29" s="2" t="inlineStr"/>
-      <c r="Z29" s="2" t="inlineStr"/>
+      <c r="Y29" s="2" t="n"/>
+      <c r="Z29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2180,19 +2185,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
       <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
@@ -2213,16 +2218,16 @@
           <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr"/>
-      <c r="W30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="n"/>
+      <c r="W30" s="2" t="n"/>
       <c r="X30" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y30" s="2" t="inlineStr"/>
-      <c r="Z30" s="2" t="inlineStr"/>
+      <c r="Y30" s="2" t="n"/>
+      <c r="Z30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2240,19 +2245,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
       <c r="Q31" s="2" t="inlineStr">
         <is>
           <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
@@ -2273,16 +2278,16 @@
           <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr"/>
-      <c r="W31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="n"/>
+      <c r="W31" s="2" t="n"/>
       <c r="X31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y31" s="2" t="inlineStr"/>
-      <c r="Z31" s="2" t="inlineStr"/>
+      <c r="Y31" s="2" t="n"/>
+      <c r="Z31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2300,37 +2305,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
       <c r="Q32" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
         </is>
       </c>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr"/>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
-      <c r="W32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="n"/>
+      <c r="S32" s="2" t="n"/>
+      <c r="T32" s="2" t="n"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="n"/>
+      <c r="W32" s="2" t="n"/>
       <c r="X32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y32" s="2" t="inlineStr"/>
-      <c r="Z32" s="2" t="inlineStr"/>
+      <c r="Y32" s="2" t="n"/>
+      <c r="Z32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2348,37 +2353,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
       <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
         </is>
       </c>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr"/>
-      <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
-      <c r="W33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="n"/>
+      <c r="S33" s="2" t="n"/>
+      <c r="T33" s="2" t="n"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="n"/>
+      <c r="W33" s="2" t="n"/>
       <c r="X33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y33" s="2" t="inlineStr"/>
-      <c r="Z33" s="2" t="inlineStr"/>
+      <c r="Y33" s="2" t="n"/>
+      <c r="Z33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2396,19 +2401,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
       <c r="Q34" s="2" t="inlineStr">
         <is>
           <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
@@ -2429,16 +2434,16 @@
           <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
-      <c r="W34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="n"/>
+      <c r="W34" s="2" t="n"/>
       <c r="X34" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y34" s="2" t="inlineStr"/>
-      <c r="Z34" s="2" t="inlineStr"/>
+      <c r="Y34" s="2" t="n"/>
+      <c r="Z34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2456,19 +2461,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
       <c r="Q35" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
@@ -2491,16 +2496,16 @@
           <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
-      <c r="W35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="n"/>
+      <c r="V35" s="2" t="n"/>
+      <c r="W35" s="2" t="n"/>
       <c r="X35" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y35" s="2" t="inlineStr"/>
-      <c r="Z35" s="2" t="inlineStr"/>
+      <c r="Y35" s="2" t="n"/>
+      <c r="Z35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2518,41 +2523,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
       <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr"/>
+      <c r="R36" s="2" t="n"/>
+      <c r="S36" s="2" t="n"/>
       <c r="T36" s="2" t="inlineStr">
         <is>
           <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
-      <c r="W36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="n"/>
+      <c r="W36" s="2" t="n"/>
       <c r="X36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y36" s="2" t="inlineStr"/>
-      <c r="Z36" s="2" t="inlineStr"/>
+      <c r="Y36" s="2" t="n"/>
+      <c r="Z36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2570,26 +2575,26 @@
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
       <c r="Q37" s="2" t="inlineStr">
         <is>
           <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr"/>
+      <c r="R37" s="2" t="n"/>
+      <c r="S37" s="2" t="n"/>
       <c r="T37" s="2" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
@@ -2600,15 +2605,15 @@
           <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
-      <c r="V37" s="2" t="inlineStr"/>
-      <c r="W37" s="2" t="inlineStr"/>
+      <c r="V37" s="2" t="n"/>
+      <c r="W37" s="2" t="n"/>
       <c r="X37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y37" s="2" t="inlineStr"/>
-      <c r="Z37" s="2" t="inlineStr"/>
+      <c r="Y37" s="2" t="n"/>
+      <c r="Z37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2626,18 +2631,18 @@
           <t>disposition</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
       <c r="P38" s="2" t="inlineStr">
         <is>
           <t>person source</t>
@@ -2648,19 +2653,19 @@
           <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
         </is>
       </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr"/>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr"/>
-      <c r="W38" s="2" t="inlineStr"/>
+      <c r="R38" s="2" t="n"/>
+      <c r="S38" s="2" t="n"/>
+      <c r="T38" s="2" t="n"/>
+      <c r="U38" s="2" t="n"/>
+      <c r="V38" s="2" t="n"/>
+      <c r="W38" s="2" t="n"/>
       <c r="X38" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y38" s="2" t="inlineStr"/>
-      <c r="Z38" s="2" t="inlineStr"/>
+      <c r="Y38" s="2" t="n"/>
+      <c r="Z38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2678,37 +2683,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
       <c r="Q39" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is an individual who is related to another person as they are descended from a common progenitor, related by marriage or other legal tie, or by a feeling of closeness.</t>
         </is>
       </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr"/>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr"/>
-      <c r="W39" s="2" t="inlineStr"/>
+      <c r="R39" s="2" t="n"/>
+      <c r="S39" s="2" t="n"/>
+      <c r="T39" s="2" t="n"/>
+      <c r="U39" s="2" t="n"/>
+      <c r="V39" s="2" t="n"/>
+      <c r="W39" s="2" t="n"/>
       <c r="X39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y39" s="2" t="inlineStr"/>
-      <c r="Z39" s="2" t="inlineStr"/>
+      <c r="Y39" s="2" t="n"/>
+      <c r="Z39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2726,41 +2731,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
       <c r="Q40" s="2" t="inlineStr">
         <is>
           <t>A gender of person source that is the cultural gender role of female.</t>
         </is>
       </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr"/>
+      <c r="R40" s="2" t="n"/>
+      <c r="S40" s="2" t="n"/>
       <c r="T40" s="2" t="inlineStr">
         <is>
           <t>female, woman</t>
         </is>
       </c>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr"/>
-      <c r="W40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="n"/>
+      <c r="V40" s="2" t="n"/>
+      <c r="W40" s="2" t="n"/>
       <c r="X40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y40" s="2" t="inlineStr"/>
-      <c r="Z40" s="2" t="inlineStr"/>
+      <c r="Y40" s="2" t="n"/>
+      <c r="Z40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2778,19 +2783,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="n"/>
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
       <c r="Q41" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
@@ -2811,16 +2816,16 @@
           <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr"/>
-      <c r="W41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="n"/>
+      <c r="V41" s="2" t="n"/>
+      <c r="W41" s="2" t="n"/>
       <c r="X41" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y41" s="2" t="inlineStr"/>
-      <c r="Z41" s="2" t="inlineStr"/>
+      <c r="Y41" s="2" t="n"/>
+      <c r="Z41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2838,37 +2843,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
       <c r="Q42" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
         </is>
       </c>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr"/>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr"/>
-      <c r="W42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="n"/>
+      <c r="S42" s="2" t="n"/>
+      <c r="T42" s="2" t="n"/>
+      <c r="U42" s="2" t="n"/>
+      <c r="V42" s="2" t="n"/>
+      <c r="W42" s="2" t="n"/>
       <c r="X42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y42" s="2" t="inlineStr"/>
-      <c r="Z42" s="2" t="inlineStr"/>
+      <c r="Y42" s="2" t="n"/>
+      <c r="Z42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2886,41 +2891,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
       <c r="Q43" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
       <c r="T43" s="2" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
-      <c r="W43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
+      <c r="W43" s="2" t="n"/>
       <c r="X43" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y43" s="2" t="inlineStr"/>
-      <c r="Z43" s="2" t="inlineStr"/>
+      <c r="Y43" s="2" t="n"/>
+      <c r="Z43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2938,19 +2943,19 @@
           <t xml:space="preserve">medical doctor </t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
       <c r="Q44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities. </t>
@@ -2971,16 +2976,16 @@
           <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr"/>
-      <c r="W44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="n"/>
+      <c r="W44" s="2" t="n"/>
       <c r="X44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y44" s="2" t="inlineStr"/>
-      <c r="Z44" s="2" t="inlineStr"/>
+      <c r="Y44" s="2" t="n"/>
+      <c r="Z44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2998,41 +3003,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
       <c r="Q45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A higher education student or trainee that has completed an undergraduate degree. </t>
         </is>
       </c>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="n"/>
       <c r="T45" s="2" t="inlineStr">
         <is>
           <t>graduate student</t>
         </is>
       </c>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr"/>
-      <c r="W45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
+      <c r="W45" s="2" t="n"/>
       <c r="X45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y45" s="2" t="inlineStr"/>
-      <c r="Z45" s="2" t="inlineStr"/>
+      <c r="Y45" s="2" t="n"/>
+      <c r="Z45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -3050,19 +3055,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
       <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
@@ -3083,16 +3088,16 @@
           <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
-      <c r="W46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
+      <c r="W46" s="2" t="n"/>
       <c r="X46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y46" s="2" t="inlineStr"/>
-      <c r="Z46" s="2" t="inlineStr"/>
+      <c r="Y46" s="2" t="n"/>
+      <c r="Z46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3110,19 +3115,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr"/>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="n"/>
+      <c r="G47" s="2" t="n"/>
+      <c r="H47" s="2" t="n"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
       <c r="Q47" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
@@ -3143,16 +3148,16 @@
           <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr"/>
-      <c r="W47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="n"/>
+      <c r="V47" s="2" t="n"/>
+      <c r="W47" s="2" t="n"/>
       <c r="X47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y47" s="2" t="inlineStr"/>
-      <c r="Z47" s="2" t="inlineStr"/>
+      <c r="Y47" s="2" t="n"/>
+      <c r="Z47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3170,19 +3175,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
+      <c r="H48" s="2" t="n"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
       <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
@@ -3203,16 +3208,16 @@
           <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr"/>
-      <c r="W48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="n"/>
+      <c r="V48" s="2" t="n"/>
+      <c r="W48" s="2" t="n"/>
       <c r="X48" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y48" s="2" t="inlineStr"/>
-      <c r="Z48" s="2" t="inlineStr"/>
+      <c r="Y48" s="2" t="n"/>
+      <c r="Z48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3230,41 +3235,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n"/>
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
+      <c r="G49" s="2" t="n"/>
+      <c r="H49" s="2" t="n"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="n"/>
       <c r="Q49" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="n"/>
+      <c r="S49" s="2" t="n"/>
       <c r="T49" s="2" t="inlineStr">
         <is>
           <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
-      <c r="W49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="n"/>
+      <c r="W49" s="2" t="n"/>
       <c r="X49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y49" s="2" t="inlineStr"/>
-      <c r="Z49" s="2" t="inlineStr"/>
+      <c r="Y49" s="2" t="n"/>
+      <c r="Z49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3282,41 +3287,41 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr"/>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="2" t="n"/>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="n"/>
       <c r="Q50" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school. </t>
         </is>
       </c>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr"/>
+      <c r="R50" s="2" t="n"/>
+      <c r="S50" s="2" t="n"/>
       <c r="T50" s="2" t="inlineStr">
         <is>
           <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr"/>
-      <c r="W50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="n"/>
+      <c r="V50" s="2" t="n"/>
+      <c r="W50" s="2" t="n"/>
       <c r="X50" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y50" s="2" t="inlineStr"/>
-      <c r="Z50" s="2" t="inlineStr"/>
+      <c r="Y50" s="2" t="n"/>
+      <c r="Z50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3334,19 +3339,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
       <c r="Q51" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
@@ -3367,16 +3372,16 @@
           <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
-      <c r="W51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="n"/>
+      <c r="W51" s="2" t="n"/>
       <c r="X51" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y51" s="2" t="inlineStr"/>
-      <c r="Z51" s="2" t="inlineStr"/>
+      <c r="Y51" s="2" t="n"/>
+      <c r="Z51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3394,37 +3399,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="n"/>
+      <c r="E52" s="2" t="n"/>
+      <c r="F52" s="2" t="n"/>
+      <c r="G52" s="2" t="n"/>
+      <c r="H52" s="2" t="n"/>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
       <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr"/>
-      <c r="T52" s="2" t="inlineStr"/>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
-      <c r="W52" s="2" t="inlineStr"/>
+      <c r="R52" s="2" t="n"/>
+      <c r="S52" s="2" t="n"/>
+      <c r="T52" s="2" t="n"/>
+      <c r="U52" s="2" t="n"/>
+      <c r="V52" s="2" t="n"/>
+      <c r="W52" s="2" t="n"/>
       <c r="X52" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y52" s="2" t="inlineStr"/>
-      <c r="Z52" s="2" t="inlineStr"/>
+      <c r="Y52" s="2" t="n"/>
+      <c r="Z52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3442,19 +3447,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="n"/>
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="2" t="n"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
+      <c r="P53" s="2" t="n"/>
       <c r="Q53" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
@@ -3475,16 +3480,16 @@
           <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr"/>
-      <c r="W53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="n"/>
+      <c r="V53" s="2" t="n"/>
+      <c r="W53" s="2" t="n"/>
       <c r="X53" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y53" s="2" t="inlineStr"/>
-      <c r="Z53" s="2" t="inlineStr"/>
+      <c r="Y53" s="2" t="n"/>
+      <c r="Z53" s="2" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -3502,41 +3507,41 @@
           <t>expertise of person source</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
-      <c r="P54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
+      <c r="H54" s="2" t="n"/>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="2" t="n"/>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n"/>
+      <c r="P54" s="2" t="n"/>
       <c r="Q54" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention. </t>
         </is>
       </c>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
+      <c r="R54" s="2" t="n"/>
+      <c r="S54" s="2" t="n"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr"/>
-      <c r="W54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="n"/>
+      <c r="V54" s="2" t="n"/>
+      <c r="W54" s="2" t="n"/>
       <c r="X54" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y54" s="2" t="inlineStr"/>
-      <c r="Z54" s="2" t="inlineStr"/>
+      <c r="Y54" s="2" t="n"/>
+      <c r="Z54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3554,41 +3559,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr"/>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="n"/>
+      <c r="E55" s="2" t="n"/>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
+      <c r="H55" s="2" t="n"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
       <c r="Q55" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr"/>
+      <c r="R55" s="2" t="n"/>
+      <c r="S55" s="2" t="n"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
           <t>fluent, native</t>
         </is>
       </c>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr"/>
-      <c r="W55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="n"/>
+      <c r="V55" s="2" t="n"/>
+      <c r="W55" s="2" t="n"/>
       <c r="X55" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y55" s="2" t="inlineStr"/>
-      <c r="Z55" s="2" t="inlineStr"/>
+      <c r="Y55" s="2" t="n"/>
+      <c r="Z55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3606,19 +3611,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr"/>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr"/>
-      <c r="P56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="n"/>
+      <c r="E56" s="2" t="n"/>
+      <c r="F56" s="2" t="n"/>
+      <c r="G56" s="2" t="n"/>
+      <c r="H56" s="2" t="n"/>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="n"/>
       <c r="Q56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients. </t>
@@ -3639,16 +3644,16 @@
           <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
-      <c r="U56" s="2" t="inlineStr"/>
-      <c r="V56" s="2" t="inlineStr"/>
-      <c r="W56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="n"/>
+      <c r="V56" s="2" t="n"/>
+      <c r="W56" s="2" t="n"/>
       <c r="X56" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y56" s="2" t="inlineStr"/>
-      <c r="Z56" s="2" t="inlineStr"/>
+      <c r="Y56" s="2" t="n"/>
+      <c r="Z56" s="2" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3666,19 +3671,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr"/>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="2" t="n"/>
+      <c r="F57" s="2" t="n"/>
+      <c r="G57" s="2" t="n"/>
+      <c r="H57" s="2" t="n"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
+      <c r="O57" s="2" t="n"/>
+      <c r="P57" s="2" t="n"/>
       <c r="Q57" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
@@ -3699,16 +3704,16 @@
           <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
-      <c r="U57" s="2" t="inlineStr"/>
-      <c r="V57" s="2" t="inlineStr"/>
-      <c r="W57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="n"/>
+      <c r="V57" s="2" t="n"/>
+      <c r="W57" s="2" t="n"/>
       <c r="X57" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y57" s="2" t="inlineStr"/>
-      <c r="Z57" s="2" t="inlineStr"/>
+      <c r="Y57" s="2" t="n"/>
+      <c r="Z57" s="2" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3726,19 +3731,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n"/>
+      <c r="E58" s="2" t="n"/>
+      <c r="F58" s="2" t="n"/>
+      <c r="G58" s="2" t="n"/>
+      <c r="H58" s="2" t="n"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n"/>
+      <c r="P58" s="2" t="n"/>
       <c r="Q58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies. </t>
@@ -3754,17 +3759,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr"/>
-      <c r="V58" s="2" t="inlineStr"/>
-      <c r="W58" s="2" t="inlineStr"/>
+      <c r="T58" s="2" t="n"/>
+      <c r="U58" s="2" t="n"/>
+      <c r="V58" s="2" t="n"/>
+      <c r="W58" s="2" t="n"/>
       <c r="X58" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y58" s="2" t="inlineStr"/>
-      <c r="Z58" s="2" t="inlineStr"/>
+      <c r="Y58" s="2" t="n"/>
+      <c r="Z58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3782,19 +3787,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
-      <c r="P59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="n"/>
+      <c r="E59" s="2" t="n"/>
+      <c r="F59" s="2" t="n"/>
+      <c r="G59" s="2" t="n"/>
+      <c r="H59" s="2" t="n"/>
+      <c r="I59" s="2" t="n"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
+      <c r="P59" s="2" t="n"/>
       <c r="Q59" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments. </t>
@@ -3815,16 +3820,16 @@
           <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
-      <c r="U59" s="2" t="inlineStr"/>
-      <c r="V59" s="2" t="inlineStr"/>
-      <c r="W59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="n"/>
+      <c r="V59" s="2" t="n"/>
+      <c r="W59" s="2" t="n"/>
       <c r="X59" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y59" s="2" t="inlineStr"/>
-      <c r="Z59" s="2" t="inlineStr"/>
+      <c r="Y59" s="2" t="n"/>
+      <c r="Z59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3842,41 +3847,41 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr"/>
-      <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr"/>
-      <c r="O60" s="2" t="inlineStr"/>
-      <c r="P60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="n"/>
+      <c r="E60" s="2" t="n"/>
+      <c r="F60" s="2" t="n"/>
+      <c r="G60" s="2" t="n"/>
+      <c r="H60" s="2" t="n"/>
+      <c r="I60" s="2" t="n"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
+      <c r="P60" s="2" t="n"/>
       <c r="Q60" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
-      <c r="R60" s="2" t="inlineStr"/>
-      <c r="S60" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="n"/>
+      <c r="S60" s="2" t="n"/>
       <c r="T60" s="2" t="inlineStr">
         <is>
           <t>Interpretator; other linguist</t>
         </is>
       </c>
-      <c r="U60" s="2" t="inlineStr"/>
-      <c r="V60" s="2" t="inlineStr"/>
-      <c r="W60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="n"/>
+      <c r="V60" s="2" t="n"/>
+      <c r="W60" s="2" t="n"/>
       <c r="X60" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y60" s="2" t="inlineStr"/>
-      <c r="Z60" s="2" t="inlineStr"/>
+      <c r="Y60" s="2" t="n"/>
+      <c r="Z60" s="2" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3894,41 +3899,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="inlineStr"/>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
-      <c r="P61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n"/>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
+      <c r="G61" s="2" t="n"/>
+      <c r="H61" s="2" t="n"/>
+      <c r="I61" s="2" t="n"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
+      <c r="P61" s="2" t="n"/>
       <c r="Q61" s="2" t="inlineStr">
         <is>
           <t>A gender of person source that is the cultural gender role of male.</t>
         </is>
       </c>
-      <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="inlineStr"/>
+      <c r="R61" s="2" t="n"/>
+      <c r="S61" s="2" t="n"/>
       <c r="T61" s="2" t="inlineStr">
         <is>
           <t>male, man</t>
         </is>
       </c>
-      <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
-      <c r="W61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="n"/>
+      <c r="W61" s="2" t="n"/>
       <c r="X61" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y61" s="2" t="inlineStr"/>
-      <c r="Z61" s="2" t="inlineStr"/>
+      <c r="Y61" s="2" t="n"/>
+      <c r="Z61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3946,19 +3951,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr"/>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
-      <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="inlineStr"/>
-      <c r="N62" s="2" t="inlineStr"/>
-      <c r="O62" s="2" t="inlineStr"/>
-      <c r="P62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="n"/>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
+      <c r="G62" s="2" t="n"/>
+      <c r="H62" s="2" t="n"/>
+      <c r="I62" s="2" t="n"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
+      <c r="M62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="n"/>
       <c r="Q62" s="2" t="inlineStr">
         <is>
           <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
@@ -3979,16 +3984,16 @@
           <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
-      <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
-      <c r="W62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="n"/>
+      <c r="W62" s="2" t="n"/>
       <c r="X62" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y62" s="2" t="inlineStr"/>
-      <c r="Z62" s="2" t="inlineStr"/>
+      <c r="Y62" s="2" t="n"/>
+      <c r="Z62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -4006,41 +4011,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
-      <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr"/>
-      <c r="L63" s="2" t="inlineStr"/>
-      <c r="M63" s="2" t="inlineStr"/>
-      <c r="N63" s="2" t="inlineStr"/>
-      <c r="O63" s="2" t="inlineStr"/>
-      <c r="P63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="n"/>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
+      <c r="G63" s="2" t="n"/>
+      <c r="H63" s="2" t="n"/>
+      <c r="I63" s="2" t="n"/>
+      <c r="J63" s="2" t="n"/>
+      <c r="K63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
+      <c r="M63" s="2" t="n"/>
+      <c r="N63" s="2" t="n"/>
+      <c r="O63" s="2" t="n"/>
+      <c r="P63" s="2" t="n"/>
       <c r="Q63" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
-      <c r="R63" s="2" t="inlineStr"/>
-      <c r="S63" s="2" t="inlineStr"/>
+      <c r="R63" s="2" t="n"/>
+      <c r="S63" s="2" t="n"/>
       <c r="T63" s="2" t="inlineStr">
         <is>
           <t>MSc student, Masters student</t>
         </is>
       </c>
-      <c r="U63" s="2" t="inlineStr"/>
-      <c r="V63" s="2" t="inlineStr"/>
-      <c r="W63" s="2" t="inlineStr"/>
+      <c r="U63" s="2" t="n"/>
+      <c r="V63" s="2" t="n"/>
+      <c r="W63" s="2" t="n"/>
       <c r="X63" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y63" s="2" t="inlineStr"/>
-      <c r="Z63" s="2" t="inlineStr"/>
+      <c r="Y63" s="2" t="n"/>
+      <c r="Z63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -4058,19 +4063,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr"/>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="inlineStr"/>
+      <c r="D64" s="2" t="n"/>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
+      <c r="G64" s="2" t="n"/>
+      <c r="H64" s="2" t="n"/>
+      <c r="I64" s="2" t="n"/>
+      <c r="J64" s="2" t="n"/>
+      <c r="K64" s="2" t="n"/>
+      <c r="L64" s="2" t="n"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
+      <c r="O64" s="2" t="n"/>
+      <c r="P64" s="2" t="n"/>
       <c r="Q64" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
@@ -4091,16 +4096,16 @@
           <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
-      <c r="U64" s="2" t="inlineStr"/>
-      <c r="V64" s="2" t="inlineStr"/>
-      <c r="W64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="n"/>
+      <c r="V64" s="2" t="n"/>
+      <c r="W64" s="2" t="n"/>
       <c r="X64" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y64" s="2" t="inlineStr"/>
-      <c r="Z64" s="2" t="inlineStr"/>
+      <c r="Y64" s="2" t="n"/>
+      <c r="Z64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -4118,19 +4123,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr"/>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
-      <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="inlineStr"/>
-      <c r="N65" s="2" t="inlineStr"/>
-      <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="n"/>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
+      <c r="G65" s="2" t="n"/>
+      <c r="H65" s="2" t="n"/>
+      <c r="I65" s="2" t="n"/>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="2" t="n"/>
+      <c r="L65" s="2" t="n"/>
+      <c r="M65" s="2" t="n"/>
+      <c r="N65" s="2" t="n"/>
+      <c r="O65" s="2" t="n"/>
+      <c r="P65" s="2" t="n"/>
       <c r="Q65" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional. </t>
@@ -4151,16 +4156,16 @@
           <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
-      <c r="U65" s="2" t="inlineStr"/>
-      <c r="V65" s="2" t="inlineStr"/>
-      <c r="W65" s="2" t="inlineStr"/>
+      <c r="U65" s="2" t="n"/>
+      <c r="V65" s="2" t="n"/>
+      <c r="W65" s="2" t="n"/>
       <c r="X65" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y65" s="2" t="inlineStr"/>
-      <c r="Z65" s="2" t="inlineStr"/>
+      <c r="Y65" s="2" t="n"/>
+      <c r="Z65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -4178,19 +4183,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="inlineStr"/>
-      <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
-      <c r="L66" s="2" t="inlineStr"/>
-      <c r="M66" s="2" t="inlineStr"/>
-      <c r="N66" s="2" t="inlineStr"/>
-      <c r="O66" s="2" t="inlineStr"/>
-      <c r="P66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="n"/>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="n"/>
+      <c r="G66" s="2" t="n"/>
+      <c r="H66" s="2" t="n"/>
+      <c r="I66" s="2" t="n"/>
+      <c r="J66" s="2" t="n"/>
+      <c r="K66" s="2" t="n"/>
+      <c r="L66" s="2" t="n"/>
+      <c r="M66" s="2" t="n"/>
+      <c r="N66" s="2" t="n"/>
+      <c r="O66" s="2" t="n"/>
+      <c r="P66" s="2" t="n"/>
       <c r="Q66" s="2" t="inlineStr">
         <is>
           <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
@@ -4211,16 +4216,16 @@
           <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
-      <c r="U66" s="2" t="inlineStr"/>
-      <c r="V66" s="2" t="inlineStr"/>
-      <c r="W66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="n"/>
+      <c r="V66" s="2" t="n"/>
+      <c r="W66" s="2" t="n"/>
       <c r="X66" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y66" s="2" t="inlineStr"/>
-      <c r="Z66" s="2" t="inlineStr"/>
+      <c r="Y66" s="2" t="n"/>
+      <c r="Z66" s="2" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -4238,19 +4243,19 @@
           <t xml:space="preserve">nursing and midwifery associate professional </t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr"/>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr"/>
-      <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="inlineStr"/>
-      <c r="N67" s="2" t="inlineStr"/>
-      <c r="O67" s="2" t="inlineStr"/>
-      <c r="P67" s="2" t="inlineStr"/>
+      <c r="D67" s="2" t="n"/>
+      <c r="E67" s="2" t="n"/>
+      <c r="F67" s="2" t="n"/>
+      <c r="G67" s="2" t="n"/>
+      <c r="H67" s="2" t="n"/>
+      <c r="I67" s="2" t="n"/>
+      <c r="J67" s="2" t="n"/>
+      <c r="K67" s="2" t="n"/>
+      <c r="L67" s="2" t="n"/>
+      <c r="M67" s="2" t="n"/>
+      <c r="N67" s="2" t="n"/>
+      <c r="O67" s="2" t="n"/>
+      <c r="P67" s="2" t="n"/>
       <c r="Q67" s="2" t="inlineStr">
         <is>
           <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
@@ -4271,16 +4276,16 @@
           <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
-      <c r="U67" s="2" t="inlineStr"/>
-      <c r="V67" s="2" t="inlineStr"/>
-      <c r="W67" s="2" t="inlineStr"/>
+      <c r="U67" s="2" t="n"/>
+      <c r="V67" s="2" t="n"/>
+      <c r="W67" s="2" t="n"/>
       <c r="X67" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y67" s="2" t="inlineStr"/>
-      <c r="Z67" s="2" t="inlineStr"/>
+      <c r="Y67" s="2" t="n"/>
+      <c r="Z67" s="2" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -4298,19 +4303,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr"/>
-      <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr"/>
-      <c r="J68" s="2" t="inlineStr"/>
-      <c r="K68" s="2" t="inlineStr"/>
-      <c r="L68" s="2" t="inlineStr"/>
-      <c r="M68" s="2" t="inlineStr"/>
-      <c r="N68" s="2" t="inlineStr"/>
-      <c r="O68" s="2" t="inlineStr"/>
-      <c r="P68" s="2" t="inlineStr"/>
+      <c r="D68" s="2" t="n"/>
+      <c r="E68" s="2" t="n"/>
+      <c r="F68" s="2" t="n"/>
+      <c r="G68" s="2" t="n"/>
+      <c r="H68" s="2" t="n"/>
+      <c r="I68" s="2" t="n"/>
+      <c r="J68" s="2" t="n"/>
+      <c r="K68" s="2" t="n"/>
+      <c r="L68" s="2" t="n"/>
+      <c r="M68" s="2" t="n"/>
+      <c r="N68" s="2" t="n"/>
+      <c r="O68" s="2" t="n"/>
+      <c r="P68" s="2" t="n"/>
       <c r="Q68" s="2" t="inlineStr">
         <is>
           <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
@@ -4331,16 +4336,16 @@
           <t>Midwife</t>
         </is>
       </c>
-      <c r="U68" s="2" t="inlineStr"/>
-      <c r="V68" s="2" t="inlineStr"/>
-      <c r="W68" s="2" t="inlineStr"/>
+      <c r="U68" s="2" t="n"/>
+      <c r="V68" s="2" t="n"/>
+      <c r="W68" s="2" t="n"/>
       <c r="X68" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y68" s="2" t="inlineStr"/>
-      <c r="Z68" s="2" t="inlineStr"/>
+      <c r="Y68" s="2" t="n"/>
+      <c r="Z68" s="2" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -4358,41 +4363,41 @@
           <t>payment of person source</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
-      <c r="M69" s="2" t="inlineStr"/>
-      <c r="N69" s="2" t="inlineStr"/>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="n"/>
+      <c r="E69" s="2" t="n"/>
+      <c r="F69" s="2" t="n"/>
+      <c r="G69" s="2" t="n"/>
+      <c r="H69" s="2" t="n"/>
+      <c r="I69" s="2" t="n"/>
+      <c r="J69" s="2" t="n"/>
+      <c r="K69" s="2" t="n"/>
+      <c r="L69" s="2" t="n"/>
+      <c r="M69" s="2" t="n"/>
+      <c r="N69" s="2" t="n"/>
+      <c r="O69" s="2" t="n"/>
+      <c r="P69" s="2" t="n"/>
       <c r="Q69" s="2" t="inlineStr">
         <is>
           <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr"/>
+      <c r="R69" s="2" t="n"/>
+      <c r="S69" s="2" t="n"/>
       <c r="T69" s="2" t="inlineStr">
         <is>
           <t>paid in cash, vouchers</t>
         </is>
       </c>
-      <c r="U69" s="2" t="inlineStr"/>
-      <c r="V69" s="2" t="inlineStr"/>
-      <c r="W69" s="2" t="inlineStr"/>
+      <c r="U69" s="2" t="n"/>
+      <c r="V69" s="2" t="n"/>
+      <c r="W69" s="2" t="n"/>
       <c r="X69" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y69" s="2" t="inlineStr"/>
-      <c r="Z69" s="2" t="inlineStr"/>
+      <c r="Y69" s="2" t="n"/>
+      <c r="Z69" s="2" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -4410,19 +4415,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr"/>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-      <c r="L70" s="2" t="inlineStr"/>
-      <c r="M70" s="2" t="inlineStr"/>
-      <c r="N70" s="2" t="inlineStr"/>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="n"/>
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="2" t="n"/>
+      <c r="G70" s="2" t="n"/>
+      <c r="H70" s="2" t="n"/>
+      <c r="I70" s="2" t="n"/>
+      <c r="J70" s="2" t="n"/>
+      <c r="K70" s="2" t="n"/>
+      <c r="L70" s="2" t="n"/>
+      <c r="M70" s="2" t="n"/>
+      <c r="N70" s="2" t="n"/>
+      <c r="O70" s="2" t="n"/>
+      <c r="P70" s="2" t="n"/>
       <c r="Q70" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
@@ -4443,16 +4448,16 @@
           <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
-      <c r="U70" s="2" t="inlineStr"/>
-      <c r="V70" s="2" t="inlineStr"/>
-      <c r="W70" s="2" t="inlineStr"/>
+      <c r="U70" s="2" t="n"/>
+      <c r="V70" s="2" t="n"/>
+      <c r="W70" s="2" t="n"/>
       <c r="X70" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y70" s="2" t="inlineStr"/>
-      <c r="Z70" s="2" t="inlineStr"/>
+      <c r="Y70" s="2" t="n"/>
+      <c r="Z70" s="2" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -4470,41 +4475,41 @@
           <t>payment of person source</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr"/>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
-      <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr"/>
-      <c r="L71" s="2" t="inlineStr"/>
-      <c r="M71" s="2" t="inlineStr"/>
-      <c r="N71" s="2" t="inlineStr"/>
-      <c r="O71" s="2" t="inlineStr"/>
-      <c r="P71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="n"/>
+      <c r="E71" s="2" t="n"/>
+      <c r="F71" s="2" t="n"/>
+      <c r="G71" s="2" t="n"/>
+      <c r="H71" s="2" t="n"/>
+      <c r="I71" s="2" t="n"/>
+      <c r="J71" s="2" t="n"/>
+      <c r="K71" s="2" t="n"/>
+      <c r="L71" s="2" t="n"/>
+      <c r="M71" s="2" t="n"/>
+      <c r="N71" s="2" t="n"/>
+      <c r="O71" s="2" t="n"/>
+      <c r="P71" s="2" t="n"/>
       <c r="Q71" s="2" t="inlineStr">
         <is>
           <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R71" s="2" t="inlineStr"/>
-      <c r="S71" s="2" t="inlineStr"/>
+      <c r="R71" s="2" t="n"/>
+      <c r="S71" s="2" t="n"/>
       <c r="T71" s="2" t="inlineStr">
         <is>
           <t>course credit</t>
         </is>
       </c>
-      <c r="U71" s="2" t="inlineStr"/>
-      <c r="V71" s="2" t="inlineStr"/>
-      <c r="W71" s="2" t="inlineStr"/>
+      <c r="U71" s="2" t="n"/>
+      <c r="V71" s="2" t="n"/>
+      <c r="W71" s="2" t="n"/>
       <c r="X71" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y71" s="2" t="inlineStr"/>
-      <c r="Z71" s="2" t="inlineStr"/>
+      <c r="Y71" s="2" t="n"/>
+      <c r="Z71" s="2" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -4522,41 +4527,41 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr"/>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
-      <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
-      <c r="L72" s="2" t="inlineStr"/>
-      <c r="M72" s="2" t="inlineStr"/>
-      <c r="N72" s="2" t="inlineStr"/>
+      <c r="D72" s="2" t="n"/>
+      <c r="E72" s="2" t="n"/>
+      <c r="F72" s="2" t="n"/>
+      <c r="G72" s="2" t="n"/>
+      <c r="H72" s="2" t="n"/>
+      <c r="I72" s="2" t="n"/>
+      <c r="J72" s="2" t="n"/>
+      <c r="K72" s="2" t="n"/>
+      <c r="L72" s="2" t="n"/>
+      <c r="M72" s="2" t="n"/>
+      <c r="N72" s="2" t="n"/>
       <c r="O72" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="P72" s="2" t="inlineStr"/>
+      <c r="P72" s="2" t="n"/>
       <c r="Q72" s="2" t="inlineStr">
         <is>
           <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
         </is>
       </c>
-      <c r="R72" s="2" t="inlineStr"/>
-      <c r="S72" s="2" t="inlineStr"/>
-      <c r="T72" s="2" t="inlineStr"/>
-      <c r="U72" s="2" t="inlineStr"/>
-      <c r="V72" s="2" t="inlineStr"/>
-      <c r="W72" s="2" t="inlineStr"/>
+      <c r="R72" s="2" t="n"/>
+      <c r="S72" s="2" t="n"/>
+      <c r="T72" s="2" t="n"/>
+      <c r="U72" s="2" t="n"/>
+      <c r="V72" s="2" t="n"/>
+      <c r="W72" s="2" t="n"/>
       <c r="X72" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y72" s="2" t="inlineStr"/>
-      <c r="Z72" s="2" t="inlineStr"/>
+      <c r="Y72" s="2" t="n"/>
+      <c r="Z72" s="2" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -4574,19 +4579,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D73" s="2" t="inlineStr"/>
-      <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr"/>
-      <c r="G73" s="2" t="inlineStr"/>
-      <c r="H73" s="2" t="inlineStr"/>
-      <c r="I73" s="2" t="inlineStr"/>
-      <c r="J73" s="2" t="inlineStr"/>
-      <c r="K73" s="2" t="inlineStr"/>
-      <c r="L73" s="2" t="inlineStr"/>
-      <c r="M73" s="2" t="inlineStr"/>
-      <c r="N73" s="2" t="inlineStr"/>
-      <c r="O73" s="2" t="inlineStr"/>
-      <c r="P73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="n"/>
+      <c r="E73" s="2" t="n"/>
+      <c r="F73" s="2" t="n"/>
+      <c r="G73" s="2" t="n"/>
+      <c r="H73" s="2" t="n"/>
+      <c r="I73" s="2" t="n"/>
+      <c r="J73" s="2" t="n"/>
+      <c r="K73" s="2" t="n"/>
+      <c r="L73" s="2" t="n"/>
+      <c r="M73" s="2" t="n"/>
+      <c r="N73" s="2" t="n"/>
+      <c r="O73" s="2" t="n"/>
+      <c r="P73" s="2" t="n"/>
       <c r="Q73" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
@@ -4607,16 +4612,16 @@
           <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
-      <c r="U73" s="2" t="inlineStr"/>
-      <c r="V73" s="2" t="inlineStr"/>
-      <c r="W73" s="2" t="inlineStr"/>
+      <c r="U73" s="2" t="n"/>
+      <c r="V73" s="2" t="n"/>
+      <c r="W73" s="2" t="n"/>
       <c r="X73" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y73" s="2" t="inlineStr"/>
-      <c r="Z73" s="2" t="inlineStr"/>
+      <c r="Y73" s="2" t="n"/>
+      <c r="Z73" s="2" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -4634,19 +4639,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr"/>
-      <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr"/>
-      <c r="G74" s="2" t="inlineStr"/>
-      <c r="H74" s="2" t="inlineStr"/>
-      <c r="I74" s="2" t="inlineStr"/>
-      <c r="J74" s="2" t="inlineStr"/>
-      <c r="K74" s="2" t="inlineStr"/>
-      <c r="L74" s="2" t="inlineStr"/>
-      <c r="M74" s="2" t="inlineStr"/>
-      <c r="N74" s="2" t="inlineStr"/>
-      <c r="O74" s="2" t="inlineStr"/>
-      <c r="P74" s="2" t="inlineStr"/>
+      <c r="D74" s="2" t="n"/>
+      <c r="E74" s="2" t="n"/>
+      <c r="F74" s="2" t="n"/>
+      <c r="G74" s="2" t="n"/>
+      <c r="H74" s="2" t="n"/>
+      <c r="I74" s="2" t="n"/>
+      <c r="J74" s="2" t="n"/>
+      <c r="K74" s="2" t="n"/>
+      <c r="L74" s="2" t="n"/>
+      <c r="M74" s="2" t="n"/>
+      <c r="N74" s="2" t="n"/>
+      <c r="O74" s="2" t="n"/>
+      <c r="P74" s="2" t="n"/>
       <c r="Q74" s="2" t="inlineStr">
         <is>
           <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
@@ -4662,17 +4667,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T74" s="2" t="inlineStr"/>
-      <c r="U74" s="2" t="inlineStr"/>
-      <c r="V74" s="2" t="inlineStr"/>
-      <c r="W74" s="2" t="inlineStr"/>
+      <c r="T74" s="2" t="n"/>
+      <c r="U74" s="2" t="n"/>
+      <c r="V74" s="2" t="n"/>
+      <c r="W74" s="2" t="n"/>
       <c r="X74" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y74" s="2" t="inlineStr"/>
-      <c r="Z74" s="2" t="inlineStr"/>
+      <c r="Y74" s="2" t="n"/>
+      <c r="Z74" s="2" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
@@ -4690,19 +4695,19 @@
           <t xml:space="preserve">nursing and midwifery associate professional </t>
         </is>
       </c>
-      <c r="D75" s="2" t="inlineStr"/>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr"/>
-      <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr"/>
-      <c r="J75" s="2" t="inlineStr"/>
-      <c r="K75" s="2" t="inlineStr"/>
-      <c r="L75" s="2" t="inlineStr"/>
-      <c r="M75" s="2" t="inlineStr"/>
-      <c r="N75" s="2" t="inlineStr"/>
-      <c r="O75" s="2" t="inlineStr"/>
-      <c r="P75" s="2" t="inlineStr"/>
+      <c r="D75" s="2" t="n"/>
+      <c r="E75" s="2" t="n"/>
+      <c r="F75" s="2" t="n"/>
+      <c r="G75" s="2" t="n"/>
+      <c r="H75" s="2" t="n"/>
+      <c r="I75" s="2" t="n"/>
+      <c r="J75" s="2" t="n"/>
+      <c r="K75" s="2" t="n"/>
+      <c r="L75" s="2" t="n"/>
+      <c r="M75" s="2" t="n"/>
+      <c r="N75" s="2" t="n"/>
+      <c r="O75" s="2" t="n"/>
+      <c r="P75" s="2" t="n"/>
       <c r="Q75" s="2" t="inlineStr">
         <is>
           <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
@@ -4723,16 +4728,16 @@
           <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
-      <c r="U75" s="2" t="inlineStr"/>
-      <c r="V75" s="2" t="inlineStr"/>
-      <c r="W75" s="2" t="inlineStr"/>
+      <c r="U75" s="2" t="n"/>
+      <c r="V75" s="2" t="n"/>
+      <c r="W75" s="2" t="n"/>
       <c r="X75" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y75" s="2" t="inlineStr"/>
-      <c r="Z75" s="2" t="inlineStr"/>
+      <c r="Y75" s="2" t="n"/>
+      <c r="Z75" s="2" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -4750,19 +4755,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr"/>
-      <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr"/>
-      <c r="G76" s="2" t="inlineStr"/>
-      <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr"/>
-      <c r="J76" s="2" t="inlineStr"/>
-      <c r="K76" s="2" t="inlineStr"/>
-      <c r="L76" s="2" t="inlineStr"/>
-      <c r="M76" s="2" t="inlineStr"/>
-      <c r="N76" s="2" t="inlineStr"/>
-      <c r="O76" s="2" t="inlineStr"/>
-      <c r="P76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="n"/>
+      <c r="E76" s="2" t="n"/>
+      <c r="F76" s="2" t="n"/>
+      <c r="G76" s="2" t="n"/>
+      <c r="H76" s="2" t="n"/>
+      <c r="I76" s="2" t="n"/>
+      <c r="J76" s="2" t="n"/>
+      <c r="K76" s="2" t="n"/>
+      <c r="L76" s="2" t="n"/>
+      <c r="M76" s="2" t="n"/>
+      <c r="N76" s="2" t="n"/>
+      <c r="O76" s="2" t="n"/>
+      <c r="P76" s="2" t="n"/>
       <c r="Q76" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health. </t>
@@ -4783,16 +4788,16 @@
           <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
-      <c r="U76" s="2" t="inlineStr"/>
-      <c r="V76" s="2" t="inlineStr"/>
-      <c r="W76" s="2" t="inlineStr"/>
+      <c r="U76" s="2" t="n"/>
+      <c r="V76" s="2" t="n"/>
+      <c r="W76" s="2" t="n"/>
       <c r="X76" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y76" s="2" t="inlineStr"/>
-      <c r="Z76" s="2" t="inlineStr"/>
+      <c r="Y76" s="2" t="n"/>
+      <c r="Z76" s="2" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -4810,41 +4815,41 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D77" s="2" t="inlineStr"/>
-      <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr"/>
-      <c r="G77" s="2" t="inlineStr"/>
-      <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr"/>
-      <c r="J77" s="2" t="inlineStr"/>
-      <c r="K77" s="2" t="inlineStr"/>
-      <c r="L77" s="2" t="inlineStr"/>
-      <c r="M77" s="2" t="inlineStr"/>
-      <c r="N77" s="2" t="inlineStr"/>
-      <c r="O77" s="2" t="inlineStr"/>
-      <c r="P77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="n"/>
+      <c r="E77" s="2" t="n"/>
+      <c r="F77" s="2" t="n"/>
+      <c r="G77" s="2" t="n"/>
+      <c r="H77" s="2" t="n"/>
+      <c r="I77" s="2" t="n"/>
+      <c r="J77" s="2" t="n"/>
+      <c r="K77" s="2" t="n"/>
+      <c r="L77" s="2" t="n"/>
+      <c r="M77" s="2" t="n"/>
+      <c r="N77" s="2" t="n"/>
+      <c r="O77" s="2" t="n"/>
+      <c r="P77" s="2" t="n"/>
       <c r="Q77" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
-      <c r="R77" s="2" t="inlineStr"/>
-      <c r="S77" s="2" t="inlineStr"/>
+      <c r="R77" s="2" t="n"/>
+      <c r="S77" s="2" t="n"/>
       <c r="T77" s="2" t="inlineStr">
         <is>
           <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
-      <c r="U77" s="2" t="inlineStr"/>
-      <c r="V77" s="2" t="inlineStr"/>
-      <c r="W77" s="2" t="inlineStr"/>
+      <c r="U77" s="2" t="n"/>
+      <c r="V77" s="2" t="n"/>
+      <c r="W77" s="2" t="n"/>
       <c r="X77" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y77" s="2" t="inlineStr"/>
-      <c r="Z77" s="2" t="inlineStr"/>
+      <c r="Y77" s="2" t="n"/>
+      <c r="Z77" s="2" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
@@ -4862,19 +4867,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D78" s="2" t="inlineStr"/>
-      <c r="E78" s="2" t="inlineStr"/>
-      <c r="F78" s="2" t="inlineStr"/>
-      <c r="G78" s="2" t="inlineStr"/>
-      <c r="H78" s="2" t="inlineStr"/>
-      <c r="I78" s="2" t="inlineStr"/>
-      <c r="J78" s="2" t="inlineStr"/>
-      <c r="K78" s="2" t="inlineStr"/>
-      <c r="L78" s="2" t="inlineStr"/>
-      <c r="M78" s="2" t="inlineStr"/>
-      <c r="N78" s="2" t="inlineStr"/>
-      <c r="O78" s="2" t="inlineStr"/>
-      <c r="P78" s="2" t="inlineStr"/>
+      <c r="D78" s="2" t="n"/>
+      <c r="E78" s="2" t="n"/>
+      <c r="F78" s="2" t="n"/>
+      <c r="G78" s="2" t="n"/>
+      <c r="H78" s="2" t="n"/>
+      <c r="I78" s="2" t="n"/>
+      <c r="J78" s="2" t="n"/>
+      <c r="K78" s="2" t="n"/>
+      <c r="L78" s="2" t="n"/>
+      <c r="M78" s="2" t="n"/>
+      <c r="N78" s="2" t="n"/>
+      <c r="O78" s="2" t="n"/>
+      <c r="P78" s="2" t="n"/>
       <c r="Q78" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system. </t>
@@ -4895,16 +4900,16 @@
           <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
-      <c r="U78" s="2" t="inlineStr"/>
-      <c r="V78" s="2" t="inlineStr"/>
-      <c r="W78" s="2" t="inlineStr"/>
+      <c r="U78" s="2" t="n"/>
+      <c r="V78" s="2" t="n"/>
+      <c r="W78" s="2" t="n"/>
       <c r="X78" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y78" s="2" t="inlineStr"/>
-      <c r="Z78" s="2" t="inlineStr"/>
+      <c r="Y78" s="2" t="n"/>
+      <c r="Z78" s="2" t="n"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4922,41 +4927,21 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>organisational source role</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
           <t xml:space="preserve">An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members. </t>
         </is>
       </c>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -4979,36 +4964,36 @@
           <t>(organisation and RO:0000053 some 'organisational source role')</t>
         </is>
       </c>
-      <c r="E80" s="2" t="inlineStr"/>
-      <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
-      <c r="H80" s="2" t="inlineStr"/>
-      <c r="I80" s="2" t="inlineStr"/>
-      <c r="J80" s="2" t="inlineStr"/>
-      <c r="K80" s="2" t="inlineStr"/>
-      <c r="L80" s="2" t="inlineStr"/>
-      <c r="M80" s="2" t="inlineStr"/>
-      <c r="N80" s="2" t="inlineStr"/>
-      <c r="O80" s="2" t="inlineStr"/>
-      <c r="P80" s="2" t="inlineStr"/>
+      <c r="E80" s="2" t="n"/>
+      <c r="F80" s="2" t="n"/>
+      <c r="G80" s="2" t="n"/>
+      <c r="H80" s="2" t="n"/>
+      <c r="I80" s="2" t="n"/>
+      <c r="J80" s="2" t="n"/>
+      <c r="K80" s="2" t="n"/>
+      <c r="L80" s="2" t="n"/>
+      <c r="M80" s="2" t="n"/>
+      <c r="N80" s="2" t="n"/>
+      <c r="O80" s="2" t="n"/>
+      <c r="P80" s="2" t="n"/>
       <c r="Q80" s="2" t="inlineStr">
         <is>
           <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="R80" s="2" t="inlineStr"/>
-      <c r="S80" s="2" t="inlineStr"/>
-      <c r="T80" s="2" t="inlineStr"/>
-      <c r="U80" s="2" t="inlineStr"/>
-      <c r="V80" s="2" t="inlineStr"/>
-      <c r="W80" s="2" t="inlineStr"/>
+      <c r="R80" s="2" t="n"/>
+      <c r="S80" s="2" t="n"/>
+      <c r="T80" s="2" t="n"/>
+      <c r="U80" s="2" t="n"/>
+      <c r="V80" s="2" t="n"/>
+      <c r="W80" s="2" t="n"/>
       <c r="X80" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y80" s="2" t="inlineStr"/>
-      <c r="Z80" s="2" t="inlineStr"/>
+      <c r="Y80" s="2" t="n"/>
+      <c r="Z80" s="2" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
@@ -5026,37 +5011,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D81" s="2" t="inlineStr"/>
-      <c r="E81" s="2" t="inlineStr"/>
-      <c r="F81" s="2" t="inlineStr"/>
-      <c r="G81" s="2" t="inlineStr"/>
-      <c r="H81" s="2" t="inlineStr"/>
-      <c r="I81" s="2" t="inlineStr"/>
-      <c r="J81" s="2" t="inlineStr"/>
-      <c r="K81" s="2" t="inlineStr"/>
-      <c r="L81" s="2" t="inlineStr"/>
-      <c r="M81" s="2" t="inlineStr"/>
-      <c r="N81" s="2" t="inlineStr"/>
-      <c r="O81" s="2" t="inlineStr"/>
-      <c r="P81" s="2" t="inlineStr"/>
+      <c r="D81" s="2" t="n"/>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+      <c r="G81" s="2" t="n"/>
+      <c r="H81" s="2" t="n"/>
+      <c r="I81" s="2" t="n"/>
+      <c r="J81" s="2" t="n"/>
+      <c r="K81" s="2" t="n"/>
+      <c r="L81" s="2" t="n"/>
+      <c r="M81" s="2" t="n"/>
+      <c r="N81" s="2" t="n"/>
+      <c r="O81" s="2" t="n"/>
+      <c r="P81" s="2" t="n"/>
       <c r="Q81" s="2" t="inlineStr">
         <is>
           <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
-      <c r="R81" s="2" t="inlineStr"/>
-      <c r="S81" s="2" t="inlineStr"/>
-      <c r="T81" s="2" t="inlineStr"/>
-      <c r="U81" s="2" t="inlineStr"/>
-      <c r="V81" s="2" t="inlineStr"/>
-      <c r="W81" s="2" t="inlineStr"/>
+      <c r="R81" s="2" t="n"/>
+      <c r="S81" s="2" t="n"/>
+      <c r="T81" s="2" t="n"/>
+      <c r="U81" s="2" t="n"/>
+      <c r="V81" s="2" t="n"/>
+      <c r="W81" s="2" t="n"/>
       <c r="X81" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y81" s="2" t="inlineStr"/>
-      <c r="Z81" s="2" t="inlineStr"/>
+      <c r="Y81" s="2" t="n"/>
+      <c r="Z81" s="2" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -5074,41 +5059,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D82" s="2" t="inlineStr"/>
-      <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr"/>
-      <c r="H82" s="2" t="inlineStr"/>
-      <c r="I82" s="2" t="inlineStr"/>
-      <c r="J82" s="2" t="inlineStr"/>
-      <c r="K82" s="2" t="inlineStr"/>
-      <c r="L82" s="2" t="inlineStr"/>
-      <c r="M82" s="2" t="inlineStr"/>
-      <c r="N82" s="2" t="inlineStr"/>
-      <c r="O82" s="2" t="inlineStr"/>
-      <c r="P82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="n"/>
+      <c r="E82" s="2" t="n"/>
+      <c r="F82" s="2" t="n"/>
+      <c r="G82" s="2" t="n"/>
+      <c r="H82" s="2" t="n"/>
+      <c r="I82" s="2" t="n"/>
+      <c r="J82" s="2" t="n"/>
+      <c r="K82" s="2" t="n"/>
+      <c r="L82" s="2" t="n"/>
+      <c r="M82" s="2" t="n"/>
+      <c r="N82" s="2" t="n"/>
+      <c r="O82" s="2" t="n"/>
+      <c r="P82" s="2" t="n"/>
       <c r="Q82" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female. </t>
         </is>
       </c>
-      <c r="R82" s="2" t="inlineStr"/>
-      <c r="S82" s="2" t="inlineStr"/>
+      <c r="R82" s="2" t="n"/>
+      <c r="S82" s="2" t="n"/>
       <c r="T82" s="2" t="inlineStr">
         <is>
           <t>non-binary, transexual</t>
         </is>
       </c>
-      <c r="U82" s="2" t="inlineStr"/>
-      <c r="V82" s="2" t="inlineStr"/>
-      <c r="W82" s="2" t="inlineStr"/>
+      <c r="U82" s="2" t="n"/>
+      <c r="V82" s="2" t="n"/>
+      <c r="W82" s="2" t="n"/>
       <c r="X82" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y82" s="2" t="inlineStr"/>
-      <c r="Z82" s="2" t="inlineStr"/>
+      <c r="Y82" s="2" t="n"/>
+      <c r="Z82" s="2" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -5126,19 +5111,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D83" s="2" t="inlineStr"/>
-      <c r="E83" s="2" t="inlineStr"/>
-      <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr"/>
-      <c r="H83" s="2" t="inlineStr"/>
-      <c r="I83" s="2" t="inlineStr"/>
-      <c r="J83" s="2" t="inlineStr"/>
-      <c r="K83" s="2" t="inlineStr"/>
-      <c r="L83" s="2" t="inlineStr"/>
-      <c r="M83" s="2" t="inlineStr"/>
-      <c r="N83" s="2" t="inlineStr"/>
-      <c r="O83" s="2" t="inlineStr"/>
-      <c r="P83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="n"/>
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="2" t="n"/>
+      <c r="G83" s="2" t="n"/>
+      <c r="H83" s="2" t="n"/>
+      <c r="I83" s="2" t="n"/>
+      <c r="J83" s="2" t="n"/>
+      <c r="K83" s="2" t="n"/>
+      <c r="L83" s="2" t="n"/>
+      <c r="M83" s="2" t="n"/>
+      <c r="N83" s="2" t="n"/>
+      <c r="O83" s="2" t="n"/>
+      <c r="P83" s="2" t="n"/>
       <c r="Q83" s="2" t="inlineStr">
         <is>
           <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
@@ -5159,16 +5144,16 @@
           <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
-      <c r="U83" s="2" t="inlineStr"/>
-      <c r="V83" s="2" t="inlineStr"/>
-      <c r="W83" s="2" t="inlineStr"/>
+      <c r="U83" s="2" t="n"/>
+      <c r="V83" s="2" t="n"/>
+      <c r="W83" s="2" t="n"/>
       <c r="X83" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y83" s="2" t="inlineStr"/>
-      <c r="Z83" s="2" t="inlineStr"/>
+      <c r="Y83" s="2" t="n"/>
+      <c r="Z83" s="2" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -5186,41 +5171,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D84" s="2" t="inlineStr"/>
-      <c r="E84" s="2" t="inlineStr"/>
-      <c r="F84" s="2" t="inlineStr"/>
-      <c r="G84" s="2" t="inlineStr"/>
-      <c r="H84" s="2" t="inlineStr"/>
-      <c r="I84" s="2" t="inlineStr"/>
-      <c r="J84" s="2" t="inlineStr"/>
-      <c r="K84" s="2" t="inlineStr"/>
-      <c r="L84" s="2" t="inlineStr"/>
-      <c r="M84" s="2" t="inlineStr"/>
-      <c r="N84" s="2" t="inlineStr"/>
-      <c r="O84" s="2" t="inlineStr"/>
-      <c r="P84" s="2" t="inlineStr"/>
+      <c r="D84" s="2" t="n"/>
+      <c r="E84" s="2" t="n"/>
+      <c r="F84" s="2" t="n"/>
+      <c r="G84" s="2" t="n"/>
+      <c r="H84" s="2" t="n"/>
+      <c r="I84" s="2" t="n"/>
+      <c r="J84" s="2" t="n"/>
+      <c r="K84" s="2" t="n"/>
+      <c r="L84" s="2" t="n"/>
+      <c r="M84" s="2" t="n"/>
+      <c r="N84" s="2" t="n"/>
+      <c r="O84" s="2" t="n"/>
+      <c r="P84" s="2" t="n"/>
       <c r="Q84" s="2" t="inlineStr">
         <is>
           <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
-      <c r="R84" s="2" t="inlineStr"/>
-      <c r="S84" s="2" t="inlineStr"/>
+      <c r="R84" s="2" t="n"/>
+      <c r="S84" s="2" t="n"/>
       <c r="T84" s="2" t="inlineStr">
         <is>
           <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
-      <c r="U84" s="2" t="inlineStr"/>
-      <c r="V84" s="2" t="inlineStr"/>
-      <c r="W84" s="2" t="inlineStr"/>
+      <c r="U84" s="2" t="n"/>
+      <c r="V84" s="2" t="n"/>
+      <c r="W84" s="2" t="n"/>
       <c r="X84" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y84" s="2" t="inlineStr"/>
-      <c r="Z84" s="2" t="inlineStr"/>
+      <c r="Y84" s="2" t="n"/>
+      <c r="Z84" s="2" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
@@ -5238,41 +5223,41 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D85" s="2" t="inlineStr"/>
-      <c r="E85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="n"/>
+      <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G85" s="2" t="inlineStr"/>
-      <c r="H85" s="2" t="inlineStr"/>
-      <c r="I85" s="2" t="inlineStr"/>
-      <c r="J85" s="2" t="inlineStr"/>
-      <c r="K85" s="2" t="inlineStr"/>
-      <c r="L85" s="2" t="inlineStr"/>
-      <c r="M85" s="2" t="inlineStr"/>
-      <c r="N85" s="2" t="inlineStr"/>
-      <c r="O85" s="2" t="inlineStr"/>
-      <c r="P85" s="2" t="inlineStr"/>
+      <c r="G85" s="2" t="n"/>
+      <c r="H85" s="2" t="n"/>
+      <c r="I85" s="2" t="n"/>
+      <c r="J85" s="2" t="n"/>
+      <c r="K85" s="2" t="n"/>
+      <c r="L85" s="2" t="n"/>
+      <c r="M85" s="2" t="n"/>
+      <c r="N85" s="2" t="n"/>
+      <c r="O85" s="2" t="n"/>
+      <c r="P85" s="2" t="n"/>
       <c r="Q85" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R85" s="2" t="inlineStr"/>
-      <c r="S85" s="2" t="inlineStr"/>
-      <c r="T85" s="2" t="inlineStr"/>
-      <c r="U85" s="2" t="inlineStr"/>
-      <c r="V85" s="2" t="inlineStr"/>
-      <c r="W85" s="2" t="inlineStr"/>
+      <c r="R85" s="2" t="n"/>
+      <c r="S85" s="2" t="n"/>
+      <c r="T85" s="2" t="n"/>
+      <c r="U85" s="2" t="n"/>
+      <c r="V85" s="2" t="n"/>
+      <c r="W85" s="2" t="n"/>
       <c r="X85" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y85" s="2" t="inlineStr"/>
-      <c r="Z85" s="2" t="inlineStr"/>
+      <c r="Y85" s="2" t="n"/>
+      <c r="Z85" s="2" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -5290,37 +5275,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr"/>
-      <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr"/>
-      <c r="G86" s="2" t="inlineStr"/>
-      <c r="H86" s="2" t="inlineStr"/>
-      <c r="I86" s="2" t="inlineStr"/>
-      <c r="J86" s="2" t="inlineStr"/>
-      <c r="K86" s="2" t="inlineStr"/>
-      <c r="L86" s="2" t="inlineStr"/>
-      <c r="M86" s="2" t="inlineStr"/>
-      <c r="N86" s="2" t="inlineStr"/>
-      <c r="O86" s="2" t="inlineStr"/>
-      <c r="P86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="n"/>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="2" t="n"/>
+      <c r="H86" s="2" t="n"/>
+      <c r="I86" s="2" t="n"/>
+      <c r="J86" s="2" t="n"/>
+      <c r="K86" s="2" t="n"/>
+      <c r="L86" s="2" t="n"/>
+      <c r="M86" s="2" t="n"/>
+      <c r="N86" s="2" t="n"/>
+      <c r="O86" s="2" t="n"/>
+      <c r="P86" s="2" t="n"/>
       <c r="Q86" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc. </t>
         </is>
       </c>
-      <c r="R86" s="2" t="inlineStr"/>
-      <c r="S86" s="2" t="inlineStr"/>
-      <c r="T86" s="2" t="inlineStr"/>
-      <c r="U86" s="2" t="inlineStr"/>
-      <c r="V86" s="2" t="inlineStr"/>
-      <c r="W86" s="2" t="inlineStr"/>
+      <c r="R86" s="2" t="n"/>
+      <c r="S86" s="2" t="n"/>
+      <c r="T86" s="2" t="n"/>
+      <c r="U86" s="2" t="n"/>
+      <c r="V86" s="2" t="n"/>
+      <c r="W86" s="2" t="n"/>
       <c r="X86" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y86" s="2" t="inlineStr"/>
-      <c r="Z86" s="2" t="inlineStr"/>
+      <c r="Y86" s="2" t="n"/>
+      <c r="Z86" s="2" t="n"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5338,41 +5323,21 @@
           <t>extended organism</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>person source role</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
           <t xml:space="preserve">A member of the species Homo Sapiens. </t>
         </is>
       </c>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -5395,36 +5360,36 @@
           <t>(person and RO:0000053 some 'person source role')</t>
         </is>
       </c>
-      <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr"/>
-      <c r="G88" s="2" t="inlineStr"/>
-      <c r="H88" s="2" t="inlineStr"/>
-      <c r="I88" s="2" t="inlineStr"/>
-      <c r="J88" s="2" t="inlineStr"/>
-      <c r="K88" s="2" t="inlineStr"/>
-      <c r="L88" s="2" t="inlineStr"/>
-      <c r="M88" s="2" t="inlineStr"/>
-      <c r="N88" s="2" t="inlineStr"/>
-      <c r="O88" s="2" t="inlineStr"/>
-      <c r="P88" s="2" t="inlineStr"/>
+      <c r="E88" s="2" t="n"/>
+      <c r="F88" s="2" t="n"/>
+      <c r="G88" s="2" t="n"/>
+      <c r="H88" s="2" t="n"/>
+      <c r="I88" s="2" t="n"/>
+      <c r="J88" s="2" t="n"/>
+      <c r="K88" s="2" t="n"/>
+      <c r="L88" s="2" t="n"/>
+      <c r="M88" s="2" t="n"/>
+      <c r="N88" s="2" t="n"/>
+      <c r="O88" s="2" t="n"/>
+      <c r="P88" s="2" t="n"/>
       <c r="Q88" s="2" t="inlineStr">
         <is>
           <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
-      <c r="R88" s="2" t="inlineStr"/>
-      <c r="S88" s="2" t="inlineStr"/>
-      <c r="T88" s="2" t="inlineStr"/>
-      <c r="U88" s="2" t="inlineStr"/>
-      <c r="V88" s="2" t="inlineStr"/>
-      <c r="W88" s="2" t="inlineStr"/>
+      <c r="R88" s="2" t="n"/>
+      <c r="S88" s="2" t="n"/>
+      <c r="T88" s="2" t="n"/>
+      <c r="U88" s="2" t="n"/>
+      <c r="V88" s="2" t="n"/>
+      <c r="W88" s="2" t="n"/>
       <c r="X88" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y88" s="2" t="inlineStr"/>
-      <c r="Z88" s="2" t="inlineStr"/>
+      <c r="Y88" s="2" t="n"/>
+      <c r="Z88" s="2" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -5442,37 +5407,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D89" s="2" t="inlineStr"/>
-      <c r="E89" s="2" t="inlineStr"/>
-      <c r="F89" s="2" t="inlineStr"/>
-      <c r="G89" s="2" t="inlineStr"/>
-      <c r="H89" s="2" t="inlineStr"/>
-      <c r="I89" s="2" t="inlineStr"/>
-      <c r="J89" s="2" t="inlineStr"/>
-      <c r="K89" s="2" t="inlineStr"/>
-      <c r="L89" s="2" t="inlineStr"/>
-      <c r="M89" s="2" t="inlineStr"/>
-      <c r="N89" s="2" t="inlineStr"/>
-      <c r="O89" s="2" t="inlineStr"/>
-      <c r="P89" s="2" t="inlineStr"/>
+      <c r="D89" s="2" t="n"/>
+      <c r="E89" s="2" t="n"/>
+      <c r="F89" s="2" t="n"/>
+      <c r="G89" s="2" t="n"/>
+      <c r="H89" s="2" t="n"/>
+      <c r="I89" s="2" t="n"/>
+      <c r="J89" s="2" t="n"/>
+      <c r="K89" s="2" t="n"/>
+      <c r="L89" s="2" t="n"/>
+      <c r="M89" s="2" t="n"/>
+      <c r="N89" s="2" t="n"/>
+      <c r="O89" s="2" t="n"/>
+      <c r="P89" s="2" t="n"/>
       <c r="Q89" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
-      <c r="R89" s="2" t="inlineStr"/>
-      <c r="S89" s="2" t="inlineStr"/>
-      <c r="T89" s="2" t="inlineStr"/>
-      <c r="U89" s="2" t="inlineStr"/>
-      <c r="V89" s="2" t="inlineStr"/>
-      <c r="W89" s="2" t="inlineStr"/>
+      <c r="R89" s="2" t="n"/>
+      <c r="S89" s="2" t="n"/>
+      <c r="T89" s="2" t="n"/>
+      <c r="U89" s="2" t="n"/>
+      <c r="V89" s="2" t="n"/>
+      <c r="W89" s="2" t="n"/>
       <c r="X89" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y89" s="2" t="inlineStr"/>
-      <c r="Z89" s="2" t="inlineStr"/>
+      <c r="Y89" s="2" t="n"/>
+      <c r="Z89" s="2" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -5490,19 +5455,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D90" s="2" t="inlineStr"/>
-      <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr"/>
-      <c r="G90" s="2" t="inlineStr"/>
-      <c r="H90" s="2" t="inlineStr"/>
-      <c r="I90" s="2" t="inlineStr"/>
-      <c r="J90" s="2" t="inlineStr"/>
-      <c r="K90" s="2" t="inlineStr"/>
-      <c r="L90" s="2" t="inlineStr"/>
-      <c r="M90" s="2" t="inlineStr"/>
-      <c r="N90" s="2" t="inlineStr"/>
-      <c r="O90" s="2" t="inlineStr"/>
-      <c r="P90" s="2" t="inlineStr"/>
+      <c r="D90" s="2" t="n"/>
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="n"/>
+      <c r="G90" s="2" t="n"/>
+      <c r="H90" s="2" t="n"/>
+      <c r="I90" s="2" t="n"/>
+      <c r="J90" s="2" t="n"/>
+      <c r="K90" s="2" t="n"/>
+      <c r="L90" s="2" t="n"/>
+      <c r="M90" s="2" t="n"/>
+      <c r="N90" s="2" t="n"/>
+      <c r="O90" s="2" t="n"/>
+      <c r="P90" s="2" t="n"/>
       <c r="Q90" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
@@ -5523,16 +5488,16 @@
           <t>Personal carer</t>
         </is>
       </c>
-      <c r="U90" s="2" t="inlineStr"/>
-      <c r="V90" s="2" t="inlineStr"/>
-      <c r="W90" s="2" t="inlineStr"/>
+      <c r="U90" s="2" t="n"/>
+      <c r="V90" s="2" t="n"/>
+      <c r="W90" s="2" t="n"/>
       <c r="X90" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y90" s="2" t="inlineStr"/>
-      <c r="Z90" s="2" t="inlineStr"/>
+      <c r="Y90" s="2" t="n"/>
+      <c r="Z90" s="2" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -5550,37 +5515,37 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D91" s="2" t="inlineStr"/>
-      <c r="E91" s="2" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr"/>
-      <c r="G91" s="2" t="inlineStr"/>
-      <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr"/>
-      <c r="J91" s="2" t="inlineStr"/>
-      <c r="K91" s="2" t="inlineStr"/>
-      <c r="L91" s="2" t="inlineStr"/>
-      <c r="M91" s="2" t="inlineStr"/>
-      <c r="N91" s="2" t="inlineStr"/>
-      <c r="O91" s="2" t="inlineStr"/>
-      <c r="P91" s="2" t="inlineStr"/>
+      <c r="D91" s="2" t="n"/>
+      <c r="E91" s="2" t="n"/>
+      <c r="F91" s="2" t="n"/>
+      <c r="G91" s="2" t="n"/>
+      <c r="H91" s="2" t="n"/>
+      <c r="I91" s="2" t="n"/>
+      <c r="J91" s="2" t="n"/>
+      <c r="K91" s="2" t="n"/>
+      <c r="L91" s="2" t="n"/>
+      <c r="M91" s="2" t="n"/>
+      <c r="N91" s="2" t="n"/>
+      <c r="O91" s="2" t="n"/>
+      <c r="P91" s="2" t="n"/>
       <c r="Q91" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A role that inheres in a person source. </t>
         </is>
       </c>
-      <c r="R91" s="2" t="inlineStr"/>
-      <c r="S91" s="2" t="inlineStr"/>
-      <c r="T91" s="2" t="inlineStr"/>
-      <c r="U91" s="2" t="inlineStr"/>
-      <c r="V91" s="2" t="inlineStr"/>
-      <c r="W91" s="2" t="inlineStr"/>
+      <c r="R91" s="2" t="n"/>
+      <c r="S91" s="2" t="n"/>
+      <c r="T91" s="2" t="n"/>
+      <c r="U91" s="2" t="n"/>
+      <c r="V91" s="2" t="n"/>
+      <c r="W91" s="2" t="n"/>
       <c r="X91" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y91" s="2" t="inlineStr"/>
-      <c r="Z91" s="2" t="inlineStr"/>
+      <c r="Y91" s="2" t="n"/>
+      <c r="Z91" s="2" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -5598,19 +5563,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D92" s="2" t="inlineStr"/>
-      <c r="E92" s="2" t="inlineStr"/>
-      <c r="F92" s="2" t="inlineStr"/>
-      <c r="G92" s="2" t="inlineStr"/>
-      <c r="H92" s="2" t="inlineStr"/>
-      <c r="I92" s="2" t="inlineStr"/>
-      <c r="J92" s="2" t="inlineStr"/>
-      <c r="K92" s="2" t="inlineStr"/>
-      <c r="L92" s="2" t="inlineStr"/>
-      <c r="M92" s="2" t="inlineStr"/>
-      <c r="N92" s="2" t="inlineStr"/>
-      <c r="O92" s="2" t="inlineStr"/>
-      <c r="P92" s="2" t="inlineStr"/>
+      <c r="D92" s="2" t="n"/>
+      <c r="E92" s="2" t="n"/>
+      <c r="F92" s="2" t="n"/>
+      <c r="G92" s="2" t="n"/>
+      <c r="H92" s="2" t="n"/>
+      <c r="I92" s="2" t="n"/>
+      <c r="J92" s="2" t="n"/>
+      <c r="K92" s="2" t="n"/>
+      <c r="L92" s="2" t="n"/>
+      <c r="M92" s="2" t="n"/>
+      <c r="N92" s="2" t="n"/>
+      <c r="O92" s="2" t="n"/>
+      <c r="P92" s="2" t="n"/>
       <c r="Q92" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
@@ -5631,16 +5596,16 @@
           <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
-      <c r="U92" s="2" t="inlineStr"/>
-      <c r="V92" s="2" t="inlineStr"/>
-      <c r="W92" s="2" t="inlineStr"/>
+      <c r="U92" s="2" t="n"/>
+      <c r="V92" s="2" t="n"/>
+      <c r="W92" s="2" t="n"/>
       <c r="X92" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y92" s="2" t="inlineStr"/>
-      <c r="Z92" s="2" t="inlineStr"/>
+      <c r="Y92" s="2" t="n"/>
+      <c r="Z92" s="2" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
@@ -5658,19 +5623,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D93" s="2" t="inlineStr"/>
-      <c r="E93" s="2" t="inlineStr"/>
-      <c r="F93" s="2" t="inlineStr"/>
-      <c r="G93" s="2" t="inlineStr"/>
-      <c r="H93" s="2" t="inlineStr"/>
-      <c r="I93" s="2" t="inlineStr"/>
-      <c r="J93" s="2" t="inlineStr"/>
-      <c r="K93" s="2" t="inlineStr"/>
-      <c r="L93" s="2" t="inlineStr"/>
-      <c r="M93" s="2" t="inlineStr"/>
-      <c r="N93" s="2" t="inlineStr"/>
-      <c r="O93" s="2" t="inlineStr"/>
-      <c r="P93" s="2" t="inlineStr"/>
+      <c r="D93" s="2" t="n"/>
+      <c r="E93" s="2" t="n"/>
+      <c r="F93" s="2" t="n"/>
+      <c r="G93" s="2" t="n"/>
+      <c r="H93" s="2" t="n"/>
+      <c r="I93" s="2" t="n"/>
+      <c r="J93" s="2" t="n"/>
+      <c r="K93" s="2" t="n"/>
+      <c r="L93" s="2" t="n"/>
+      <c r="M93" s="2" t="n"/>
+      <c r="N93" s="2" t="n"/>
+      <c r="O93" s="2" t="n"/>
+      <c r="P93" s="2" t="n"/>
       <c r="Q93" s="2" t="inlineStr">
         <is>
           <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
@@ -5691,16 +5656,16 @@
           <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
-      <c r="U93" s="2" t="inlineStr"/>
-      <c r="V93" s="2" t="inlineStr"/>
-      <c r="W93" s="2" t="inlineStr"/>
+      <c r="U93" s="2" t="n"/>
+      <c r="V93" s="2" t="n"/>
+      <c r="W93" s="2" t="n"/>
       <c r="X93" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y93" s="2" t="inlineStr"/>
-      <c r="Z93" s="2" t="inlineStr"/>
+      <c r="Y93" s="2" t="n"/>
+      <c r="Z93" s="2" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
@@ -5718,19 +5683,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D94" s="2" t="inlineStr"/>
-      <c r="E94" s="2" t="inlineStr"/>
-      <c r="F94" s="2" t="inlineStr"/>
-      <c r="G94" s="2" t="inlineStr"/>
-      <c r="H94" s="2" t="inlineStr"/>
-      <c r="I94" s="2" t="inlineStr"/>
-      <c r="J94" s="2" t="inlineStr"/>
-      <c r="K94" s="2" t="inlineStr"/>
-      <c r="L94" s="2" t="inlineStr"/>
-      <c r="M94" s="2" t="inlineStr"/>
-      <c r="N94" s="2" t="inlineStr"/>
-      <c r="O94" s="2" t="inlineStr"/>
-      <c r="P94" s="2" t="inlineStr"/>
+      <c r="D94" s="2" t="n"/>
+      <c r="E94" s="2" t="n"/>
+      <c r="F94" s="2" t="n"/>
+      <c r="G94" s="2" t="n"/>
+      <c r="H94" s="2" t="n"/>
+      <c r="I94" s="2" t="n"/>
+      <c r="J94" s="2" t="n"/>
+      <c r="K94" s="2" t="n"/>
+      <c r="L94" s="2" t="n"/>
+      <c r="M94" s="2" t="n"/>
+      <c r="N94" s="2" t="n"/>
+      <c r="O94" s="2" t="n"/>
+      <c r="P94" s="2" t="n"/>
       <c r="Q94" s="2" t="inlineStr">
         <is>
           <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
@@ -5751,16 +5716,16 @@
           <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
-      <c r="U94" s="2" t="inlineStr"/>
-      <c r="V94" s="2" t="inlineStr"/>
-      <c r="W94" s="2" t="inlineStr"/>
+      <c r="U94" s="2" t="n"/>
+      <c r="V94" s="2" t="n"/>
+      <c r="W94" s="2" t="n"/>
       <c r="X94" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y94" s="2" t="inlineStr"/>
-      <c r="Z94" s="2" t="inlineStr"/>
+      <c r="Y94" s="2" t="n"/>
+      <c r="Z94" s="2" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
@@ -5778,19 +5743,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D95" s="2" t="inlineStr"/>
-      <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr"/>
-      <c r="G95" s="2" t="inlineStr"/>
-      <c r="H95" s="2" t="inlineStr"/>
-      <c r="I95" s="2" t="inlineStr"/>
-      <c r="J95" s="2" t="inlineStr"/>
-      <c r="K95" s="2" t="inlineStr"/>
-      <c r="L95" s="2" t="inlineStr"/>
-      <c r="M95" s="2" t="inlineStr"/>
-      <c r="N95" s="2" t="inlineStr"/>
-      <c r="O95" s="2" t="inlineStr"/>
-      <c r="P95" s="2" t="inlineStr"/>
+      <c r="D95" s="2" t="n"/>
+      <c r="E95" s="2" t="n"/>
+      <c r="F95" s="2" t="n"/>
+      <c r="G95" s="2" t="n"/>
+      <c r="H95" s="2" t="n"/>
+      <c r="I95" s="2" t="n"/>
+      <c r="J95" s="2" t="n"/>
+      <c r="K95" s="2" t="n"/>
+      <c r="L95" s="2" t="n"/>
+      <c r="M95" s="2" t="n"/>
+      <c r="N95" s="2" t="n"/>
+      <c r="O95" s="2" t="n"/>
+      <c r="P95" s="2" t="n"/>
       <c r="Q95" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
@@ -5811,16 +5776,16 @@
           <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
-      <c r="U95" s="2" t="inlineStr"/>
-      <c r="V95" s="2" t="inlineStr"/>
-      <c r="W95" s="2" t="inlineStr"/>
+      <c r="U95" s="2" t="n"/>
+      <c r="V95" s="2" t="n"/>
+      <c r="W95" s="2" t="n"/>
       <c r="X95" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y95" s="2" t="inlineStr"/>
-      <c r="Z95" s="2" t="inlineStr"/>
+      <c r="Y95" s="2" t="n"/>
+      <c r="Z95" s="2" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -5838,19 +5803,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr"/>
-      <c r="E96" s="2" t="inlineStr"/>
-      <c r="F96" s="2" t="inlineStr"/>
-      <c r="G96" s="2" t="inlineStr"/>
-      <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr"/>
-      <c r="J96" s="2" t="inlineStr"/>
-      <c r="K96" s="2" t="inlineStr"/>
-      <c r="L96" s="2" t="inlineStr"/>
-      <c r="M96" s="2" t="inlineStr"/>
-      <c r="N96" s="2" t="inlineStr"/>
-      <c r="O96" s="2" t="inlineStr"/>
-      <c r="P96" s="2" t="inlineStr"/>
+      <c r="D96" s="2" t="n"/>
+      <c r="E96" s="2" t="n"/>
+      <c r="F96" s="2" t="n"/>
+      <c r="G96" s="2" t="n"/>
+      <c r="H96" s="2" t="n"/>
+      <c r="I96" s="2" t="n"/>
+      <c r="J96" s="2" t="n"/>
+      <c r="K96" s="2" t="n"/>
+      <c r="L96" s="2" t="n"/>
+      <c r="M96" s="2" t="n"/>
+      <c r="N96" s="2" t="n"/>
+      <c r="O96" s="2" t="n"/>
+      <c r="P96" s="2" t="n"/>
       <c r="Q96" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment. </t>
@@ -5871,16 +5836,16 @@
           <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
-      <c r="U96" s="2" t="inlineStr"/>
-      <c r="V96" s="2" t="inlineStr"/>
-      <c r="W96" s="2" t="inlineStr"/>
+      <c r="U96" s="2" t="n"/>
+      <c r="V96" s="2" t="n"/>
+      <c r="W96" s="2" t="n"/>
       <c r="X96" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y96" s="2" t="inlineStr"/>
-      <c r="Z96" s="2" t="inlineStr"/>
+      <c r="Y96" s="2" t="n"/>
+      <c r="Z96" s="2" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
@@ -5898,41 +5863,41 @@
           <t>knowledge or skill</t>
         </is>
       </c>
-      <c r="D97" s="2" t="inlineStr"/>
-      <c r="E97" s="2" t="inlineStr"/>
-      <c r="F97" s="2" t="inlineStr"/>
-      <c r="G97" s="2" t="inlineStr"/>
-      <c r="H97" s="2" t="inlineStr"/>
-      <c r="I97" s="2" t="inlineStr"/>
-      <c r="J97" s="2" t="inlineStr"/>
-      <c r="K97" s="2" t="inlineStr"/>
-      <c r="L97" s="2" t="inlineStr"/>
-      <c r="M97" s="2" t="inlineStr"/>
-      <c r="N97" s="2" t="inlineStr"/>
-      <c r="O97" s="2" t="inlineStr"/>
-      <c r="P97" s="2" t="inlineStr"/>
+      <c r="D97" s="2" t="n"/>
+      <c r="E97" s="2" t="n"/>
+      <c r="F97" s="2" t="n"/>
+      <c r="G97" s="2" t="n"/>
+      <c r="H97" s="2" t="n"/>
+      <c r="I97" s="2" t="n"/>
+      <c r="J97" s="2" t="n"/>
+      <c r="K97" s="2" t="n"/>
+      <c r="L97" s="2" t="n"/>
+      <c r="M97" s="2" t="n"/>
+      <c r="N97" s="2" t="n"/>
+      <c r="O97" s="2" t="n"/>
+      <c r="P97" s="2" t="n"/>
       <c r="Q97" s="2" t="inlineStr">
         <is>
           <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
-      <c r="R97" s="2" t="inlineStr"/>
-      <c r="S97" s="2" t="inlineStr"/>
+      <c r="R97" s="2" t="n"/>
+      <c r="S97" s="2" t="n"/>
       <c r="T97" s="2" t="inlineStr">
         <is>
           <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
-      <c r="U97" s="2" t="inlineStr"/>
-      <c r="V97" s="2" t="inlineStr"/>
-      <c r="W97" s="2" t="inlineStr"/>
+      <c r="U97" s="2" t="n"/>
+      <c r="V97" s="2" t="n"/>
+      <c r="W97" s="2" t="n"/>
       <c r="X97" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y97" s="2" t="inlineStr"/>
-      <c r="Z97" s="2" t="inlineStr"/>
+      <c r="Y97" s="2" t="n"/>
+      <c r="Z97" s="2" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
@@ -5950,19 +5915,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D98" s="2" t="inlineStr"/>
-      <c r="E98" s="2" t="inlineStr"/>
-      <c r="F98" s="2" t="inlineStr"/>
-      <c r="G98" s="2" t="inlineStr"/>
-      <c r="H98" s="2" t="inlineStr"/>
-      <c r="I98" s="2" t="inlineStr"/>
-      <c r="J98" s="2" t="inlineStr"/>
-      <c r="K98" s="2" t="inlineStr"/>
-      <c r="L98" s="2" t="inlineStr"/>
-      <c r="M98" s="2" t="inlineStr"/>
-      <c r="N98" s="2" t="inlineStr"/>
-      <c r="O98" s="2" t="inlineStr"/>
-      <c r="P98" s="2" t="inlineStr"/>
+      <c r="D98" s="2" t="n"/>
+      <c r="E98" s="2" t="n"/>
+      <c r="F98" s="2" t="n"/>
+      <c r="G98" s="2" t="n"/>
+      <c r="H98" s="2" t="n"/>
+      <c r="I98" s="2" t="n"/>
+      <c r="J98" s="2" t="n"/>
+      <c r="K98" s="2" t="n"/>
+      <c r="L98" s="2" t="n"/>
+      <c r="M98" s="2" t="n"/>
+      <c r="N98" s="2" t="n"/>
+      <c r="O98" s="2" t="n"/>
+      <c r="P98" s="2" t="n"/>
       <c r="Q98" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
@@ -5978,17 +5943,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T98" s="2" t="inlineStr"/>
-      <c r="U98" s="2" t="inlineStr"/>
-      <c r="V98" s="2" t="inlineStr"/>
-      <c r="W98" s="2" t="inlineStr"/>
+      <c r="T98" s="2" t="n"/>
+      <c r="U98" s="2" t="n"/>
+      <c r="V98" s="2" t="n"/>
+      <c r="W98" s="2" t="n"/>
       <c r="X98" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y98" s="2" t="inlineStr"/>
-      <c r="Z98" s="2" t="inlineStr"/>
+      <c r="Y98" s="2" t="n"/>
+      <c r="Z98" s="2" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
@@ -6006,19 +5971,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D99" s="2" t="inlineStr"/>
-      <c r="E99" s="2" t="inlineStr"/>
-      <c r="F99" s="2" t="inlineStr"/>
-      <c r="G99" s="2" t="inlineStr"/>
-      <c r="H99" s="2" t="inlineStr"/>
-      <c r="I99" s="2" t="inlineStr"/>
-      <c r="J99" s="2" t="inlineStr"/>
-      <c r="K99" s="2" t="inlineStr"/>
-      <c r="L99" s="2" t="inlineStr"/>
-      <c r="M99" s="2" t="inlineStr"/>
-      <c r="N99" s="2" t="inlineStr"/>
-      <c r="O99" s="2" t="inlineStr"/>
-      <c r="P99" s="2" t="inlineStr"/>
+      <c r="D99" s="2" t="n"/>
+      <c r="E99" s="2" t="n"/>
+      <c r="F99" s="2" t="n"/>
+      <c r="G99" s="2" t="n"/>
+      <c r="H99" s="2" t="n"/>
+      <c r="I99" s="2" t="n"/>
+      <c r="J99" s="2" t="n"/>
+      <c r="K99" s="2" t="n"/>
+      <c r="L99" s="2" t="n"/>
+      <c r="M99" s="2" t="n"/>
+      <c r="N99" s="2" t="n"/>
+      <c r="O99" s="2" t="n"/>
+      <c r="P99" s="2" t="n"/>
       <c r="Q99" s="2" t="inlineStr">
         <is>
           <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
@@ -6034,17 +5999,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T99" s="2" t="inlineStr"/>
-      <c r="U99" s="2" t="inlineStr"/>
-      <c r="V99" s="2" t="inlineStr"/>
-      <c r="W99" s="2" t="inlineStr"/>
+      <c r="T99" s="2" t="n"/>
+      <c r="U99" s="2" t="n"/>
+      <c r="V99" s="2" t="n"/>
+      <c r="W99" s="2" t="n"/>
       <c r="X99" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y99" s="2" t="inlineStr"/>
-      <c r="Z99" s="2" t="inlineStr"/>
+      <c r="Y99" s="2" t="n"/>
+      <c r="Z99" s="2" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
@@ -6062,19 +6027,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D100" s="2" t="inlineStr"/>
-      <c r="E100" s="2" t="inlineStr"/>
-      <c r="F100" s="2" t="inlineStr"/>
-      <c r="G100" s="2" t="inlineStr"/>
-      <c r="H100" s="2" t="inlineStr"/>
-      <c r="I100" s="2" t="inlineStr"/>
-      <c r="J100" s="2" t="inlineStr"/>
-      <c r="K100" s="2" t="inlineStr"/>
-      <c r="L100" s="2" t="inlineStr"/>
-      <c r="M100" s="2" t="inlineStr"/>
-      <c r="N100" s="2" t="inlineStr"/>
-      <c r="O100" s="2" t="inlineStr"/>
-      <c r="P100" s="2" t="inlineStr"/>
+      <c r="D100" s="2" t="n"/>
+      <c r="E100" s="2" t="n"/>
+      <c r="F100" s="2" t="n"/>
+      <c r="G100" s="2" t="n"/>
+      <c r="H100" s="2" t="n"/>
+      <c r="I100" s="2" t="n"/>
+      <c r="J100" s="2" t="n"/>
+      <c r="K100" s="2" t="n"/>
+      <c r="L100" s="2" t="n"/>
+      <c r="M100" s="2" t="n"/>
+      <c r="N100" s="2" t="n"/>
+      <c r="O100" s="2" t="n"/>
+      <c r="P100" s="2" t="n"/>
       <c r="Q100" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
@@ -6095,16 +6060,16 @@
           <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
-      <c r="U100" s="2" t="inlineStr"/>
-      <c r="V100" s="2" t="inlineStr"/>
-      <c r="W100" s="2" t="inlineStr"/>
+      <c r="U100" s="2" t="n"/>
+      <c r="V100" s="2" t="n"/>
+      <c r="W100" s="2" t="n"/>
       <c r="X100" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y100" s="2" t="inlineStr"/>
-      <c r="Z100" s="2" t="inlineStr"/>
+      <c r="Y100" s="2" t="n"/>
+      <c r="Z100" s="2" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
@@ -6122,37 +6087,37 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D101" s="2" t="inlineStr"/>
-      <c r="E101" s="2" t="inlineStr"/>
-      <c r="F101" s="2" t="inlineStr"/>
-      <c r="G101" s="2" t="inlineStr"/>
-      <c r="H101" s="2" t="inlineStr"/>
-      <c r="I101" s="2" t="inlineStr"/>
-      <c r="J101" s="2" t="inlineStr"/>
-      <c r="K101" s="2" t="inlineStr"/>
-      <c r="L101" s="2" t="inlineStr"/>
-      <c r="M101" s="2" t="inlineStr"/>
-      <c r="N101" s="2" t="inlineStr"/>
-      <c r="O101" s="2" t="inlineStr"/>
-      <c r="P101" s="2" t="inlineStr"/>
+      <c r="D101" s="2" t="n"/>
+      <c r="E101" s="2" t="n"/>
+      <c r="F101" s="2" t="n"/>
+      <c r="G101" s="2" t="n"/>
+      <c r="H101" s="2" t="n"/>
+      <c r="I101" s="2" t="n"/>
+      <c r="J101" s="2" t="n"/>
+      <c r="K101" s="2" t="n"/>
+      <c r="L101" s="2" t="n"/>
+      <c r="M101" s="2" t="n"/>
+      <c r="N101" s="2" t="n"/>
+      <c r="O101" s="2" t="n"/>
+      <c r="P101" s="2" t="n"/>
       <c r="Q101" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
         </is>
       </c>
-      <c r="R101" s="2" t="inlineStr"/>
-      <c r="S101" s="2" t="inlineStr"/>
-      <c r="T101" s="2" t="inlineStr"/>
-      <c r="U101" s="2" t="inlineStr"/>
-      <c r="V101" s="2" t="inlineStr"/>
-      <c r="W101" s="2" t="inlineStr"/>
+      <c r="R101" s="2" t="n"/>
+      <c r="S101" s="2" t="n"/>
+      <c r="T101" s="2" t="n"/>
+      <c r="U101" s="2" t="n"/>
+      <c r="V101" s="2" t="n"/>
+      <c r="W101" s="2" t="n"/>
       <c r="X101" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y101" s="2" t="inlineStr"/>
-      <c r="Z101" s="2" t="inlineStr"/>
+      <c r="Y101" s="2" t="n"/>
+      <c r="Z101" s="2" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
@@ -6170,19 +6135,19 @@
           <t xml:space="preserve">social professional </t>
         </is>
       </c>
-      <c r="D102" s="2" t="inlineStr"/>
-      <c r="E102" s="2" t="inlineStr"/>
-      <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr"/>
-      <c r="H102" s="2" t="inlineStr"/>
-      <c r="I102" s="2" t="inlineStr"/>
-      <c r="J102" s="2" t="inlineStr"/>
-      <c r="K102" s="2" t="inlineStr"/>
-      <c r="L102" s="2" t="inlineStr"/>
-      <c r="M102" s="2" t="inlineStr"/>
-      <c r="N102" s="2" t="inlineStr"/>
-      <c r="O102" s="2" t="inlineStr"/>
-      <c r="P102" s="2" t="inlineStr"/>
+      <c r="D102" s="2" t="n"/>
+      <c r="E102" s="2" t="n"/>
+      <c r="F102" s="2" t="n"/>
+      <c r="G102" s="2" t="n"/>
+      <c r="H102" s="2" t="n"/>
+      <c r="I102" s="2" t="n"/>
+      <c r="J102" s="2" t="n"/>
+      <c r="K102" s="2" t="n"/>
+      <c r="L102" s="2" t="n"/>
+      <c r="M102" s="2" t="n"/>
+      <c r="N102" s="2" t="n"/>
+      <c r="O102" s="2" t="n"/>
+      <c r="P102" s="2" t="n"/>
       <c r="Q102" s="2" t="inlineStr">
         <is>
           <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
@@ -6203,16 +6168,16 @@
           <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
-      <c r="U102" s="2" t="inlineStr"/>
-      <c r="V102" s="2" t="inlineStr"/>
-      <c r="W102" s="2" t="inlineStr"/>
+      <c r="U102" s="2" t="n"/>
+      <c r="V102" s="2" t="n"/>
+      <c r="W102" s="2" t="n"/>
       <c r="X102" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y102" s="2" t="inlineStr"/>
-      <c r="Z102" s="2" t="inlineStr"/>
+      <c r="Y102" s="2" t="n"/>
+      <c r="Z102" s="2" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
@@ -6230,37 +6195,37 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D103" s="2" t="inlineStr"/>
-      <c r="E103" s="2" t="inlineStr"/>
-      <c r="F103" s="2" t="inlineStr"/>
-      <c r="G103" s="2" t="inlineStr"/>
-      <c r="H103" s="2" t="inlineStr"/>
-      <c r="I103" s="2" t="inlineStr"/>
-      <c r="J103" s="2" t="inlineStr"/>
-      <c r="K103" s="2" t="inlineStr"/>
-      <c r="L103" s="2" t="inlineStr"/>
-      <c r="M103" s="2" t="inlineStr"/>
-      <c r="N103" s="2" t="inlineStr"/>
-      <c r="O103" s="2" t="inlineStr"/>
-      <c r="P103" s="2" t="inlineStr"/>
+      <c r="D103" s="2" t="n"/>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+      <c r="H103" s="2" t="n"/>
+      <c r="I103" s="2" t="n"/>
+      <c r="J103" s="2" t="n"/>
+      <c r="K103" s="2" t="n"/>
+      <c r="L103" s="2" t="n"/>
+      <c r="M103" s="2" t="n"/>
+      <c r="N103" s="2" t="n"/>
+      <c r="O103" s="2" t="n"/>
+      <c r="P103" s="2" t="n"/>
       <c r="Q103" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
         </is>
       </c>
-      <c r="R103" s="2" t="inlineStr"/>
-      <c r="S103" s="2" t="inlineStr"/>
-      <c r="T103" s="2" t="inlineStr"/>
-      <c r="U103" s="2" t="inlineStr"/>
-      <c r="V103" s="2" t="inlineStr"/>
-      <c r="W103" s="2" t="inlineStr"/>
+      <c r="R103" s="2" t="n"/>
+      <c r="S103" s="2" t="n"/>
+      <c r="T103" s="2" t="n"/>
+      <c r="U103" s="2" t="n"/>
+      <c r="V103" s="2" t="n"/>
+      <c r="W103" s="2" t="n"/>
       <c r="X103" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y103" s="2" t="inlineStr"/>
-      <c r="Z103" s="2" t="inlineStr"/>
+      <c r="Y103" s="2" t="n"/>
+      <c r="Z103" s="2" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
@@ -6278,19 +6243,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D104" s="2" t="inlineStr"/>
-      <c r="E104" s="2" t="inlineStr"/>
-      <c r="F104" s="2" t="inlineStr"/>
-      <c r="G104" s="2" t="inlineStr"/>
-      <c r="H104" s="2" t="inlineStr"/>
-      <c r="I104" s="2" t="inlineStr"/>
-      <c r="J104" s="2" t="inlineStr"/>
-      <c r="K104" s="2" t="inlineStr"/>
-      <c r="L104" s="2" t="inlineStr"/>
-      <c r="M104" s="2" t="inlineStr"/>
-      <c r="N104" s="2" t="inlineStr"/>
-      <c r="O104" s="2" t="inlineStr"/>
-      <c r="P104" s="2" t="inlineStr"/>
+      <c r="D104" s="2" t="n"/>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+      <c r="H104" s="2" t="n"/>
+      <c r="I104" s="2" t="n"/>
+      <c r="J104" s="2" t="n"/>
+      <c r="K104" s="2" t="n"/>
+      <c r="L104" s="2" t="n"/>
+      <c r="M104" s="2" t="n"/>
+      <c r="N104" s="2" t="n"/>
+      <c r="O104" s="2" t="n"/>
+      <c r="P104" s="2" t="n"/>
       <c r="Q104" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
@@ -6311,16 +6276,16 @@
           <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
-      <c r="U104" s="2" t="inlineStr"/>
-      <c r="V104" s="2" t="inlineStr"/>
-      <c r="W104" s="2" t="inlineStr"/>
+      <c r="U104" s="2" t="n"/>
+      <c r="V104" s="2" t="n"/>
+      <c r="W104" s="2" t="n"/>
       <c r="X104" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y104" s="2" t="inlineStr"/>
-      <c r="Z104" s="2" t="inlineStr"/>
+      <c r="Y104" s="2" t="n"/>
+      <c r="Z104" s="2" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
@@ -6338,41 +6303,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D105" s="2" t="inlineStr"/>
-      <c r="E105" s="2" t="inlineStr"/>
-      <c r="F105" s="2" t="inlineStr"/>
-      <c r="G105" s="2" t="inlineStr"/>
-      <c r="H105" s="2" t="inlineStr"/>
-      <c r="I105" s="2" t="inlineStr"/>
-      <c r="J105" s="2" t="inlineStr"/>
-      <c r="K105" s="2" t="inlineStr"/>
-      <c r="L105" s="2" t="inlineStr"/>
-      <c r="M105" s="2" t="inlineStr"/>
-      <c r="N105" s="2" t="inlineStr"/>
-      <c r="O105" s="2" t="inlineStr"/>
-      <c r="P105" s="2" t="inlineStr"/>
+      <c r="D105" s="2" t="n"/>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+      <c r="H105" s="2" t="n"/>
+      <c r="I105" s="2" t="n"/>
+      <c r="J105" s="2" t="n"/>
+      <c r="K105" s="2" t="n"/>
+      <c r="L105" s="2" t="n"/>
+      <c r="M105" s="2" t="n"/>
+      <c r="N105" s="2" t="n"/>
+      <c r="O105" s="2" t="n"/>
+      <c r="P105" s="2" t="n"/>
       <c r="Q105" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion. </t>
         </is>
       </c>
-      <c r="R105" s="2" t="inlineStr"/>
-      <c r="S105" s="2" t="inlineStr"/>
+      <c r="R105" s="2" t="n"/>
+      <c r="S105" s="2" t="n"/>
       <c r="T105" s="2" t="inlineStr">
         <is>
           <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
-      <c r="U105" s="2" t="inlineStr"/>
-      <c r="V105" s="2" t="inlineStr"/>
-      <c r="W105" s="2" t="inlineStr"/>
+      <c r="U105" s="2" t="n"/>
+      <c r="V105" s="2" t="n"/>
+      <c r="W105" s="2" t="n"/>
       <c r="X105" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y105" s="2" t="inlineStr"/>
-      <c r="Z105" s="2" t="inlineStr"/>
+      <c r="Y105" s="2" t="n"/>
+      <c r="Z105" s="2" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
@@ -6390,19 +6355,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D106" s="2" t="inlineStr"/>
-      <c r="E106" s="2" t="inlineStr"/>
-      <c r="F106" s="2" t="inlineStr"/>
-      <c r="G106" s="2" t="inlineStr"/>
-      <c r="H106" s="2" t="inlineStr"/>
-      <c r="I106" s="2" t="inlineStr"/>
-      <c r="J106" s="2" t="inlineStr"/>
-      <c r="K106" s="2" t="inlineStr"/>
-      <c r="L106" s="2" t="inlineStr"/>
-      <c r="M106" s="2" t="inlineStr"/>
-      <c r="N106" s="2" t="inlineStr"/>
-      <c r="O106" s="2" t="inlineStr"/>
-      <c r="P106" s="2" t="inlineStr"/>
+      <c r="D106" s="2" t="n"/>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+      <c r="H106" s="2" t="n"/>
+      <c r="I106" s="2" t="n"/>
+      <c r="J106" s="2" t="n"/>
+      <c r="K106" s="2" t="n"/>
+      <c r="L106" s="2" t="n"/>
+      <c r="M106" s="2" t="n"/>
+      <c r="N106" s="2" t="n"/>
+      <c r="O106" s="2" t="n"/>
+      <c r="P106" s="2" t="n"/>
       <c r="Q106" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
@@ -6423,16 +6388,16 @@
           <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
-      <c r="U106" s="2" t="inlineStr"/>
-      <c r="V106" s="2" t="inlineStr"/>
-      <c r="W106" s="2" t="inlineStr"/>
+      <c r="U106" s="2" t="n"/>
+      <c r="V106" s="2" t="n"/>
+      <c r="W106" s="2" t="n"/>
       <c r="X106" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y106" s="2" t="inlineStr"/>
-      <c r="Z106" s="2" t="inlineStr"/>
+      <c r="Y106" s="2" t="n"/>
+      <c r="Z106" s="2" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
@@ -6450,41 +6415,41 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D107" s="2" t="inlineStr"/>
-      <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr"/>
-      <c r="H107" s="2" t="inlineStr"/>
-      <c r="I107" s="2" t="inlineStr"/>
-      <c r="J107" s="2" t="inlineStr"/>
-      <c r="K107" s="2" t="inlineStr"/>
-      <c r="L107" s="2" t="inlineStr"/>
-      <c r="M107" s="2" t="inlineStr"/>
-      <c r="N107" s="2" t="inlineStr"/>
-      <c r="O107" s="2" t="inlineStr"/>
-      <c r="P107" s="2" t="inlineStr"/>
+      <c r="D107" s="2" t="n"/>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+      <c r="H107" s="2" t="n"/>
+      <c r="I107" s="2" t="n"/>
+      <c r="J107" s="2" t="n"/>
+      <c r="K107" s="2" t="n"/>
+      <c r="L107" s="2" t="n"/>
+      <c r="M107" s="2" t="n"/>
+      <c r="N107" s="2" t="n"/>
+      <c r="O107" s="2" t="n"/>
+      <c r="P107" s="2" t="n"/>
       <c r="Q107" s="2" t="inlineStr">
         <is>
           <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
-      <c r="R107" s="2" t="inlineStr"/>
-      <c r="S107" s="2" t="inlineStr"/>
+      <c r="R107" s="2" t="n"/>
+      <c r="S107" s="2" t="n"/>
       <c r="T107" s="2" t="inlineStr">
         <is>
           <t>researcher, research assistant, investigator</t>
         </is>
       </c>
-      <c r="U107" s="2" t="inlineStr"/>
-      <c r="V107" s="2" t="inlineStr"/>
-      <c r="W107" s="2" t="inlineStr"/>
+      <c r="U107" s="2" t="n"/>
+      <c r="V107" s="2" t="n"/>
+      <c r="W107" s="2" t="n"/>
       <c r="X107" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y107" s="2" t="inlineStr"/>
-      <c r="Z107" s="2" t="inlineStr"/>
+      <c r="Y107" s="2" t="n"/>
+      <c r="Z107" s="2" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
@@ -6502,19 +6467,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D108" s="2" t="inlineStr"/>
-      <c r="E108" s="2" t="inlineStr"/>
-      <c r="F108" s="2" t="inlineStr"/>
-      <c r="G108" s="2" t="inlineStr"/>
-      <c r="H108" s="2" t="inlineStr"/>
-      <c r="I108" s="2" t="inlineStr"/>
-      <c r="J108" s="2" t="inlineStr"/>
-      <c r="K108" s="2" t="inlineStr"/>
-      <c r="L108" s="2" t="inlineStr"/>
-      <c r="M108" s="2" t="inlineStr"/>
-      <c r="N108" s="2" t="inlineStr"/>
-      <c r="O108" s="2" t="inlineStr"/>
-      <c r="P108" s="2" t="inlineStr"/>
+      <c r="D108" s="2" t="n"/>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+      <c r="H108" s="2" t="n"/>
+      <c r="I108" s="2" t="n"/>
+      <c r="J108" s="2" t="n"/>
+      <c r="K108" s="2" t="n"/>
+      <c r="L108" s="2" t="n"/>
+      <c r="M108" s="2" t="n"/>
+      <c r="N108" s="2" t="n"/>
+      <c r="O108" s="2" t="n"/>
+      <c r="P108" s="2" t="n"/>
       <c r="Q108" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets. </t>
@@ -6535,16 +6500,16 @@
           <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
-      <c r="U108" s="2" t="inlineStr"/>
-      <c r="V108" s="2" t="inlineStr"/>
-      <c r="W108" s="2" t="inlineStr"/>
+      <c r="U108" s="2" t="n"/>
+      <c r="V108" s="2" t="n"/>
+      <c r="W108" s="2" t="n"/>
       <c r="X108" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y108" s="2" t="inlineStr"/>
-      <c r="Z108" s="2" t="inlineStr"/>
+      <c r="Y108" s="2" t="n"/>
+      <c r="Z108" s="2" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
@@ -6562,37 +6527,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D109" s="2" t="inlineStr"/>
-      <c r="E109" s="2" t="inlineStr"/>
-      <c r="F109" s="2" t="inlineStr"/>
-      <c r="G109" s="2" t="inlineStr"/>
-      <c r="H109" s="2" t="inlineStr"/>
-      <c r="I109" s="2" t="inlineStr"/>
-      <c r="J109" s="2" t="inlineStr"/>
-      <c r="K109" s="2" t="inlineStr"/>
-      <c r="L109" s="2" t="inlineStr"/>
-      <c r="M109" s="2" t="inlineStr"/>
-      <c r="N109" s="2" t="inlineStr"/>
-      <c r="O109" s="2" t="inlineStr"/>
-      <c r="P109" s="2" t="inlineStr"/>
+      <c r="D109" s="2" t="n"/>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+      <c r="H109" s="2" t="n"/>
+      <c r="I109" s="2" t="n"/>
+      <c r="J109" s="2" t="n"/>
+      <c r="K109" s="2" t="n"/>
+      <c r="L109" s="2" t="n"/>
+      <c r="M109" s="2" t="n"/>
+      <c r="N109" s="2" t="n"/>
+      <c r="O109" s="2" t="n"/>
+      <c r="P109" s="2" t="n"/>
       <c r="Q109" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
-      <c r="R109" s="2" t="inlineStr"/>
-      <c r="S109" s="2" t="inlineStr"/>
-      <c r="T109" s="2" t="inlineStr"/>
-      <c r="U109" s="2" t="inlineStr"/>
-      <c r="V109" s="2" t="inlineStr"/>
-      <c r="W109" s="2" t="inlineStr"/>
+      <c r="R109" s="2" t="n"/>
+      <c r="S109" s="2" t="n"/>
+      <c r="T109" s="2" t="n"/>
+      <c r="U109" s="2" t="n"/>
+      <c r="V109" s="2" t="n"/>
+      <c r="W109" s="2" t="n"/>
       <c r="X109" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y109" s="2" t="inlineStr"/>
-      <c r="Z109" s="2" t="inlineStr"/>
+      <c r="Y109" s="2" t="n"/>
+      <c r="Z109" s="2" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
@@ -6610,19 +6575,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D110" s="2" t="inlineStr"/>
-      <c r="E110" s="2" t="inlineStr"/>
-      <c r="F110" s="2" t="inlineStr"/>
-      <c r="G110" s="2" t="inlineStr"/>
-      <c r="H110" s="2" t="inlineStr"/>
-      <c r="I110" s="2" t="inlineStr"/>
-      <c r="J110" s="2" t="inlineStr"/>
-      <c r="K110" s="2" t="inlineStr"/>
-      <c r="L110" s="2" t="inlineStr"/>
-      <c r="M110" s="2" t="inlineStr"/>
-      <c r="N110" s="2" t="inlineStr"/>
-      <c r="O110" s="2" t="inlineStr"/>
-      <c r="P110" s="2" t="inlineStr"/>
+      <c r="D110" s="2" t="n"/>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+      <c r="H110" s="2" t="n"/>
+      <c r="I110" s="2" t="n"/>
+      <c r="J110" s="2" t="n"/>
+      <c r="K110" s="2" t="n"/>
+      <c r="L110" s="2" t="n"/>
+      <c r="M110" s="2" t="n"/>
+      <c r="N110" s="2" t="n"/>
+      <c r="O110" s="2" t="n"/>
+      <c r="P110" s="2" t="n"/>
       <c r="Q110" s="2" t="inlineStr">
         <is>
           <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
@@ -6643,16 +6608,16 @@
           <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
-      <c r="U110" s="2" t="inlineStr"/>
-      <c r="V110" s="2" t="inlineStr"/>
-      <c r="W110" s="2" t="inlineStr"/>
+      <c r="U110" s="2" t="n"/>
+      <c r="V110" s="2" t="n"/>
+      <c r="W110" s="2" t="n"/>
       <c r="X110" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y110" s="2" t="inlineStr"/>
-      <c r="Z110" s="2" t="inlineStr"/>
+      <c r="Y110" s="2" t="n"/>
+      <c r="Z110" s="2" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
@@ -6670,19 +6635,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D111" s="2" t="inlineStr"/>
-      <c r="E111" s="2" t="inlineStr"/>
-      <c r="F111" s="2" t="inlineStr"/>
-      <c r="G111" s="2" t="inlineStr"/>
-      <c r="H111" s="2" t="inlineStr"/>
-      <c r="I111" s="2" t="inlineStr"/>
-      <c r="J111" s="2" t="inlineStr"/>
-      <c r="K111" s="2" t="inlineStr"/>
-      <c r="L111" s="2" t="inlineStr"/>
-      <c r="M111" s="2" t="inlineStr"/>
-      <c r="N111" s="2" t="inlineStr"/>
-      <c r="O111" s="2" t="inlineStr"/>
-      <c r="P111" s="2" t="inlineStr"/>
+      <c r="D111" s="2" t="n"/>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+      <c r="H111" s="2" t="n"/>
+      <c r="I111" s="2" t="n"/>
+      <c r="J111" s="2" t="n"/>
+      <c r="K111" s="2" t="n"/>
+      <c r="L111" s="2" t="n"/>
+      <c r="M111" s="2" t="n"/>
+      <c r="N111" s="2" t="n"/>
+      <c r="O111" s="2" t="n"/>
+      <c r="P111" s="2" t="n"/>
       <c r="Q111" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
@@ -6703,16 +6668,16 @@
           <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
-      <c r="U111" s="2" t="inlineStr"/>
-      <c r="V111" s="2" t="inlineStr"/>
-      <c r="W111" s="2" t="inlineStr"/>
+      <c r="U111" s="2" t="n"/>
+      <c r="V111" s="2" t="n"/>
+      <c r="W111" s="2" t="n"/>
       <c r="X111" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y111" s="2" t="inlineStr"/>
-      <c r="Z111" s="2" t="inlineStr"/>
+      <c r="Y111" s="2" t="n"/>
+      <c r="Z111" s="2" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
@@ -6730,19 +6695,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D112" s="2" t="inlineStr"/>
-      <c r="E112" s="2" t="inlineStr"/>
-      <c r="F112" s="2" t="inlineStr"/>
-      <c r="G112" s="2" t="inlineStr"/>
-      <c r="H112" s="2" t="inlineStr"/>
-      <c r="I112" s="2" t="inlineStr"/>
-      <c r="J112" s="2" t="inlineStr"/>
-      <c r="K112" s="2" t="inlineStr"/>
-      <c r="L112" s="2" t="inlineStr"/>
-      <c r="M112" s="2" t="inlineStr"/>
-      <c r="N112" s="2" t="inlineStr"/>
-      <c r="O112" s="2" t="inlineStr"/>
-      <c r="P112" s="2" t="inlineStr"/>
+      <c r="D112" s="2" t="n"/>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+      <c r="H112" s="2" t="n"/>
+      <c r="I112" s="2" t="n"/>
+      <c r="J112" s="2" t="n"/>
+      <c r="K112" s="2" t="n"/>
+      <c r="L112" s="2" t="n"/>
+      <c r="M112" s="2" t="n"/>
+      <c r="N112" s="2" t="n"/>
+      <c r="O112" s="2" t="n"/>
+      <c r="P112" s="2" t="n"/>
       <c r="Q112" s="2" t="inlineStr">
         <is>
           <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
@@ -6758,17 +6723,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T112" s="2" t="inlineStr"/>
-      <c r="U112" s="2" t="inlineStr"/>
-      <c r="V112" s="2" t="inlineStr"/>
-      <c r="W112" s="2" t="inlineStr"/>
+      <c r="T112" s="2" t="n"/>
+      <c r="U112" s="2" t="n"/>
+      <c r="V112" s="2" t="n"/>
+      <c r="W112" s="2" t="n"/>
       <c r="X112" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y112" s="2" t="inlineStr"/>
-      <c r="Z112" s="2" t="inlineStr"/>
+      <c r="Y112" s="2" t="n"/>
+      <c r="Z112" s="2" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
@@ -6786,41 +6751,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D113" s="2" t="inlineStr"/>
-      <c r="E113" s="2" t="inlineStr"/>
-      <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr"/>
-      <c r="H113" s="2" t="inlineStr"/>
-      <c r="I113" s="2" t="inlineStr"/>
-      <c r="J113" s="2" t="inlineStr"/>
-      <c r="K113" s="2" t="inlineStr"/>
-      <c r="L113" s="2" t="inlineStr"/>
-      <c r="M113" s="2" t="inlineStr"/>
-      <c r="N113" s="2" t="inlineStr"/>
-      <c r="O113" s="2" t="inlineStr"/>
-      <c r="P113" s="2" t="inlineStr"/>
+      <c r="D113" s="2" t="n"/>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+      <c r="H113" s="2" t="n"/>
+      <c r="I113" s="2" t="n"/>
+      <c r="J113" s="2" t="n"/>
+      <c r="K113" s="2" t="n"/>
+      <c r="L113" s="2" t="n"/>
+      <c r="M113" s="2" t="n"/>
+      <c r="N113" s="2" t="n"/>
+      <c r="O113" s="2" t="n"/>
+      <c r="P113" s="2" t="n"/>
       <c r="Q113" s="2" t="inlineStr">
         <is>
           <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
-      <c r="R113" s="2" t="inlineStr"/>
-      <c r="S113" s="2" t="inlineStr"/>
+      <c r="R113" s="2" t="n"/>
+      <c r="S113" s="2" t="n"/>
       <c r="T113" s="2" t="inlineStr">
         <is>
           <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
-      <c r="U113" s="2" t="inlineStr"/>
-      <c r="V113" s="2" t="inlineStr"/>
-      <c r="W113" s="2" t="inlineStr"/>
+      <c r="U113" s="2" t="n"/>
+      <c r="V113" s="2" t="n"/>
+      <c r="W113" s="2" t="n"/>
       <c r="X113" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y113" s="2" t="inlineStr"/>
-      <c r="Z113" s="2" t="inlineStr"/>
+      <c r="Y113" s="2" t="n"/>
+      <c r="Z113" s="2" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
@@ -6838,19 +6803,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D114" s="2" t="inlineStr"/>
-      <c r="E114" s="2" t="inlineStr"/>
-      <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="2" t="inlineStr"/>
-      <c r="H114" s="2" t="inlineStr"/>
-      <c r="I114" s="2" t="inlineStr"/>
-      <c r="J114" s="2" t="inlineStr"/>
-      <c r="K114" s="2" t="inlineStr"/>
-      <c r="L114" s="2" t="inlineStr"/>
-      <c r="M114" s="2" t="inlineStr"/>
-      <c r="N114" s="2" t="inlineStr"/>
-      <c r="O114" s="2" t="inlineStr"/>
-      <c r="P114" s="2" t="inlineStr"/>
+      <c r="D114" s="2" t="n"/>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+      <c r="H114" s="2" t="n"/>
+      <c r="I114" s="2" t="n"/>
+      <c r="J114" s="2" t="n"/>
+      <c r="K114" s="2" t="n"/>
+      <c r="L114" s="2" t="n"/>
+      <c r="M114" s="2" t="n"/>
+      <c r="N114" s="2" t="n"/>
+      <c r="O114" s="2" t="n"/>
+      <c r="P114" s="2" t="n"/>
       <c r="Q114" s="2" t="inlineStr">
         <is>
           <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
@@ -6871,16 +6836,16 @@
           <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
-      <c r="U114" s="2" t="inlineStr"/>
-      <c r="V114" s="2" t="inlineStr"/>
-      <c r="W114" s="2" t="inlineStr"/>
+      <c r="U114" s="2" t="n"/>
+      <c r="V114" s="2" t="n"/>
+      <c r="W114" s="2" t="n"/>
       <c r="X114" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y114" s="2" t="inlineStr"/>
-      <c r="Z114" s="2" t="inlineStr"/>
+      <c r="Y114" s="2" t="n"/>
+      <c r="Z114" s="2" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
@@ -6898,19 +6863,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D115" s="2" t="inlineStr"/>
-      <c r="E115" s="2" t="inlineStr"/>
-      <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr"/>
-      <c r="H115" s="2" t="inlineStr"/>
-      <c r="I115" s="2" t="inlineStr"/>
-      <c r="J115" s="2" t="inlineStr"/>
-      <c r="K115" s="2" t="inlineStr"/>
-      <c r="L115" s="2" t="inlineStr"/>
-      <c r="M115" s="2" t="inlineStr"/>
-      <c r="N115" s="2" t="inlineStr"/>
-      <c r="O115" s="2" t="inlineStr"/>
-      <c r="P115" s="2" t="inlineStr"/>
+      <c r="D115" s="2" t="n"/>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+      <c r="H115" s="2" t="n"/>
+      <c r="I115" s="2" t="n"/>
+      <c r="J115" s="2" t="n"/>
+      <c r="K115" s="2" t="n"/>
+      <c r="L115" s="2" t="n"/>
+      <c r="M115" s="2" t="n"/>
+      <c r="N115" s="2" t="n"/>
+      <c r="O115" s="2" t="n"/>
+      <c r="P115" s="2" t="n"/>
       <c r="Q115" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
@@ -6931,16 +6896,16 @@
           <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
-      <c r="U115" s="2" t="inlineStr"/>
-      <c r="V115" s="2" t="inlineStr"/>
-      <c r="W115" s="2" t="inlineStr"/>
+      <c r="U115" s="2" t="n"/>
+      <c r="V115" s="2" t="n"/>
+      <c r="W115" s="2" t="n"/>
       <c r="X115" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y115" s="2" t="inlineStr"/>
-      <c r="Z115" s="2" t="inlineStr"/>
+      <c r="Y115" s="2" t="n"/>
+      <c r="Z115" s="2" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
@@ -6958,19 +6923,19 @@
           <t xml:space="preserve">social professional </t>
         </is>
       </c>
-      <c r="D116" s="2" t="inlineStr"/>
-      <c r="E116" s="2" t="inlineStr"/>
-      <c r="F116" s="2" t="inlineStr"/>
-      <c r="G116" s="2" t="inlineStr"/>
-      <c r="H116" s="2" t="inlineStr"/>
-      <c r="I116" s="2" t="inlineStr"/>
-      <c r="J116" s="2" t="inlineStr"/>
-      <c r="K116" s="2" t="inlineStr"/>
-      <c r="L116" s="2" t="inlineStr"/>
-      <c r="M116" s="2" t="inlineStr"/>
-      <c r="N116" s="2" t="inlineStr"/>
-      <c r="O116" s="2" t="inlineStr"/>
-      <c r="P116" s="2" t="inlineStr"/>
+      <c r="D116" s="2" t="n"/>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+      <c r="H116" s="2" t="n"/>
+      <c r="I116" s="2" t="n"/>
+      <c r="J116" s="2" t="n"/>
+      <c r="K116" s="2" t="n"/>
+      <c r="L116" s="2" t="n"/>
+      <c r="M116" s="2" t="n"/>
+      <c r="N116" s="2" t="n"/>
+      <c r="O116" s="2" t="n"/>
+      <c r="P116" s="2" t="n"/>
       <c r="Q116" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems. </t>
@@ -6991,16 +6956,16 @@
           <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
-      <c r="U116" s="2" t="inlineStr"/>
-      <c r="V116" s="2" t="inlineStr"/>
-      <c r="W116" s="2" t="inlineStr"/>
+      <c r="U116" s="2" t="n"/>
+      <c r="V116" s="2" t="n"/>
+      <c r="W116" s="2" t="n"/>
       <c r="X116" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y116" s="2" t="inlineStr"/>
-      <c r="Z116" s="2" t="inlineStr"/>
+      <c r="Y116" s="2" t="n"/>
+      <c r="Z116" s="2" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
@@ -7018,19 +6983,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D117" s="2" t="inlineStr"/>
-      <c r="E117" s="2" t="inlineStr"/>
-      <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr"/>
-      <c r="H117" s="2" t="inlineStr"/>
-      <c r="I117" s="2" t="inlineStr"/>
-      <c r="J117" s="2" t="inlineStr"/>
-      <c r="K117" s="2" t="inlineStr"/>
-      <c r="L117" s="2" t="inlineStr"/>
-      <c r="M117" s="2" t="inlineStr"/>
-      <c r="N117" s="2" t="inlineStr"/>
-      <c r="O117" s="2" t="inlineStr"/>
-      <c r="P117" s="2" t="inlineStr"/>
+      <c r="D117" s="2" t="n"/>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+      <c r="H117" s="2" t="n"/>
+      <c r="I117" s="2" t="n"/>
+      <c r="J117" s="2" t="n"/>
+      <c r="K117" s="2" t="n"/>
+      <c r="L117" s="2" t="n"/>
+      <c r="M117" s="2" t="n"/>
+      <c r="N117" s="2" t="n"/>
+      <c r="O117" s="2" t="n"/>
+      <c r="P117" s="2" t="n"/>
       <c r="Q117" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
@@ -7051,16 +7016,16 @@
           <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
-      <c r="U117" s="2" t="inlineStr"/>
-      <c r="V117" s="2" t="inlineStr"/>
-      <c r="W117" s="2" t="inlineStr"/>
+      <c r="U117" s="2" t="n"/>
+      <c r="V117" s="2" t="n"/>
+      <c r="W117" s="2" t="n"/>
       <c r="X117" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y117" s="2" t="inlineStr"/>
-      <c r="Z117" s="2" t="inlineStr"/>
+      <c r="Y117" s="2" t="n"/>
+      <c r="Z117" s="2" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
@@ -7078,18 +7043,18 @@
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D118" s="2" t="inlineStr"/>
-      <c r="E118" s="2" t="inlineStr"/>
-      <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr"/>
-      <c r="H118" s="2" t="inlineStr"/>
-      <c r="I118" s="2" t="inlineStr"/>
-      <c r="J118" s="2" t="inlineStr"/>
-      <c r="K118" s="2" t="inlineStr"/>
-      <c r="L118" s="2" t="inlineStr"/>
-      <c r="M118" s="2" t="inlineStr"/>
-      <c r="N118" s="2" t="inlineStr"/>
-      <c r="O118" s="2" t="inlineStr"/>
+      <c r="D118" s="2" t="n"/>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+      <c r="H118" s="2" t="n"/>
+      <c r="I118" s="2" t="n"/>
+      <c r="J118" s="2" t="n"/>
+      <c r="K118" s="2" t="n"/>
+      <c r="L118" s="2" t="n"/>
+      <c r="M118" s="2" t="n"/>
+      <c r="N118" s="2" t="n"/>
+      <c r="O118" s="2" t="n"/>
       <c r="P118" s="2" t="inlineStr">
         <is>
           <t>person source</t>
@@ -7100,19 +7065,19 @@
           <t xml:space="preserve">A social or demographic characteristic of a human being who is the bearer of a person source role. </t>
         </is>
       </c>
-      <c r="R118" s="2" t="inlineStr"/>
-      <c r="S118" s="2" t="inlineStr"/>
-      <c r="T118" s="2" t="inlineStr"/>
-      <c r="U118" s="2" t="inlineStr"/>
-      <c r="V118" s="2" t="inlineStr"/>
-      <c r="W118" s="2" t="inlineStr"/>
+      <c r="R118" s="2" t="n"/>
+      <c r="S118" s="2" t="n"/>
+      <c r="T118" s="2" t="n"/>
+      <c r="U118" s="2" t="n"/>
+      <c r="V118" s="2" t="n"/>
+      <c r="W118" s="2" t="n"/>
       <c r="X118" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y118" s="2" t="inlineStr"/>
-      <c r="Z118" s="2" t="inlineStr"/>
+      <c r="Y118" s="2" t="n"/>
+      <c r="Z118" s="2" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
@@ -7130,37 +7095,37 @@
           <t>source involved in development of intervention</t>
         </is>
       </c>
-      <c r="D119" s="2" t="inlineStr"/>
-      <c r="E119" s="2" t="inlineStr"/>
-      <c r="F119" s="2" t="inlineStr"/>
-      <c r="G119" s="2" t="inlineStr"/>
-      <c r="H119" s="2" t="inlineStr"/>
-      <c r="I119" s="2" t="inlineStr"/>
-      <c r="J119" s="2" t="inlineStr"/>
-      <c r="K119" s="2" t="inlineStr"/>
-      <c r="L119" s="2" t="inlineStr"/>
-      <c r="M119" s="2" t="inlineStr"/>
-      <c r="N119" s="2" t="inlineStr"/>
-      <c r="O119" s="2" t="inlineStr"/>
-      <c r="P119" s="2" t="inlineStr"/>
+      <c r="D119" s="2" t="n"/>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+      <c r="H119" s="2" t="n"/>
+      <c r="I119" s="2" t="n"/>
+      <c r="J119" s="2" t="n"/>
+      <c r="K119" s="2" t="n"/>
+      <c r="L119" s="2" t="n"/>
+      <c r="M119" s="2" t="n"/>
+      <c r="N119" s="2" t="n"/>
+      <c r="O119" s="2" t="n"/>
+      <c r="P119" s="2" t="n"/>
       <c r="Q119" s="2" t="inlineStr">
         <is>
           <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
-      <c r="R119" s="2" t="inlineStr"/>
-      <c r="S119" s="2" t="inlineStr"/>
-      <c r="T119" s="2" t="inlineStr"/>
-      <c r="U119" s="2" t="inlineStr"/>
-      <c r="V119" s="2" t="inlineStr"/>
-      <c r="W119" s="2" t="inlineStr"/>
+      <c r="R119" s="2" t="n"/>
+      <c r="S119" s="2" t="n"/>
+      <c r="T119" s="2" t="n"/>
+      <c r="U119" s="2" t="n"/>
+      <c r="V119" s="2" t="n"/>
+      <c r="W119" s="2" t="n"/>
       <c r="X119" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y119" s="2" t="inlineStr"/>
-      <c r="Z119" s="2" t="inlineStr"/>
+      <c r="Y119" s="2" t="n"/>
+      <c r="Z119" s="2" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
@@ -7178,37 +7143,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D120" s="2" t="inlineStr"/>
-      <c r="E120" s="2" t="inlineStr"/>
-      <c r="F120" s="2" t="inlineStr"/>
-      <c r="G120" s="2" t="inlineStr"/>
-      <c r="H120" s="2" t="inlineStr"/>
-      <c r="I120" s="2" t="inlineStr"/>
-      <c r="J120" s="2" t="inlineStr"/>
-      <c r="K120" s="2" t="inlineStr"/>
-      <c r="L120" s="2" t="inlineStr"/>
-      <c r="M120" s="2" t="inlineStr"/>
-      <c r="N120" s="2" t="inlineStr"/>
-      <c r="O120" s="2" t="inlineStr"/>
-      <c r="P120" s="2" t="inlineStr"/>
+      <c r="D120" s="2" t="n"/>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+      <c r="H120" s="2" t="n"/>
+      <c r="I120" s="2" t="n"/>
+      <c r="J120" s="2" t="n"/>
+      <c r="K120" s="2" t="n"/>
+      <c r="L120" s="2" t="n"/>
+      <c r="M120" s="2" t="n"/>
+      <c r="N120" s="2" t="n"/>
+      <c r="O120" s="2" t="n"/>
+      <c r="P120" s="2" t="n"/>
       <c r="Q120" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI source that is involved in the development of intervention content. </t>
         </is>
       </c>
-      <c r="R120" s="2" t="inlineStr"/>
-      <c r="S120" s="2" t="inlineStr"/>
-      <c r="T120" s="2" t="inlineStr"/>
-      <c r="U120" s="2" t="inlineStr"/>
-      <c r="V120" s="2" t="inlineStr"/>
-      <c r="W120" s="2" t="inlineStr"/>
+      <c r="R120" s="2" t="n"/>
+      <c r="S120" s="2" t="n"/>
+      <c r="T120" s="2" t="n"/>
+      <c r="U120" s="2" t="n"/>
+      <c r="V120" s="2" t="n"/>
+      <c r="W120" s="2" t="n"/>
       <c r="X120" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y120" s="2" t="inlineStr"/>
-      <c r="Z120" s="2" t="inlineStr"/>
+      <c r="Y120" s="2" t="n"/>
+      <c r="Z120" s="2" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
@@ -7226,37 +7191,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D121" s="2" t="inlineStr"/>
-      <c r="E121" s="2" t="inlineStr"/>
-      <c r="F121" s="2" t="inlineStr"/>
-      <c r="G121" s="2" t="inlineStr"/>
-      <c r="H121" s="2" t="inlineStr"/>
-      <c r="I121" s="2" t="inlineStr"/>
-      <c r="J121" s="2" t="inlineStr"/>
-      <c r="K121" s="2" t="inlineStr"/>
-      <c r="L121" s="2" t="inlineStr"/>
-      <c r="M121" s="2" t="inlineStr"/>
-      <c r="N121" s="2" t="inlineStr"/>
-      <c r="O121" s="2" t="inlineStr"/>
-      <c r="P121" s="2" t="inlineStr"/>
+      <c r="D121" s="2" t="n"/>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+      <c r="H121" s="2" t="n"/>
+      <c r="I121" s="2" t="n"/>
+      <c r="J121" s="2" t="n"/>
+      <c r="K121" s="2" t="n"/>
+      <c r="L121" s="2" t="n"/>
+      <c r="M121" s="2" t="n"/>
+      <c r="N121" s="2" t="n"/>
+      <c r="O121" s="2" t="n"/>
+      <c r="P121" s="2" t="n"/>
       <c r="Q121" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention. </t>
         </is>
       </c>
-      <c r="R121" s="2" t="inlineStr"/>
-      <c r="S121" s="2" t="inlineStr"/>
-      <c r="T121" s="2" t="inlineStr"/>
-      <c r="U121" s="2" t="inlineStr"/>
-      <c r="V121" s="2" t="inlineStr"/>
-      <c r="W121" s="2" t="inlineStr"/>
+      <c r="R121" s="2" t="n"/>
+      <c r="S121" s="2" t="n"/>
+      <c r="T121" s="2" t="n"/>
+      <c r="U121" s="2" t="n"/>
+      <c r="V121" s="2" t="n"/>
+      <c r="W121" s="2" t="n"/>
       <c r="X121" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y121" s="2" t="inlineStr"/>
-      <c r="Z121" s="2" t="inlineStr"/>
+      <c r="Y121" s="2" t="n"/>
+      <c r="Z121" s="2" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
@@ -7274,19 +7239,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D122" s="2" t="inlineStr"/>
-      <c r="E122" s="2" t="inlineStr"/>
-      <c r="F122" s="2" t="inlineStr"/>
-      <c r="G122" s="2" t="inlineStr"/>
-      <c r="H122" s="2" t="inlineStr"/>
-      <c r="I122" s="2" t="inlineStr"/>
-      <c r="J122" s="2" t="inlineStr"/>
-      <c r="K122" s="2" t="inlineStr"/>
-      <c r="L122" s="2" t="inlineStr"/>
-      <c r="M122" s="2" t="inlineStr"/>
-      <c r="N122" s="2" t="inlineStr"/>
-      <c r="O122" s="2" t="inlineStr"/>
-      <c r="P122" s="2" t="inlineStr"/>
+      <c r="D122" s="2" t="n"/>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+      <c r="H122" s="2" t="n"/>
+      <c r="I122" s="2" t="n"/>
+      <c r="J122" s="2" t="n"/>
+      <c r="K122" s="2" t="n"/>
+      <c r="L122" s="2" t="n"/>
+      <c r="M122" s="2" t="n"/>
+      <c r="N122" s="2" t="n"/>
+      <c r="O122" s="2" t="n"/>
+      <c r="P122" s="2" t="n"/>
       <c r="Q122" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A teaching professional that teaches children, young persons or adults with physical or intellectual special needs. </t>
@@ -7307,16 +7272,16 @@
           <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
-      <c r="U122" s="2" t="inlineStr"/>
-      <c r="V122" s="2" t="inlineStr"/>
-      <c r="W122" s="2" t="inlineStr"/>
+      <c r="U122" s="2" t="n"/>
+      <c r="V122" s="2" t="n"/>
+      <c r="W122" s="2" t="n"/>
       <c r="X122" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y122" s="2" t="inlineStr"/>
-      <c r="Z122" s="2" t="inlineStr"/>
+      <c r="Y122" s="2" t="n"/>
+      <c r="Z122" s="2" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
@@ -7334,19 +7299,19 @@
           <t xml:space="preserve">medical doctor </t>
         </is>
       </c>
-      <c r="D123" s="2" t="inlineStr"/>
-      <c r="E123" s="2" t="inlineStr"/>
-      <c r="F123" s="2" t="inlineStr"/>
-      <c r="G123" s="2" t="inlineStr"/>
-      <c r="H123" s="2" t="inlineStr"/>
-      <c r="I123" s="2" t="inlineStr"/>
-      <c r="J123" s="2" t="inlineStr"/>
-      <c r="K123" s="2" t="inlineStr"/>
-      <c r="L123" s="2" t="inlineStr"/>
-      <c r="M123" s="2" t="inlineStr"/>
-      <c r="N123" s="2" t="inlineStr"/>
-      <c r="O123" s="2" t="inlineStr"/>
-      <c r="P123" s="2" t="inlineStr"/>
+      <c r="D123" s="2" t="n"/>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+      <c r="H123" s="2" t="n"/>
+      <c r="I123" s="2" t="n"/>
+      <c r="J123" s="2" t="n"/>
+      <c r="K123" s="2" t="n"/>
+      <c r="L123" s="2" t="n"/>
+      <c r="M123" s="2" t="n"/>
+      <c r="N123" s="2" t="n"/>
+      <c r="O123" s="2" t="n"/>
+      <c r="P123" s="2" t="n"/>
       <c r="Q123" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization. </t>
@@ -7367,16 +7332,16 @@
           <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
-      <c r="U123" s="2" t="inlineStr"/>
-      <c r="V123" s="2" t="inlineStr"/>
-      <c r="W123" s="2" t="inlineStr"/>
+      <c r="U123" s="2" t="n"/>
+      <c r="V123" s="2" t="n"/>
+      <c r="W123" s="2" t="n"/>
       <c r="X123" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y123" s="2" t="inlineStr"/>
-      <c r="Z123" s="2" t="inlineStr"/>
+      <c r="Y123" s="2" t="n"/>
+      <c r="Z123" s="2" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
@@ -7394,19 +7359,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D124" s="2" t="inlineStr"/>
-      <c r="E124" s="2" t="inlineStr"/>
-      <c r="F124" s="2" t="inlineStr"/>
-      <c r="G124" s="2" t="inlineStr"/>
-      <c r="H124" s="2" t="inlineStr"/>
-      <c r="I124" s="2" t="inlineStr"/>
-      <c r="J124" s="2" t="inlineStr"/>
-      <c r="K124" s="2" t="inlineStr"/>
-      <c r="L124" s="2" t="inlineStr"/>
-      <c r="M124" s="2" t="inlineStr"/>
-      <c r="N124" s="2" t="inlineStr"/>
-      <c r="O124" s="2" t="inlineStr"/>
-      <c r="P124" s="2" t="inlineStr"/>
+      <c r="D124" s="2" t="n"/>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+      <c r="H124" s="2" t="n"/>
+      <c r="I124" s="2" t="n"/>
+      <c r="J124" s="2" t="n"/>
+      <c r="K124" s="2" t="n"/>
+      <c r="L124" s="2" t="n"/>
+      <c r="M124" s="2" t="n"/>
+      <c r="N124" s="2" t="n"/>
+      <c r="O124" s="2" t="n"/>
+      <c r="P124" s="2" t="n"/>
       <c r="Q124" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
@@ -7427,16 +7392,16 @@
           <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
-      <c r="U124" s="2" t="inlineStr"/>
-      <c r="V124" s="2" t="inlineStr"/>
-      <c r="W124" s="2" t="inlineStr"/>
+      <c r="U124" s="2" t="n"/>
+      <c r="V124" s="2" t="n"/>
+      <c r="W124" s="2" t="n"/>
       <c r="X124" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y124" s="2" t="inlineStr"/>
-      <c r="Z124" s="2" t="inlineStr"/>
+      <c r="Y124" s="2" t="n"/>
+      <c r="Z124" s="2" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
@@ -7454,19 +7419,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D125" s="2" t="inlineStr"/>
-      <c r="E125" s="2" t="inlineStr"/>
-      <c r="F125" s="2" t="inlineStr"/>
-      <c r="G125" s="2" t="inlineStr"/>
-      <c r="H125" s="2" t="inlineStr"/>
-      <c r="I125" s="2" t="inlineStr"/>
-      <c r="J125" s="2" t="inlineStr"/>
-      <c r="K125" s="2" t="inlineStr"/>
-      <c r="L125" s="2" t="inlineStr"/>
-      <c r="M125" s="2" t="inlineStr"/>
-      <c r="N125" s="2" t="inlineStr"/>
-      <c r="O125" s="2" t="inlineStr"/>
-      <c r="P125" s="2" t="inlineStr"/>
+      <c r="D125" s="2" t="n"/>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+      <c r="H125" s="2" t="n"/>
+      <c r="I125" s="2" t="n"/>
+      <c r="J125" s="2" t="n"/>
+      <c r="K125" s="2" t="n"/>
+      <c r="L125" s="2" t="n"/>
+      <c r="M125" s="2" t="n"/>
+      <c r="N125" s="2" t="n"/>
+      <c r="O125" s="2" t="n"/>
+      <c r="P125" s="2" t="n"/>
       <c r="Q125" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
@@ -7487,16 +7452,16 @@
           <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
-      <c r="U125" s="2" t="inlineStr"/>
-      <c r="V125" s="2" t="inlineStr"/>
-      <c r="W125" s="2" t="inlineStr"/>
+      <c r="U125" s="2" t="n"/>
+      <c r="V125" s="2" t="n"/>
+      <c r="W125" s="2" t="n"/>
       <c r="X125" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y125" s="2" t="inlineStr"/>
-      <c r="Z125" s="2" t="inlineStr"/>
+      <c r="Y125" s="2" t="n"/>
+      <c r="Z125" s="2" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
@@ -7514,41 +7479,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D126" s="2" t="inlineStr"/>
-      <c r="E126" s="2" t="inlineStr"/>
-      <c r="F126" s="2" t="inlineStr"/>
-      <c r="G126" s="2" t="inlineStr"/>
-      <c r="H126" s="2" t="inlineStr"/>
-      <c r="I126" s="2" t="inlineStr"/>
-      <c r="J126" s="2" t="inlineStr"/>
-      <c r="K126" s="2" t="inlineStr"/>
-      <c r="L126" s="2" t="inlineStr"/>
-      <c r="M126" s="2" t="inlineStr"/>
-      <c r="N126" s="2" t="inlineStr"/>
-      <c r="O126" s="2" t="inlineStr"/>
-      <c r="P126" s="2" t="inlineStr"/>
+      <c r="D126" s="2" t="n"/>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
+      <c r="H126" s="2" t="n"/>
+      <c r="I126" s="2" t="n"/>
+      <c r="J126" s="2" t="n"/>
+      <c r="K126" s="2" t="n"/>
+      <c r="L126" s="2" t="n"/>
+      <c r="M126" s="2" t="n"/>
+      <c r="N126" s="2" t="n"/>
+      <c r="O126" s="2" t="n"/>
+      <c r="P126" s="2" t="n"/>
       <c r="Q126" s="2" t="inlineStr">
         <is>
           <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
-      <c r="R126" s="2" t="inlineStr"/>
-      <c r="S126" s="2" t="inlineStr"/>
+      <c r="R126" s="2" t="n"/>
+      <c r="S126" s="2" t="n"/>
       <c r="T126" s="2" t="inlineStr">
         <is>
           <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
-      <c r="U126" s="2" t="inlineStr"/>
-      <c r="V126" s="2" t="inlineStr"/>
-      <c r="W126" s="2" t="inlineStr"/>
+      <c r="U126" s="2" t="n"/>
+      <c r="V126" s="2" t="n"/>
+      <c r="W126" s="2" t="n"/>
       <c r="X126" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y126" s="2" t="inlineStr"/>
-      <c r="Z126" s="2" t="inlineStr"/>
+      <c r="Y126" s="2" t="n"/>
+      <c r="Z126" s="2" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
@@ -7566,37 +7531,37 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D127" s="2" t="inlineStr"/>
-      <c r="E127" s="2" t="inlineStr"/>
-      <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="inlineStr"/>
-      <c r="H127" s="2" t="inlineStr"/>
-      <c r="I127" s="2" t="inlineStr"/>
-      <c r="J127" s="2" t="inlineStr"/>
-      <c r="K127" s="2" t="inlineStr"/>
-      <c r="L127" s="2" t="inlineStr"/>
-      <c r="M127" s="2" t="inlineStr"/>
-      <c r="N127" s="2" t="inlineStr"/>
-      <c r="O127" s="2" t="inlineStr"/>
-      <c r="P127" s="2" t="inlineStr"/>
+      <c r="D127" s="2" t="n"/>
+      <c r="E127" s="2" t="n"/>
+      <c r="F127" s="2" t="n"/>
+      <c r="G127" s="2" t="n"/>
+      <c r="H127" s="2" t="n"/>
+      <c r="I127" s="2" t="n"/>
+      <c r="J127" s="2" t="n"/>
+      <c r="K127" s="2" t="n"/>
+      <c r="L127" s="2" t="n"/>
+      <c r="M127" s="2" t="n"/>
+      <c r="N127" s="2" t="n"/>
+      <c r="O127" s="2" t="n"/>
+      <c r="P127" s="2" t="n"/>
       <c r="Q127" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
-      <c r="R127" s="2" t="inlineStr"/>
-      <c r="S127" s="2" t="inlineStr"/>
-      <c r="T127" s="2" t="inlineStr"/>
-      <c r="U127" s="2" t="inlineStr"/>
-      <c r="V127" s="2" t="inlineStr"/>
-      <c r="W127" s="2" t="inlineStr"/>
+      <c r="R127" s="2" t="n"/>
+      <c r="S127" s="2" t="n"/>
+      <c r="T127" s="2" t="n"/>
+      <c r="U127" s="2" t="n"/>
+      <c r="V127" s="2" t="n"/>
+      <c r="W127" s="2" t="n"/>
       <c r="X127" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y127" s="2" t="inlineStr"/>
-      <c r="Z127" s="2" t="inlineStr"/>
+      <c r="Y127" s="2" t="n"/>
+      <c r="Z127" s="2" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
@@ -7614,45 +7579,45 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D128" s="2" t="inlineStr"/>
-      <c r="E128" s="2" t="inlineStr"/>
+      <c r="D128" s="2" t="n"/>
+      <c r="E128" s="2" t="n"/>
       <c r="F128" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G128" s="2" t="inlineStr"/>
-      <c r="H128" s="2" t="inlineStr"/>
-      <c r="I128" s="2" t="inlineStr"/>
-      <c r="J128" s="2" t="inlineStr"/>
-      <c r="K128" s="2" t="inlineStr"/>
-      <c r="L128" s="2" t="inlineStr"/>
-      <c r="M128" s="2" t="inlineStr"/>
-      <c r="N128" s="2" t="inlineStr"/>
-      <c r="O128" s="2" t="inlineStr"/>
-      <c r="P128" s="2" t="inlineStr"/>
+      <c r="G128" s="2" t="n"/>
+      <c r="H128" s="2" t="n"/>
+      <c r="I128" s="2" t="n"/>
+      <c r="J128" s="2" t="n"/>
+      <c r="K128" s="2" t="n"/>
+      <c r="L128" s="2" t="n"/>
+      <c r="M128" s="2" t="n"/>
+      <c r="N128" s="2" t="n"/>
+      <c r="O128" s="2" t="n"/>
+      <c r="P128" s="2" t="n"/>
       <c r="Q128" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
-      <c r="R128" s="2" t="inlineStr"/>
-      <c r="S128" s="2" t="inlineStr"/>
+      <c r="R128" s="2" t="n"/>
+      <c r="S128" s="2" t="n"/>
       <c r="T128" s="2" t="inlineStr">
         <is>
           <t>supervised</t>
         </is>
       </c>
-      <c r="U128" s="2" t="inlineStr"/>
-      <c r="V128" s="2" t="inlineStr"/>
-      <c r="W128" s="2" t="inlineStr"/>
+      <c r="U128" s="2" t="n"/>
+      <c r="V128" s="2" t="n"/>
+      <c r="W128" s="2" t="n"/>
       <c r="X128" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y128" s="2" t="inlineStr"/>
-      <c r="Z128" s="2" t="inlineStr"/>
+      <c r="Y128" s="2" t="n"/>
+      <c r="Z128" s="2" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
@@ -7670,41 +7635,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D129" s="2" t="inlineStr"/>
-      <c r="E129" s="2" t="inlineStr"/>
-      <c r="F129" s="2" t="inlineStr"/>
-      <c r="G129" s="2" t="inlineStr"/>
-      <c r="H129" s="2" t="inlineStr"/>
-      <c r="I129" s="2" t="inlineStr"/>
-      <c r="J129" s="2" t="inlineStr"/>
-      <c r="K129" s="2" t="inlineStr"/>
-      <c r="L129" s="2" t="inlineStr"/>
-      <c r="M129" s="2" t="inlineStr"/>
-      <c r="N129" s="2" t="inlineStr"/>
-      <c r="O129" s="2" t="inlineStr"/>
-      <c r="P129" s="2" t="inlineStr"/>
+      <c r="D129" s="2" t="n"/>
+      <c r="E129" s="2" t="n"/>
+      <c r="F129" s="2" t="n"/>
+      <c r="G129" s="2" t="n"/>
+      <c r="H129" s="2" t="n"/>
+      <c r="I129" s="2" t="n"/>
+      <c r="J129" s="2" t="n"/>
+      <c r="K129" s="2" t="n"/>
+      <c r="L129" s="2" t="n"/>
+      <c r="M129" s="2" t="n"/>
+      <c r="N129" s="2" t="n"/>
+      <c r="O129" s="2" t="n"/>
+      <c r="P129" s="2" t="n"/>
       <c r="Q129" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
         </is>
       </c>
-      <c r="R129" s="2" t="inlineStr"/>
-      <c r="S129" s="2" t="inlineStr"/>
+      <c r="R129" s="2" t="n"/>
+      <c r="S129" s="2" t="n"/>
       <c r="T129" s="2" t="inlineStr">
         <is>
           <t>source is highly physically active</t>
         </is>
       </c>
-      <c r="U129" s="2" t="inlineStr"/>
-      <c r="V129" s="2" t="inlineStr"/>
-      <c r="W129" s="2" t="inlineStr"/>
+      <c r="U129" s="2" t="n"/>
+      <c r="V129" s="2" t="n"/>
+      <c r="W129" s="2" t="n"/>
       <c r="X129" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y129" s="2" t="inlineStr"/>
-      <c r="Z129" s="2" t="inlineStr"/>
+      <c r="Y129" s="2" t="n"/>
+      <c r="Z129" s="2" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
@@ -7722,19 +7687,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D130" s="2" t="inlineStr"/>
-      <c r="E130" s="2" t="inlineStr"/>
-      <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr"/>
-      <c r="H130" s="2" t="inlineStr"/>
-      <c r="I130" s="2" t="inlineStr"/>
-      <c r="J130" s="2" t="inlineStr"/>
-      <c r="K130" s="2" t="inlineStr"/>
-      <c r="L130" s="2" t="inlineStr"/>
-      <c r="M130" s="2" t="inlineStr"/>
-      <c r="N130" s="2" t="inlineStr"/>
-      <c r="O130" s="2" t="inlineStr"/>
-      <c r="P130" s="2" t="inlineStr"/>
+      <c r="D130" s="2" t="n"/>
+      <c r="E130" s="2" t="n"/>
+      <c r="F130" s="2" t="n"/>
+      <c r="G130" s="2" t="n"/>
+      <c r="H130" s="2" t="n"/>
+      <c r="I130" s="2" t="n"/>
+      <c r="J130" s="2" t="n"/>
+      <c r="K130" s="2" t="n"/>
+      <c r="L130" s="2" t="n"/>
+      <c r="M130" s="2" t="n"/>
+      <c r="N130" s="2" t="n"/>
+      <c r="O130" s="2" t="n"/>
+      <c r="P130" s="2" t="n"/>
       <c r="Q130" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
@@ -7755,16 +7720,16 @@
           <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
-      <c r="U130" s="2" t="inlineStr"/>
-      <c r="V130" s="2" t="inlineStr"/>
-      <c r="W130" s="2" t="inlineStr"/>
+      <c r="U130" s="2" t="n"/>
+      <c r="V130" s="2" t="n"/>
+      <c r="W130" s="2" t="n"/>
       <c r="X130" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y130" s="2" t="inlineStr"/>
-      <c r="Z130" s="2" t="inlineStr"/>
+      <c r="Y130" s="2" t="n"/>
+      <c r="Z130" s="2" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
@@ -7782,19 +7747,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D131" s="2" t="inlineStr"/>
-      <c r="E131" s="2" t="inlineStr"/>
-      <c r="F131" s="2" t="inlineStr"/>
-      <c r="G131" s="2" t="inlineStr"/>
-      <c r="H131" s="2" t="inlineStr"/>
-      <c r="I131" s="2" t="inlineStr"/>
-      <c r="J131" s="2" t="inlineStr"/>
-      <c r="K131" s="2" t="inlineStr"/>
-      <c r="L131" s="2" t="inlineStr"/>
-      <c r="M131" s="2" t="inlineStr"/>
-      <c r="N131" s="2" t="inlineStr"/>
-      <c r="O131" s="2" t="inlineStr"/>
-      <c r="P131" s="2" t="inlineStr"/>
+      <c r="D131" s="2" t="n"/>
+      <c r="E131" s="2" t="n"/>
+      <c r="F131" s="2" t="n"/>
+      <c r="G131" s="2" t="n"/>
+      <c r="H131" s="2" t="n"/>
+      <c r="I131" s="2" t="n"/>
+      <c r="J131" s="2" t="n"/>
+      <c r="K131" s="2" t="n"/>
+      <c r="L131" s="2" t="n"/>
+      <c r="M131" s="2" t="n"/>
+      <c r="N131" s="2" t="n"/>
+      <c r="O131" s="2" t="n"/>
+      <c r="P131" s="2" t="n"/>
       <c r="Q131" s="2" t="inlineStr">
         <is>
           <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
@@ -7815,8 +7780,8 @@
           <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
-      <c r="U131" s="2" t="inlineStr"/>
-      <c r="V131" s="2" t="inlineStr"/>
+      <c r="U131" s="2" t="n"/>
+      <c r="V131" s="2" t="n"/>
       <c r="W131" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -7827,8 +7792,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y131" s="2" t="inlineStr"/>
-      <c r="Z131" s="2" t="inlineStr"/>
+      <c r="Y131" s="2" t="n"/>
+      <c r="Z131" s="2" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
@@ -7846,19 +7811,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D132" s="2" t="inlineStr"/>
-      <c r="E132" s="2" t="inlineStr"/>
-      <c r="F132" s="2" t="inlineStr"/>
-      <c r="G132" s="2" t="inlineStr"/>
-      <c r="H132" s="2" t="inlineStr"/>
-      <c r="I132" s="2" t="inlineStr"/>
-      <c r="J132" s="2" t="inlineStr"/>
-      <c r="K132" s="2" t="inlineStr"/>
-      <c r="L132" s="2" t="inlineStr"/>
-      <c r="M132" s="2" t="inlineStr"/>
-      <c r="N132" s="2" t="inlineStr"/>
-      <c r="O132" s="2" t="inlineStr"/>
-      <c r="P132" s="2" t="inlineStr"/>
+      <c r="D132" s="2" t="n"/>
+      <c r="E132" s="2" t="n"/>
+      <c r="F132" s="2" t="n"/>
+      <c r="G132" s="2" t="n"/>
+      <c r="H132" s="2" t="n"/>
+      <c r="I132" s="2" t="n"/>
+      <c r="J132" s="2" t="n"/>
+      <c r="K132" s="2" t="n"/>
+      <c r="L132" s="2" t="n"/>
+      <c r="M132" s="2" t="n"/>
+      <c r="N132" s="2" t="n"/>
+      <c r="O132" s="2" t="n"/>
+      <c r="P132" s="2" t="n"/>
       <c r="Q132" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations. </t>
@@ -7874,17 +7839,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T132" s="2" t="inlineStr"/>
-      <c r="U132" s="2" t="inlineStr"/>
-      <c r="V132" s="2" t="inlineStr"/>
-      <c r="W132" s="2" t="inlineStr"/>
+      <c r="T132" s="2" t="n"/>
+      <c r="U132" s="2" t="n"/>
+      <c r="V132" s="2" t="n"/>
+      <c r="W132" s="2" t="n"/>
       <c r="X132" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y132" s="2" t="inlineStr"/>
-      <c r="Z132" s="2" t="inlineStr"/>
+      <c r="Y132" s="2" t="n"/>
+      <c r="Z132" s="2" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
@@ -7902,41 +7867,41 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D133" s="2" t="inlineStr"/>
-      <c r="E133" s="2" t="inlineStr"/>
-      <c r="F133" s="2" t="inlineStr"/>
-      <c r="G133" s="2" t="inlineStr"/>
-      <c r="H133" s="2" t="inlineStr"/>
-      <c r="I133" s="2" t="inlineStr"/>
-      <c r="J133" s="2" t="inlineStr"/>
-      <c r="K133" s="2" t="inlineStr"/>
-      <c r="L133" s="2" t="inlineStr"/>
-      <c r="M133" s="2" t="inlineStr"/>
-      <c r="N133" s="2" t="inlineStr"/>
+      <c r="D133" s="2" t="n"/>
+      <c r="E133" s="2" t="n"/>
+      <c r="F133" s="2" t="n"/>
+      <c r="G133" s="2" t="n"/>
+      <c r="H133" s="2" t="n"/>
+      <c r="I133" s="2" t="n"/>
+      <c r="J133" s="2" t="n"/>
+      <c r="K133" s="2" t="n"/>
+      <c r="L133" s="2" t="n"/>
+      <c r="M133" s="2" t="n"/>
+      <c r="N133" s="2" t="n"/>
       <c r="O133" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="P133" s="2" t="inlineStr"/>
+      <c r="P133" s="2" t="n"/>
       <c r="Q133" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A count data item that is the total number of providers that are available and able to deliver the intervention. </t>
         </is>
       </c>
-      <c r="R133" s="2" t="inlineStr"/>
-      <c r="S133" s="2" t="inlineStr"/>
-      <c r="T133" s="2" t="inlineStr"/>
-      <c r="U133" s="2" t="inlineStr"/>
-      <c r="V133" s="2" t="inlineStr"/>
-      <c r="W133" s="2" t="inlineStr"/>
+      <c r="R133" s="2" t="n"/>
+      <c r="S133" s="2" t="n"/>
+      <c r="T133" s="2" t="n"/>
+      <c r="U133" s="2" t="n"/>
+      <c r="V133" s="2" t="n"/>
+      <c r="W133" s="2" t="n"/>
       <c r="X133" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y133" s="2" t="inlineStr"/>
-      <c r="Z133" s="2" t="inlineStr"/>
+      <c r="Y133" s="2" t="n"/>
+      <c r="Z133" s="2" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
@@ -7954,19 +7919,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D134" s="2" t="inlineStr"/>
-      <c r="E134" s="2" t="inlineStr"/>
-      <c r="F134" s="2" t="inlineStr"/>
-      <c r="G134" s="2" t="inlineStr"/>
-      <c r="H134" s="2" t="inlineStr"/>
-      <c r="I134" s="2" t="inlineStr"/>
-      <c r="J134" s="2" t="inlineStr"/>
-      <c r="K134" s="2" t="inlineStr"/>
-      <c r="L134" s="2" t="inlineStr"/>
-      <c r="M134" s="2" t="inlineStr"/>
-      <c r="N134" s="2" t="inlineStr"/>
-      <c r="O134" s="2" t="inlineStr"/>
-      <c r="P134" s="2" t="inlineStr"/>
+      <c r="D134" s="2" t="n"/>
+      <c r="E134" s="2" t="n"/>
+      <c r="F134" s="2" t="n"/>
+      <c r="G134" s="2" t="n"/>
+      <c r="H134" s="2" t="n"/>
+      <c r="I134" s="2" t="n"/>
+      <c r="J134" s="2" t="n"/>
+      <c r="K134" s="2" t="n"/>
+      <c r="L134" s="2" t="n"/>
+      <c r="M134" s="2" t="n"/>
+      <c r="N134" s="2" t="n"/>
+      <c r="O134" s="2" t="n"/>
+      <c r="P134" s="2" t="n"/>
       <c r="Q134" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional. </t>
@@ -7987,16 +7952,16 @@
           <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
-      <c r="U134" s="2" t="inlineStr"/>
-      <c r="V134" s="2" t="inlineStr"/>
-      <c r="W134" s="2" t="inlineStr"/>
+      <c r="U134" s="2" t="n"/>
+      <c r="V134" s="2" t="n"/>
+      <c r="W134" s="2" t="n"/>
       <c r="X134" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y134" s="2" t="inlineStr"/>
-      <c r="Z134" s="2" t="inlineStr"/>
+      <c r="Y134" s="2" t="n"/>
+      <c r="Z134" s="2" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
@@ -8014,19 +7979,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D135" s="2" t="inlineStr"/>
-      <c r="E135" s="2" t="inlineStr"/>
-      <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr"/>
-      <c r="H135" s="2" t="inlineStr"/>
-      <c r="I135" s="2" t="inlineStr"/>
-      <c r="J135" s="2" t="inlineStr"/>
-      <c r="K135" s="2" t="inlineStr"/>
-      <c r="L135" s="2" t="inlineStr"/>
-      <c r="M135" s="2" t="inlineStr"/>
-      <c r="N135" s="2" t="inlineStr"/>
-      <c r="O135" s="2" t="inlineStr"/>
-      <c r="P135" s="2" t="inlineStr"/>
+      <c r="D135" s="2" t="n"/>
+      <c r="E135" s="2" t="n"/>
+      <c r="F135" s="2" t="n"/>
+      <c r="G135" s="2" t="n"/>
+      <c r="H135" s="2" t="n"/>
+      <c r="I135" s="2" t="n"/>
+      <c r="J135" s="2" t="n"/>
+      <c r="K135" s="2" t="n"/>
+      <c r="L135" s="2" t="n"/>
+      <c r="M135" s="2" t="n"/>
+      <c r="N135" s="2" t="n"/>
+      <c r="O135" s="2" t="n"/>
+      <c r="P135" s="2" t="n"/>
       <c r="Q135" s="2" t="inlineStr">
         <is>
           <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
@@ -8047,16 +8012,16 @@
           <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
-      <c r="U135" s="2" t="inlineStr"/>
-      <c r="V135" s="2" t="inlineStr"/>
-      <c r="W135" s="2" t="inlineStr"/>
+      <c r="U135" s="2" t="n"/>
+      <c r="V135" s="2" t="n"/>
+      <c r="W135" s="2" t="n"/>
       <c r="X135" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y135" s="2" t="inlineStr"/>
-      <c r="Z135" s="2" t="inlineStr"/>
+      <c r="Y135" s="2" t="n"/>
+      <c r="Z135" s="2" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
@@ -8074,41 +8039,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D136" s="2" t="inlineStr"/>
-      <c r="E136" s="2" t="inlineStr"/>
-      <c r="F136" s="2" t="inlineStr"/>
-      <c r="G136" s="2" t="inlineStr"/>
-      <c r="H136" s="2" t="inlineStr"/>
-      <c r="I136" s="2" t="inlineStr"/>
-      <c r="J136" s="2" t="inlineStr"/>
-      <c r="K136" s="2" t="inlineStr"/>
-      <c r="L136" s="2" t="inlineStr"/>
-      <c r="M136" s="2" t="inlineStr"/>
-      <c r="N136" s="2" t="inlineStr"/>
-      <c r="O136" s="2" t="inlineStr"/>
-      <c r="P136" s="2" t="inlineStr"/>
+      <c r="D136" s="2" t="n"/>
+      <c r="E136" s="2" t="n"/>
+      <c r="F136" s="2" t="n"/>
+      <c r="G136" s="2" t="n"/>
+      <c r="H136" s="2" t="n"/>
+      <c r="I136" s="2" t="n"/>
+      <c r="J136" s="2" t="n"/>
+      <c r="K136" s="2" t="n"/>
+      <c r="L136" s="2" t="n"/>
+      <c r="M136" s="2" t="n"/>
+      <c r="N136" s="2" t="n"/>
+      <c r="O136" s="2" t="n"/>
+      <c r="P136" s="2" t="n"/>
       <c r="Q136" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
-      <c r="R136" s="2" t="inlineStr"/>
-      <c r="S136" s="2" t="inlineStr"/>
+      <c r="R136" s="2" t="n"/>
+      <c r="S136" s="2" t="n"/>
       <c r="T136" s="2" t="inlineStr">
         <is>
           <t>undergraduate student</t>
         </is>
       </c>
-      <c r="U136" s="2" t="inlineStr"/>
-      <c r="V136" s="2" t="inlineStr"/>
-      <c r="W136" s="2" t="inlineStr"/>
+      <c r="U136" s="2" t="n"/>
+      <c r="V136" s="2" t="n"/>
+      <c r="W136" s="2" t="n"/>
       <c r="X136" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y136" s="2" t="inlineStr"/>
-      <c r="Z136" s="2" t="inlineStr"/>
+      <c r="Y136" s="2" t="n"/>
+      <c r="Z136" s="2" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
@@ -8127,19 +8092,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D137" s="2" t="inlineStr"/>
-      <c r="E137" s="2" t="inlineStr"/>
-      <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr"/>
-      <c r="H137" s="2" t="inlineStr"/>
-      <c r="I137" s="2" t="inlineStr"/>
-      <c r="J137" s="2" t="inlineStr"/>
-      <c r="K137" s="2" t="inlineStr"/>
-      <c r="L137" s="2" t="inlineStr"/>
-      <c r="M137" s="2" t="inlineStr"/>
-      <c r="N137" s="2" t="inlineStr"/>
-      <c r="O137" s="2" t="inlineStr"/>
-      <c r="P137" s="2" t="inlineStr"/>
+      <c r="D137" s="2" t="n"/>
+      <c r="E137" s="2" t="n"/>
+      <c r="F137" s="2" t="n"/>
+      <c r="G137" s="2" t="n"/>
+      <c r="H137" s="2" t="n"/>
+      <c r="I137" s="2" t="n"/>
+      <c r="J137" s="2" t="n"/>
+      <c r="K137" s="2" t="n"/>
+      <c r="L137" s="2" t="n"/>
+      <c r="M137" s="2" t="n"/>
+      <c r="N137" s="2" t="n"/>
+      <c r="O137" s="2" t="n"/>
+      <c r="P137" s="2" t="n"/>
       <c r="Q137" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
@@ -8160,16 +8125,16 @@
           <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
-      <c r="U137" s="2" t="inlineStr"/>
-      <c r="V137" s="2" t="inlineStr"/>
-      <c r="W137" s="2" t="inlineStr"/>
+      <c r="U137" s="2" t="n"/>
+      <c r="V137" s="2" t="n"/>
+      <c r="W137" s="2" t="n"/>
       <c r="X137" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y137" s="2" t="inlineStr"/>
-      <c r="Z137" s="2" t="inlineStr"/>
+      <c r="Y137" s="2" t="n"/>
+      <c r="Z137" s="2" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
@@ -8187,19 +8152,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D138" s="2" t="inlineStr"/>
-      <c r="E138" s="2" t="inlineStr"/>
-      <c r="F138" s="2" t="inlineStr"/>
-      <c r="G138" s="2" t="inlineStr"/>
-      <c r="H138" s="2" t="inlineStr"/>
-      <c r="I138" s="2" t="inlineStr"/>
-      <c r="J138" s="2" t="inlineStr"/>
-      <c r="K138" s="2" t="inlineStr"/>
-      <c r="L138" s="2" t="inlineStr"/>
-      <c r="M138" s="2" t="inlineStr"/>
-      <c r="N138" s="2" t="inlineStr"/>
-      <c r="O138" s="2" t="inlineStr"/>
-      <c r="P138" s="2" t="inlineStr"/>
+      <c r="D138" s="2" t="n"/>
+      <c r="E138" s="2" t="n"/>
+      <c r="F138" s="2" t="n"/>
+      <c r="G138" s="2" t="n"/>
+      <c r="H138" s="2" t="n"/>
+      <c r="I138" s="2" t="n"/>
+      <c r="J138" s="2" t="n"/>
+      <c r="K138" s="2" t="n"/>
+      <c r="L138" s="2" t="n"/>
+      <c r="M138" s="2" t="n"/>
+      <c r="N138" s="2" t="n"/>
+      <c r="O138" s="2" t="n"/>
+      <c r="P138" s="2" t="n"/>
       <c r="Q138" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals. </t>
@@ -8220,16 +8185,16 @@
           <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
-      <c r="U138" s="2" t="inlineStr"/>
-      <c r="V138" s="2" t="inlineStr"/>
-      <c r="W138" s="2" t="inlineStr"/>
+      <c r="U138" s="2" t="n"/>
+      <c r="V138" s="2" t="n"/>
+      <c r="W138" s="2" t="n"/>
       <c r="X138" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y138" s="2" t="inlineStr"/>
-      <c r="Z138" s="2" t="inlineStr"/>
+      <c r="Y138" s="2" t="n"/>
+      <c r="Z138" s="2" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
@@ -8247,19 +8212,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D139" s="2" t="inlineStr"/>
-      <c r="E139" s="2" t="inlineStr"/>
-      <c r="F139" s="2" t="inlineStr"/>
-      <c r="G139" s="2" t="inlineStr"/>
-      <c r="H139" s="2" t="inlineStr"/>
-      <c r="I139" s="2" t="inlineStr"/>
-      <c r="J139" s="2" t="inlineStr"/>
-      <c r="K139" s="2" t="inlineStr"/>
-      <c r="L139" s="2" t="inlineStr"/>
-      <c r="M139" s="2" t="inlineStr"/>
-      <c r="N139" s="2" t="inlineStr"/>
-      <c r="O139" s="2" t="inlineStr"/>
-      <c r="P139" s="2" t="inlineStr"/>
+      <c r="D139" s="2" t="n"/>
+      <c r="E139" s="2" t="n"/>
+      <c r="F139" s="2" t="n"/>
+      <c r="G139" s="2" t="n"/>
+      <c r="H139" s="2" t="n"/>
+      <c r="I139" s="2" t="n"/>
+      <c r="J139" s="2" t="n"/>
+      <c r="K139" s="2" t="n"/>
+      <c r="L139" s="2" t="n"/>
+      <c r="M139" s="2" t="n"/>
+      <c r="N139" s="2" t="n"/>
+      <c r="O139" s="2" t="n"/>
+      <c r="P139" s="2" t="n"/>
       <c r="Q139" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges. </t>
@@ -8280,16 +8245,16 @@
           <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
-      <c r="U139" s="2" t="inlineStr"/>
-      <c r="V139" s="2" t="inlineStr"/>
-      <c r="W139" s="2" t="inlineStr"/>
+      <c r="U139" s="2" t="n"/>
+      <c r="V139" s="2" t="n"/>
+      <c r="W139" s="2" t="n"/>
       <c r="X139" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y139" s="2" t="inlineStr"/>
-      <c r="Z139" s="2" t="inlineStr"/>
+      <c r="Y139" s="2" t="n"/>
+      <c r="Z139" s="2" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
@@ -8307,37 +8272,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D140" s="2" t="inlineStr"/>
-      <c r="E140" s="2" t="inlineStr"/>
-      <c r="F140" s="2" t="inlineStr"/>
-      <c r="G140" s="2" t="inlineStr"/>
-      <c r="H140" s="2" t="inlineStr"/>
-      <c r="I140" s="2" t="inlineStr"/>
-      <c r="J140" s="2" t="inlineStr"/>
-      <c r="K140" s="2" t="inlineStr"/>
-      <c r="L140" s="2" t="inlineStr"/>
-      <c r="M140" s="2" t="inlineStr"/>
-      <c r="N140" s="2" t="inlineStr"/>
-      <c r="O140" s="2" t="inlineStr"/>
-      <c r="P140" s="2" t="inlineStr"/>
+      <c r="D140" s="2" t="n"/>
+      <c r="E140" s="2" t="n"/>
+      <c r="F140" s="2" t="n"/>
+      <c r="G140" s="2" t="n"/>
+      <c r="H140" s="2" t="n"/>
+      <c r="I140" s="2" t="n"/>
+      <c r="J140" s="2" t="n"/>
+      <c r="K140" s="2" t="n"/>
+      <c r="L140" s="2" t="n"/>
+      <c r="M140" s="2" t="n"/>
+      <c r="N140" s="2" t="n"/>
+      <c r="O140" s="2" t="n"/>
+      <c r="P140" s="2" t="n"/>
       <c r="Q140" s="2" t="inlineStr">
         <is>
           <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
-      <c r="R140" s="2" t="inlineStr"/>
-      <c r="S140" s="2" t="inlineStr"/>
-      <c r="T140" s="2" t="inlineStr"/>
-      <c r="U140" s="2" t="inlineStr"/>
-      <c r="V140" s="2" t="inlineStr"/>
-      <c r="W140" s="2" t="inlineStr"/>
+      <c r="R140" s="2" t="n"/>
+      <c r="S140" s="2" t="n"/>
+      <c r="T140" s="2" t="n"/>
+      <c r="U140" s="2" t="n"/>
+      <c r="V140" s="2" t="n"/>
+      <c r="W140" s="2" t="n"/>
       <c r="X140" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y140" s="2" t="inlineStr"/>
-      <c r="Z140" s="2" t="inlineStr"/>
+      <c r="Y140" s="2" t="n"/>
+      <c r="Z140" s="2" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
@@ -8355,45 +8320,45 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D141" s="2" t="inlineStr"/>
-      <c r="E141" s="2" t="inlineStr"/>
+      <c r="D141" s="2" t="n"/>
+      <c r="E141" s="2" t="n"/>
       <c r="F141" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G141" s="2" t="inlineStr"/>
-      <c r="H141" s="2" t="inlineStr"/>
-      <c r="I141" s="2" t="inlineStr"/>
-      <c r="J141" s="2" t="inlineStr"/>
-      <c r="K141" s="2" t="inlineStr"/>
-      <c r="L141" s="2" t="inlineStr"/>
-      <c r="M141" s="2" t="inlineStr"/>
-      <c r="N141" s="2" t="inlineStr"/>
-      <c r="O141" s="2" t="inlineStr"/>
-      <c r="P141" s="2" t="inlineStr"/>
+      <c r="G141" s="2" t="n"/>
+      <c r="H141" s="2" t="n"/>
+      <c r="I141" s="2" t="n"/>
+      <c r="J141" s="2" t="n"/>
+      <c r="K141" s="2" t="n"/>
+      <c r="L141" s="2" t="n"/>
+      <c r="M141" s="2" t="n"/>
+      <c r="N141" s="2" t="n"/>
+      <c r="O141" s="2" t="n"/>
+      <c r="P141" s="2" t="n"/>
       <c r="Q141" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
-      <c r="R141" s="2" t="inlineStr"/>
-      <c r="S141" s="2" t="inlineStr"/>
+      <c r="R141" s="2" t="n"/>
+      <c r="S141" s="2" t="n"/>
       <c r="T141" s="2" t="inlineStr">
         <is>
           <t>voluntary basis, volunteering</t>
         </is>
       </c>
-      <c r="U141" s="2" t="inlineStr"/>
-      <c r="V141" s="2" t="inlineStr"/>
-      <c r="W141" s="2" t="inlineStr"/>
+      <c r="U141" s="2" t="n"/>
+      <c r="V141" s="2" t="n"/>
+      <c r="W141" s="2" t="n"/>
       <c r="X141" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y141" s="2" t="inlineStr"/>
-      <c r="Z141" s="2" t="inlineStr"/>
+      <c r="Y141" s="2" t="n"/>
+      <c r="Z141" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -585,28 +585,28 @@
           <t>test5andtest6</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="n"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
       <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -617,8 +617,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y2" s="2" t="n"/>
-      <c r="Z2" s="2" t="n"/>
+      <c r="Y2" s="2" t="inlineStr"/>
+      <c r="Z2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -641,37 +641,28 @@
           <t>test4</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>test7</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">test8and
-</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
       <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>A knowledge or skill that is additional knowledge or skills supplied to the source to allow them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -682,8 +673,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y3" s="2" t="n"/>
-      <c r="Z3" s="2" t="n"/>
+      <c r="Y3" s="2" t="inlineStr"/>
+      <c r="Z3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -701,41 +692,41 @@
           <t>pre-existing knowledge or skill</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="n"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
       <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>A pre-existing knowledge or skill that is recognised through affiliation to a formal group or organisation.</t>
         </is>
       </c>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
           <t>member of British Psychological Society</t>
         </is>
       </c>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
-      <c r="W4" s="2" t="n"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
+      <c r="W4" s="2" t="inlineStr"/>
       <c r="X4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y4" s="2" t="n"/>
-      <c r="Z4" s="2" t="n"/>
+      <c r="Y4" s="2" t="inlineStr"/>
+      <c r="Z4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -753,37 +744,37 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
       <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is a time quality inhering in a bearer by virtue of how long the bearer has existed.</t>
         </is>
       </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="n"/>
-      <c r="W5" s="2" t="n"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr"/>
+      <c r="W5" s="2" t="inlineStr"/>
       <c r="X5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y5" s="2" t="n"/>
-      <c r="Z5" s="2" t="n"/>
+      <c r="Y5" s="2" t="inlineStr"/>
+      <c r="Z5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -801,19 +792,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="n"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
@@ -834,16 +825,16 @@
           <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
         </is>
       </c>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
-      <c r="W6" s="2" t="n"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr"/>
       <c r="X6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y6" s="2" t="n"/>
-      <c r="Z6" s="2" t="n"/>
+      <c r="Y6" s="2" t="inlineStr"/>
+      <c r="Z6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -861,45 +852,45 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr">
         <is>
           <t>knowledge or skill</t>
         </is>
       </c>
-      <c r="P7" s="2" t="n"/>
+      <c r="P7" s="2" t="inlineStr"/>
       <c r="Q7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A knowledge or skill that is the duration of experience in related domain held by person source. </t>
         </is>
       </c>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
+      <c r="R7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
           <t>full-day, 6 years</t>
         </is>
       </c>
-      <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="n"/>
-      <c r="W7" s="2" t="n"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr"/>
+      <c r="W7" s="2" t="inlineStr"/>
       <c r="X7" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y7" s="2" t="n"/>
-      <c r="Z7" s="2" t="n"/>
+      <c r="Y7" s="2" t="inlineStr"/>
+      <c r="Z7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -917,19 +908,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
-      <c r="P8" s="2" t="n"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that includes all jobs held by members of the armed forces. </t>
@@ -950,16 +941,16 @@
           <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
-      <c r="U8" s="2" t="n"/>
-      <c r="V8" s="2" t="n"/>
-      <c r="W8" s="2" t="n"/>
+      <c r="U8" s="2" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr"/>
+      <c r="W8" s="2" t="inlineStr"/>
       <c r="X8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y8" s="2" t="n"/>
-      <c r="Z8" s="2" t="n"/>
+      <c r="Y8" s="2" t="inlineStr"/>
+      <c r="Z8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -977,19 +968,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
@@ -1010,16 +1001,16 @@
           <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
-      <c r="U9" s="2" t="n"/>
-      <c r="V9" s="2" t="n"/>
-      <c r="W9" s="2" t="n"/>
+      <c r="U9" s="2" t="inlineStr"/>
+      <c r="V9" s="2" t="inlineStr"/>
+      <c r="W9" s="2" t="inlineStr"/>
       <c r="X9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y9" s="2" t="n"/>
-      <c r="Z9" s="2" t="n"/>
+      <c r="Y9" s="2" t="inlineStr"/>
+      <c r="Z9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1037,19 +1028,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="n"/>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
@@ -1070,16 +1061,16 @@
           <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
-      <c r="U10" s="2" t="n"/>
-      <c r="V10" s="2" t="n"/>
-      <c r="W10" s="2" t="n"/>
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr"/>
+      <c r="W10" s="2" t="inlineStr"/>
       <c r="X10" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y10" s="2" t="n"/>
-      <c r="Z10" s="2" t="n"/>
+      <c r="Y10" s="2" t="inlineStr"/>
+      <c r="Z10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1097,19 +1088,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
@@ -1125,17 +1116,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
-      <c r="W11" s="2" t="n"/>
+      <c r="T11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr"/>
+      <c r="W11" s="2" t="inlineStr"/>
       <c r="X11" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y11" s="2" t="n"/>
-      <c r="Z11" s="2" t="n"/>
+      <c r="Y11" s="2" t="inlineStr"/>
+      <c r="Z11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1153,19 +1144,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="n"/>
-      <c r="P12" s="2" t="n"/>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
@@ -1186,16 +1177,16 @@
           <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
         </is>
       </c>
-      <c r="U12" s="2" t="n"/>
-      <c r="V12" s="2" t="n"/>
-      <c r="W12" s="2" t="n"/>
+      <c r="U12" s="2" t="inlineStr"/>
+      <c r="V12" s="2" t="inlineStr"/>
+      <c r="W12" s="2" t="inlineStr"/>
       <c r="X12" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y12" s="2" t="n"/>
-      <c r="Z12" s="2" t="n"/>
+      <c r="Y12" s="2" t="inlineStr"/>
+      <c r="Z12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1213,19 +1204,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing. </t>
@@ -1246,16 +1237,16 @@
           <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
-      <c r="U13" s="2" t="n"/>
-      <c r="V13" s="2" t="n"/>
-      <c r="W13" s="2" t="n"/>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr"/>
+      <c r="W13" s="2" t="inlineStr"/>
       <c r="X13" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y13" s="2" t="n"/>
-      <c r="Z13" s="2" t="n"/>
+      <c r="Y13" s="2" t="inlineStr"/>
+      <c r="Z13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1273,19 +1264,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="n"/>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr"/>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
@@ -1306,16 +1297,16 @@
           <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
-      <c r="U14" s="2" t="n"/>
-      <c r="V14" s="2" t="n"/>
-      <c r="W14" s="2" t="n"/>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr"/>
+      <c r="W14" s="2" t="inlineStr"/>
       <c r="X14" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y14" s="2" t="n"/>
-      <c r="Z14" s="2" t="n"/>
+      <c r="Y14" s="2" t="inlineStr"/>
+      <c r="Z14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1333,19 +1324,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
-      <c r="P15" s="2" t="n"/>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr"/>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
@@ -1366,16 +1357,16 @@
           <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
-      <c r="U15" s="2" t="n"/>
-      <c r="V15" s="2" t="n"/>
-      <c r="W15" s="2" t="n"/>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr"/>
+      <c r="W15" s="2" t="inlineStr"/>
       <c r="X15" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y15" s="2" t="n"/>
-      <c r="Z15" s="2" t="n"/>
+      <c r="Y15" s="2" t="inlineStr"/>
+      <c r="Z15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1393,41 +1384,41 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
-      <c r="P16" s="2" t="n"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr"/>
       <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>carer</t>
         </is>
       </c>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="n"/>
-      <c r="W16" s="2" t="n"/>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr"/>
+      <c r="W16" s="2" t="inlineStr"/>
       <c r="X16" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y16" s="2" t="n"/>
-      <c r="Z16" s="2" t="n"/>
+      <c r="Y16" s="2" t="inlineStr"/>
+      <c r="Z16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1445,19 +1436,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
-      <c r="P17" s="2" t="n"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr"/>
       <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
@@ -1478,16 +1469,16 @@
           <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
-      <c r="U17" s="2" t="n"/>
-      <c r="V17" s="2" t="n"/>
-      <c r="W17" s="2" t="n"/>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr"/>
+      <c r="W17" s="2" t="inlineStr"/>
       <c r="X17" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y17" s="2" t="n"/>
-      <c r="Z17" s="2" t="n"/>
+      <c r="Y17" s="2" t="inlineStr"/>
+      <c r="Z17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1505,41 +1496,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr"/>
       <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>A family member that is an offspring relationship from a person to their parent.</t>
         </is>
       </c>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
-      <c r="W18" s="2" t="n"/>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
+      <c r="W18" s="2" t="inlineStr"/>
       <c r="X18" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y18" s="2" t="n"/>
-      <c r="Z18" s="2" t="n"/>
+      <c r="Y18" s="2" t="inlineStr"/>
+      <c r="Z18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1557,19 +1548,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
-      <c r="P19" s="2" t="n"/>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr"/>
       <c r="Q19" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments. </t>
@@ -1590,16 +1581,16 @@
           <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="n"/>
-      <c r="W19" s="2" t="n"/>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr"/>
       <c r="X19" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y19" s="2" t="n"/>
-      <c r="Z19" s="2" t="n"/>
+      <c r="Y19" s="2" t="inlineStr"/>
+      <c r="Z19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1617,37 +1608,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
-      <c r="P20" s="2" t="n"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr"/>
       <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
         </is>
       </c>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="n"/>
-      <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="n"/>
-      <c r="W20" s="2" t="n"/>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr"/>
+      <c r="W20" s="2" t="inlineStr"/>
       <c r="X20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y20" s="2" t="n"/>
-      <c r="Z20" s="2" t="n"/>
+      <c r="Y20" s="2" t="inlineStr"/>
+      <c r="Z20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1665,19 +1656,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
-      <c r="P21" s="2" t="n"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr"/>
       <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
@@ -1698,16 +1689,16 @@
           <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
         </is>
       </c>
-      <c r="U21" s="2" t="n"/>
-      <c r="V21" s="2" t="n"/>
-      <c r="W21" s="2" t="n"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr"/>
+      <c r="W21" s="2" t="inlineStr"/>
       <c r="X21" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y21" s="2" t="n"/>
-      <c r="Z21" s="2" t="n"/>
+      <c r="Y21" s="2" t="inlineStr"/>
+      <c r="Z21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1725,19 +1716,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="n"/>
-      <c r="O22" s="2" t="n"/>
-      <c r="P22" s="2" t="n"/>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr"/>
       <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
@@ -1758,16 +1749,16 @@
           <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
-      <c r="U22" s="2" t="n"/>
-      <c r="V22" s="2" t="n"/>
-      <c r="W22" s="2" t="n"/>
+      <c r="U22" s="2" t="inlineStr"/>
+      <c r="V22" s="2" t="inlineStr"/>
+      <c r="W22" s="2" t="inlineStr"/>
       <c r="X22" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y22" s="2" t="n"/>
-      <c r="Z22" s="2" t="n"/>
+      <c r="Y22" s="2" t="inlineStr"/>
+      <c r="Z22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1785,19 +1776,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="n"/>
-      <c r="P23" s="2" t="n"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr"/>
       <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
@@ -1818,16 +1809,16 @@
           <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
-      <c r="U23" s="2" t="n"/>
-      <c r="V23" s="2" t="n"/>
-      <c r="W23" s="2" t="n"/>
+      <c r="U23" s="2" t="inlineStr"/>
+      <c r="V23" s="2" t="inlineStr"/>
+      <c r="W23" s="2" t="inlineStr"/>
       <c r="X23" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y23" s="2" t="n"/>
-      <c r="Z23" s="2" t="n"/>
+      <c r="Y23" s="2" t="inlineStr"/>
+      <c r="Z23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1845,19 +1836,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="n"/>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr"/>
       <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
@@ -1878,16 +1869,16 @@
           <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
-      <c r="U24" s="2" t="n"/>
-      <c r="V24" s="2" t="n"/>
-      <c r="W24" s="2" t="n"/>
+      <c r="U24" s="2" t="inlineStr"/>
+      <c r="V24" s="2" t="inlineStr"/>
+      <c r="W24" s="2" t="inlineStr"/>
       <c r="X24" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y24" s="2" t="n"/>
-      <c r="Z24" s="2" t="n"/>
+      <c r="Y24" s="2" t="inlineStr"/>
+      <c r="Z24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1905,19 +1896,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
-      <c r="P25" s="2" t="n"/>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
       <c r="Q25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry. </t>
@@ -1938,16 +1929,16 @@
           <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
-      <c r="U25" s="2" t="n"/>
-      <c r="V25" s="2" t="n"/>
-      <c r="W25" s="2" t="n"/>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr"/>
+      <c r="W25" s="2" t="inlineStr"/>
       <c r="X25" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y25" s="2" t="n"/>
-      <c r="Z25" s="2" t="n"/>
+      <c r="Y25" s="2" t="inlineStr"/>
+      <c r="Z25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1965,19 +1956,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="n"/>
-      <c r="M26" s="2" t="n"/>
-      <c r="N26" s="2" t="n"/>
-      <c r="O26" s="2" t="n"/>
-      <c r="P26" s="2" t="n"/>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr"/>
       <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
@@ -1998,16 +1989,16 @@
           <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
-      <c r="U26" s="2" t="n"/>
-      <c r="V26" s="2" t="n"/>
-      <c r="W26" s="2" t="n"/>
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr"/>
+      <c r="W26" s="2" t="inlineStr"/>
       <c r="X26" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y26" s="2" t="n"/>
-      <c r="Z26" s="2" t="n"/>
+      <c r="Y26" s="2" t="inlineStr"/>
+      <c r="Z26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2025,41 +2016,41 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
-      <c r="P27" s="2" t="n"/>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr"/>
       <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>A specific domain of study undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
-      <c r="R27" s="2" t="n"/>
-      <c r="S27" s="2" t="n"/>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr"/>
       <c r="T27" s="2" t="inlineStr">
         <is>
           <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
-      <c r="W27" s="2" t="n"/>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr"/>
+      <c r="W27" s="2" t="inlineStr"/>
       <c r="X27" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y27" s="2" t="n"/>
-      <c r="Z27" s="2" t="n"/>
+      <c r="Y27" s="2" t="inlineStr"/>
+      <c r="Z27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2077,18 +2068,18 @@
           <t>expertise discipline</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="inlineStr">
         <is>
           <t>pre-existing knowledge or skill</t>
@@ -2099,23 +2090,23 @@
           <t xml:space="preserve">The expertise discipline in which the person source has acquired their pre-existing knowledge and skills. </t>
         </is>
       </c>
-      <c r="R28" s="2" t="n"/>
-      <c r="S28" s="2" t="n"/>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr"/>
       <c r="T28" s="2" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="n"/>
-      <c r="W28" s="2" t="n"/>
+      <c r="U28" s="2" t="inlineStr"/>
+      <c r="V28" s="2" t="inlineStr"/>
+      <c r="W28" s="2" t="inlineStr"/>
       <c r="X28" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y28" s="2" t="n"/>
-      <c r="Z28" s="2" t="n"/>
+      <c r="Y28" s="2" t="inlineStr"/>
+      <c r="Z28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2133,41 +2124,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="n"/>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr"/>
       <c r="Q29" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
-      <c r="R29" s="2" t="n"/>
-      <c r="S29" s="2" t="n"/>
+      <c r="R29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="inlineStr"/>
       <c r="T29" s="2" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="U29" s="2" t="n"/>
-      <c r="V29" s="2" t="n"/>
-      <c r="W29" s="2" t="n"/>
+      <c r="U29" s="2" t="inlineStr"/>
+      <c r="V29" s="2" t="inlineStr"/>
+      <c r="W29" s="2" t="inlineStr"/>
       <c r="X29" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y29" s="2" t="n"/>
-      <c r="Z29" s="2" t="n"/>
+      <c r="Y29" s="2" t="inlineStr"/>
+      <c r="Z29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2185,19 +2176,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="n"/>
-      <c r="P30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr"/>
       <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
@@ -2218,16 +2209,16 @@
           <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
-      <c r="U30" s="2" t="n"/>
-      <c r="V30" s="2" t="n"/>
-      <c r="W30" s="2" t="n"/>
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr"/>
+      <c r="W30" s="2" t="inlineStr"/>
       <c r="X30" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y30" s="2" t="n"/>
-      <c r="Z30" s="2" t="n"/>
+      <c r="Y30" s="2" t="inlineStr"/>
+      <c r="Z30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2245,19 +2236,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
-      <c r="M31" s="2" t="n"/>
-      <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="n"/>
-      <c r="P31" s="2" t="n"/>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr"/>
       <c r="Q31" s="2" t="inlineStr">
         <is>
           <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
@@ -2278,16 +2269,16 @@
           <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="n"/>
-      <c r="W31" s="2" t="n"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr"/>
+      <c r="W31" s="2" t="inlineStr"/>
       <c r="X31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y31" s="2" t="n"/>
-      <c r="Z31" s="2" t="n"/>
+      <c r="Y31" s="2" t="inlineStr"/>
+      <c r="Z31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2305,37 +2296,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
-      <c r="M32" s="2" t="n"/>
-      <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="n"/>
-      <c r="P32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr"/>
       <c r="Q32" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
         </is>
       </c>
-      <c r="R32" s="2" t="n"/>
-      <c r="S32" s="2" t="n"/>
-      <c r="T32" s="2" t="n"/>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="n"/>
-      <c r="W32" s="2" t="n"/>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr"/>
+      <c r="W32" s="2" t="inlineStr"/>
       <c r="X32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y32" s="2" t="n"/>
-      <c r="Z32" s="2" t="n"/>
+      <c r="Y32" s="2" t="inlineStr"/>
+      <c r="Z32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2353,37 +2344,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
-      <c r="P33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
       <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person which hires the services of the participant.</t>
         </is>
       </c>
-      <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="n"/>
-      <c r="T33" s="2" t="n"/>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="n"/>
-      <c r="W33" s="2" t="n"/>
+      <c r="R33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr"/>
+      <c r="W33" s="2" t="inlineStr"/>
       <c r="X33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y33" s="2" t="n"/>
-      <c r="Z33" s="2" t="n"/>
+      <c r="Y33" s="2" t="inlineStr"/>
+      <c r="Z33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2401,19 +2392,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr"/>
       <c r="Q34" s="2" t="inlineStr">
         <is>
           <t>A health professional that assesses, plans and implements programmes to recognize, monitor and control environmental factors that can potentially affect human health, to ensure safe and healthy working conditions and to prevent disease or injury caused by chemical, physical, radiological and biological agents or ergonomic factors.</t>
@@ -2434,16 +2425,16 @@
           <t>Environmental health officer, Occupational health and safety adviser, Occupational hygienist, Radiation protection expert</t>
         </is>
       </c>
-      <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="n"/>
-      <c r="W34" s="2" t="n"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr"/>
+      <c r="W34" s="2" t="inlineStr"/>
       <c r="X34" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y34" s="2" t="n"/>
-      <c r="Z34" s="2" t="n"/>
+      <c r="Y34" s="2" t="inlineStr"/>
+      <c r="Z34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2461,19 +2452,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
-      <c r="P35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
       <c r="Q35" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that investigates the implementation of rules and regulations relating to environmental factors that may affect human health, safety in the 
@@ -2496,16 +2487,16 @@
           <t>Food sanitation and safety inspector, Health inspector, Occupational health and safety inspector, Pollution inspector, Product safety inspector, Sanitarian, Sanitary inspector</t>
         </is>
       </c>
-      <c r="U35" s="2" t="n"/>
-      <c r="V35" s="2" t="n"/>
-      <c r="W35" s="2" t="n"/>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr"/>
+      <c r="W35" s="2" t="inlineStr"/>
       <c r="X35" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y35" s="2" t="n"/>
-      <c r="Z35" s="2" t="n"/>
+      <c r="Y35" s="2" t="inlineStr"/>
+      <c r="Z35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2523,41 +2514,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="n"/>
-      <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="n"/>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr"/>
       <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is the ethnic group to which an individual identifies as belonging, where an ethic group is a population whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
-      <c r="R36" s="2" t="n"/>
-      <c r="S36" s="2" t="n"/>
+      <c r="R36" s="2" t="inlineStr"/>
+      <c r="S36" s="2" t="inlineStr"/>
       <c r="T36" s="2" t="inlineStr">
         <is>
           <t>black, white, Indian, Chinese, Somalian</t>
         </is>
       </c>
-      <c r="U36" s="2" t="n"/>
-      <c r="V36" s="2" t="n"/>
-      <c r="W36" s="2" t="n"/>
+      <c r="U36" s="2" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr"/>
+      <c r="W36" s="2" t="inlineStr"/>
       <c r="X36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y36" s="2" t="n"/>
-      <c r="Z36" s="2" t="n"/>
+      <c r="Y36" s="2" t="inlineStr"/>
+      <c r="Z36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2575,26 +2566,26 @@
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
-      <c r="L37" s="2" t="n"/>
-      <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
-      <c r="P37" s="2" t="n"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr"/>
       <c r="Q37" s="2" t="inlineStr">
         <is>
           <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
-      <c r="R37" s="2" t="n"/>
-      <c r="S37" s="2" t="n"/>
+      <c r="R37" s="2" t="inlineStr"/>
+      <c r="S37" s="2" t="inlineStr"/>
       <c r="T37" s="2" t="inlineStr">
         <is>
           <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
@@ -2605,15 +2596,15 @@
           <t>The division of expertise into different disciplines or fields is complex and depends on historical, social and structural factors.</t>
         </is>
       </c>
-      <c r="V37" s="2" t="n"/>
-      <c r="W37" s="2" t="n"/>
+      <c r="V37" s="2" t="inlineStr"/>
+      <c r="W37" s="2" t="inlineStr"/>
       <c r="X37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y37" s="2" t="n"/>
-      <c r="Z37" s="2" t="n"/>
+      <c r="Y37" s="2" t="inlineStr"/>
+      <c r="Z37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2631,18 +2622,18 @@
           <t>disposition</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="n"/>
-      <c r="H38" s="2" t="n"/>
-      <c r="I38" s="2" t="n"/>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="n"/>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="inlineStr">
         <is>
           <t>person source</t>
@@ -2653,19 +2644,19 @@
           <t>A disposition that is an expert skill or knowledge held by the source delivering the behaviour change intervention.</t>
         </is>
       </c>
-      <c r="R38" s="2" t="n"/>
-      <c r="S38" s="2" t="n"/>
-      <c r="T38" s="2" t="n"/>
-      <c r="U38" s="2" t="n"/>
-      <c r="V38" s="2" t="n"/>
-      <c r="W38" s="2" t="n"/>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="inlineStr"/>
+      <c r="W38" s="2" t="inlineStr"/>
       <c r="X38" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y38" s="2" t="n"/>
-      <c r="Z38" s="2" t="n"/>
+      <c r="Y38" s="2" t="inlineStr"/>
+      <c r="Z38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2683,37 +2674,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
-      <c r="P39" s="2" t="n"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
       <c r="Q39" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is an individual who is related to another person as they are descended from a common progenitor, related by marriage or other legal tie, or by a feeling of closeness.</t>
         </is>
       </c>
-      <c r="R39" s="2" t="n"/>
-      <c r="S39" s="2" t="n"/>
-      <c r="T39" s="2" t="n"/>
-      <c r="U39" s="2" t="n"/>
-      <c r="V39" s="2" t="n"/>
-      <c r="W39" s="2" t="n"/>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr"/>
+      <c r="W39" s="2" t="inlineStr"/>
       <c r="X39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y39" s="2" t="n"/>
-      <c r="Z39" s="2" t="n"/>
+      <c r="Y39" s="2" t="inlineStr"/>
+      <c r="Z39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2731,41 +2722,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
-      <c r="H40" s="2" t="n"/>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
-      <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="n"/>
-      <c r="P40" s="2" t="n"/>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
       <c r="Q40" s="2" t="inlineStr">
         <is>
           <t>A gender of person source that is the cultural gender role of female.</t>
         </is>
       </c>
-      <c r="R40" s="2" t="n"/>
-      <c r="S40" s="2" t="n"/>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr"/>
       <c r="T40" s="2" t="inlineStr">
         <is>
           <t>female, woman</t>
         </is>
       </c>
-      <c r="U40" s="2" t="n"/>
-      <c r="V40" s="2" t="n"/>
-      <c r="W40" s="2" t="n"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr"/>
+      <c r="W40" s="2" t="inlineStr"/>
       <c r="X40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y40" s="2" t="n"/>
-      <c r="Z40" s="2" t="n"/>
+      <c r="Y40" s="2" t="inlineStr"/>
+      <c r="Z40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2783,19 +2774,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="2" t="n"/>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="n"/>
-      <c r="K41" s="2" t="n"/>
-      <c r="L41" s="2" t="n"/>
-      <c r="M41" s="2" t="n"/>
-      <c r="N41" s="2" t="n"/>
-      <c r="O41" s="2" t="n"/>
-      <c r="P41" s="2" t="n"/>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr"/>
       <c r="Q41" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that leads, guides and instructs groups and individuals in recreational, fitness or outdoor adventure activities.</t>
@@ -2816,16 +2807,16 @@
           <t>Aerobics instructor, Fitness instructor, Horse riding instructor, Outdoor adventure guide, Personal trainer, Sailing instructor, Underwater diving instructor</t>
         </is>
       </c>
-      <c r="U41" s="2" t="n"/>
-      <c r="V41" s="2" t="n"/>
-      <c r="W41" s="2" t="n"/>
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr"/>
+      <c r="W41" s="2" t="inlineStr"/>
       <c r="X41" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y41" s="2" t="n"/>
-      <c r="Z41" s="2" t="n"/>
+      <c r="Y41" s="2" t="inlineStr"/>
+      <c r="Z41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2843,37 +2834,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
-      <c r="L42" s="2" t="n"/>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
-      <c r="P42" s="2" t="n"/>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr"/>
       <c r="Q42" s="2" t="inlineStr">
         <is>
           <t>A relatedness between person source and the target population that is a person whom the participant knows, likes and trusts, typically exclusive of sexual or family relations.</t>
         </is>
       </c>
-      <c r="R42" s="2" t="n"/>
-      <c r="S42" s="2" t="n"/>
-      <c r="T42" s="2" t="n"/>
-      <c r="U42" s="2" t="n"/>
-      <c r="V42" s="2" t="n"/>
-      <c r="W42" s="2" t="n"/>
+      <c r="R42" s="2" t="inlineStr"/>
+      <c r="S42" s="2" t="inlineStr"/>
+      <c r="T42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr"/>
+      <c r="W42" s="2" t="inlineStr"/>
       <c r="X42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y42" s="2" t="n"/>
-      <c r="Z42" s="2" t="n"/>
+      <c r="Y42" s="2" t="inlineStr"/>
+      <c r="Z42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2891,41 +2882,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
-      <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="n"/>
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr"/>
       <c r="Q43" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
         </is>
       </c>
-      <c r="R43" s="2" t="n"/>
-      <c r="S43" s="2" t="n"/>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr"/>
       <c r="T43" s="2" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="n"/>
-      <c r="W43" s="2" t="n"/>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr"/>
+      <c r="W43" s="2" t="inlineStr"/>
       <c r="X43" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y43" s="2" t="n"/>
-      <c r="Z43" s="2" t="n"/>
+      <c r="Y43" s="2" t="inlineStr"/>
+      <c r="Z43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2943,19 +2934,19 @@
           <t xml:space="preserve">medical doctor </t>
         </is>
       </c>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="n"/>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
-      <c r="P44" s="2" t="n"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr"/>
       <c r="Q44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities. </t>
@@ -2976,16 +2967,16 @@
           <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="n"/>
-      <c r="W44" s="2" t="n"/>
+      <c r="U44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="inlineStr"/>
+      <c r="W44" s="2" t="inlineStr"/>
       <c r="X44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y44" s="2" t="n"/>
-      <c r="Z44" s="2" t="n"/>
+      <c r="Y44" s="2" t="inlineStr"/>
+      <c r="Z44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3003,41 +2994,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
-      <c r="P45" s="2" t="n"/>
+      <c r="D45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="inlineStr"/>
       <c r="Q45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A higher education student or trainee that has completed an undergraduate degree. </t>
         </is>
       </c>
-      <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="n"/>
+      <c r="R45" s="2" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr"/>
       <c r="T45" s="2" t="inlineStr">
         <is>
           <t>graduate student</t>
         </is>
       </c>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
-      <c r="W45" s="2" t="n"/>
+      <c r="U45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr"/>
+      <c r="W45" s="2" t="inlineStr"/>
       <c r="X45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y45" s="2" t="n"/>
-      <c r="Z45" s="2" t="n"/>
+      <c r="Y45" s="2" t="inlineStr"/>
+      <c r="Z45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -3055,19 +3046,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
-      <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="n"/>
-      <c r="H46" s="2" t="n"/>
-      <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n"/>
-      <c r="K46" s="2" t="n"/>
-      <c r="L46" s="2" t="n"/>
-      <c r="M46" s="2" t="n"/>
-      <c r="N46" s="2" t="n"/>
-      <c r="O46" s="2" t="n"/>
-      <c r="P46" s="2" t="n"/>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr"/>
       <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
@@ -3088,16 +3079,16 @@
           <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
-      <c r="U46" s="2" t="n"/>
-      <c r="V46" s="2" t="n"/>
-      <c r="W46" s="2" t="n"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr"/>
+      <c r="W46" s="2" t="inlineStr"/>
       <c r="X46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y46" s="2" t="n"/>
-      <c r="Z46" s="2" t="n"/>
+      <c r="Y46" s="2" t="inlineStr"/>
+      <c r="Z46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3115,19 +3106,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D47" s="2" t="n"/>
-      <c r="E47" s="2" t="n"/>
-      <c r="F47" s="2" t="n"/>
-      <c r="G47" s="2" t="n"/>
-      <c r="H47" s="2" t="n"/>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="n"/>
-      <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="n"/>
-      <c r="O47" s="2" t="n"/>
-      <c r="P47" s="2" t="n"/>
+      <c r="D47" s="2" t="inlineStr"/>
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr"/>
       <c r="Q47" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
@@ -3148,16 +3139,16 @@
           <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
-      <c r="U47" s="2" t="n"/>
-      <c r="V47" s="2" t="n"/>
-      <c r="W47" s="2" t="n"/>
+      <c r="U47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="inlineStr"/>
+      <c r="W47" s="2" t="inlineStr"/>
       <c r="X47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y47" s="2" t="n"/>
-      <c r="Z47" s="2" t="n"/>
+      <c r="Y47" s="2" t="inlineStr"/>
+      <c r="Z47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3175,19 +3166,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n"/>
-      <c r="E48" s="2" t="n"/>
-      <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="n"/>
-      <c r="H48" s="2" t="n"/>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
-      <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="n"/>
-      <c r="P48" s="2" t="n"/>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr"/>
       <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
@@ -3208,16 +3199,16 @@
           <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
-      <c r="U48" s="2" t="n"/>
-      <c r="V48" s="2" t="n"/>
-      <c r="W48" s="2" t="n"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr"/>
+      <c r="W48" s="2" t="inlineStr"/>
       <c r="X48" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y48" s="2" t="n"/>
-      <c r="Z48" s="2" t="n"/>
+      <c r="Y48" s="2" t="inlineStr"/>
+      <c r="Z48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3235,41 +3226,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n"/>
-      <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
-      <c r="G49" s="2" t="n"/>
-      <c r="H49" s="2" t="n"/>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
-      <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
-      <c r="P49" s="2" t="n"/>
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr"/>
       <c r="Q49" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
-      <c r="R49" s="2" t="n"/>
-      <c r="S49" s="2" t="n"/>
+      <c r="R49" s="2" t="inlineStr"/>
+      <c r="S49" s="2" t="inlineStr"/>
       <c r="T49" s="2" t="inlineStr">
         <is>
           <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
-      <c r="U49" s="2" t="n"/>
-      <c r="V49" s="2" t="n"/>
-      <c r="W49" s="2" t="n"/>
+      <c r="U49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr"/>
+      <c r="W49" s="2" t="inlineStr"/>
       <c r="X49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y49" s="2" t="n"/>
-      <c r="Z49" s="2" t="n"/>
+      <c r="Y49" s="2" t="inlineStr"/>
+      <c r="Z49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3287,41 +3278,41 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n"/>
-      <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
-      <c r="G50" s="2" t="n"/>
-      <c r="H50" s="2" t="n"/>
-      <c r="I50" s="2" t="n"/>
-      <c r="J50" s="2" t="n"/>
-      <c r="K50" s="2" t="n"/>
-      <c r="L50" s="2" t="n"/>
-      <c r="M50" s="2" t="n"/>
-      <c r="N50" s="2" t="n"/>
-      <c r="O50" s="2" t="n"/>
-      <c r="P50" s="2" t="n"/>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr"/>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr"/>
+      <c r="M50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr"/>
+      <c r="P50" s="2" t="inlineStr"/>
       <c r="Q50" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school. </t>
         </is>
       </c>
-      <c r="R50" s="2" t="n"/>
-      <c r="S50" s="2" t="n"/>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr">
         <is>
           <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
-      <c r="U50" s="2" t="n"/>
-      <c r="V50" s="2" t="n"/>
-      <c r="W50" s="2" t="n"/>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr"/>
+      <c r="W50" s="2" t="inlineStr"/>
       <c r="X50" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y50" s="2" t="n"/>
-      <c r="Z50" s="2" t="n"/>
+      <c r="Y50" s="2" t="inlineStr"/>
+      <c r="Z50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3339,19 +3330,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D51" s="2" t="n"/>
-      <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="n"/>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="n"/>
-      <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="n"/>
-      <c r="O51" s="2" t="n"/>
-      <c r="P51" s="2" t="n"/>
+      <c r="D51" s="2" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="inlineStr"/>
       <c r="Q51" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
@@ -3372,16 +3363,16 @@
           <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
         </is>
       </c>
-      <c r="U51" s="2" t="n"/>
-      <c r="V51" s="2" t="n"/>
-      <c r="W51" s="2" t="n"/>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr"/>
+      <c r="W51" s="2" t="inlineStr"/>
       <c r="X51" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y51" s="2" t="n"/>
-      <c r="Z51" s="2" t="n"/>
+      <c r="Y51" s="2" t="inlineStr"/>
+      <c r="Z51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3399,37 +3390,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n"/>
-      <c r="E52" s="2" t="n"/>
-      <c r="F52" s="2" t="n"/>
-      <c r="G52" s="2" t="n"/>
-      <c r="H52" s="2" t="n"/>
-      <c r="I52" s="2" t="n"/>
-      <c r="J52" s="2" t="n"/>
-      <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="n"/>
-      <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
-      <c r="O52" s="2" t="n"/>
-      <c r="P52" s="2" t="n"/>
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr"/>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
+      <c r="P52" s="2" t="inlineStr"/>
       <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>A student or trainee that is currently learning in a non-institutional setting.</t>
         </is>
       </c>
-      <c r="R52" s="2" t="n"/>
-      <c r="S52" s="2" t="n"/>
-      <c r="T52" s="2" t="n"/>
-      <c r="U52" s="2" t="n"/>
-      <c r="V52" s="2" t="n"/>
-      <c r="W52" s="2" t="n"/>
+      <c r="R52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr"/>
+      <c r="T52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr"/>
+      <c r="W52" s="2" t="inlineStr"/>
       <c r="X52" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y52" s="2" t="n"/>
-      <c r="Z52" s="2" t="n"/>
+      <c r="Y52" s="2" t="inlineStr"/>
+      <c r="Z52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3447,19 +3438,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D53" s="2" t="n"/>
-      <c r="E53" s="2" t="n"/>
-      <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="n"/>
-      <c r="H53" s="2" t="n"/>
-      <c r="I53" s="2" t="n"/>
-      <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="n"/>
-      <c r="L53" s="2" t="n"/>
-      <c r="M53" s="2" t="n"/>
-      <c r="N53" s="2" t="n"/>
-      <c r="O53" s="2" t="n"/>
-      <c r="P53" s="2" t="n"/>
+      <c r="D53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr"/>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="inlineStr"/>
       <c r="Q53" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
@@ -3480,16 +3471,16 @@
           <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
-      <c r="U53" s="2" t="n"/>
-      <c r="V53" s="2" t="n"/>
-      <c r="W53" s="2" t="n"/>
+      <c r="U53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="inlineStr"/>
+      <c r="W53" s="2" t="inlineStr"/>
       <c r="X53" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y53" s="2" t="n"/>
-      <c r="Z53" s="2" t="n"/>
+      <c r="Y53" s="2" t="inlineStr"/>
+      <c r="Z53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -3507,41 +3498,41 @@
           <t>expertise of person source</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="n"/>
-      <c r="H54" s="2" t="n"/>
-      <c r="I54" s="2" t="n"/>
-      <c r="J54" s="2" t="n"/>
-      <c r="K54" s="2" t="n"/>
-      <c r="L54" s="2" t="n"/>
-      <c r="M54" s="2" t="n"/>
-      <c r="N54" s="2" t="n"/>
-      <c r="O54" s="2" t="n"/>
-      <c r="P54" s="2" t="n"/>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="inlineStr"/>
       <c r="Q54" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention. </t>
         </is>
       </c>
-      <c r="R54" s="2" t="n"/>
-      <c r="S54" s="2" t="n"/>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
-      <c r="U54" s="2" t="n"/>
-      <c r="V54" s="2" t="n"/>
-      <c r="W54" s="2" t="n"/>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr"/>
+      <c r="W54" s="2" t="inlineStr"/>
       <c r="X54" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y54" s="2" t="n"/>
-      <c r="Z54" s="2" t="n"/>
+      <c r="Y54" s="2" t="inlineStr"/>
+      <c r="Z54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3559,41 +3550,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n"/>
-      <c r="E55" s="2" t="n"/>
-      <c r="F55" s="2" t="n"/>
-      <c r="G55" s="2" t="n"/>
-      <c r="H55" s="2" t="n"/>
-      <c r="I55" s="2" t="n"/>
-      <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
-      <c r="L55" s="2" t="n"/>
-      <c r="M55" s="2" t="n"/>
-      <c r="N55" s="2" t="n"/>
-      <c r="O55" s="2" t="n"/>
-      <c r="P55" s="2" t="n"/>
+      <c r="D55" s="2" t="inlineStr"/>
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr"/>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr"/>
       <c r="Q55" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
         </is>
       </c>
-      <c r="R55" s="2" t="n"/>
-      <c r="S55" s="2" t="n"/>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
           <t>fluent, native</t>
         </is>
       </c>
-      <c r="U55" s="2" t="n"/>
-      <c r="V55" s="2" t="n"/>
-      <c r="W55" s="2" t="n"/>
+      <c r="U55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="inlineStr"/>
+      <c r="W55" s="2" t="inlineStr"/>
       <c r="X55" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y55" s="2" t="n"/>
-      <c r="Z55" s="2" t="n"/>
+      <c r="Y55" s="2" t="inlineStr"/>
+      <c r="Z55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3611,19 +3602,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="2" t="n"/>
-      <c r="F56" s="2" t="n"/>
-      <c r="G56" s="2" t="n"/>
-      <c r="H56" s="2" t="n"/>
-      <c r="I56" s="2" t="n"/>
-      <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
-      <c r="M56" s="2" t="n"/>
-      <c r="N56" s="2" t="n"/>
-      <c r="O56" s="2" t="n"/>
-      <c r="P56" s="2" t="n"/>
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr"/>
+      <c r="P56" s="2" t="inlineStr"/>
       <c r="Q56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients. </t>
@@ -3644,16 +3635,16 @@
           <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
-      <c r="U56" s="2" t="n"/>
-      <c r="V56" s="2" t="n"/>
-      <c r="W56" s="2" t="n"/>
+      <c r="U56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="inlineStr"/>
+      <c r="W56" s="2" t="inlineStr"/>
       <c r="X56" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y56" s="2" t="n"/>
-      <c r="Z56" s="2" t="n"/>
+      <c r="Y56" s="2" t="inlineStr"/>
+      <c r="Z56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3671,19 +3662,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D57" s="2" t="n"/>
-      <c r="E57" s="2" t="n"/>
-      <c r="F57" s="2" t="n"/>
-      <c r="G57" s="2" t="n"/>
-      <c r="H57" s="2" t="n"/>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
-      <c r="L57" s="2" t="n"/>
-      <c r="M57" s="2" t="n"/>
-      <c r="N57" s="2" t="n"/>
-      <c r="O57" s="2" t="n"/>
-      <c r="P57" s="2" t="n"/>
+      <c r="D57" s="2" t="inlineStr"/>
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="inlineStr"/>
       <c r="Q57" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
@@ -3704,16 +3695,16 @@
           <t>Lawyer, Judge, Coroner</t>
         </is>
       </c>
-      <c r="U57" s="2" t="n"/>
-      <c r="V57" s="2" t="n"/>
-      <c r="W57" s="2" t="n"/>
+      <c r="U57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="inlineStr"/>
+      <c r="W57" s="2" t="inlineStr"/>
       <c r="X57" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y57" s="2" t="n"/>
-      <c r="Z57" s="2" t="n"/>
+      <c r="Y57" s="2" t="inlineStr"/>
+      <c r="Z57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3731,19 +3722,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n"/>
-      <c r="E58" s="2" t="n"/>
-      <c r="F58" s="2" t="n"/>
-      <c r="G58" s="2" t="n"/>
-      <c r="H58" s="2" t="n"/>
-      <c r="I58" s="2" t="n"/>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
-      <c r="L58" s="2" t="n"/>
-      <c r="M58" s="2" t="n"/>
-      <c r="N58" s="2" t="n"/>
-      <c r="O58" s="2" t="n"/>
-      <c r="P58" s="2" t="n"/>
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr"/>
       <c r="Q58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies. </t>
@@ -3759,17 +3750,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n"/>
-      <c r="U58" s="2" t="n"/>
-      <c r="V58" s="2" t="n"/>
-      <c r="W58" s="2" t="n"/>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="inlineStr"/>
+      <c r="W58" s="2" t="inlineStr"/>
       <c r="X58" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y58" s="2" t="n"/>
-      <c r="Z58" s="2" t="n"/>
+      <c r="Y58" s="2" t="inlineStr"/>
+      <c r="Z58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3787,19 +3778,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D59" s="2" t="n"/>
-      <c r="E59" s="2" t="n"/>
-      <c r="F59" s="2" t="n"/>
-      <c r="G59" s="2" t="n"/>
-      <c r="H59" s="2" t="n"/>
-      <c r="I59" s="2" t="n"/>
-      <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="n"/>
-      <c r="L59" s="2" t="n"/>
-      <c r="M59" s="2" t="n"/>
-      <c r="N59" s="2" t="n"/>
-      <c r="O59" s="2" t="n"/>
-      <c r="P59" s="2" t="n"/>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr"/>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
+      <c r="P59" s="2" t="inlineStr"/>
       <c r="Q59" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments. </t>
@@ -3820,16 +3811,16 @@
           <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
-      <c r="U59" s="2" t="n"/>
-      <c r="V59" s="2" t="n"/>
-      <c r="W59" s="2" t="n"/>
+      <c r="U59" s="2" t="inlineStr"/>
+      <c r="V59" s="2" t="inlineStr"/>
+      <c r="W59" s="2" t="inlineStr"/>
       <c r="X59" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y59" s="2" t="n"/>
-      <c r="Z59" s="2" t="n"/>
+      <c r="Y59" s="2" t="inlineStr"/>
+      <c r="Z59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3847,41 +3838,41 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D60" s="2" t="n"/>
-      <c r="E60" s="2" t="n"/>
-      <c r="F60" s="2" t="n"/>
-      <c r="G60" s="2" t="n"/>
-      <c r="H60" s="2" t="n"/>
-      <c r="I60" s="2" t="n"/>
-      <c r="J60" s="2" t="n"/>
-      <c r="K60" s="2" t="n"/>
-      <c r="L60" s="2" t="n"/>
-      <c r="M60" s="2" t="n"/>
-      <c r="N60" s="2" t="n"/>
-      <c r="O60" s="2" t="n"/>
-      <c r="P60" s="2" t="n"/>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr"/>
       <c r="Q60" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
-      <c r="R60" s="2" t="n"/>
-      <c r="S60" s="2" t="n"/>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr"/>
       <c r="T60" s="2" t="inlineStr">
         <is>
           <t>Interpretator; other linguist</t>
         </is>
       </c>
-      <c r="U60" s="2" t="n"/>
-      <c r="V60" s="2" t="n"/>
-      <c r="W60" s="2" t="n"/>
+      <c r="U60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr"/>
+      <c r="W60" s="2" t="inlineStr"/>
       <c r="X60" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y60" s="2" t="n"/>
-      <c r="Z60" s="2" t="n"/>
+      <c r="Y60" s="2" t="inlineStr"/>
+      <c r="Z60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3899,41 +3890,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-      <c r="G61" s="2" t="n"/>
-      <c r="H61" s="2" t="n"/>
-      <c r="I61" s="2" t="n"/>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
-      <c r="M61" s="2" t="n"/>
-      <c r="N61" s="2" t="n"/>
-      <c r="O61" s="2" t="n"/>
-      <c r="P61" s="2" t="n"/>
+      <c r="D61" s="2" t="inlineStr"/>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="inlineStr"/>
       <c r="Q61" s="2" t="inlineStr">
         <is>
           <t>A gender of person source that is the cultural gender role of male.</t>
         </is>
       </c>
-      <c r="R61" s="2" t="n"/>
-      <c r="S61" s="2" t="n"/>
+      <c r="R61" s="2" t="inlineStr"/>
+      <c r="S61" s="2" t="inlineStr"/>
       <c r="T61" s="2" t="inlineStr">
         <is>
           <t>male, man</t>
         </is>
       </c>
-      <c r="U61" s="2" t="n"/>
-      <c r="V61" s="2" t="n"/>
-      <c r="W61" s="2" t="n"/>
+      <c r="U61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr"/>
+      <c r="W61" s="2" t="inlineStr"/>
       <c r="X61" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y61" s="2" t="n"/>
-      <c r="Z61" s="2" t="n"/>
+      <c r="Y61" s="2" t="inlineStr"/>
+      <c r="Z61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3951,19 +3942,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n"/>
-      <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
-      <c r="G62" s="2" t="n"/>
-      <c r="H62" s="2" t="n"/>
-      <c r="I62" s="2" t="n"/>
-      <c r="J62" s="2" t="n"/>
-      <c r="K62" s="2" t="n"/>
-      <c r="L62" s="2" t="n"/>
-      <c r="M62" s="2" t="n"/>
-      <c r="N62" s="2" t="n"/>
-      <c r="O62" s="2" t="n"/>
-      <c r="P62" s="2" t="n"/>
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr"/>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="inlineStr"/>
+      <c r="M62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="inlineStr"/>
+      <c r="O62" s="2" t="inlineStr"/>
+      <c r="P62" s="2" t="inlineStr"/>
       <c r="Q62" s="2" t="inlineStr">
         <is>
           <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
@@ -3984,16 +3975,16 @@
           <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
-      <c r="U62" s="2" t="n"/>
-      <c r="V62" s="2" t="n"/>
-      <c r="W62" s="2" t="n"/>
+      <c r="U62" s="2" t="inlineStr"/>
+      <c r="V62" s="2" t="inlineStr"/>
+      <c r="W62" s="2" t="inlineStr"/>
       <c r="X62" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y62" s="2" t="n"/>
-      <c r="Z62" s="2" t="n"/>
+      <c r="Y62" s="2" t="inlineStr"/>
+      <c r="Z62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -4011,41 +4002,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n"/>
-      <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
-      <c r="G63" s="2" t="n"/>
-      <c r="H63" s="2" t="n"/>
-      <c r="I63" s="2" t="n"/>
-      <c r="J63" s="2" t="n"/>
-      <c r="K63" s="2" t="n"/>
-      <c r="L63" s="2" t="n"/>
-      <c r="M63" s="2" t="n"/>
-      <c r="N63" s="2" t="n"/>
-      <c r="O63" s="2" t="n"/>
-      <c r="P63" s="2" t="n"/>
+      <c r="D63" s="2" t="inlineStr"/>
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr"/>
+      <c r="L63" s="2" t="inlineStr"/>
+      <c r="M63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="inlineStr"/>
+      <c r="O63" s="2" t="inlineStr"/>
+      <c r="P63" s="2" t="inlineStr"/>
       <c r="Q63" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
         </is>
       </c>
-      <c r="R63" s="2" t="n"/>
-      <c r="S63" s="2" t="n"/>
+      <c r="R63" s="2" t="inlineStr"/>
+      <c r="S63" s="2" t="inlineStr"/>
       <c r="T63" s="2" t="inlineStr">
         <is>
           <t>MSc student, Masters student</t>
         </is>
       </c>
-      <c r="U63" s="2" t="n"/>
-      <c r="V63" s="2" t="n"/>
-      <c r="W63" s="2" t="n"/>
+      <c r="U63" s="2" t="inlineStr"/>
+      <c r="V63" s="2" t="inlineStr"/>
+      <c r="W63" s="2" t="inlineStr"/>
       <c r="X63" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y63" s="2" t="n"/>
-      <c r="Z63" s="2" t="n"/>
+      <c r="Y63" s="2" t="inlineStr"/>
+      <c r="Z63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -4063,19 +4054,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D64" s="2" t="n"/>
-      <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
-      <c r="G64" s="2" t="n"/>
-      <c r="H64" s="2" t="n"/>
-      <c r="I64" s="2" t="n"/>
-      <c r="J64" s="2" t="n"/>
-      <c r="K64" s="2" t="n"/>
-      <c r="L64" s="2" t="n"/>
-      <c r="M64" s="2" t="n"/>
-      <c r="N64" s="2" t="n"/>
-      <c r="O64" s="2" t="n"/>
-      <c r="P64" s="2" t="n"/>
+      <c r="D64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr"/>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
+      <c r="L64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr"/>
       <c r="Q64" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
@@ -4096,16 +4087,16 @@
           <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
-      <c r="U64" s="2" t="n"/>
-      <c r="V64" s="2" t="n"/>
-      <c r="W64" s="2" t="n"/>
+      <c r="U64" s="2" t="inlineStr"/>
+      <c r="V64" s="2" t="inlineStr"/>
+      <c r="W64" s="2" t="inlineStr"/>
       <c r="X64" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y64" s="2" t="n"/>
-      <c r="Z64" s="2" t="n"/>
+      <c r="Y64" s="2" t="inlineStr"/>
+      <c r="Z64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -4123,19 +4114,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D65" s="2" t="n"/>
-      <c r="E65" s="2" t="n"/>
-      <c r="F65" s="2" t="n"/>
-      <c r="G65" s="2" t="n"/>
-      <c r="H65" s="2" t="n"/>
-      <c r="I65" s="2" t="n"/>
-      <c r="J65" s="2" t="n"/>
-      <c r="K65" s="2" t="n"/>
-      <c r="L65" s="2" t="n"/>
-      <c r="M65" s="2" t="n"/>
-      <c r="N65" s="2" t="n"/>
-      <c r="O65" s="2" t="n"/>
-      <c r="P65" s="2" t="n"/>
+      <c r="D65" s="2" t="inlineStr"/>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr"/>
+      <c r="L65" s="2" t="inlineStr"/>
+      <c r="M65" s="2" t="inlineStr"/>
+      <c r="N65" s="2" t="inlineStr"/>
+      <c r="O65" s="2" t="inlineStr"/>
+      <c r="P65" s="2" t="inlineStr"/>
       <c r="Q65" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional. </t>
@@ -4156,16 +4147,16 @@
           <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
-      <c r="U65" s="2" t="n"/>
-      <c r="V65" s="2" t="n"/>
-      <c r="W65" s="2" t="n"/>
+      <c r="U65" s="2" t="inlineStr"/>
+      <c r="V65" s="2" t="inlineStr"/>
+      <c r="W65" s="2" t="inlineStr"/>
       <c r="X65" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y65" s="2" t="n"/>
-      <c r="Z65" s="2" t="n"/>
+      <c r="Y65" s="2" t="inlineStr"/>
+      <c r="Z65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -4183,19 +4174,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D66" s="2" t="n"/>
-      <c r="E66" s="2" t="n"/>
-      <c r="F66" s="2" t="n"/>
-      <c r="G66" s="2" t="n"/>
-      <c r="H66" s="2" t="n"/>
-      <c r="I66" s="2" t="n"/>
-      <c r="J66" s="2" t="n"/>
-      <c r="K66" s="2" t="n"/>
-      <c r="L66" s="2" t="n"/>
-      <c r="M66" s="2" t="n"/>
-      <c r="N66" s="2" t="n"/>
-      <c r="O66" s="2" t="n"/>
-      <c r="P66" s="2" t="n"/>
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr"/>
+      <c r="L66" s="2" t="inlineStr"/>
+      <c r="M66" s="2" t="inlineStr"/>
+      <c r="N66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="inlineStr"/>
       <c r="Q66" s="2" t="inlineStr">
         <is>
           <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
@@ -4216,16 +4207,16 @@
           <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
-      <c r="U66" s="2" t="n"/>
-      <c r="V66" s="2" t="n"/>
-      <c r="W66" s="2" t="n"/>
+      <c r="U66" s="2" t="inlineStr"/>
+      <c r="V66" s="2" t="inlineStr"/>
+      <c r="W66" s="2" t="inlineStr"/>
       <c r="X66" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y66" s="2" t="n"/>
-      <c r="Z66" s="2" t="n"/>
+      <c r="Y66" s="2" t="inlineStr"/>
+      <c r="Z66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -4243,19 +4234,19 @@
           <t xml:space="preserve">nursing and midwifery associate professional </t>
         </is>
       </c>
-      <c r="D67" s="2" t="n"/>
-      <c r="E67" s="2" t="n"/>
-      <c r="F67" s="2" t="n"/>
-      <c r="G67" s="2" t="n"/>
-      <c r="H67" s="2" t="n"/>
-      <c r="I67" s="2" t="n"/>
-      <c r="J67" s="2" t="n"/>
-      <c r="K67" s="2" t="n"/>
-      <c r="L67" s="2" t="n"/>
-      <c r="M67" s="2" t="n"/>
-      <c r="N67" s="2" t="n"/>
-      <c r="O67" s="2" t="n"/>
-      <c r="P67" s="2" t="n"/>
+      <c r="D67" s="2" t="inlineStr"/>
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr"/>
+      <c r="K67" s="2" t="inlineStr"/>
+      <c r="L67" s="2" t="inlineStr"/>
+      <c r="M67" s="2" t="inlineStr"/>
+      <c r="N67" s="2" t="inlineStr"/>
+      <c r="O67" s="2" t="inlineStr"/>
+      <c r="P67" s="2" t="inlineStr"/>
       <c r="Q67" s="2" t="inlineStr">
         <is>
           <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
@@ -4276,16 +4267,16 @@
           <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
-      <c r="U67" s="2" t="n"/>
-      <c r="V67" s="2" t="n"/>
-      <c r="W67" s="2" t="n"/>
+      <c r="U67" s="2" t="inlineStr"/>
+      <c r="V67" s="2" t="inlineStr"/>
+      <c r="W67" s="2" t="inlineStr"/>
       <c r="X67" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y67" s="2" t="n"/>
-      <c r="Z67" s="2" t="n"/>
+      <c r="Y67" s="2" t="inlineStr"/>
+      <c r="Z67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -4303,19 +4294,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D68" s="2" t="n"/>
-      <c r="E68" s="2" t="n"/>
-      <c r="F68" s="2" t="n"/>
-      <c r="G68" s="2" t="n"/>
-      <c r="H68" s="2" t="n"/>
-      <c r="I68" s="2" t="n"/>
-      <c r="J68" s="2" t="n"/>
-      <c r="K68" s="2" t="n"/>
-      <c r="L68" s="2" t="n"/>
-      <c r="M68" s="2" t="n"/>
-      <c r="N68" s="2" t="n"/>
-      <c r="O68" s="2" t="n"/>
-      <c r="P68" s="2" t="n"/>
+      <c r="D68" s="2" t="inlineStr"/>
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr"/>
+      <c r="K68" s="2" t="inlineStr"/>
+      <c r="L68" s="2" t="inlineStr"/>
+      <c r="M68" s="2" t="inlineStr"/>
+      <c r="N68" s="2" t="inlineStr"/>
+      <c r="O68" s="2" t="inlineStr"/>
+      <c r="P68" s="2" t="inlineStr"/>
       <c r="Q68" s="2" t="inlineStr">
         <is>
           <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
@@ -4336,16 +4327,16 @@
           <t>Midwife</t>
         </is>
       </c>
-      <c r="U68" s="2" t="n"/>
-      <c r="V68" s="2" t="n"/>
-      <c r="W68" s="2" t="n"/>
+      <c r="U68" s="2" t="inlineStr"/>
+      <c r="V68" s="2" t="inlineStr"/>
+      <c r="W68" s="2" t="inlineStr"/>
       <c r="X68" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y68" s="2" t="n"/>
-      <c r="Z68" s="2" t="n"/>
+      <c r="Y68" s="2" t="inlineStr"/>
+      <c r="Z68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -4363,41 +4354,41 @@
           <t>payment of person source</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n"/>
-      <c r="E69" s="2" t="n"/>
-      <c r="F69" s="2" t="n"/>
-      <c r="G69" s="2" t="n"/>
-      <c r="H69" s="2" t="n"/>
-      <c r="I69" s="2" t="n"/>
-      <c r="J69" s="2" t="n"/>
-      <c r="K69" s="2" t="n"/>
-      <c r="L69" s="2" t="n"/>
-      <c r="M69" s="2" t="n"/>
-      <c r="N69" s="2" t="n"/>
-      <c r="O69" s="2" t="n"/>
-      <c r="P69" s="2" t="n"/>
+      <c r="D69" s="2" t="inlineStr"/>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
+      <c r="L69" s="2" t="inlineStr"/>
+      <c r="M69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="inlineStr"/>
+      <c r="O69" s="2" t="inlineStr"/>
+      <c r="P69" s="2" t="inlineStr"/>
       <c r="Q69" s="2" t="inlineStr">
         <is>
           <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R69" s="2" t="n"/>
-      <c r="S69" s="2" t="n"/>
+      <c r="R69" s="2" t="inlineStr"/>
+      <c r="S69" s="2" t="inlineStr"/>
       <c r="T69" s="2" t="inlineStr">
         <is>
           <t>paid in cash, vouchers</t>
         </is>
       </c>
-      <c r="U69" s="2" t="n"/>
-      <c r="V69" s="2" t="n"/>
-      <c r="W69" s="2" t="n"/>
+      <c r="U69" s="2" t="inlineStr"/>
+      <c r="V69" s="2" t="inlineStr"/>
+      <c r="W69" s="2" t="inlineStr"/>
       <c r="X69" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y69" s="2" t="n"/>
-      <c r="Z69" s="2" t="n"/>
+      <c r="Y69" s="2" t="inlineStr"/>
+      <c r="Z69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -4415,19 +4406,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D70" s="2" t="n"/>
-      <c r="E70" s="2" t="n"/>
-      <c r="F70" s="2" t="n"/>
-      <c r="G70" s="2" t="n"/>
-      <c r="H70" s="2" t="n"/>
-      <c r="I70" s="2" t="n"/>
-      <c r="J70" s="2" t="n"/>
-      <c r="K70" s="2" t="n"/>
-      <c r="L70" s="2" t="n"/>
-      <c r="M70" s="2" t="n"/>
-      <c r="N70" s="2" t="n"/>
-      <c r="O70" s="2" t="n"/>
-      <c r="P70" s="2" t="n"/>
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+      <c r="L70" s="2" t="inlineStr"/>
+      <c r="M70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr"/>
       <c r="Q70" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
@@ -4448,16 +4439,16 @@
           <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
-      <c r="U70" s="2" t="n"/>
-      <c r="V70" s="2" t="n"/>
-      <c r="W70" s="2" t="n"/>
+      <c r="U70" s="2" t="inlineStr"/>
+      <c r="V70" s="2" t="inlineStr"/>
+      <c r="W70" s="2" t="inlineStr"/>
       <c r="X70" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y70" s="2" t="n"/>
-      <c r="Z70" s="2" t="n"/>
+      <c r="Y70" s="2" t="inlineStr"/>
+      <c r="Z70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -4475,41 +4466,41 @@
           <t>payment of person source</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n"/>
-      <c r="E71" s="2" t="n"/>
-      <c r="F71" s="2" t="n"/>
-      <c r="G71" s="2" t="n"/>
-      <c r="H71" s="2" t="n"/>
-      <c r="I71" s="2" t="n"/>
-      <c r="J71" s="2" t="n"/>
-      <c r="K71" s="2" t="n"/>
-      <c r="L71" s="2" t="n"/>
-      <c r="M71" s="2" t="n"/>
-      <c r="N71" s="2" t="n"/>
-      <c r="O71" s="2" t="n"/>
-      <c r="P71" s="2" t="n"/>
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
+      <c r="M71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="inlineStr"/>
+      <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr"/>
       <c r="Q71" s="2" t="inlineStr">
         <is>
           <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R71" s="2" t="n"/>
-      <c r="S71" s="2" t="n"/>
+      <c r="R71" s="2" t="inlineStr"/>
+      <c r="S71" s="2" t="inlineStr"/>
       <c r="T71" s="2" t="inlineStr">
         <is>
           <t>course credit</t>
         </is>
       </c>
-      <c r="U71" s="2" t="n"/>
-      <c r="V71" s="2" t="n"/>
-      <c r="W71" s="2" t="n"/>
+      <c r="U71" s="2" t="inlineStr"/>
+      <c r="V71" s="2" t="inlineStr"/>
+      <c r="W71" s="2" t="inlineStr"/>
       <c r="X71" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y71" s="2" t="n"/>
-      <c r="Z71" s="2" t="n"/>
+      <c r="Y71" s="2" t="inlineStr"/>
+      <c r="Z71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -4527,41 +4518,41 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D72" s="2" t="n"/>
-      <c r="E72" s="2" t="n"/>
-      <c r="F72" s="2" t="n"/>
-      <c r="G72" s="2" t="n"/>
-      <c r="H72" s="2" t="n"/>
-      <c r="I72" s="2" t="n"/>
-      <c r="J72" s="2" t="n"/>
-      <c r="K72" s="2" t="n"/>
-      <c r="L72" s="2" t="n"/>
-      <c r="M72" s="2" t="n"/>
-      <c r="N72" s="2" t="n"/>
+      <c r="D72" s="2" t="inlineStr"/>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+      <c r="L72" s="2" t="inlineStr"/>
+      <c r="M72" s="2" t="inlineStr"/>
+      <c r="N72" s="2" t="inlineStr"/>
       <c r="O72" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="P72" s="2" t="n"/>
+      <c r="P72" s="2" t="inlineStr"/>
       <c r="Q72" s="2" t="inlineStr">
         <is>
           <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
         </is>
       </c>
-      <c r="R72" s="2" t="n"/>
-      <c r="S72" s="2" t="n"/>
-      <c r="T72" s="2" t="n"/>
-      <c r="U72" s="2" t="n"/>
-      <c r="V72" s="2" t="n"/>
-      <c r="W72" s="2" t="n"/>
+      <c r="R72" s="2" t="inlineStr"/>
+      <c r="S72" s="2" t="inlineStr"/>
+      <c r="T72" s="2" t="inlineStr"/>
+      <c r="U72" s="2" t="inlineStr"/>
+      <c r="V72" s="2" t="inlineStr"/>
+      <c r="W72" s="2" t="inlineStr"/>
       <c r="X72" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y72" s="2" t="n"/>
-      <c r="Z72" s="2" t="n"/>
+      <c r="Y72" s="2" t="inlineStr"/>
+      <c r="Z72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -4579,19 +4570,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D73" s="2" t="n"/>
-      <c r="E73" s="2" t="n"/>
-      <c r="F73" s="2" t="n"/>
-      <c r="G73" s="2" t="n"/>
-      <c r="H73" s="2" t="n"/>
-      <c r="I73" s="2" t="n"/>
-      <c r="J73" s="2" t="n"/>
-      <c r="K73" s="2" t="n"/>
-      <c r="L73" s="2" t="n"/>
-      <c r="M73" s="2" t="n"/>
-      <c r="N73" s="2" t="n"/>
-      <c r="O73" s="2" t="n"/>
-      <c r="P73" s="2" t="n"/>
+      <c r="D73" s="2" t="inlineStr"/>
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr"/>
+      <c r="H73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr"/>
+      <c r="J73" s="2" t="inlineStr"/>
+      <c r="K73" s="2" t="inlineStr"/>
+      <c r="L73" s="2" t="inlineStr"/>
+      <c r="M73" s="2" t="inlineStr"/>
+      <c r="N73" s="2" t="inlineStr"/>
+      <c r="O73" s="2" t="inlineStr"/>
+      <c r="P73" s="2" t="inlineStr"/>
       <c r="Q73" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
@@ -4612,16 +4603,16 @@
           <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
         </is>
       </c>
-      <c r="U73" s="2" t="n"/>
-      <c r="V73" s="2" t="n"/>
-      <c r="W73" s="2" t="n"/>
+      <c r="U73" s="2" t="inlineStr"/>
+      <c r="V73" s="2" t="inlineStr"/>
+      <c r="W73" s="2" t="inlineStr"/>
       <c r="X73" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y73" s="2" t="n"/>
-      <c r="Z73" s="2" t="n"/>
+      <c r="Y73" s="2" t="inlineStr"/>
+      <c r="Z73" s="2" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -4639,19 +4630,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D74" s="2" t="n"/>
-      <c r="E74" s="2" t="n"/>
-      <c r="F74" s="2" t="n"/>
-      <c r="G74" s="2" t="n"/>
-      <c r="H74" s="2" t="n"/>
-      <c r="I74" s="2" t="n"/>
-      <c r="J74" s="2" t="n"/>
-      <c r="K74" s="2" t="n"/>
-      <c r="L74" s="2" t="n"/>
-      <c r="M74" s="2" t="n"/>
-      <c r="N74" s="2" t="n"/>
-      <c r="O74" s="2" t="n"/>
-      <c r="P74" s="2" t="n"/>
+      <c r="D74" s="2" t="inlineStr"/>
+      <c r="E74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr"/>
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr"/>
+      <c r="J74" s="2" t="inlineStr"/>
+      <c r="K74" s="2" t="inlineStr"/>
+      <c r="L74" s="2" t="inlineStr"/>
+      <c r="M74" s="2" t="inlineStr"/>
+      <c r="N74" s="2" t="inlineStr"/>
+      <c r="O74" s="2" t="inlineStr"/>
+      <c r="P74" s="2" t="inlineStr"/>
       <c r="Q74" s="2" t="inlineStr">
         <is>
           <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
@@ -4667,17 +4658,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T74" s="2" t="n"/>
-      <c r="U74" s="2" t="n"/>
-      <c r="V74" s="2" t="n"/>
-      <c r="W74" s="2" t="n"/>
+      <c r="T74" s="2" t="inlineStr"/>
+      <c r="U74" s="2" t="inlineStr"/>
+      <c r="V74" s="2" t="inlineStr"/>
+      <c r="W74" s="2" t="inlineStr"/>
       <c r="X74" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y74" s="2" t="n"/>
-      <c r="Z74" s="2" t="n"/>
+      <c r="Y74" s="2" t="inlineStr"/>
+      <c r="Z74" s="2" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
@@ -4695,19 +4686,19 @@
           <t xml:space="preserve">nursing and midwifery associate professional </t>
         </is>
       </c>
-      <c r="D75" s="2" t="n"/>
-      <c r="E75" s="2" t="n"/>
-      <c r="F75" s="2" t="n"/>
-      <c r="G75" s="2" t="n"/>
-      <c r="H75" s="2" t="n"/>
-      <c r="I75" s="2" t="n"/>
-      <c r="J75" s="2" t="n"/>
-      <c r="K75" s="2" t="n"/>
-      <c r="L75" s="2" t="n"/>
-      <c r="M75" s="2" t="n"/>
-      <c r="N75" s="2" t="n"/>
-      <c r="O75" s="2" t="n"/>
-      <c r="P75" s="2" t="n"/>
+      <c r="D75" s="2" t="inlineStr"/>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr"/>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr"/>
+      <c r="K75" s="2" t="inlineStr"/>
+      <c r="L75" s="2" t="inlineStr"/>
+      <c r="M75" s="2" t="inlineStr"/>
+      <c r="N75" s="2" t="inlineStr"/>
+      <c r="O75" s="2" t="inlineStr"/>
+      <c r="P75" s="2" t="inlineStr"/>
       <c r="Q75" s="2" t="inlineStr">
         <is>
           <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
@@ -4728,16 +4719,16 @@
           <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
-      <c r="U75" s="2" t="n"/>
-      <c r="V75" s="2" t="n"/>
-      <c r="W75" s="2" t="n"/>
+      <c r="U75" s="2" t="inlineStr"/>
+      <c r="V75" s="2" t="inlineStr"/>
+      <c r="W75" s="2" t="inlineStr"/>
       <c r="X75" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y75" s="2" t="n"/>
-      <c r="Z75" s="2" t="n"/>
+      <c r="Y75" s="2" t="inlineStr"/>
+      <c r="Z75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -4755,19 +4746,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D76" s="2" t="n"/>
-      <c r="E76" s="2" t="n"/>
-      <c r="F76" s="2" t="n"/>
-      <c r="G76" s="2" t="n"/>
-      <c r="H76" s="2" t="n"/>
-      <c r="I76" s="2" t="n"/>
-      <c r="J76" s="2" t="n"/>
-      <c r="K76" s="2" t="n"/>
-      <c r="L76" s="2" t="n"/>
-      <c r="M76" s="2" t="n"/>
-      <c r="N76" s="2" t="n"/>
-      <c r="O76" s="2" t="n"/>
-      <c r="P76" s="2" t="n"/>
+      <c r="D76" s="2" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr"/>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr"/>
+      <c r="K76" s="2" t="inlineStr"/>
+      <c r="L76" s="2" t="inlineStr"/>
+      <c r="M76" s="2" t="inlineStr"/>
+      <c r="N76" s="2" t="inlineStr"/>
+      <c r="O76" s="2" t="inlineStr"/>
+      <c r="P76" s="2" t="inlineStr"/>
       <c r="Q76" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health. </t>
@@ -4788,16 +4779,16 @@
           <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
-      <c r="U76" s="2" t="n"/>
-      <c r="V76" s="2" t="n"/>
-      <c r="W76" s="2" t="n"/>
+      <c r="U76" s="2" t="inlineStr"/>
+      <c r="V76" s="2" t="inlineStr"/>
+      <c r="W76" s="2" t="inlineStr"/>
       <c r="X76" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y76" s="2" t="n"/>
-      <c r="Z76" s="2" t="n"/>
+      <c r="Y76" s="2" t="inlineStr"/>
+      <c r="Z76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -4815,41 +4806,41 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n"/>
-      <c r="E77" s="2" t="n"/>
-      <c r="F77" s="2" t="n"/>
-      <c r="G77" s="2" t="n"/>
-      <c r="H77" s="2" t="n"/>
-      <c r="I77" s="2" t="n"/>
-      <c r="J77" s="2" t="n"/>
-      <c r="K77" s="2" t="n"/>
-      <c r="L77" s="2" t="n"/>
-      <c r="M77" s="2" t="n"/>
-      <c r="N77" s="2" t="n"/>
-      <c r="O77" s="2" t="n"/>
-      <c r="P77" s="2" t="n"/>
+      <c r="D77" s="2" t="inlineStr"/>
+      <c r="E77" s="2" t="inlineStr"/>
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr"/>
+      <c r="H77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr"/>
+      <c r="K77" s="2" t="inlineStr"/>
+      <c r="L77" s="2" t="inlineStr"/>
+      <c r="M77" s="2" t="inlineStr"/>
+      <c r="N77" s="2" t="inlineStr"/>
+      <c r="O77" s="2" t="inlineStr"/>
+      <c r="P77" s="2" t="inlineStr"/>
       <c r="Q77" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
-      <c r="R77" s="2" t="n"/>
-      <c r="S77" s="2" t="n"/>
+      <c r="R77" s="2" t="inlineStr"/>
+      <c r="S77" s="2" t="inlineStr"/>
       <c r="T77" s="2" t="inlineStr">
         <is>
           <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
-      <c r="U77" s="2" t="n"/>
-      <c r="V77" s="2" t="n"/>
-      <c r="W77" s="2" t="n"/>
+      <c r="U77" s="2" t="inlineStr"/>
+      <c r="V77" s="2" t="inlineStr"/>
+      <c r="W77" s="2" t="inlineStr"/>
       <c r="X77" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y77" s="2" t="n"/>
-      <c r="Z77" s="2" t="n"/>
+      <c r="Y77" s="2" t="inlineStr"/>
+      <c r="Z77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
@@ -4867,19 +4858,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D78" s="2" t="n"/>
-      <c r="E78" s="2" t="n"/>
-      <c r="F78" s="2" t="n"/>
-      <c r="G78" s="2" t="n"/>
-      <c r="H78" s="2" t="n"/>
-      <c r="I78" s="2" t="n"/>
-      <c r="J78" s="2" t="n"/>
-      <c r="K78" s="2" t="n"/>
-      <c r="L78" s="2" t="n"/>
-      <c r="M78" s="2" t="n"/>
-      <c r="N78" s="2" t="n"/>
-      <c r="O78" s="2" t="n"/>
-      <c r="P78" s="2" t="n"/>
+      <c r="D78" s="2" t="inlineStr"/>
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr"/>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr"/>
+      <c r="J78" s="2" t="inlineStr"/>
+      <c r="K78" s="2" t="inlineStr"/>
+      <c r="L78" s="2" t="inlineStr"/>
+      <c r="M78" s="2" t="inlineStr"/>
+      <c r="N78" s="2" t="inlineStr"/>
+      <c r="O78" s="2" t="inlineStr"/>
+      <c r="P78" s="2" t="inlineStr"/>
       <c r="Q78" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system. </t>
@@ -4900,16 +4891,16 @@
           <t>Ophthalmic optician , Optometrist, Orthoptist</t>
         </is>
       </c>
-      <c r="U78" s="2" t="n"/>
-      <c r="V78" s="2" t="n"/>
-      <c r="W78" s="2" t="n"/>
+      <c r="U78" s="2" t="inlineStr"/>
+      <c r="V78" s="2" t="inlineStr"/>
+      <c r="W78" s="2" t="inlineStr"/>
       <c r="X78" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y78" s="2" t="n"/>
-      <c r="Z78" s="2" t="n"/>
+      <c r="Y78" s="2" t="inlineStr"/>
+      <c r="Z78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4927,21 +4918,41 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>organisational source role</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
           <t xml:space="preserve">An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members. </t>
         </is>
       </c>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -4964,36 +4975,36 @@
           <t>(organisation and RO:0000053 some 'organisational source role')</t>
         </is>
       </c>
-      <c r="E80" s="2" t="n"/>
-      <c r="F80" s="2" t="n"/>
-      <c r="G80" s="2" t="n"/>
-      <c r="H80" s="2" t="n"/>
-      <c r="I80" s="2" t="n"/>
-      <c r="J80" s="2" t="n"/>
-      <c r="K80" s="2" t="n"/>
-      <c r="L80" s="2" t="n"/>
-      <c r="M80" s="2" t="n"/>
-      <c r="N80" s="2" t="n"/>
-      <c r="O80" s="2" t="n"/>
-      <c r="P80" s="2" t="n"/>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr"/>
+      <c r="K80" s="2" t="inlineStr"/>
+      <c r="L80" s="2" t="inlineStr"/>
+      <c r="M80" s="2" t="inlineStr"/>
+      <c r="N80" s="2" t="inlineStr"/>
+      <c r="O80" s="2" t="inlineStr"/>
+      <c r="P80" s="2" t="inlineStr"/>
       <c r="Q80" s="2" t="inlineStr">
         <is>
           <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="R80" s="2" t="n"/>
-      <c r="S80" s="2" t="n"/>
-      <c r="T80" s="2" t="n"/>
-      <c r="U80" s="2" t="n"/>
-      <c r="V80" s="2" t="n"/>
-      <c r="W80" s="2" t="n"/>
+      <c r="R80" s="2" t="inlineStr"/>
+      <c r="S80" s="2" t="inlineStr"/>
+      <c r="T80" s="2" t="inlineStr"/>
+      <c r="U80" s="2" t="inlineStr"/>
+      <c r="V80" s="2" t="inlineStr"/>
+      <c r="W80" s="2" t="inlineStr"/>
       <c r="X80" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y80" s="2" t="n"/>
-      <c r="Z80" s="2" t="n"/>
+      <c r="Y80" s="2" t="inlineStr"/>
+      <c r="Z80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
@@ -5011,37 +5022,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n"/>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-      <c r="G81" s="2" t="n"/>
-      <c r="H81" s="2" t="n"/>
-      <c r="I81" s="2" t="n"/>
-      <c r="J81" s="2" t="n"/>
-      <c r="K81" s="2" t="n"/>
-      <c r="L81" s="2" t="n"/>
-      <c r="M81" s="2" t="n"/>
-      <c r="N81" s="2" t="n"/>
-      <c r="O81" s="2" t="n"/>
-      <c r="P81" s="2" t="n"/>
+      <c r="D81" s="2" t="inlineStr"/>
+      <c r="E81" s="2" t="inlineStr"/>
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr"/>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
+      <c r="J81" s="2" t="inlineStr"/>
+      <c r="K81" s="2" t="inlineStr"/>
+      <c r="L81" s="2" t="inlineStr"/>
+      <c r="M81" s="2" t="inlineStr"/>
+      <c r="N81" s="2" t="inlineStr"/>
+      <c r="O81" s="2" t="inlineStr"/>
+      <c r="P81" s="2" t="inlineStr"/>
       <c r="Q81" s="2" t="inlineStr">
         <is>
           <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
-      <c r="R81" s="2" t="n"/>
-      <c r="S81" s="2" t="n"/>
-      <c r="T81" s="2" t="n"/>
-      <c r="U81" s="2" t="n"/>
-      <c r="V81" s="2" t="n"/>
-      <c r="W81" s="2" t="n"/>
+      <c r="R81" s="2" t="inlineStr"/>
+      <c r="S81" s="2" t="inlineStr"/>
+      <c r="T81" s="2" t="inlineStr"/>
+      <c r="U81" s="2" t="inlineStr"/>
+      <c r="V81" s="2" t="inlineStr"/>
+      <c r="W81" s="2" t="inlineStr"/>
       <c r="X81" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y81" s="2" t="n"/>
-      <c r="Z81" s="2" t="n"/>
+      <c r="Y81" s="2" t="inlineStr"/>
+      <c r="Z81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -5059,41 +5070,41 @@
           <t>gender of person source</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n"/>
-      <c r="E82" s="2" t="n"/>
-      <c r="F82" s="2" t="n"/>
-      <c r="G82" s="2" t="n"/>
-      <c r="H82" s="2" t="n"/>
-      <c r="I82" s="2" t="n"/>
-      <c r="J82" s="2" t="n"/>
-      <c r="K82" s="2" t="n"/>
-      <c r="L82" s="2" t="n"/>
-      <c r="M82" s="2" t="n"/>
-      <c r="N82" s="2" t="n"/>
-      <c r="O82" s="2" t="n"/>
-      <c r="P82" s="2" t="n"/>
+      <c r="D82" s="2" t="inlineStr"/>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr"/>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
+      <c r="J82" s="2" t="inlineStr"/>
+      <c r="K82" s="2" t="inlineStr"/>
+      <c r="L82" s="2" t="inlineStr"/>
+      <c r="M82" s="2" t="inlineStr"/>
+      <c r="N82" s="2" t="inlineStr"/>
+      <c r="O82" s="2" t="inlineStr"/>
+      <c r="P82" s="2" t="inlineStr"/>
       <c r="Q82" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female. </t>
         </is>
       </c>
-      <c r="R82" s="2" t="n"/>
-      <c r="S82" s="2" t="n"/>
+      <c r="R82" s="2" t="inlineStr"/>
+      <c r="S82" s="2" t="inlineStr"/>
       <c r="T82" s="2" t="inlineStr">
         <is>
           <t>non-binary, transexual</t>
         </is>
       </c>
-      <c r="U82" s="2" t="n"/>
-      <c r="V82" s="2" t="n"/>
-      <c r="W82" s="2" t="n"/>
+      <c r="U82" s="2" t="inlineStr"/>
+      <c r="V82" s="2" t="inlineStr"/>
+      <c r="W82" s="2" t="inlineStr"/>
       <c r="X82" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y82" s="2" t="n"/>
-      <c r="Z82" s="2" t="n"/>
+      <c r="Y82" s="2" t="inlineStr"/>
+      <c r="Z82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -5111,19 +5122,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D83" s="2" t="n"/>
-      <c r="E83" s="2" t="n"/>
-      <c r="F83" s="2" t="n"/>
-      <c r="G83" s="2" t="n"/>
-      <c r="H83" s="2" t="n"/>
-      <c r="I83" s="2" t="n"/>
-      <c r="J83" s="2" t="n"/>
-      <c r="K83" s="2" t="n"/>
-      <c r="L83" s="2" t="n"/>
-      <c r="M83" s="2" t="n"/>
-      <c r="N83" s="2" t="n"/>
-      <c r="O83" s="2" t="n"/>
-      <c r="P83" s="2" t="n"/>
+      <c r="D83" s="2" t="inlineStr"/>
+      <c r="E83" s="2" t="inlineStr"/>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr"/>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
+      <c r="J83" s="2" t="inlineStr"/>
+      <c r="K83" s="2" t="inlineStr"/>
+      <c r="L83" s="2" t="inlineStr"/>
+      <c r="M83" s="2" t="inlineStr"/>
+      <c r="N83" s="2" t="inlineStr"/>
+      <c r="O83" s="2" t="inlineStr"/>
+      <c r="P83" s="2" t="inlineStr"/>
       <c r="Q83" s="2" t="inlineStr">
         <is>
           <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
@@ -5144,16 +5155,16 @@
           <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
-      <c r="U83" s="2" t="n"/>
-      <c r="V83" s="2" t="n"/>
-      <c r="W83" s="2" t="n"/>
+      <c r="U83" s="2" t="inlineStr"/>
+      <c r="V83" s="2" t="inlineStr"/>
+      <c r="W83" s="2" t="inlineStr"/>
       <c r="X83" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y83" s="2" t="n"/>
-      <c r="Z83" s="2" t="n"/>
+      <c r="Y83" s="2" t="inlineStr"/>
+      <c r="Z83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -5171,41 +5182,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n"/>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-      <c r="G84" s="2" t="n"/>
-      <c r="H84" s="2" t="n"/>
-      <c r="I84" s="2" t="n"/>
-      <c r="J84" s="2" t="n"/>
-      <c r="K84" s="2" t="n"/>
-      <c r="L84" s="2" t="n"/>
-      <c r="M84" s="2" t="n"/>
-      <c r="N84" s="2" t="n"/>
-      <c r="O84" s="2" t="n"/>
-      <c r="P84" s="2" t="n"/>
+      <c r="D84" s="2" t="inlineStr"/>
+      <c r="E84" s="2" t="inlineStr"/>
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr"/>
+      <c r="H84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr"/>
+      <c r="J84" s="2" t="inlineStr"/>
+      <c r="K84" s="2" t="inlineStr"/>
+      <c r="L84" s="2" t="inlineStr"/>
+      <c r="M84" s="2" t="inlineStr"/>
+      <c r="N84" s="2" t="inlineStr"/>
+      <c r="O84" s="2" t="inlineStr"/>
+      <c r="P84" s="2" t="inlineStr"/>
       <c r="Q84" s="2" t="inlineStr">
         <is>
           <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
-      <c r="R84" s="2" t="n"/>
-      <c r="S84" s="2" t="n"/>
+      <c r="R84" s="2" t="inlineStr"/>
+      <c r="S84" s="2" t="inlineStr"/>
       <c r="T84" s="2" t="inlineStr">
         <is>
           <t>mother, father, step-mother, step-father, guardian</t>
         </is>
       </c>
-      <c r="U84" s="2" t="n"/>
-      <c r="V84" s="2" t="n"/>
-      <c r="W84" s="2" t="n"/>
+      <c r="U84" s="2" t="inlineStr"/>
+      <c r="V84" s="2" t="inlineStr"/>
+      <c r="W84" s="2" t="inlineStr"/>
       <c r="X84" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y84" s="2" t="n"/>
-      <c r="Z84" s="2" t="n"/>
+      <c r="Y84" s="2" t="inlineStr"/>
+      <c r="Z84" s="2" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
@@ -5223,41 +5234,41 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n"/>
-      <c r="E85" s="2" t="n"/>
+      <c r="D85" s="2" t="inlineStr"/>
+      <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G85" s="2" t="n"/>
-      <c r="H85" s="2" t="n"/>
-      <c r="I85" s="2" t="n"/>
-      <c r="J85" s="2" t="n"/>
-      <c r="K85" s="2" t="n"/>
-      <c r="L85" s="2" t="n"/>
-      <c r="M85" s="2" t="n"/>
-      <c r="N85" s="2" t="n"/>
-      <c r="O85" s="2" t="n"/>
-      <c r="P85" s="2" t="n"/>
+      <c r="G85" s="2" t="inlineStr"/>
+      <c r="H85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr"/>
+      <c r="J85" s="2" t="inlineStr"/>
+      <c r="K85" s="2" t="inlineStr"/>
+      <c r="L85" s="2" t="inlineStr"/>
+      <c r="M85" s="2" t="inlineStr"/>
+      <c r="N85" s="2" t="inlineStr"/>
+      <c r="O85" s="2" t="inlineStr"/>
+      <c r="P85" s="2" t="inlineStr"/>
       <c r="Q85" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
-      <c r="R85" s="2" t="n"/>
-      <c r="S85" s="2" t="n"/>
-      <c r="T85" s="2" t="n"/>
-      <c r="U85" s="2" t="n"/>
-      <c r="V85" s="2" t="n"/>
-      <c r="W85" s="2" t="n"/>
+      <c r="R85" s="2" t="inlineStr"/>
+      <c r="S85" s="2" t="inlineStr"/>
+      <c r="T85" s="2" t="inlineStr"/>
+      <c r="U85" s="2" t="inlineStr"/>
+      <c r="V85" s="2" t="inlineStr"/>
+      <c r="W85" s="2" t="inlineStr"/>
       <c r="X85" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y85" s="2" t="n"/>
-      <c r="Z85" s="2" t="n"/>
+      <c r="Y85" s="2" t="inlineStr"/>
+      <c r="Z85" s="2" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -5275,37 +5286,37 @@
           <t>relatedness between person source and the target population</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n"/>
-      <c r="E86" s="2" t="n"/>
-      <c r="F86" s="2" t="n"/>
-      <c r="G86" s="2" t="n"/>
-      <c r="H86" s="2" t="n"/>
-      <c r="I86" s="2" t="n"/>
-      <c r="J86" s="2" t="n"/>
-      <c r="K86" s="2" t="n"/>
-      <c r="L86" s="2" t="n"/>
-      <c r="M86" s="2" t="n"/>
-      <c r="N86" s="2" t="n"/>
-      <c r="O86" s="2" t="n"/>
-      <c r="P86" s="2" t="n"/>
+      <c r="D86" s="2" t="inlineStr"/>
+      <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr"/>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
+      <c r="J86" s="2" t="inlineStr"/>
+      <c r="K86" s="2" t="inlineStr"/>
+      <c r="L86" s="2" t="inlineStr"/>
+      <c r="M86" s="2" t="inlineStr"/>
+      <c r="N86" s="2" t="inlineStr"/>
+      <c r="O86" s="2" t="inlineStr"/>
+      <c r="P86" s="2" t="inlineStr"/>
       <c r="Q86" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc. </t>
         </is>
       </c>
-      <c r="R86" s="2" t="n"/>
-      <c r="S86" s="2" t="n"/>
-      <c r="T86" s="2" t="n"/>
-      <c r="U86" s="2" t="n"/>
-      <c r="V86" s="2" t="n"/>
-      <c r="W86" s="2" t="n"/>
+      <c r="R86" s="2" t="inlineStr"/>
+      <c r="S86" s="2" t="inlineStr"/>
+      <c r="T86" s="2" t="inlineStr"/>
+      <c r="U86" s="2" t="inlineStr"/>
+      <c r="V86" s="2" t="inlineStr"/>
+      <c r="W86" s="2" t="inlineStr"/>
       <c r="X86" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y86" s="2" t="n"/>
-      <c r="Z86" s="2" t="n"/>
+      <c r="Y86" s="2" t="inlineStr"/>
+      <c r="Z86" s="2" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5323,21 +5334,41 @@
           <t>extended organism</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>person source role</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
           <t xml:space="preserve">A member of the species Homo Sapiens. </t>
         </is>
       </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -5360,36 +5391,36 @@
           <t>(person and RO:0000053 some 'person source role')</t>
         </is>
       </c>
-      <c r="E88" s="2" t="n"/>
-      <c r="F88" s="2" t="n"/>
-      <c r="G88" s="2" t="n"/>
-      <c r="H88" s="2" t="n"/>
-      <c r="I88" s="2" t="n"/>
-      <c r="J88" s="2" t="n"/>
-      <c r="K88" s="2" t="n"/>
-      <c r="L88" s="2" t="n"/>
-      <c r="M88" s="2" t="n"/>
-      <c r="N88" s="2" t="n"/>
-      <c r="O88" s="2" t="n"/>
-      <c r="P88" s="2" t="n"/>
+      <c r="E88" s="2" t="inlineStr"/>
+      <c r="F88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="inlineStr"/>
+      <c r="H88" s="2" t="inlineStr"/>
+      <c r="I88" s="2" t="inlineStr"/>
+      <c r="J88" s="2" t="inlineStr"/>
+      <c r="K88" s="2" t="inlineStr"/>
+      <c r="L88" s="2" t="inlineStr"/>
+      <c r="M88" s="2" t="inlineStr"/>
+      <c r="N88" s="2" t="inlineStr"/>
+      <c r="O88" s="2" t="inlineStr"/>
+      <c r="P88" s="2" t="inlineStr"/>
       <c r="Q88" s="2" t="inlineStr">
         <is>
           <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
-      <c r="R88" s="2" t="n"/>
-      <c r="S88" s="2" t="n"/>
-      <c r="T88" s="2" t="n"/>
-      <c r="U88" s="2" t="n"/>
-      <c r="V88" s="2" t="n"/>
-      <c r="W88" s="2" t="n"/>
+      <c r="R88" s="2" t="inlineStr"/>
+      <c r="S88" s="2" t="inlineStr"/>
+      <c r="T88" s="2" t="inlineStr"/>
+      <c r="U88" s="2" t="inlineStr"/>
+      <c r="V88" s="2" t="inlineStr"/>
+      <c r="W88" s="2" t="inlineStr"/>
       <c r="X88" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y88" s="2" t="n"/>
-      <c r="Z88" s="2" t="n"/>
+      <c r="Y88" s="2" t="inlineStr"/>
+      <c r="Z88" s="2" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -5407,37 +5438,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n"/>
-      <c r="E89" s="2" t="n"/>
-      <c r="F89" s="2" t="n"/>
-      <c r="G89" s="2" t="n"/>
-      <c r="H89" s="2" t="n"/>
-      <c r="I89" s="2" t="n"/>
-      <c r="J89" s="2" t="n"/>
-      <c r="K89" s="2" t="n"/>
-      <c r="L89" s="2" t="n"/>
-      <c r="M89" s="2" t="n"/>
-      <c r="N89" s="2" t="n"/>
-      <c r="O89" s="2" t="n"/>
-      <c r="P89" s="2" t="n"/>
+      <c r="D89" s="2" t="inlineStr"/>
+      <c r="E89" s="2" t="inlineStr"/>
+      <c r="F89" s="2" t="inlineStr"/>
+      <c r="G89" s="2" t="inlineStr"/>
+      <c r="H89" s="2" t="inlineStr"/>
+      <c r="I89" s="2" t="inlineStr"/>
+      <c r="J89" s="2" t="inlineStr"/>
+      <c r="K89" s="2" t="inlineStr"/>
+      <c r="L89" s="2" t="inlineStr"/>
+      <c r="M89" s="2" t="inlineStr"/>
+      <c r="N89" s="2" t="inlineStr"/>
+      <c r="O89" s="2" t="inlineStr"/>
+      <c r="P89" s="2" t="inlineStr"/>
       <c r="Q89" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
-      <c r="R89" s="2" t="n"/>
-      <c r="S89" s="2" t="n"/>
-      <c r="T89" s="2" t="n"/>
-      <c r="U89" s="2" t="n"/>
-      <c r="V89" s="2" t="n"/>
-      <c r="W89" s="2" t="n"/>
+      <c r="R89" s="2" t="inlineStr"/>
+      <c r="S89" s="2" t="inlineStr"/>
+      <c r="T89" s="2" t="inlineStr"/>
+      <c r="U89" s="2" t="inlineStr"/>
+      <c r="V89" s="2" t="inlineStr"/>
+      <c r="W89" s="2" t="inlineStr"/>
       <c r="X89" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y89" s="2" t="n"/>
-      <c r="Z89" s="2" t="n"/>
+      <c r="Y89" s="2" t="inlineStr"/>
+      <c r="Z89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -5455,19 +5486,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D90" s="2" t="n"/>
-      <c r="E90" s="2" t="n"/>
-      <c r="F90" s="2" t="n"/>
-      <c r="G90" s="2" t="n"/>
-      <c r="H90" s="2" t="n"/>
-      <c r="I90" s="2" t="n"/>
-      <c r="J90" s="2" t="n"/>
-      <c r="K90" s="2" t="n"/>
-      <c r="L90" s="2" t="n"/>
-      <c r="M90" s="2" t="n"/>
-      <c r="N90" s="2" t="n"/>
-      <c r="O90" s="2" t="n"/>
-      <c r="P90" s="2" t="n"/>
+      <c r="D90" s="2" t="inlineStr"/>
+      <c r="E90" s="2" t="inlineStr"/>
+      <c r="F90" s="2" t="inlineStr"/>
+      <c r="G90" s="2" t="inlineStr"/>
+      <c r="H90" s="2" t="inlineStr"/>
+      <c r="I90" s="2" t="inlineStr"/>
+      <c r="J90" s="2" t="inlineStr"/>
+      <c r="K90" s="2" t="inlineStr"/>
+      <c r="L90" s="2" t="inlineStr"/>
+      <c r="M90" s="2" t="inlineStr"/>
+      <c r="N90" s="2" t="inlineStr"/>
+      <c r="O90" s="2" t="inlineStr"/>
+      <c r="P90" s="2" t="inlineStr"/>
       <c r="Q90" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
@@ -5488,16 +5519,16 @@
           <t>Personal carer</t>
         </is>
       </c>
-      <c r="U90" s="2" t="n"/>
-      <c r="V90" s="2" t="n"/>
-      <c r="W90" s="2" t="n"/>
+      <c r="U90" s="2" t="inlineStr"/>
+      <c r="V90" s="2" t="inlineStr"/>
+      <c r="W90" s="2" t="inlineStr"/>
       <c r="X90" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y90" s="2" t="n"/>
-      <c r="Z90" s="2" t="n"/>
+      <c r="Y90" s="2" t="inlineStr"/>
+      <c r="Z90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -5515,37 +5546,37 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D91" s="2" t="n"/>
-      <c r="E91" s="2" t="n"/>
-      <c r="F91" s="2" t="n"/>
-      <c r="G91" s="2" t="n"/>
-      <c r="H91" s="2" t="n"/>
-      <c r="I91" s="2" t="n"/>
-      <c r="J91" s="2" t="n"/>
-      <c r="K91" s="2" t="n"/>
-      <c r="L91" s="2" t="n"/>
-      <c r="M91" s="2" t="n"/>
-      <c r="N91" s="2" t="n"/>
-      <c r="O91" s="2" t="n"/>
-      <c r="P91" s="2" t="n"/>
+      <c r="D91" s="2" t="inlineStr"/>
+      <c r="E91" s="2" t="inlineStr"/>
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr"/>
+      <c r="H91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr"/>
+      <c r="J91" s="2" t="inlineStr"/>
+      <c r="K91" s="2" t="inlineStr"/>
+      <c r="L91" s="2" t="inlineStr"/>
+      <c r="M91" s="2" t="inlineStr"/>
+      <c r="N91" s="2" t="inlineStr"/>
+      <c r="O91" s="2" t="inlineStr"/>
+      <c r="P91" s="2" t="inlineStr"/>
       <c r="Q91" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A role that inheres in a person source. </t>
         </is>
       </c>
-      <c r="R91" s="2" t="n"/>
-      <c r="S91" s="2" t="n"/>
-      <c r="T91" s="2" t="n"/>
-      <c r="U91" s="2" t="n"/>
-      <c r="V91" s="2" t="n"/>
-      <c r="W91" s="2" t="n"/>
+      <c r="R91" s="2" t="inlineStr"/>
+      <c r="S91" s="2" t="inlineStr"/>
+      <c r="T91" s="2" t="inlineStr"/>
+      <c r="U91" s="2" t="inlineStr"/>
+      <c r="V91" s="2" t="inlineStr"/>
+      <c r="W91" s="2" t="inlineStr"/>
       <c r="X91" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y91" s="2" t="n"/>
-      <c r="Z91" s="2" t="n"/>
+      <c r="Y91" s="2" t="inlineStr"/>
+      <c r="Z91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -5563,19 +5594,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D92" s="2" t="n"/>
-      <c r="E92" s="2" t="n"/>
-      <c r="F92" s="2" t="n"/>
-      <c r="G92" s="2" t="n"/>
-      <c r="H92" s="2" t="n"/>
-      <c r="I92" s="2" t="n"/>
-      <c r="J92" s="2" t="n"/>
-      <c r="K92" s="2" t="n"/>
-      <c r="L92" s="2" t="n"/>
-      <c r="M92" s="2" t="n"/>
-      <c r="N92" s="2" t="n"/>
-      <c r="O92" s="2" t="n"/>
-      <c r="P92" s="2" t="n"/>
+      <c r="D92" s="2" t="inlineStr"/>
+      <c r="E92" s="2" t="inlineStr"/>
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr"/>
+      <c r="H92" s="2" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr"/>
+      <c r="J92" s="2" t="inlineStr"/>
+      <c r="K92" s="2" t="inlineStr"/>
+      <c r="L92" s="2" t="inlineStr"/>
+      <c r="M92" s="2" t="inlineStr"/>
+      <c r="N92" s="2" t="inlineStr"/>
+      <c r="O92" s="2" t="inlineStr"/>
+      <c r="P92" s="2" t="inlineStr"/>
       <c r="Q92" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
@@ -5596,16 +5627,16 @@
           <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
-      <c r="U92" s="2" t="n"/>
-      <c r="V92" s="2" t="n"/>
-      <c r="W92" s="2" t="n"/>
+      <c r="U92" s="2" t="inlineStr"/>
+      <c r="V92" s="2" t="inlineStr"/>
+      <c r="W92" s="2" t="inlineStr"/>
       <c r="X92" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y92" s="2" t="n"/>
-      <c r="Z92" s="2" t="n"/>
+      <c r="Y92" s="2" t="inlineStr"/>
+      <c r="Z92" s="2" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
@@ -5623,19 +5654,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D93" s="2" t="n"/>
-      <c r="E93" s="2" t="n"/>
-      <c r="F93" s="2" t="n"/>
-      <c r="G93" s="2" t="n"/>
-      <c r="H93" s="2" t="n"/>
-      <c r="I93" s="2" t="n"/>
-      <c r="J93" s="2" t="n"/>
-      <c r="K93" s="2" t="n"/>
-      <c r="L93" s="2" t="n"/>
-      <c r="M93" s="2" t="n"/>
-      <c r="N93" s="2" t="n"/>
-      <c r="O93" s="2" t="n"/>
-      <c r="P93" s="2" t="n"/>
+      <c r="D93" s="2" t="inlineStr"/>
+      <c r="E93" s="2" t="inlineStr"/>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr"/>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr"/>
+      <c r="J93" s="2" t="inlineStr"/>
+      <c r="K93" s="2" t="inlineStr"/>
+      <c r="L93" s="2" t="inlineStr"/>
+      <c r="M93" s="2" t="inlineStr"/>
+      <c r="N93" s="2" t="inlineStr"/>
+      <c r="O93" s="2" t="inlineStr"/>
+      <c r="P93" s="2" t="inlineStr"/>
       <c r="Q93" s="2" t="inlineStr">
         <is>
           <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
@@ -5656,16 +5687,16 @@
           <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
-      <c r="U93" s="2" t="n"/>
-      <c r="V93" s="2" t="n"/>
-      <c r="W93" s="2" t="n"/>
+      <c r="U93" s="2" t="inlineStr"/>
+      <c r="V93" s="2" t="inlineStr"/>
+      <c r="W93" s="2" t="inlineStr"/>
       <c r="X93" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y93" s="2" t="n"/>
-      <c r="Z93" s="2" t="n"/>
+      <c r="Y93" s="2" t="inlineStr"/>
+      <c r="Z93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
@@ -5683,19 +5714,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D94" s="2" t="n"/>
-      <c r="E94" s="2" t="n"/>
-      <c r="F94" s="2" t="n"/>
-      <c r="G94" s="2" t="n"/>
-      <c r="H94" s="2" t="n"/>
-      <c r="I94" s="2" t="n"/>
-      <c r="J94" s="2" t="n"/>
-      <c r="K94" s="2" t="n"/>
-      <c r="L94" s="2" t="n"/>
-      <c r="M94" s="2" t="n"/>
-      <c r="N94" s="2" t="n"/>
-      <c r="O94" s="2" t="n"/>
-      <c r="P94" s="2" t="n"/>
+      <c r="D94" s="2" t="inlineStr"/>
+      <c r="E94" s="2" t="inlineStr"/>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr"/>
+      <c r="H94" s="2" t="inlineStr"/>
+      <c r="I94" s="2" t="inlineStr"/>
+      <c r="J94" s="2" t="inlineStr"/>
+      <c r="K94" s="2" t="inlineStr"/>
+      <c r="L94" s="2" t="inlineStr"/>
+      <c r="M94" s="2" t="inlineStr"/>
+      <c r="N94" s="2" t="inlineStr"/>
+      <c r="O94" s="2" t="inlineStr"/>
+      <c r="P94" s="2" t="inlineStr"/>
       <c r="Q94" s="2" t="inlineStr">
         <is>
           <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
@@ -5716,16 +5747,16 @@
           <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
-      <c r="U94" s="2" t="n"/>
-      <c r="V94" s="2" t="n"/>
-      <c r="W94" s="2" t="n"/>
+      <c r="U94" s="2" t="inlineStr"/>
+      <c r="V94" s="2" t="inlineStr"/>
+      <c r="W94" s="2" t="inlineStr"/>
       <c r="X94" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y94" s="2" t="n"/>
-      <c r="Z94" s="2" t="n"/>
+      <c r="Y94" s="2" t="inlineStr"/>
+      <c r="Z94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
@@ -5743,19 +5774,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D95" s="2" t="n"/>
-      <c r="E95" s="2" t="n"/>
-      <c r="F95" s="2" t="n"/>
-      <c r="G95" s="2" t="n"/>
-      <c r="H95" s="2" t="n"/>
-      <c r="I95" s="2" t="n"/>
-      <c r="J95" s="2" t="n"/>
-      <c r="K95" s="2" t="n"/>
-      <c r="L95" s="2" t="n"/>
-      <c r="M95" s="2" t="n"/>
-      <c r="N95" s="2" t="n"/>
-      <c r="O95" s="2" t="n"/>
-      <c r="P95" s="2" t="n"/>
+      <c r="D95" s="2" t="inlineStr"/>
+      <c r="E95" s="2" t="inlineStr"/>
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr"/>
+      <c r="H95" s="2" t="inlineStr"/>
+      <c r="I95" s="2" t="inlineStr"/>
+      <c r="J95" s="2" t="inlineStr"/>
+      <c r="K95" s="2" t="inlineStr"/>
+      <c r="L95" s="2" t="inlineStr"/>
+      <c r="M95" s="2" t="inlineStr"/>
+      <c r="N95" s="2" t="inlineStr"/>
+      <c r="O95" s="2" t="inlineStr"/>
+      <c r="P95" s="2" t="inlineStr"/>
       <c r="Q95" s="2" t="inlineStr">
         <is>
           <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
@@ -5776,16 +5807,16 @@
           <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
-      <c r="U95" s="2" t="n"/>
-      <c r="V95" s="2" t="n"/>
-      <c r="W95" s="2" t="n"/>
+      <c r="U95" s="2" t="inlineStr"/>
+      <c r="V95" s="2" t="inlineStr"/>
+      <c r="W95" s="2" t="inlineStr"/>
       <c r="X95" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y95" s="2" t="n"/>
-      <c r="Z95" s="2" t="n"/>
+      <c r="Y95" s="2" t="inlineStr"/>
+      <c r="Z95" s="2" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -5803,19 +5834,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n"/>
-      <c r="E96" s="2" t="n"/>
-      <c r="F96" s="2" t="n"/>
-      <c r="G96" s="2" t="n"/>
-      <c r="H96" s="2" t="n"/>
-      <c r="I96" s="2" t="n"/>
-      <c r="J96" s="2" t="n"/>
-      <c r="K96" s="2" t="n"/>
-      <c r="L96" s="2" t="n"/>
-      <c r="M96" s="2" t="n"/>
-      <c r="N96" s="2" t="n"/>
-      <c r="O96" s="2" t="n"/>
-      <c r="P96" s="2" t="n"/>
+      <c r="D96" s="2" t="inlineStr"/>
+      <c r="E96" s="2" t="inlineStr"/>
+      <c r="F96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr"/>
+      <c r="H96" s="2" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr"/>
+      <c r="J96" s="2" t="inlineStr"/>
+      <c r="K96" s="2" t="inlineStr"/>
+      <c r="L96" s="2" t="inlineStr"/>
+      <c r="M96" s="2" t="inlineStr"/>
+      <c r="N96" s="2" t="inlineStr"/>
+      <c r="O96" s="2" t="inlineStr"/>
+      <c r="P96" s="2" t="inlineStr"/>
       <c r="Q96" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment. </t>
@@ -5836,16 +5867,16 @@
           <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
-      <c r="U96" s="2" t="n"/>
-      <c r="V96" s="2" t="n"/>
-      <c r="W96" s="2" t="n"/>
+      <c r="U96" s="2" t="inlineStr"/>
+      <c r="V96" s="2" t="inlineStr"/>
+      <c r="W96" s="2" t="inlineStr"/>
       <c r="X96" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y96" s="2" t="n"/>
-      <c r="Z96" s="2" t="n"/>
+      <c r="Y96" s="2" t="inlineStr"/>
+      <c r="Z96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
@@ -5863,41 +5894,41 @@
           <t>knowledge or skill</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n"/>
-      <c r="E97" s="2" t="n"/>
-      <c r="F97" s="2" t="n"/>
-      <c r="G97" s="2" t="n"/>
-      <c r="H97" s="2" t="n"/>
-      <c r="I97" s="2" t="n"/>
-      <c r="J97" s="2" t="n"/>
-      <c r="K97" s="2" t="n"/>
-      <c r="L97" s="2" t="n"/>
-      <c r="M97" s="2" t="n"/>
-      <c r="N97" s="2" t="n"/>
-      <c r="O97" s="2" t="n"/>
-      <c r="P97" s="2" t="n"/>
+      <c r="D97" s="2" t="inlineStr"/>
+      <c r="E97" s="2" t="inlineStr"/>
+      <c r="F97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr"/>
+      <c r="H97" s="2" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr"/>
+      <c r="J97" s="2" t="inlineStr"/>
+      <c r="K97" s="2" t="inlineStr"/>
+      <c r="L97" s="2" t="inlineStr"/>
+      <c r="M97" s="2" t="inlineStr"/>
+      <c r="N97" s="2" t="inlineStr"/>
+      <c r="O97" s="2" t="inlineStr"/>
+      <c r="P97" s="2" t="inlineStr"/>
       <c r="Q97" s="2" t="inlineStr">
         <is>
           <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
         </is>
       </c>
-      <c r="R97" s="2" t="n"/>
-      <c r="S97" s="2" t="n"/>
+      <c r="R97" s="2" t="inlineStr"/>
+      <c r="S97" s="2" t="inlineStr"/>
       <c r="T97" s="2" t="inlineStr">
         <is>
           <t>Bachelor’s degree, certification, accredited, qualified</t>
         </is>
       </c>
-      <c r="U97" s="2" t="n"/>
-      <c r="V97" s="2" t="n"/>
-      <c r="W97" s="2" t="n"/>
+      <c r="U97" s="2" t="inlineStr"/>
+      <c r="V97" s="2" t="inlineStr"/>
+      <c r="W97" s="2" t="inlineStr"/>
       <c r="X97" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y97" s="2" t="n"/>
-      <c r="Z97" s="2" t="n"/>
+      <c r="Y97" s="2" t="inlineStr"/>
+      <c r="Z97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
@@ -5915,19 +5946,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D98" s="2" t="n"/>
-      <c r="E98" s="2" t="n"/>
-      <c r="F98" s="2" t="n"/>
-      <c r="G98" s="2" t="n"/>
-      <c r="H98" s="2" t="n"/>
-      <c r="I98" s="2" t="n"/>
-      <c r="J98" s="2" t="n"/>
-      <c r="K98" s="2" t="n"/>
-      <c r="L98" s="2" t="n"/>
-      <c r="M98" s="2" t="n"/>
-      <c r="N98" s="2" t="n"/>
-      <c r="O98" s="2" t="n"/>
-      <c r="P98" s="2" t="n"/>
+      <c r="D98" s="2" t="inlineStr"/>
+      <c r="E98" s="2" t="inlineStr"/>
+      <c r="F98" s="2" t="inlineStr"/>
+      <c r="G98" s="2" t="inlineStr"/>
+      <c r="H98" s="2" t="inlineStr"/>
+      <c r="I98" s="2" t="inlineStr"/>
+      <c r="J98" s="2" t="inlineStr"/>
+      <c r="K98" s="2" t="inlineStr"/>
+      <c r="L98" s="2" t="inlineStr"/>
+      <c r="M98" s="2" t="inlineStr"/>
+      <c r="N98" s="2" t="inlineStr"/>
+      <c r="O98" s="2" t="inlineStr"/>
+      <c r="P98" s="2" t="inlineStr"/>
       <c r="Q98" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
@@ -5943,17 +5974,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T98" s="2" t="n"/>
-      <c r="U98" s="2" t="n"/>
-      <c r="V98" s="2" t="n"/>
-      <c r="W98" s="2" t="n"/>
+      <c r="T98" s="2" t="inlineStr"/>
+      <c r="U98" s="2" t="inlineStr"/>
+      <c r="V98" s="2" t="inlineStr"/>
+      <c r="W98" s="2" t="inlineStr"/>
       <c r="X98" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y98" s="2" t="n"/>
-      <c r="Z98" s="2" t="n"/>
+      <c r="Y98" s="2" t="inlineStr"/>
+      <c r="Z98" s="2" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
@@ -5971,19 +6002,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n"/>
-      <c r="E99" s="2" t="n"/>
-      <c r="F99" s="2" t="n"/>
-      <c r="G99" s="2" t="n"/>
-      <c r="H99" s="2" t="n"/>
-      <c r="I99" s="2" t="n"/>
-      <c r="J99" s="2" t="n"/>
-      <c r="K99" s="2" t="n"/>
-      <c r="L99" s="2" t="n"/>
-      <c r="M99" s="2" t="n"/>
-      <c r="N99" s="2" t="n"/>
-      <c r="O99" s="2" t="n"/>
-      <c r="P99" s="2" t="n"/>
+      <c r="D99" s="2" t="inlineStr"/>
+      <c r="E99" s="2" t="inlineStr"/>
+      <c r="F99" s="2" t="inlineStr"/>
+      <c r="G99" s="2" t="inlineStr"/>
+      <c r="H99" s="2" t="inlineStr"/>
+      <c r="I99" s="2" t="inlineStr"/>
+      <c r="J99" s="2" t="inlineStr"/>
+      <c r="K99" s="2" t="inlineStr"/>
+      <c r="L99" s="2" t="inlineStr"/>
+      <c r="M99" s="2" t="inlineStr"/>
+      <c r="N99" s="2" t="inlineStr"/>
+      <c r="O99" s="2" t="inlineStr"/>
+      <c r="P99" s="2" t="inlineStr"/>
       <c r="Q99" s="2" t="inlineStr">
         <is>
           <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
@@ -5999,17 +6030,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T99" s="2" t="n"/>
-      <c r="U99" s="2" t="n"/>
-      <c r="V99" s="2" t="n"/>
-      <c r="W99" s="2" t="n"/>
+      <c r="T99" s="2" t="inlineStr"/>
+      <c r="U99" s="2" t="inlineStr"/>
+      <c r="V99" s="2" t="inlineStr"/>
+      <c r="W99" s="2" t="inlineStr"/>
       <c r="X99" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y99" s="2" t="n"/>
-      <c r="Z99" s="2" t="n"/>
+      <c r="Y99" s="2" t="inlineStr"/>
+      <c r="Z99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
@@ -6027,19 +6058,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D100" s="2" t="n"/>
-      <c r="E100" s="2" t="n"/>
-      <c r="F100" s="2" t="n"/>
-      <c r="G100" s="2" t="n"/>
-      <c r="H100" s="2" t="n"/>
-      <c r="I100" s="2" t="n"/>
-      <c r="J100" s="2" t="n"/>
-      <c r="K100" s="2" t="n"/>
-      <c r="L100" s="2" t="n"/>
-      <c r="M100" s="2" t="n"/>
-      <c r="N100" s="2" t="n"/>
-      <c r="O100" s="2" t="n"/>
-      <c r="P100" s="2" t="n"/>
+      <c r="D100" s="2" t="inlineStr"/>
+      <c r="E100" s="2" t="inlineStr"/>
+      <c r="F100" s="2" t="inlineStr"/>
+      <c r="G100" s="2" t="inlineStr"/>
+      <c r="H100" s="2" t="inlineStr"/>
+      <c r="I100" s="2" t="inlineStr"/>
+      <c r="J100" s="2" t="inlineStr"/>
+      <c r="K100" s="2" t="inlineStr"/>
+      <c r="L100" s="2" t="inlineStr"/>
+      <c r="M100" s="2" t="inlineStr"/>
+      <c r="N100" s="2" t="inlineStr"/>
+      <c r="O100" s="2" t="inlineStr"/>
+      <c r="P100" s="2" t="inlineStr"/>
       <c r="Q100" s="2" t="inlineStr">
         <is>
           <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
@@ -6060,16 +6091,16 @@
           <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
         </is>
       </c>
-      <c r="U100" s="2" t="n"/>
-      <c r="V100" s="2" t="n"/>
-      <c r="W100" s="2" t="n"/>
+      <c r="U100" s="2" t="inlineStr"/>
+      <c r="V100" s="2" t="inlineStr"/>
+      <c r="W100" s="2" t="inlineStr"/>
       <c r="X100" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y100" s="2" t="n"/>
-      <c r="Z100" s="2" t="n"/>
+      <c r="Y100" s="2" t="inlineStr"/>
+      <c r="Z100" s="2" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
@@ -6087,37 +6118,37 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n"/>
-      <c r="E101" s="2" t="n"/>
-      <c r="F101" s="2" t="n"/>
-      <c r="G101" s="2" t="n"/>
-      <c r="H101" s="2" t="n"/>
-      <c r="I101" s="2" t="n"/>
-      <c r="J101" s="2" t="n"/>
-      <c r="K101" s="2" t="n"/>
-      <c r="L101" s="2" t="n"/>
-      <c r="M101" s="2" t="n"/>
-      <c r="N101" s="2" t="n"/>
-      <c r="O101" s="2" t="n"/>
-      <c r="P101" s="2" t="n"/>
+      <c r="D101" s="2" t="inlineStr"/>
+      <c r="E101" s="2" t="inlineStr"/>
+      <c r="F101" s="2" t="inlineStr"/>
+      <c r="G101" s="2" t="inlineStr"/>
+      <c r="H101" s="2" t="inlineStr"/>
+      <c r="I101" s="2" t="inlineStr"/>
+      <c r="J101" s="2" t="inlineStr"/>
+      <c r="K101" s="2" t="inlineStr"/>
+      <c r="L101" s="2" t="inlineStr"/>
+      <c r="M101" s="2" t="inlineStr"/>
+      <c r="N101" s="2" t="inlineStr"/>
+      <c r="O101" s="2" t="inlineStr"/>
+      <c r="P101" s="2" t="inlineStr"/>
       <c r="Q101" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
         </is>
       </c>
-      <c r="R101" s="2" t="n"/>
-      <c r="S101" s="2" t="n"/>
-      <c r="T101" s="2" t="n"/>
-      <c r="U101" s="2" t="n"/>
-      <c r="V101" s="2" t="n"/>
-      <c r="W101" s="2" t="n"/>
+      <c r="R101" s="2" t="inlineStr"/>
+      <c r="S101" s="2" t="inlineStr"/>
+      <c r="T101" s="2" t="inlineStr"/>
+      <c r="U101" s="2" t="inlineStr"/>
+      <c r="V101" s="2" t="inlineStr"/>
+      <c r="W101" s="2" t="inlineStr"/>
       <c r="X101" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y101" s="2" t="n"/>
-      <c r="Z101" s="2" t="n"/>
+      <c r="Y101" s="2" t="inlineStr"/>
+      <c r="Z101" s="2" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
@@ -6135,19 +6166,19 @@
           <t xml:space="preserve">social professional </t>
         </is>
       </c>
-      <c r="D102" s="2" t="n"/>
-      <c r="E102" s="2" t="n"/>
-      <c r="F102" s="2" t="n"/>
-      <c r="G102" s="2" t="n"/>
-      <c r="H102" s="2" t="n"/>
-      <c r="I102" s="2" t="n"/>
-      <c r="J102" s="2" t="n"/>
-      <c r="K102" s="2" t="n"/>
-      <c r="L102" s="2" t="n"/>
-      <c r="M102" s="2" t="n"/>
-      <c r="N102" s="2" t="n"/>
-      <c r="O102" s="2" t="n"/>
-      <c r="P102" s="2" t="n"/>
+      <c r="D102" s="2" t="inlineStr"/>
+      <c r="E102" s="2" t="inlineStr"/>
+      <c r="F102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="inlineStr"/>
+      <c r="H102" s="2" t="inlineStr"/>
+      <c r="I102" s="2" t="inlineStr"/>
+      <c r="J102" s="2" t="inlineStr"/>
+      <c r="K102" s="2" t="inlineStr"/>
+      <c r="L102" s="2" t="inlineStr"/>
+      <c r="M102" s="2" t="inlineStr"/>
+      <c r="N102" s="2" t="inlineStr"/>
+      <c r="O102" s="2" t="inlineStr"/>
+      <c r="P102" s="2" t="inlineStr"/>
       <c r="Q102" s="2" t="inlineStr">
         <is>
           <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
@@ -6168,16 +6199,16 @@
           <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
         </is>
       </c>
-      <c r="U102" s="2" t="n"/>
-      <c r="V102" s="2" t="n"/>
-      <c r="W102" s="2" t="n"/>
+      <c r="U102" s="2" t="inlineStr"/>
+      <c r="V102" s="2" t="inlineStr"/>
+      <c r="W102" s="2" t="inlineStr"/>
       <c r="X102" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y102" s="2" t="n"/>
-      <c r="Z102" s="2" t="n"/>
+      <c r="Y102" s="2" t="inlineStr"/>
+      <c r="Z102" s="2" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
@@ -6195,37 +6226,37 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n"/>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-      <c r="H103" s="2" t="n"/>
-      <c r="I103" s="2" t="n"/>
-      <c r="J103" s="2" t="n"/>
-      <c r="K103" s="2" t="n"/>
-      <c r="L103" s="2" t="n"/>
-      <c r="M103" s="2" t="n"/>
-      <c r="N103" s="2" t="n"/>
-      <c r="O103" s="2" t="n"/>
-      <c r="P103" s="2" t="n"/>
+      <c r="D103" s="2" t="inlineStr"/>
+      <c r="E103" s="2" t="inlineStr"/>
+      <c r="F103" s="2" t="inlineStr"/>
+      <c r="G103" s="2" t="inlineStr"/>
+      <c r="H103" s="2" t="inlineStr"/>
+      <c r="I103" s="2" t="inlineStr"/>
+      <c r="J103" s="2" t="inlineStr"/>
+      <c r="K103" s="2" t="inlineStr"/>
+      <c r="L103" s="2" t="inlineStr"/>
+      <c r="M103" s="2" t="inlineStr"/>
+      <c r="N103" s="2" t="inlineStr"/>
+      <c r="O103" s="2" t="inlineStr"/>
+      <c r="P103" s="2" t="inlineStr"/>
       <c r="Q103" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
         </is>
       </c>
-      <c r="R103" s="2" t="n"/>
-      <c r="S103" s="2" t="n"/>
-      <c r="T103" s="2" t="n"/>
-      <c r="U103" s="2" t="n"/>
-      <c r="V103" s="2" t="n"/>
-      <c r="W103" s="2" t="n"/>
+      <c r="R103" s="2" t="inlineStr"/>
+      <c r="S103" s="2" t="inlineStr"/>
+      <c r="T103" s="2" t="inlineStr"/>
+      <c r="U103" s="2" t="inlineStr"/>
+      <c r="V103" s="2" t="inlineStr"/>
+      <c r="W103" s="2" t="inlineStr"/>
       <c r="X103" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y103" s="2" t="n"/>
-      <c r="Z103" s="2" t="n"/>
+      <c r="Y103" s="2" t="inlineStr"/>
+      <c r="Z103" s="2" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
@@ -6243,19 +6274,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D104" s="2" t="n"/>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-      <c r="H104" s="2" t="n"/>
-      <c r="I104" s="2" t="n"/>
-      <c r="J104" s="2" t="n"/>
-      <c r="K104" s="2" t="n"/>
-      <c r="L104" s="2" t="n"/>
-      <c r="M104" s="2" t="n"/>
-      <c r="N104" s="2" t="n"/>
-      <c r="O104" s="2" t="n"/>
-      <c r="P104" s="2" t="n"/>
+      <c r="D104" s="2" t="inlineStr"/>
+      <c r="E104" s="2" t="inlineStr"/>
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr"/>
+      <c r="H104" s="2" t="inlineStr"/>
+      <c r="I104" s="2" t="inlineStr"/>
+      <c r="J104" s="2" t="inlineStr"/>
+      <c r="K104" s="2" t="inlineStr"/>
+      <c r="L104" s="2" t="inlineStr"/>
+      <c r="M104" s="2" t="inlineStr"/>
+      <c r="N104" s="2" t="inlineStr"/>
+      <c r="O104" s="2" t="inlineStr"/>
+      <c r="P104" s="2" t="inlineStr"/>
       <c r="Q104" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
@@ -6276,16 +6307,16 @@
           <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
-      <c r="U104" s="2" t="n"/>
-      <c r="V104" s="2" t="n"/>
-      <c r="W104" s="2" t="n"/>
+      <c r="U104" s="2" t="inlineStr"/>
+      <c r="V104" s="2" t="inlineStr"/>
+      <c r="W104" s="2" t="inlineStr"/>
       <c r="X104" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y104" s="2" t="n"/>
-      <c r="Z104" s="2" t="n"/>
+      <c r="Y104" s="2" t="inlineStr"/>
+      <c r="Z104" s="2" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
@@ -6303,41 +6334,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n"/>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-      <c r="H105" s="2" t="n"/>
-      <c r="I105" s="2" t="n"/>
-      <c r="J105" s="2" t="n"/>
-      <c r="K105" s="2" t="n"/>
-      <c r="L105" s="2" t="n"/>
-      <c r="M105" s="2" t="n"/>
-      <c r="N105" s="2" t="n"/>
-      <c r="O105" s="2" t="n"/>
-      <c r="P105" s="2" t="n"/>
+      <c r="D105" s="2" t="inlineStr"/>
+      <c r="E105" s="2" t="inlineStr"/>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr"/>
+      <c r="H105" s="2" t="inlineStr"/>
+      <c r="I105" s="2" t="inlineStr"/>
+      <c r="J105" s="2" t="inlineStr"/>
+      <c r="K105" s="2" t="inlineStr"/>
+      <c r="L105" s="2" t="inlineStr"/>
+      <c r="M105" s="2" t="inlineStr"/>
+      <c r="N105" s="2" t="inlineStr"/>
+      <c r="O105" s="2" t="inlineStr"/>
+      <c r="P105" s="2" t="inlineStr"/>
       <c r="Q105" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion. </t>
         </is>
       </c>
-      <c r="R105" s="2" t="n"/>
-      <c r="S105" s="2" t="n"/>
+      <c r="R105" s="2" t="inlineStr"/>
+      <c r="S105" s="2" t="inlineStr"/>
       <c r="T105" s="2" t="inlineStr">
         <is>
           <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
-      <c r="U105" s="2" t="n"/>
-      <c r="V105" s="2" t="n"/>
-      <c r="W105" s="2" t="n"/>
+      <c r="U105" s="2" t="inlineStr"/>
+      <c r="V105" s="2" t="inlineStr"/>
+      <c r="W105" s="2" t="inlineStr"/>
       <c r="X105" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y105" s="2" t="n"/>
-      <c r="Z105" s="2" t="n"/>
+      <c r="Y105" s="2" t="inlineStr"/>
+      <c r="Z105" s="2" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
@@ -6355,19 +6386,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D106" s="2" t="n"/>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-      <c r="H106" s="2" t="n"/>
-      <c r="I106" s="2" t="n"/>
-      <c r="J106" s="2" t="n"/>
-      <c r="K106" s="2" t="n"/>
-      <c r="L106" s="2" t="n"/>
-      <c r="M106" s="2" t="n"/>
-      <c r="N106" s="2" t="n"/>
-      <c r="O106" s="2" t="n"/>
-      <c r="P106" s="2" t="n"/>
+      <c r="D106" s="2" t="inlineStr"/>
+      <c r="E106" s="2" t="inlineStr"/>
+      <c r="F106" s="2" t="inlineStr"/>
+      <c r="G106" s="2" t="inlineStr"/>
+      <c r="H106" s="2" t="inlineStr"/>
+      <c r="I106" s="2" t="inlineStr"/>
+      <c r="J106" s="2" t="inlineStr"/>
+      <c r="K106" s="2" t="inlineStr"/>
+      <c r="L106" s="2" t="inlineStr"/>
+      <c r="M106" s="2" t="inlineStr"/>
+      <c r="N106" s="2" t="inlineStr"/>
+      <c r="O106" s="2" t="inlineStr"/>
+      <c r="P106" s="2" t="inlineStr"/>
       <c r="Q106" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
@@ -6388,16 +6419,16 @@
           <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
-      <c r="U106" s="2" t="n"/>
-      <c r="V106" s="2" t="n"/>
-      <c r="W106" s="2" t="n"/>
+      <c r="U106" s="2" t="inlineStr"/>
+      <c r="V106" s="2" t="inlineStr"/>
+      <c r="W106" s="2" t="inlineStr"/>
       <c r="X106" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y106" s="2" t="n"/>
-      <c r="Z106" s="2" t="n"/>
+      <c r="Y106" s="2" t="inlineStr"/>
+      <c r="Z106" s="2" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
@@ -6415,41 +6446,41 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n"/>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-      <c r="H107" s="2" t="n"/>
-      <c r="I107" s="2" t="n"/>
-      <c r="J107" s="2" t="n"/>
-      <c r="K107" s="2" t="n"/>
-      <c r="L107" s="2" t="n"/>
-      <c r="M107" s="2" t="n"/>
-      <c r="N107" s="2" t="n"/>
-      <c r="O107" s="2" t="n"/>
-      <c r="P107" s="2" t="n"/>
+      <c r="D107" s="2" t="inlineStr"/>
+      <c r="E107" s="2" t="inlineStr"/>
+      <c r="F107" s="2" t="inlineStr"/>
+      <c r="G107" s="2" t="inlineStr"/>
+      <c r="H107" s="2" t="inlineStr"/>
+      <c r="I107" s="2" t="inlineStr"/>
+      <c r="J107" s="2" t="inlineStr"/>
+      <c r="K107" s="2" t="inlineStr"/>
+      <c r="L107" s="2" t="inlineStr"/>
+      <c r="M107" s="2" t="inlineStr"/>
+      <c r="N107" s="2" t="inlineStr"/>
+      <c r="O107" s="2" t="inlineStr"/>
+      <c r="P107" s="2" t="inlineStr"/>
       <c r="Q107" s="2" t="inlineStr">
         <is>
           <t>An occupational role that is a researcher but unclear what discipline.</t>
         </is>
       </c>
-      <c r="R107" s="2" t="n"/>
-      <c r="S107" s="2" t="n"/>
+      <c r="R107" s="2" t="inlineStr"/>
+      <c r="S107" s="2" t="inlineStr"/>
       <c r="T107" s="2" t="inlineStr">
         <is>
           <t>researcher, research assistant, investigator</t>
         </is>
       </c>
-      <c r="U107" s="2" t="n"/>
-      <c r="V107" s="2" t="n"/>
-      <c r="W107" s="2" t="n"/>
+      <c r="U107" s="2" t="inlineStr"/>
+      <c r="V107" s="2" t="inlineStr"/>
+      <c r="W107" s="2" t="inlineStr"/>
       <c r="X107" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y107" s="2" t="n"/>
-      <c r="Z107" s="2" t="n"/>
+      <c r="Y107" s="2" t="inlineStr"/>
+      <c r="Z107" s="2" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
@@ -6467,19 +6498,19 @@
           <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
-      <c r="D108" s="2" t="n"/>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-      <c r="H108" s="2" t="n"/>
-      <c r="I108" s="2" t="n"/>
-      <c r="J108" s="2" t="n"/>
-      <c r="K108" s="2" t="n"/>
-      <c r="L108" s="2" t="n"/>
-      <c r="M108" s="2" t="n"/>
-      <c r="N108" s="2" t="n"/>
-      <c r="O108" s="2" t="n"/>
-      <c r="P108" s="2" t="n"/>
+      <c r="D108" s="2" t="inlineStr"/>
+      <c r="E108" s="2" t="inlineStr"/>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
+      <c r="H108" s="2" t="inlineStr"/>
+      <c r="I108" s="2" t="inlineStr"/>
+      <c r="J108" s="2" t="inlineStr"/>
+      <c r="K108" s="2" t="inlineStr"/>
+      <c r="L108" s="2" t="inlineStr"/>
+      <c r="M108" s="2" t="inlineStr"/>
+      <c r="N108" s="2" t="inlineStr"/>
+      <c r="O108" s="2" t="inlineStr"/>
+      <c r="P108" s="2" t="inlineStr"/>
       <c r="Q108" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets. </t>
@@ -6500,16 +6531,16 @@
           <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
         </is>
       </c>
-      <c r="U108" s="2" t="n"/>
-      <c r="V108" s="2" t="n"/>
-      <c r="W108" s="2" t="n"/>
+      <c r="U108" s="2" t="inlineStr"/>
+      <c r="V108" s="2" t="inlineStr"/>
+      <c r="W108" s="2" t="inlineStr"/>
       <c r="X108" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y108" s="2" t="n"/>
-      <c r="Z108" s="2" t="n"/>
+      <c r="Y108" s="2" t="inlineStr"/>
+      <c r="Z108" s="2" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
@@ -6527,37 +6558,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n"/>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-      <c r="H109" s="2" t="n"/>
-      <c r="I109" s="2" t="n"/>
-      <c r="J109" s="2" t="n"/>
-      <c r="K109" s="2" t="n"/>
-      <c r="L109" s="2" t="n"/>
-      <c r="M109" s="2" t="n"/>
-      <c r="N109" s="2" t="n"/>
-      <c r="O109" s="2" t="n"/>
-      <c r="P109" s="2" t="n"/>
+      <c r="D109" s="2" t="inlineStr"/>
+      <c r="E109" s="2" t="inlineStr"/>
+      <c r="F109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr"/>
+      <c r="H109" s="2" t="inlineStr"/>
+      <c r="I109" s="2" t="inlineStr"/>
+      <c r="J109" s="2" t="inlineStr"/>
+      <c r="K109" s="2" t="inlineStr"/>
+      <c r="L109" s="2" t="inlineStr"/>
+      <c r="M109" s="2" t="inlineStr"/>
+      <c r="N109" s="2" t="inlineStr"/>
+      <c r="O109" s="2" t="inlineStr"/>
+      <c r="P109" s="2" t="inlineStr"/>
       <c r="Q109" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
-      <c r="R109" s="2" t="n"/>
-      <c r="S109" s="2" t="n"/>
-      <c r="T109" s="2" t="n"/>
-      <c r="U109" s="2" t="n"/>
-      <c r="V109" s="2" t="n"/>
-      <c r="W109" s="2" t="n"/>
+      <c r="R109" s="2" t="inlineStr"/>
+      <c r="S109" s="2" t="inlineStr"/>
+      <c r="T109" s="2" t="inlineStr"/>
+      <c r="U109" s="2" t="inlineStr"/>
+      <c r="V109" s="2" t="inlineStr"/>
+      <c r="W109" s="2" t="inlineStr"/>
       <c r="X109" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y109" s="2" t="n"/>
-      <c r="Z109" s="2" t="n"/>
+      <c r="Y109" s="2" t="inlineStr"/>
+      <c r="Z109" s="2" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
@@ -6575,19 +6606,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n"/>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-      <c r="H110" s="2" t="n"/>
-      <c r="I110" s="2" t="n"/>
-      <c r="J110" s="2" t="n"/>
-      <c r="K110" s="2" t="n"/>
-      <c r="L110" s="2" t="n"/>
-      <c r="M110" s="2" t="n"/>
-      <c r="N110" s="2" t="n"/>
-      <c r="O110" s="2" t="n"/>
-      <c r="P110" s="2" t="n"/>
+      <c r="D110" s="2" t="inlineStr"/>
+      <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr"/>
+      <c r="H110" s="2" t="inlineStr"/>
+      <c r="I110" s="2" t="inlineStr"/>
+      <c r="J110" s="2" t="inlineStr"/>
+      <c r="K110" s="2" t="inlineStr"/>
+      <c r="L110" s="2" t="inlineStr"/>
+      <c r="M110" s="2" t="inlineStr"/>
+      <c r="N110" s="2" t="inlineStr"/>
+      <c r="O110" s="2" t="inlineStr"/>
+      <c r="P110" s="2" t="inlineStr"/>
       <c r="Q110" s="2" t="inlineStr">
         <is>
           <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
@@ -6608,16 +6639,16 @@
           <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
-      <c r="U110" s="2" t="n"/>
-      <c r="V110" s="2" t="n"/>
-      <c r="W110" s="2" t="n"/>
+      <c r="U110" s="2" t="inlineStr"/>
+      <c r="V110" s="2" t="inlineStr"/>
+      <c r="W110" s="2" t="inlineStr"/>
       <c r="X110" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y110" s="2" t="n"/>
-      <c r="Z110" s="2" t="n"/>
+      <c r="Y110" s="2" t="inlineStr"/>
+      <c r="Z110" s="2" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
@@ -6635,19 +6666,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D111" s="2" t="n"/>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-      <c r="H111" s="2" t="n"/>
-      <c r="I111" s="2" t="n"/>
-      <c r="J111" s="2" t="n"/>
-      <c r="K111" s="2" t="n"/>
-      <c r="L111" s="2" t="n"/>
-      <c r="M111" s="2" t="n"/>
-      <c r="N111" s="2" t="n"/>
-      <c r="O111" s="2" t="n"/>
-      <c r="P111" s="2" t="n"/>
+      <c r="D111" s="2" t="inlineStr"/>
+      <c r="E111" s="2" t="inlineStr"/>
+      <c r="F111" s="2" t="inlineStr"/>
+      <c r="G111" s="2" t="inlineStr"/>
+      <c r="H111" s="2" t="inlineStr"/>
+      <c r="I111" s="2" t="inlineStr"/>
+      <c r="J111" s="2" t="inlineStr"/>
+      <c r="K111" s="2" t="inlineStr"/>
+      <c r="L111" s="2" t="inlineStr"/>
+      <c r="M111" s="2" t="inlineStr"/>
+      <c r="N111" s="2" t="inlineStr"/>
+      <c r="O111" s="2" t="inlineStr"/>
+      <c r="P111" s="2" t="inlineStr"/>
       <c r="Q111" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
@@ -6668,16 +6699,16 @@
           <t>Secondary school teacher, High school teacher</t>
         </is>
       </c>
-      <c r="U111" s="2" t="n"/>
-      <c r="V111" s="2" t="n"/>
-      <c r="W111" s="2" t="n"/>
+      <c r="U111" s="2" t="inlineStr"/>
+      <c r="V111" s="2" t="inlineStr"/>
+      <c r="W111" s="2" t="inlineStr"/>
       <c r="X111" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y111" s="2" t="n"/>
-      <c r="Z111" s="2" t="n"/>
+      <c r="Y111" s="2" t="inlineStr"/>
+      <c r="Z111" s="2" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
@@ -6695,19 +6726,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n"/>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-      <c r="H112" s="2" t="n"/>
-      <c r="I112" s="2" t="n"/>
-      <c r="J112" s="2" t="n"/>
-      <c r="K112" s="2" t="n"/>
-      <c r="L112" s="2" t="n"/>
-      <c r="M112" s="2" t="n"/>
-      <c r="N112" s="2" t="n"/>
-      <c r="O112" s="2" t="n"/>
-      <c r="P112" s="2" t="n"/>
+      <c r="D112" s="2" t="inlineStr"/>
+      <c r="E112" s="2" t="inlineStr"/>
+      <c r="F112" s="2" t="inlineStr"/>
+      <c r="G112" s="2" t="inlineStr"/>
+      <c r="H112" s="2" t="inlineStr"/>
+      <c r="I112" s="2" t="inlineStr"/>
+      <c r="J112" s="2" t="inlineStr"/>
+      <c r="K112" s="2" t="inlineStr"/>
+      <c r="L112" s="2" t="inlineStr"/>
+      <c r="M112" s="2" t="inlineStr"/>
+      <c r="N112" s="2" t="inlineStr"/>
+      <c r="O112" s="2" t="inlineStr"/>
+      <c r="P112" s="2" t="inlineStr"/>
       <c r="Q112" s="2" t="inlineStr">
         <is>
           <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
@@ -6723,17 +6754,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T112" s="2" t="n"/>
-      <c r="U112" s="2" t="n"/>
-      <c r="V112" s="2" t="n"/>
-      <c r="W112" s="2" t="n"/>
+      <c r="T112" s="2" t="inlineStr"/>
+      <c r="U112" s="2" t="inlineStr"/>
+      <c r="V112" s="2" t="inlineStr"/>
+      <c r="W112" s="2" t="inlineStr"/>
       <c r="X112" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y112" s="2" t="n"/>
-      <c r="Z112" s="2" t="n"/>
+      <c r="Y112" s="2" t="inlineStr"/>
+      <c r="Z112" s="2" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
@@ -6751,41 +6782,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n"/>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-      <c r="H113" s="2" t="n"/>
-      <c r="I113" s="2" t="n"/>
-      <c r="J113" s="2" t="n"/>
-      <c r="K113" s="2" t="n"/>
-      <c r="L113" s="2" t="n"/>
-      <c r="M113" s="2" t="n"/>
-      <c r="N113" s="2" t="n"/>
-      <c r="O113" s="2" t="n"/>
-      <c r="P113" s="2" t="n"/>
+      <c r="D113" s="2" t="inlineStr"/>
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr"/>
+      <c r="H113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr"/>
+      <c r="J113" s="2" t="inlineStr"/>
+      <c r="K113" s="2" t="inlineStr"/>
+      <c r="L113" s="2" t="inlineStr"/>
+      <c r="M113" s="2" t="inlineStr"/>
+      <c r="N113" s="2" t="inlineStr"/>
+      <c r="O113" s="2" t="inlineStr"/>
+      <c r="P113" s="2" t="inlineStr"/>
       <c r="Q113" s="2" t="inlineStr">
         <is>
           <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
         </is>
       </c>
-      <c r="R113" s="2" t="n"/>
-      <c r="S113" s="2" t="n"/>
+      <c r="R113" s="2" t="inlineStr"/>
+      <c r="S113" s="2" t="inlineStr"/>
       <c r="T113" s="2" t="inlineStr">
         <is>
           <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
-      <c r="U113" s="2" t="n"/>
-      <c r="V113" s="2" t="n"/>
-      <c r="W113" s="2" t="n"/>
+      <c r="U113" s="2" t="inlineStr"/>
+      <c r="V113" s="2" t="inlineStr"/>
+      <c r="W113" s="2" t="inlineStr"/>
       <c r="X113" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y113" s="2" t="n"/>
-      <c r="Z113" s="2" t="n"/>
+      <c r="Y113" s="2" t="inlineStr"/>
+      <c r="Z113" s="2" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
@@ -6803,19 +6834,19 @@
           <t>occupational role of source</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n"/>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-      <c r="H114" s="2" t="n"/>
-      <c r="I114" s="2" t="n"/>
-      <c r="J114" s="2" t="n"/>
-      <c r="K114" s="2" t="n"/>
-      <c r="L114" s="2" t="n"/>
-      <c r="M114" s="2" t="n"/>
-      <c r="N114" s="2" t="n"/>
-      <c r="O114" s="2" t="n"/>
-      <c r="P114" s="2" t="n"/>
+      <c r="D114" s="2" t="inlineStr"/>
+      <c r="E114" s="2" t="inlineStr"/>
+      <c r="F114" s="2" t="inlineStr"/>
+      <c r="G114" s="2" t="inlineStr"/>
+      <c r="H114" s="2" t="inlineStr"/>
+      <c r="I114" s="2" t="inlineStr"/>
+      <c r="J114" s="2" t="inlineStr"/>
+      <c r="K114" s="2" t="inlineStr"/>
+      <c r="L114" s="2" t="inlineStr"/>
+      <c r="M114" s="2" t="inlineStr"/>
+      <c r="N114" s="2" t="inlineStr"/>
+      <c r="O114" s="2" t="inlineStr"/>
+      <c r="P114" s="2" t="inlineStr"/>
       <c r="Q114" s="2" t="inlineStr">
         <is>
           <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
@@ -6836,16 +6867,16 @@
           <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
-      <c r="U114" s="2" t="n"/>
-      <c r="V114" s="2" t="n"/>
-      <c r="W114" s="2" t="n"/>
+      <c r="U114" s="2" t="inlineStr"/>
+      <c r="V114" s="2" t="inlineStr"/>
+      <c r="W114" s="2" t="inlineStr"/>
       <c r="X114" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y114" s="2" t="n"/>
-      <c r="Z114" s="2" t="n"/>
+      <c r="Y114" s="2" t="inlineStr"/>
+      <c r="Z114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
@@ -6863,19 +6894,19 @@
           <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
-      <c r="D115" s="2" t="n"/>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-      <c r="H115" s="2" t="n"/>
-      <c r="I115" s="2" t="n"/>
-      <c r="J115" s="2" t="n"/>
-      <c r="K115" s="2" t="n"/>
-      <c r="L115" s="2" t="n"/>
-      <c r="M115" s="2" t="n"/>
-      <c r="N115" s="2" t="n"/>
-      <c r="O115" s="2" t="n"/>
-      <c r="P115" s="2" t="n"/>
+      <c r="D115" s="2" t="inlineStr"/>
+      <c r="E115" s="2" t="inlineStr"/>
+      <c r="F115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr"/>
+      <c r="H115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr"/>
+      <c r="J115" s="2" t="inlineStr"/>
+      <c r="K115" s="2" t="inlineStr"/>
+      <c r="L115" s="2" t="inlineStr"/>
+      <c r="M115" s="2" t="inlineStr"/>
+      <c r="N115" s="2" t="inlineStr"/>
+      <c r="O115" s="2" t="inlineStr"/>
+      <c r="P115" s="2" t="inlineStr"/>
       <c r="Q115" s="2" t="inlineStr">
         <is>
           <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
@@ -6896,16 +6927,16 @@
           <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
-      <c r="U115" s="2" t="n"/>
-      <c r="V115" s="2" t="n"/>
-      <c r="W115" s="2" t="n"/>
+      <c r="U115" s="2" t="inlineStr"/>
+      <c r="V115" s="2" t="inlineStr"/>
+      <c r="W115" s="2" t="inlineStr"/>
       <c r="X115" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y115" s="2" t="n"/>
-      <c r="Z115" s="2" t="n"/>
+      <c r="Y115" s="2" t="inlineStr"/>
+      <c r="Z115" s="2" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
@@ -6923,19 +6954,19 @@
           <t xml:space="preserve">social professional </t>
         </is>
       </c>
-      <c r="D116" s="2" t="n"/>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-      <c r="H116" s="2" t="n"/>
-      <c r="I116" s="2" t="n"/>
-      <c r="J116" s="2" t="n"/>
-      <c r="K116" s="2" t="n"/>
-      <c r="L116" s="2" t="n"/>
-      <c r="M116" s="2" t="n"/>
-      <c r="N116" s="2" t="n"/>
-      <c r="O116" s="2" t="n"/>
-      <c r="P116" s="2" t="n"/>
+      <c r="D116" s="2" t="inlineStr"/>
+      <c r="E116" s="2" t="inlineStr"/>
+      <c r="F116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr"/>
+      <c r="H116" s="2" t="inlineStr"/>
+      <c r="I116" s="2" t="inlineStr"/>
+      <c r="J116" s="2" t="inlineStr"/>
+      <c r="K116" s="2" t="inlineStr"/>
+      <c r="L116" s="2" t="inlineStr"/>
+      <c r="M116" s="2" t="inlineStr"/>
+      <c r="N116" s="2" t="inlineStr"/>
+      <c r="O116" s="2" t="inlineStr"/>
+      <c r="P116" s="2" t="inlineStr"/>
       <c r="Q116" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems. </t>
@@ -6956,16 +6987,16 @@
           <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
-      <c r="U116" s="2" t="n"/>
-      <c r="V116" s="2" t="n"/>
-      <c r="W116" s="2" t="n"/>
+      <c r="U116" s="2" t="inlineStr"/>
+      <c r="V116" s="2" t="inlineStr"/>
+      <c r="W116" s="2" t="inlineStr"/>
       <c r="X116" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y116" s="2" t="n"/>
-      <c r="Z116" s="2" t="n"/>
+      <c r="Y116" s="2" t="inlineStr"/>
+      <c r="Z116" s="2" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
@@ -6983,19 +7014,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D117" s="2" t="n"/>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-      <c r="H117" s="2" t="n"/>
-      <c r="I117" s="2" t="n"/>
-      <c r="J117" s="2" t="n"/>
-      <c r="K117" s="2" t="n"/>
-      <c r="L117" s="2" t="n"/>
-      <c r="M117" s="2" t="n"/>
-      <c r="N117" s="2" t="n"/>
-      <c r="O117" s="2" t="n"/>
-      <c r="P117" s="2" t="n"/>
+      <c r="D117" s="2" t="inlineStr"/>
+      <c r="E117" s="2" t="inlineStr"/>
+      <c r="F117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr"/>
+      <c r="H117" s="2" t="inlineStr"/>
+      <c r="I117" s="2" t="inlineStr"/>
+      <c r="J117" s="2" t="inlineStr"/>
+      <c r="K117" s="2" t="inlineStr"/>
+      <c r="L117" s="2" t="inlineStr"/>
+      <c r="M117" s="2" t="inlineStr"/>
+      <c r="N117" s="2" t="inlineStr"/>
+      <c r="O117" s="2" t="inlineStr"/>
+      <c r="P117" s="2" t="inlineStr"/>
       <c r="Q117" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
@@ -7016,16 +7047,16 @@
           <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
         </is>
       </c>
-      <c r="U117" s="2" t="n"/>
-      <c r="V117" s="2" t="n"/>
-      <c r="W117" s="2" t="n"/>
+      <c r="U117" s="2" t="inlineStr"/>
+      <c r="V117" s="2" t="inlineStr"/>
+      <c r="W117" s="2" t="inlineStr"/>
       <c r="X117" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y117" s="2" t="n"/>
-      <c r="Z117" s="2" t="n"/>
+      <c r="Y117" s="2" t="inlineStr"/>
+      <c r="Z117" s="2" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
@@ -7043,18 +7074,18 @@
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n"/>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-      <c r="H118" s="2" t="n"/>
-      <c r="I118" s="2" t="n"/>
-      <c r="J118" s="2" t="n"/>
-      <c r="K118" s="2" t="n"/>
-      <c r="L118" s="2" t="n"/>
-      <c r="M118" s="2" t="n"/>
-      <c r="N118" s="2" t="n"/>
-      <c r="O118" s="2" t="n"/>
+      <c r="D118" s="2" t="inlineStr"/>
+      <c r="E118" s="2" t="inlineStr"/>
+      <c r="F118" s="2" t="inlineStr"/>
+      <c r="G118" s="2" t="inlineStr"/>
+      <c r="H118" s="2" t="inlineStr"/>
+      <c r="I118" s="2" t="inlineStr"/>
+      <c r="J118" s="2" t="inlineStr"/>
+      <c r="K118" s="2" t="inlineStr"/>
+      <c r="L118" s="2" t="inlineStr"/>
+      <c r="M118" s="2" t="inlineStr"/>
+      <c r="N118" s="2" t="inlineStr"/>
+      <c r="O118" s="2" t="inlineStr"/>
       <c r="P118" s="2" t="inlineStr">
         <is>
           <t>person source</t>
@@ -7065,19 +7096,19 @@
           <t xml:space="preserve">A social or demographic characteristic of a human being who is the bearer of a person source role. </t>
         </is>
       </c>
-      <c r="R118" s="2" t="n"/>
-      <c r="S118" s="2" t="n"/>
-      <c r="T118" s="2" t="n"/>
-      <c r="U118" s="2" t="n"/>
-      <c r="V118" s="2" t="n"/>
-      <c r="W118" s="2" t="n"/>
+      <c r="R118" s="2" t="inlineStr"/>
+      <c r="S118" s="2" t="inlineStr"/>
+      <c r="T118" s="2" t="inlineStr"/>
+      <c r="U118" s="2" t="inlineStr"/>
+      <c r="V118" s="2" t="inlineStr"/>
+      <c r="W118" s="2" t="inlineStr"/>
       <c r="X118" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y118" s="2" t="n"/>
-      <c r="Z118" s="2" t="n"/>
+      <c r="Y118" s="2" t="inlineStr"/>
+      <c r="Z118" s="2" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
@@ -7095,37 +7126,37 @@
           <t>source involved in development of intervention</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n"/>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-      <c r="H119" s="2" t="n"/>
-      <c r="I119" s="2" t="n"/>
-      <c r="J119" s="2" t="n"/>
-      <c r="K119" s="2" t="n"/>
-      <c r="L119" s="2" t="n"/>
-      <c r="M119" s="2" t="n"/>
-      <c r="N119" s="2" t="n"/>
-      <c r="O119" s="2" t="n"/>
-      <c r="P119" s="2" t="n"/>
+      <c r="D119" s="2" t="inlineStr"/>
+      <c r="E119" s="2" t="inlineStr"/>
+      <c r="F119" s="2" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr"/>
+      <c r="H119" s="2" t="inlineStr"/>
+      <c r="I119" s="2" t="inlineStr"/>
+      <c r="J119" s="2" t="inlineStr"/>
+      <c r="K119" s="2" t="inlineStr"/>
+      <c r="L119" s="2" t="inlineStr"/>
+      <c r="M119" s="2" t="inlineStr"/>
+      <c r="N119" s="2" t="inlineStr"/>
+      <c r="O119" s="2" t="inlineStr"/>
+      <c r="P119" s="2" t="inlineStr"/>
       <c r="Q119" s="2" t="inlineStr">
         <is>
           <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
-      <c r="R119" s="2" t="n"/>
-      <c r="S119" s="2" t="n"/>
-      <c r="T119" s="2" t="n"/>
-      <c r="U119" s="2" t="n"/>
-      <c r="V119" s="2" t="n"/>
-      <c r="W119" s="2" t="n"/>
+      <c r="R119" s="2" t="inlineStr"/>
+      <c r="S119" s="2" t="inlineStr"/>
+      <c r="T119" s="2" t="inlineStr"/>
+      <c r="U119" s="2" t="inlineStr"/>
+      <c r="V119" s="2" t="inlineStr"/>
+      <c r="W119" s="2" t="inlineStr"/>
       <c r="X119" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y119" s="2" t="n"/>
-      <c r="Z119" s="2" t="n"/>
+      <c r="Y119" s="2" t="inlineStr"/>
+      <c r="Z119" s="2" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
@@ -7143,37 +7174,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n"/>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-      <c r="H120" s="2" t="n"/>
-      <c r="I120" s="2" t="n"/>
-      <c r="J120" s="2" t="n"/>
-      <c r="K120" s="2" t="n"/>
-      <c r="L120" s="2" t="n"/>
-      <c r="M120" s="2" t="n"/>
-      <c r="N120" s="2" t="n"/>
-      <c r="O120" s="2" t="n"/>
-      <c r="P120" s="2" t="n"/>
+      <c r="D120" s="2" t="inlineStr"/>
+      <c r="E120" s="2" t="inlineStr"/>
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr"/>
+      <c r="H120" s="2" t="inlineStr"/>
+      <c r="I120" s="2" t="inlineStr"/>
+      <c r="J120" s="2" t="inlineStr"/>
+      <c r="K120" s="2" t="inlineStr"/>
+      <c r="L120" s="2" t="inlineStr"/>
+      <c r="M120" s="2" t="inlineStr"/>
+      <c r="N120" s="2" t="inlineStr"/>
+      <c r="O120" s="2" t="inlineStr"/>
+      <c r="P120" s="2" t="inlineStr"/>
       <c r="Q120" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI source that is involved in the development of intervention content. </t>
         </is>
       </c>
-      <c r="R120" s="2" t="n"/>
-      <c r="S120" s="2" t="n"/>
-      <c r="T120" s="2" t="n"/>
-      <c r="U120" s="2" t="n"/>
-      <c r="V120" s="2" t="n"/>
-      <c r="W120" s="2" t="n"/>
+      <c r="R120" s="2" t="inlineStr"/>
+      <c r="S120" s="2" t="inlineStr"/>
+      <c r="T120" s="2" t="inlineStr"/>
+      <c r="U120" s="2" t="inlineStr"/>
+      <c r="V120" s="2" t="inlineStr"/>
+      <c r="W120" s="2" t="inlineStr"/>
       <c r="X120" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y120" s="2" t="n"/>
-      <c r="Z120" s="2" t="n"/>
+      <c r="Y120" s="2" t="inlineStr"/>
+      <c r="Z120" s="2" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
@@ -7191,37 +7222,37 @@
           <t>BCI source</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n"/>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-      <c r="H121" s="2" t="n"/>
-      <c r="I121" s="2" t="n"/>
-      <c r="J121" s="2" t="n"/>
-      <c r="K121" s="2" t="n"/>
-      <c r="L121" s="2" t="n"/>
-      <c r="M121" s="2" t="n"/>
-      <c r="N121" s="2" t="n"/>
-      <c r="O121" s="2" t="n"/>
-      <c r="P121" s="2" t="n"/>
+      <c r="D121" s="2" t="inlineStr"/>
+      <c r="E121" s="2" t="inlineStr"/>
+      <c r="F121" s="2" t="inlineStr"/>
+      <c r="G121" s="2" t="inlineStr"/>
+      <c r="H121" s="2" t="inlineStr"/>
+      <c r="I121" s="2" t="inlineStr"/>
+      <c r="J121" s="2" t="inlineStr"/>
+      <c r="K121" s="2" t="inlineStr"/>
+      <c r="L121" s="2" t="inlineStr"/>
+      <c r="M121" s="2" t="inlineStr"/>
+      <c r="N121" s="2" t="inlineStr"/>
+      <c r="O121" s="2" t="inlineStr"/>
+      <c r="P121" s="2" t="inlineStr"/>
       <c r="Q121" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention. </t>
         </is>
       </c>
-      <c r="R121" s="2" t="n"/>
-      <c r="S121" s="2" t="n"/>
-      <c r="T121" s="2" t="n"/>
-      <c r="U121" s="2" t="n"/>
-      <c r="V121" s="2" t="n"/>
-      <c r="W121" s="2" t="n"/>
+      <c r="R121" s="2" t="inlineStr"/>
+      <c r="S121" s="2" t="inlineStr"/>
+      <c r="T121" s="2" t="inlineStr"/>
+      <c r="U121" s="2" t="inlineStr"/>
+      <c r="V121" s="2" t="inlineStr"/>
+      <c r="W121" s="2" t="inlineStr"/>
       <c r="X121" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y121" s="2" t="n"/>
-      <c r="Z121" s="2" t="n"/>
+      <c r="Y121" s="2" t="inlineStr"/>
+      <c r="Z121" s="2" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
@@ -7239,19 +7270,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D122" s="2" t="n"/>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-      <c r="H122" s="2" t="n"/>
-      <c r="I122" s="2" t="n"/>
-      <c r="J122" s="2" t="n"/>
-      <c r="K122" s="2" t="n"/>
-      <c r="L122" s="2" t="n"/>
-      <c r="M122" s="2" t="n"/>
-      <c r="N122" s="2" t="n"/>
-      <c r="O122" s="2" t="n"/>
-      <c r="P122" s="2" t="n"/>
+      <c r="D122" s="2" t="inlineStr"/>
+      <c r="E122" s="2" t="inlineStr"/>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="inlineStr"/>
+      <c r="H122" s="2" t="inlineStr"/>
+      <c r="I122" s="2" t="inlineStr"/>
+      <c r="J122" s="2" t="inlineStr"/>
+      <c r="K122" s="2" t="inlineStr"/>
+      <c r="L122" s="2" t="inlineStr"/>
+      <c r="M122" s="2" t="inlineStr"/>
+      <c r="N122" s="2" t="inlineStr"/>
+      <c r="O122" s="2" t="inlineStr"/>
+      <c r="P122" s="2" t="inlineStr"/>
       <c r="Q122" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A teaching professional that teaches children, young persons or adults with physical or intellectual special needs. </t>
@@ -7272,16 +7303,16 @@
           <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
-      <c r="U122" s="2" t="n"/>
-      <c r="V122" s="2" t="n"/>
-      <c r="W122" s="2" t="n"/>
+      <c r="U122" s="2" t="inlineStr"/>
+      <c r="V122" s="2" t="inlineStr"/>
+      <c r="W122" s="2" t="inlineStr"/>
       <c r="X122" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y122" s="2" t="n"/>
-      <c r="Z122" s="2" t="n"/>
+      <c r="Y122" s="2" t="inlineStr"/>
+      <c r="Z122" s="2" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
@@ -7299,19 +7330,19 @@
           <t xml:space="preserve">medical doctor </t>
         </is>
       </c>
-      <c r="D123" s="2" t="n"/>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-      <c r="H123" s="2" t="n"/>
-      <c r="I123" s="2" t="n"/>
-      <c r="J123" s="2" t="n"/>
-      <c r="K123" s="2" t="n"/>
-      <c r="L123" s="2" t="n"/>
-      <c r="M123" s="2" t="n"/>
-      <c r="N123" s="2" t="n"/>
-      <c r="O123" s="2" t="n"/>
-      <c r="P123" s="2" t="n"/>
+      <c r="D123" s="2" t="inlineStr"/>
+      <c r="E123" s="2" t="inlineStr"/>
+      <c r="F123" s="2" t="inlineStr"/>
+      <c r="G123" s="2" t="inlineStr"/>
+      <c r="H123" s="2" t="inlineStr"/>
+      <c r="I123" s="2" t="inlineStr"/>
+      <c r="J123" s="2" t="inlineStr"/>
+      <c r="K123" s="2" t="inlineStr"/>
+      <c r="L123" s="2" t="inlineStr"/>
+      <c r="M123" s="2" t="inlineStr"/>
+      <c r="N123" s="2" t="inlineStr"/>
+      <c r="O123" s="2" t="inlineStr"/>
+      <c r="P123" s="2" t="inlineStr"/>
       <c r="Q123" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization. </t>
@@ -7332,16 +7363,16 @@
           <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
-      <c r="U123" s="2" t="n"/>
-      <c r="V123" s="2" t="n"/>
-      <c r="W123" s="2" t="n"/>
+      <c r="U123" s="2" t="inlineStr"/>
+      <c r="V123" s="2" t="inlineStr"/>
+      <c r="W123" s="2" t="inlineStr"/>
       <c r="X123" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y123" s="2" t="n"/>
-      <c r="Z123" s="2" t="n"/>
+      <c r="Y123" s="2" t="inlineStr"/>
+      <c r="Z123" s="2" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
@@ -7359,19 +7390,19 @@
           <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
-      <c r="D124" s="2" t="n"/>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-      <c r="H124" s="2" t="n"/>
-      <c r="I124" s="2" t="n"/>
-      <c r="J124" s="2" t="n"/>
-      <c r="K124" s="2" t="n"/>
-      <c r="L124" s="2" t="n"/>
-      <c r="M124" s="2" t="n"/>
-      <c r="N124" s="2" t="n"/>
-      <c r="O124" s="2" t="n"/>
-      <c r="P124" s="2" t="n"/>
+      <c r="D124" s="2" t="inlineStr"/>
+      <c r="E124" s="2" t="inlineStr"/>
+      <c r="F124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr"/>
+      <c r="H124" s="2" t="inlineStr"/>
+      <c r="I124" s="2" t="inlineStr"/>
+      <c r="J124" s="2" t="inlineStr"/>
+      <c r="K124" s="2" t="inlineStr"/>
+      <c r="L124" s="2" t="inlineStr"/>
+      <c r="M124" s="2" t="inlineStr"/>
+      <c r="N124" s="2" t="inlineStr"/>
+      <c r="O124" s="2" t="inlineStr"/>
+      <c r="P124" s="2" t="inlineStr"/>
       <c r="Q124" s="2" t="inlineStr">
         <is>
           <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
@@ -7392,16 +7423,16 @@
           <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
-      <c r="U124" s="2" t="n"/>
-      <c r="V124" s="2" t="n"/>
-      <c r="W124" s="2" t="n"/>
+      <c r="U124" s="2" t="inlineStr"/>
+      <c r="V124" s="2" t="inlineStr"/>
+      <c r="W124" s="2" t="inlineStr"/>
       <c r="X124" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y124" s="2" t="n"/>
-      <c r="Z124" s="2" t="n"/>
+      <c r="Y124" s="2" t="inlineStr"/>
+      <c r="Z124" s="2" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
@@ -7419,19 +7450,19 @@
           <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
-      <c r="D125" s="2" t="n"/>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-      <c r="H125" s="2" t="n"/>
-      <c r="I125" s="2" t="n"/>
-      <c r="J125" s="2" t="n"/>
-      <c r="K125" s="2" t="n"/>
-      <c r="L125" s="2" t="n"/>
-      <c r="M125" s="2" t="n"/>
-      <c r="N125" s="2" t="n"/>
-      <c r="O125" s="2" t="n"/>
-      <c r="P125" s="2" t="n"/>
+      <c r="D125" s="2" t="inlineStr"/>
+      <c r="E125" s="2" t="inlineStr"/>
+      <c r="F125" s="2" t="inlineStr"/>
+      <c r="G125" s="2" t="inlineStr"/>
+      <c r="H125" s="2" t="inlineStr"/>
+      <c r="I125" s="2" t="inlineStr"/>
+      <c r="J125" s="2" t="inlineStr"/>
+      <c r="K125" s="2" t="inlineStr"/>
+      <c r="L125" s="2" t="inlineStr"/>
+      <c r="M125" s="2" t="inlineStr"/>
+      <c r="N125" s="2" t="inlineStr"/>
+      <c r="O125" s="2" t="inlineStr"/>
+      <c r="P125" s="2" t="inlineStr"/>
       <c r="Q125" s="2" t="inlineStr">
         <is>
           <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
@@ -7452,16 +7483,16 @@
           <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
-      <c r="U125" s="2" t="n"/>
-      <c r="V125" s="2" t="n"/>
-      <c r="W125" s="2" t="n"/>
+      <c r="U125" s="2" t="inlineStr"/>
+      <c r="V125" s="2" t="inlineStr"/>
+      <c r="W125" s="2" t="inlineStr"/>
       <c r="X125" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y125" s="2" t="n"/>
-      <c r="Z125" s="2" t="n"/>
+      <c r="Y125" s="2" t="inlineStr"/>
+      <c r="Z125" s="2" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
@@ -7479,41 +7510,41 @@
           <t>family member</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n"/>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
-      <c r="H126" s="2" t="n"/>
-      <c r="I126" s="2" t="n"/>
-      <c r="J126" s="2" t="n"/>
-      <c r="K126" s="2" t="n"/>
-      <c r="L126" s="2" t="n"/>
-      <c r="M126" s="2" t="n"/>
-      <c r="N126" s="2" t="n"/>
-      <c r="O126" s="2" t="n"/>
-      <c r="P126" s="2" t="n"/>
+      <c r="D126" s="2" t="inlineStr"/>
+      <c r="E126" s="2" t="inlineStr"/>
+      <c r="F126" s="2" t="inlineStr"/>
+      <c r="G126" s="2" t="inlineStr"/>
+      <c r="H126" s="2" t="inlineStr"/>
+      <c r="I126" s="2" t="inlineStr"/>
+      <c r="J126" s="2" t="inlineStr"/>
+      <c r="K126" s="2" t="inlineStr"/>
+      <c r="L126" s="2" t="inlineStr"/>
+      <c r="M126" s="2" t="inlineStr"/>
+      <c r="N126" s="2" t="inlineStr"/>
+      <c r="O126" s="2" t="inlineStr"/>
+      <c r="P126" s="2" t="inlineStr"/>
       <c r="Q126" s="2" t="inlineStr">
         <is>
           <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
-      <c r="R126" s="2" t="n"/>
-      <c r="S126" s="2" t="n"/>
+      <c r="R126" s="2" t="inlineStr"/>
+      <c r="S126" s="2" t="inlineStr"/>
       <c r="T126" s="2" t="inlineStr">
         <is>
           <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
         </is>
       </c>
-      <c r="U126" s="2" t="n"/>
-      <c r="V126" s="2" t="n"/>
-      <c r="W126" s="2" t="n"/>
+      <c r="U126" s="2" t="inlineStr"/>
+      <c r="V126" s="2" t="inlineStr"/>
+      <c r="W126" s="2" t="inlineStr"/>
       <c r="X126" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y126" s="2" t="n"/>
-      <c r="Z126" s="2" t="n"/>
+      <c r="Y126" s="2" t="inlineStr"/>
+      <c r="Z126" s="2" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
@@ -7531,37 +7562,37 @@
           <t>personal role of source</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n"/>
-      <c r="E127" s="2" t="n"/>
-      <c r="F127" s="2" t="n"/>
-      <c r="G127" s="2" t="n"/>
-      <c r="H127" s="2" t="n"/>
-      <c r="I127" s="2" t="n"/>
-      <c r="J127" s="2" t="n"/>
-      <c r="K127" s="2" t="n"/>
-      <c r="L127" s="2" t="n"/>
-      <c r="M127" s="2" t="n"/>
-      <c r="N127" s="2" t="n"/>
-      <c r="O127" s="2" t="n"/>
-      <c r="P127" s="2" t="n"/>
+      <c r="D127" s="2" t="inlineStr"/>
+      <c r="E127" s="2" t="inlineStr"/>
+      <c r="F127" s="2" t="inlineStr"/>
+      <c r="G127" s="2" t="inlineStr"/>
+      <c r="H127" s="2" t="inlineStr"/>
+      <c r="I127" s="2" t="inlineStr"/>
+      <c r="J127" s="2" t="inlineStr"/>
+      <c r="K127" s="2" t="inlineStr"/>
+      <c r="L127" s="2" t="inlineStr"/>
+      <c r="M127" s="2" t="inlineStr"/>
+      <c r="N127" s="2" t="inlineStr"/>
+      <c r="O127" s="2" t="inlineStr"/>
+      <c r="P127" s="2" t="inlineStr"/>
       <c r="Q127" s="2" t="inlineStr">
         <is>
           <t>A personal role of source that is enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
-      <c r="R127" s="2" t="n"/>
-      <c r="S127" s="2" t="n"/>
-      <c r="T127" s="2" t="n"/>
-      <c r="U127" s="2" t="n"/>
-      <c r="V127" s="2" t="n"/>
-      <c r="W127" s="2" t="n"/>
+      <c r="R127" s="2" t="inlineStr"/>
+      <c r="S127" s="2" t="inlineStr"/>
+      <c r="T127" s="2" t="inlineStr"/>
+      <c r="U127" s="2" t="inlineStr"/>
+      <c r="V127" s="2" t="inlineStr"/>
+      <c r="W127" s="2" t="inlineStr"/>
       <c r="X127" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y127" s="2" t="n"/>
-      <c r="Z127" s="2" t="n"/>
+      <c r="Y127" s="2" t="inlineStr"/>
+      <c r="Z127" s="2" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
@@ -7579,45 +7610,45 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n"/>
-      <c r="E128" s="2" t="n"/>
+      <c r="D128" s="2" t="inlineStr"/>
+      <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G128" s="2" t="n"/>
-      <c r="H128" s="2" t="n"/>
-      <c r="I128" s="2" t="n"/>
-      <c r="J128" s="2" t="n"/>
-      <c r="K128" s="2" t="n"/>
-      <c r="L128" s="2" t="n"/>
-      <c r="M128" s="2" t="n"/>
-      <c r="N128" s="2" t="n"/>
-      <c r="O128" s="2" t="n"/>
-      <c r="P128" s="2" t="n"/>
+      <c r="G128" s="2" t="inlineStr"/>
+      <c r="H128" s="2" t="inlineStr"/>
+      <c r="I128" s="2" t="inlineStr"/>
+      <c r="J128" s="2" t="inlineStr"/>
+      <c r="K128" s="2" t="inlineStr"/>
+      <c r="L128" s="2" t="inlineStr"/>
+      <c r="M128" s="2" t="inlineStr"/>
+      <c r="N128" s="2" t="inlineStr"/>
+      <c r="O128" s="2" t="inlineStr"/>
+      <c r="P128" s="2" t="inlineStr"/>
       <c r="Q128" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
-      <c r="R128" s="2" t="n"/>
-      <c r="S128" s="2" t="n"/>
+      <c r="R128" s="2" t="inlineStr"/>
+      <c r="S128" s="2" t="inlineStr"/>
       <c r="T128" s="2" t="inlineStr">
         <is>
           <t>supervised</t>
         </is>
       </c>
-      <c r="U128" s="2" t="n"/>
-      <c r="V128" s="2" t="n"/>
-      <c r="W128" s="2" t="n"/>
+      <c r="U128" s="2" t="inlineStr"/>
+      <c r="V128" s="2" t="inlineStr"/>
+      <c r="W128" s="2" t="inlineStr"/>
       <c r="X128" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y128" s="2" t="n"/>
-      <c r="Z128" s="2" t="n"/>
+      <c r="Y128" s="2" t="inlineStr"/>
+      <c r="Z128" s="2" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
@@ -7635,41 +7666,41 @@
           <t>socio demographic attribute of person source</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n"/>
-      <c r="E129" s="2" t="n"/>
-      <c r="F129" s="2" t="n"/>
-      <c r="G129" s="2" t="n"/>
-      <c r="H129" s="2" t="n"/>
-      <c r="I129" s="2" t="n"/>
-      <c r="J129" s="2" t="n"/>
-      <c r="K129" s="2" t="n"/>
-      <c r="L129" s="2" t="n"/>
-      <c r="M129" s="2" t="n"/>
-      <c r="N129" s="2" t="n"/>
-      <c r="O129" s="2" t="n"/>
-      <c r="P129" s="2" t="n"/>
+      <c r="D129" s="2" t="inlineStr"/>
+      <c r="E129" s="2" t="inlineStr"/>
+      <c r="F129" s="2" t="inlineStr"/>
+      <c r="G129" s="2" t="inlineStr"/>
+      <c r="H129" s="2" t="inlineStr"/>
+      <c r="I129" s="2" t="inlineStr"/>
+      <c r="J129" s="2" t="inlineStr"/>
+      <c r="K129" s="2" t="inlineStr"/>
+      <c r="L129" s="2" t="inlineStr"/>
+      <c r="M129" s="2" t="inlineStr"/>
+      <c r="N129" s="2" t="inlineStr"/>
+      <c r="O129" s="2" t="inlineStr"/>
+      <c r="P129" s="2" t="inlineStr"/>
       <c r="Q129" s="2" t="inlineStr">
         <is>
           <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
         </is>
       </c>
-      <c r="R129" s="2" t="n"/>
-      <c r="S129" s="2" t="n"/>
+      <c r="R129" s="2" t="inlineStr"/>
+      <c r="S129" s="2" t="inlineStr"/>
       <c r="T129" s="2" t="inlineStr">
         <is>
           <t>source is highly physically active</t>
         </is>
       </c>
-      <c r="U129" s="2" t="n"/>
-      <c r="V129" s="2" t="n"/>
-      <c r="W129" s="2" t="n"/>
+      <c r="U129" s="2" t="inlineStr"/>
+      <c r="V129" s="2" t="inlineStr"/>
+      <c r="W129" s="2" t="inlineStr"/>
       <c r="X129" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y129" s="2" t="n"/>
-      <c r="Z129" s="2" t="n"/>
+      <c r="Y129" s="2" t="inlineStr"/>
+      <c r="Z129" s="2" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
@@ -7687,19 +7718,19 @@
           <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
-      <c r="D130" s="2" t="n"/>
-      <c r="E130" s="2" t="n"/>
-      <c r="F130" s="2" t="n"/>
-      <c r="G130" s="2" t="n"/>
-      <c r="H130" s="2" t="n"/>
-      <c r="I130" s="2" t="n"/>
-      <c r="J130" s="2" t="n"/>
-      <c r="K130" s="2" t="n"/>
-      <c r="L130" s="2" t="n"/>
-      <c r="M130" s="2" t="n"/>
-      <c r="N130" s="2" t="n"/>
-      <c r="O130" s="2" t="n"/>
-      <c r="P130" s="2" t="n"/>
+      <c r="D130" s="2" t="inlineStr"/>
+      <c r="E130" s="2" t="inlineStr"/>
+      <c r="F130" s="2" t="inlineStr"/>
+      <c r="G130" s="2" t="inlineStr"/>
+      <c r="H130" s="2" t="inlineStr"/>
+      <c r="I130" s="2" t="inlineStr"/>
+      <c r="J130" s="2" t="inlineStr"/>
+      <c r="K130" s="2" t="inlineStr"/>
+      <c r="L130" s="2" t="inlineStr"/>
+      <c r="M130" s="2" t="inlineStr"/>
+      <c r="N130" s="2" t="inlineStr"/>
+      <c r="O130" s="2" t="inlineStr"/>
+      <c r="P130" s="2" t="inlineStr"/>
       <c r="Q130" s="2" t="inlineStr">
         <is>
           <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
@@ -7720,16 +7751,16 @@
           <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
-      <c r="U130" s="2" t="n"/>
-      <c r="V130" s="2" t="n"/>
-      <c r="W130" s="2" t="n"/>
+      <c r="U130" s="2" t="inlineStr"/>
+      <c r="V130" s="2" t="inlineStr"/>
+      <c r="W130" s="2" t="inlineStr"/>
       <c r="X130" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y130" s="2" t="n"/>
-      <c r="Z130" s="2" t="n"/>
+      <c r="Y130" s="2" t="inlineStr"/>
+      <c r="Z130" s="2" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
@@ -7747,19 +7778,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n"/>
-      <c r="E131" s="2" t="n"/>
-      <c r="F131" s="2" t="n"/>
-      <c r="G131" s="2" t="n"/>
-      <c r="H131" s="2" t="n"/>
-      <c r="I131" s="2" t="n"/>
-      <c r="J131" s="2" t="n"/>
-      <c r="K131" s="2" t="n"/>
-      <c r="L131" s="2" t="n"/>
-      <c r="M131" s="2" t="n"/>
-      <c r="N131" s="2" t="n"/>
-      <c r="O131" s="2" t="n"/>
-      <c r="P131" s="2" t="n"/>
+      <c r="D131" s="2" t="inlineStr"/>
+      <c r="E131" s="2" t="inlineStr"/>
+      <c r="F131" s="2" t="inlineStr"/>
+      <c r="G131" s="2" t="inlineStr"/>
+      <c r="H131" s="2" t="inlineStr"/>
+      <c r="I131" s="2" t="inlineStr"/>
+      <c r="J131" s="2" t="inlineStr"/>
+      <c r="K131" s="2" t="inlineStr"/>
+      <c r="L131" s="2" t="inlineStr"/>
+      <c r="M131" s="2" t="inlineStr"/>
+      <c r="N131" s="2" t="inlineStr"/>
+      <c r="O131" s="2" t="inlineStr"/>
+      <c r="P131" s="2" t="inlineStr"/>
       <c r="Q131" s="2" t="inlineStr">
         <is>
           <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
@@ -7780,8 +7811,8 @@
           <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
         </is>
       </c>
-      <c r="U131" s="2" t="n"/>
-      <c r="V131" s="2" t="n"/>
+      <c r="U131" s="2" t="inlineStr"/>
+      <c r="V131" s="2" t="inlineStr"/>
       <c r="W131" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -7792,8 +7823,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y131" s="2" t="n"/>
-      <c r="Z131" s="2" t="n"/>
+      <c r="Y131" s="2" t="inlineStr"/>
+      <c r="Z131" s="2" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
@@ -7811,19 +7842,19 @@
           <t>professional</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n"/>
-      <c r="E132" s="2" t="n"/>
-      <c r="F132" s="2" t="n"/>
-      <c r="G132" s="2" t="n"/>
-      <c r="H132" s="2" t="n"/>
-      <c r="I132" s="2" t="n"/>
-      <c r="J132" s="2" t="n"/>
-      <c r="K132" s="2" t="n"/>
-      <c r="L132" s="2" t="n"/>
-      <c r="M132" s="2" t="n"/>
-      <c r="N132" s="2" t="n"/>
-      <c r="O132" s="2" t="n"/>
-      <c r="P132" s="2" t="n"/>
+      <c r="D132" s="2" t="inlineStr"/>
+      <c r="E132" s="2" t="inlineStr"/>
+      <c r="F132" s="2" t="inlineStr"/>
+      <c r="G132" s="2" t="inlineStr"/>
+      <c r="H132" s="2" t="inlineStr"/>
+      <c r="I132" s="2" t="inlineStr"/>
+      <c r="J132" s="2" t="inlineStr"/>
+      <c r="K132" s="2" t="inlineStr"/>
+      <c r="L132" s="2" t="inlineStr"/>
+      <c r="M132" s="2" t="inlineStr"/>
+      <c r="N132" s="2" t="inlineStr"/>
+      <c r="O132" s="2" t="inlineStr"/>
+      <c r="P132" s="2" t="inlineStr"/>
       <c r="Q132" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations. </t>
@@ -7839,17 +7870,17 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T132" s="2" t="n"/>
-      <c r="U132" s="2" t="n"/>
-      <c r="V132" s="2" t="n"/>
-      <c r="W132" s="2" t="n"/>
+      <c r="T132" s="2" t="inlineStr"/>
+      <c r="U132" s="2" t="inlineStr"/>
+      <c r="V132" s="2" t="inlineStr"/>
+      <c r="W132" s="2" t="inlineStr"/>
       <c r="X132" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y132" s="2" t="n"/>
-      <c r="Z132" s="2" t="n"/>
+      <c r="Y132" s="2" t="inlineStr"/>
+      <c r="Z132" s="2" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
@@ -7867,41 +7898,41 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n"/>
-      <c r="E133" s="2" t="n"/>
-      <c r="F133" s="2" t="n"/>
-      <c r="G133" s="2" t="n"/>
-      <c r="H133" s="2" t="n"/>
-      <c r="I133" s="2" t="n"/>
-      <c r="J133" s="2" t="n"/>
-      <c r="K133" s="2" t="n"/>
-      <c r="L133" s="2" t="n"/>
-      <c r="M133" s="2" t="n"/>
-      <c r="N133" s="2" t="n"/>
+      <c r="D133" s="2" t="inlineStr"/>
+      <c r="E133" s="2" t="inlineStr"/>
+      <c r="F133" s="2" t="inlineStr"/>
+      <c r="G133" s="2" t="inlineStr"/>
+      <c r="H133" s="2" t="inlineStr"/>
+      <c r="I133" s="2" t="inlineStr"/>
+      <c r="J133" s="2" t="inlineStr"/>
+      <c r="K133" s="2" t="inlineStr"/>
+      <c r="L133" s="2" t="inlineStr"/>
+      <c r="M133" s="2" t="inlineStr"/>
+      <c r="N133" s="2" t="inlineStr"/>
       <c r="O133" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="P133" s="2" t="n"/>
+      <c r="P133" s="2" t="inlineStr"/>
       <c r="Q133" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A count data item that is the total number of providers that are available and able to deliver the intervention. </t>
         </is>
       </c>
-      <c r="R133" s="2" t="n"/>
-      <c r="S133" s="2" t="n"/>
-      <c r="T133" s="2" t="n"/>
-      <c r="U133" s="2" t="n"/>
-      <c r="V133" s="2" t="n"/>
-      <c r="W133" s="2" t="n"/>
+      <c r="R133" s="2" t="inlineStr"/>
+      <c r="S133" s="2" t="inlineStr"/>
+      <c r="T133" s="2" t="inlineStr"/>
+      <c r="U133" s="2" t="inlineStr"/>
+      <c r="V133" s="2" t="inlineStr"/>
+      <c r="W133" s="2" t="inlineStr"/>
       <c r="X133" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y133" s="2" t="n"/>
-      <c r="Z133" s="2" t="n"/>
+      <c r="Y133" s="2" t="inlineStr"/>
+      <c r="Z133" s="2" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
@@ -7919,19 +7950,19 @@
           <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
-      <c r="D134" s="2" t="n"/>
-      <c r="E134" s="2" t="n"/>
-      <c r="F134" s="2" t="n"/>
-      <c r="G134" s="2" t="n"/>
-      <c r="H134" s="2" t="n"/>
-      <c r="I134" s="2" t="n"/>
-      <c r="J134" s="2" t="n"/>
-      <c r="K134" s="2" t="n"/>
-      <c r="L134" s="2" t="n"/>
-      <c r="M134" s="2" t="n"/>
-      <c r="N134" s="2" t="n"/>
-      <c r="O134" s="2" t="n"/>
-      <c r="P134" s="2" t="n"/>
+      <c r="D134" s="2" t="inlineStr"/>
+      <c r="E134" s="2" t="inlineStr"/>
+      <c r="F134" s="2" t="inlineStr"/>
+      <c r="G134" s="2" t="inlineStr"/>
+      <c r="H134" s="2" t="inlineStr"/>
+      <c r="I134" s="2" t="inlineStr"/>
+      <c r="J134" s="2" t="inlineStr"/>
+      <c r="K134" s="2" t="inlineStr"/>
+      <c r="L134" s="2" t="inlineStr"/>
+      <c r="M134" s="2" t="inlineStr"/>
+      <c r="N134" s="2" t="inlineStr"/>
+      <c r="O134" s="2" t="inlineStr"/>
+      <c r="P134" s="2" t="inlineStr"/>
       <c r="Q134" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional. </t>
@@ -7952,16 +7983,16 @@
           <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
-      <c r="U134" s="2" t="n"/>
-      <c r="V134" s="2" t="n"/>
-      <c r="W134" s="2" t="n"/>
+      <c r="U134" s="2" t="inlineStr"/>
+      <c r="V134" s="2" t="inlineStr"/>
+      <c r="W134" s="2" t="inlineStr"/>
       <c r="X134" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y134" s="2" t="n"/>
-      <c r="Z134" s="2" t="n"/>
+      <c r="Y134" s="2" t="inlineStr"/>
+      <c r="Z134" s="2" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
@@ -7979,19 +8010,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D135" s="2" t="n"/>
-      <c r="E135" s="2" t="n"/>
-      <c r="F135" s="2" t="n"/>
-      <c r="G135" s="2" t="n"/>
-      <c r="H135" s="2" t="n"/>
-      <c r="I135" s="2" t="n"/>
-      <c r="J135" s="2" t="n"/>
-      <c r="K135" s="2" t="n"/>
-      <c r="L135" s="2" t="n"/>
-      <c r="M135" s="2" t="n"/>
-      <c r="N135" s="2" t="n"/>
-      <c r="O135" s="2" t="n"/>
-      <c r="P135" s="2" t="n"/>
+      <c r="D135" s="2" t="inlineStr"/>
+      <c r="E135" s="2" t="inlineStr"/>
+      <c r="F135" s="2" t="inlineStr"/>
+      <c r="G135" s="2" t="inlineStr"/>
+      <c r="H135" s="2" t="inlineStr"/>
+      <c r="I135" s="2" t="inlineStr"/>
+      <c r="J135" s="2" t="inlineStr"/>
+      <c r="K135" s="2" t="inlineStr"/>
+      <c r="L135" s="2" t="inlineStr"/>
+      <c r="M135" s="2" t="inlineStr"/>
+      <c r="N135" s="2" t="inlineStr"/>
+      <c r="O135" s="2" t="inlineStr"/>
+      <c r="P135" s="2" t="inlineStr"/>
       <c r="Q135" s="2" t="inlineStr">
         <is>
           <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
@@ -8012,16 +8043,16 @@
           <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
-      <c r="U135" s="2" t="n"/>
-      <c r="V135" s="2" t="n"/>
-      <c r="W135" s="2" t="n"/>
+      <c r="U135" s="2" t="inlineStr"/>
+      <c r="V135" s="2" t="inlineStr"/>
+      <c r="W135" s="2" t="inlineStr"/>
       <c r="X135" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y135" s="2" t="n"/>
-      <c r="Z135" s="2" t="n"/>
+      <c r="Y135" s="2" t="inlineStr"/>
+      <c r="Z135" s="2" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
@@ -8039,41 +8070,41 @@
           <t>higher education student or trainee</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n"/>
-      <c r="E136" s="2" t="n"/>
-      <c r="F136" s="2" t="n"/>
-      <c r="G136" s="2" t="n"/>
-      <c r="H136" s="2" t="n"/>
-      <c r="I136" s="2" t="n"/>
-      <c r="J136" s="2" t="n"/>
-      <c r="K136" s="2" t="n"/>
-      <c r="L136" s="2" t="n"/>
-      <c r="M136" s="2" t="n"/>
-      <c r="N136" s="2" t="n"/>
-      <c r="O136" s="2" t="n"/>
-      <c r="P136" s="2" t="n"/>
+      <c r="D136" s="2" t="inlineStr"/>
+      <c r="E136" s="2" t="inlineStr"/>
+      <c r="F136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr"/>
+      <c r="H136" s="2" t="inlineStr"/>
+      <c r="I136" s="2" t="inlineStr"/>
+      <c r="J136" s="2" t="inlineStr"/>
+      <c r="K136" s="2" t="inlineStr"/>
+      <c r="L136" s="2" t="inlineStr"/>
+      <c r="M136" s="2" t="inlineStr"/>
+      <c r="N136" s="2" t="inlineStr"/>
+      <c r="O136" s="2" t="inlineStr"/>
+      <c r="P136" s="2" t="inlineStr"/>
       <c r="Q136" s="2" t="inlineStr">
         <is>
           <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
         </is>
       </c>
-      <c r="R136" s="2" t="n"/>
-      <c r="S136" s="2" t="n"/>
+      <c r="R136" s="2" t="inlineStr"/>
+      <c r="S136" s="2" t="inlineStr"/>
       <c r="T136" s="2" t="inlineStr">
         <is>
           <t>undergraduate student</t>
         </is>
       </c>
-      <c r="U136" s="2" t="n"/>
-      <c r="V136" s="2" t="n"/>
-      <c r="W136" s="2" t="n"/>
+      <c r="U136" s="2" t="inlineStr"/>
+      <c r="V136" s="2" t="inlineStr"/>
+      <c r="W136" s="2" t="inlineStr"/>
       <c r="X136" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y136" s="2" t="n"/>
-      <c r="Z136" s="2" t="n"/>
+      <c r="Y136" s="2" t="inlineStr"/>
+      <c r="Z136" s="2" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
@@ -8092,19 +8123,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D137" s="2" t="n"/>
-      <c r="E137" s="2" t="n"/>
-      <c r="F137" s="2" t="n"/>
-      <c r="G137" s="2" t="n"/>
-      <c r="H137" s="2" t="n"/>
-      <c r="I137" s="2" t="n"/>
-      <c r="J137" s="2" t="n"/>
-      <c r="K137" s="2" t="n"/>
-      <c r="L137" s="2" t="n"/>
-      <c r="M137" s="2" t="n"/>
-      <c r="N137" s="2" t="n"/>
-      <c r="O137" s="2" t="n"/>
-      <c r="P137" s="2" t="n"/>
+      <c r="D137" s="2" t="inlineStr"/>
+      <c r="E137" s="2" t="inlineStr"/>
+      <c r="F137" s="2" t="inlineStr"/>
+      <c r="G137" s="2" t="inlineStr"/>
+      <c r="H137" s="2" t="inlineStr"/>
+      <c r="I137" s="2" t="inlineStr"/>
+      <c r="J137" s="2" t="inlineStr"/>
+      <c r="K137" s="2" t="inlineStr"/>
+      <c r="L137" s="2" t="inlineStr"/>
+      <c r="M137" s="2" t="inlineStr"/>
+      <c r="N137" s="2" t="inlineStr"/>
+      <c r="O137" s="2" t="inlineStr"/>
+      <c r="P137" s="2" t="inlineStr"/>
       <c r="Q137" s="2" t="inlineStr">
         <is>
           <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
@@ -8125,16 +8156,16 @@
           <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
-      <c r="U137" s="2" t="n"/>
-      <c r="V137" s="2" t="n"/>
-      <c r="W137" s="2" t="n"/>
+      <c r="U137" s="2" t="inlineStr"/>
+      <c r="V137" s="2" t="inlineStr"/>
+      <c r="W137" s="2" t="inlineStr"/>
       <c r="X137" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y137" s="2" t="n"/>
-      <c r="Z137" s="2" t="n"/>
+      <c r="Y137" s="2" t="inlineStr"/>
+      <c r="Z137" s="2" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
@@ -8152,19 +8183,19 @@
           <t xml:space="preserve">health professional </t>
         </is>
       </c>
-      <c r="D138" s="2" t="n"/>
-      <c r="E138" s="2" t="n"/>
-      <c r="F138" s="2" t="n"/>
-      <c r="G138" s="2" t="n"/>
-      <c r="H138" s="2" t="n"/>
-      <c r="I138" s="2" t="n"/>
-      <c r="J138" s="2" t="n"/>
-      <c r="K138" s="2" t="n"/>
-      <c r="L138" s="2" t="n"/>
-      <c r="M138" s="2" t="n"/>
-      <c r="N138" s="2" t="n"/>
-      <c r="O138" s="2" t="n"/>
-      <c r="P138" s="2" t="n"/>
+      <c r="D138" s="2" t="inlineStr"/>
+      <c r="E138" s="2" t="inlineStr"/>
+      <c r="F138" s="2" t="inlineStr"/>
+      <c r="G138" s="2" t="inlineStr"/>
+      <c r="H138" s="2" t="inlineStr"/>
+      <c r="I138" s="2" t="inlineStr"/>
+      <c r="J138" s="2" t="inlineStr"/>
+      <c r="K138" s="2" t="inlineStr"/>
+      <c r="L138" s="2" t="inlineStr"/>
+      <c r="M138" s="2" t="inlineStr"/>
+      <c r="N138" s="2" t="inlineStr"/>
+      <c r="O138" s="2" t="inlineStr"/>
+      <c r="P138" s="2" t="inlineStr"/>
       <c r="Q138" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals. </t>
@@ -8185,16 +8216,16 @@
           <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
-      <c r="U138" s="2" t="n"/>
-      <c r="V138" s="2" t="n"/>
-      <c r="W138" s="2" t="n"/>
+      <c r="U138" s="2" t="inlineStr"/>
+      <c r="V138" s="2" t="inlineStr"/>
+      <c r="W138" s="2" t="inlineStr"/>
       <c r="X138" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y138" s="2" t="n"/>
-      <c r="Z138" s="2" t="n"/>
+      <c r="Y138" s="2" t="inlineStr"/>
+      <c r="Z138" s="2" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
@@ -8212,19 +8243,19 @@
           <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
-      <c r="D139" s="2" t="n"/>
-      <c r="E139" s="2" t="n"/>
-      <c r="F139" s="2" t="n"/>
-      <c r="G139" s="2" t="n"/>
-      <c r="H139" s="2" t="n"/>
-      <c r="I139" s="2" t="n"/>
-      <c r="J139" s="2" t="n"/>
-      <c r="K139" s="2" t="n"/>
-      <c r="L139" s="2" t="n"/>
-      <c r="M139" s="2" t="n"/>
-      <c r="N139" s="2" t="n"/>
-      <c r="O139" s="2" t="n"/>
-      <c r="P139" s="2" t="n"/>
+      <c r="D139" s="2" t="inlineStr"/>
+      <c r="E139" s="2" t="inlineStr"/>
+      <c r="F139" s="2" t="inlineStr"/>
+      <c r="G139" s="2" t="inlineStr"/>
+      <c r="H139" s="2" t="inlineStr"/>
+      <c r="I139" s="2" t="inlineStr"/>
+      <c r="J139" s="2" t="inlineStr"/>
+      <c r="K139" s="2" t="inlineStr"/>
+      <c r="L139" s="2" t="inlineStr"/>
+      <c r="M139" s="2" t="inlineStr"/>
+      <c r="N139" s="2" t="inlineStr"/>
+      <c r="O139" s="2" t="inlineStr"/>
+      <c r="P139" s="2" t="inlineStr"/>
       <c r="Q139" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges. </t>
@@ -8245,16 +8276,16 @@
           <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
         </is>
       </c>
-      <c r="U139" s="2" t="n"/>
-      <c r="V139" s="2" t="n"/>
-      <c r="W139" s="2" t="n"/>
+      <c r="U139" s="2" t="inlineStr"/>
+      <c r="V139" s="2" t="inlineStr"/>
+      <c r="W139" s="2" t="inlineStr"/>
       <c r="X139" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y139" s="2" t="n"/>
-      <c r="Z139" s="2" t="n"/>
+      <c r="Y139" s="2" t="inlineStr"/>
+      <c r="Z139" s="2" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
@@ -8272,37 +8303,37 @@
           <t>student or trainee role</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n"/>
-      <c r="E140" s="2" t="n"/>
-      <c r="F140" s="2" t="n"/>
-      <c r="G140" s="2" t="n"/>
-      <c r="H140" s="2" t="n"/>
-      <c r="I140" s="2" t="n"/>
-      <c r="J140" s="2" t="n"/>
-      <c r="K140" s="2" t="n"/>
-      <c r="L140" s="2" t="n"/>
-      <c r="M140" s="2" t="n"/>
-      <c r="N140" s="2" t="n"/>
-      <c r="O140" s="2" t="n"/>
-      <c r="P140" s="2" t="n"/>
+      <c r="D140" s="2" t="inlineStr"/>
+      <c r="E140" s="2" t="inlineStr"/>
+      <c r="F140" s="2" t="inlineStr"/>
+      <c r="G140" s="2" t="inlineStr"/>
+      <c r="H140" s="2" t="inlineStr"/>
+      <c r="I140" s="2" t="inlineStr"/>
+      <c r="J140" s="2" t="inlineStr"/>
+      <c r="K140" s="2" t="inlineStr"/>
+      <c r="L140" s="2" t="inlineStr"/>
+      <c r="M140" s="2" t="inlineStr"/>
+      <c r="N140" s="2" t="inlineStr"/>
+      <c r="O140" s="2" t="inlineStr"/>
+      <c r="P140" s="2" t="inlineStr"/>
       <c r="Q140" s="2" t="inlineStr">
         <is>
           <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
-      <c r="R140" s="2" t="n"/>
-      <c r="S140" s="2" t="n"/>
-      <c r="T140" s="2" t="n"/>
-      <c r="U140" s="2" t="n"/>
-      <c r="V140" s="2" t="n"/>
-      <c r="W140" s="2" t="n"/>
+      <c r="R140" s="2" t="inlineStr"/>
+      <c r="S140" s="2" t="inlineStr"/>
+      <c r="T140" s="2" t="inlineStr"/>
+      <c r="U140" s="2" t="inlineStr"/>
+      <c r="V140" s="2" t="inlineStr"/>
+      <c r="W140" s="2" t="inlineStr"/>
       <c r="X140" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y140" s="2" t="n"/>
-      <c r="Z140" s="2" t="n"/>
+      <c r="Y140" s="2" t="inlineStr"/>
+      <c r="Z140" s="2" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
@@ -8320,45 +8351,45 @@
           <t>process</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n"/>
-      <c r="E141" s="2" t="n"/>
+      <c r="D141" s="2" t="inlineStr"/>
+      <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr">
         <is>
           <t>person source</t>
         </is>
       </c>
-      <c r="G141" s="2" t="n"/>
-      <c r="H141" s="2" t="n"/>
-      <c r="I141" s="2" t="n"/>
-      <c r="J141" s="2" t="n"/>
-      <c r="K141" s="2" t="n"/>
-      <c r="L141" s="2" t="n"/>
-      <c r="M141" s="2" t="n"/>
-      <c r="N141" s="2" t="n"/>
-      <c r="O141" s="2" t="n"/>
-      <c r="P141" s="2" t="n"/>
+      <c r="G141" s="2" t="inlineStr"/>
+      <c r="H141" s="2" t="inlineStr"/>
+      <c r="I141" s="2" t="inlineStr"/>
+      <c r="J141" s="2" t="inlineStr"/>
+      <c r="K141" s="2" t="inlineStr"/>
+      <c r="L141" s="2" t="inlineStr"/>
+      <c r="M141" s="2" t="inlineStr"/>
+      <c r="N141" s="2" t="inlineStr"/>
+      <c r="O141" s="2" t="inlineStr"/>
+      <c r="P141" s="2" t="inlineStr"/>
       <c r="Q141" s="2" t="inlineStr">
         <is>
           <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
         </is>
       </c>
-      <c r="R141" s="2" t="n"/>
-      <c r="S141" s="2" t="n"/>
+      <c r="R141" s="2" t="inlineStr"/>
+      <c r="S141" s="2" t="inlineStr"/>
       <c r="T141" s="2" t="inlineStr">
         <is>
           <t>voluntary basis, volunteering</t>
         </is>
       </c>
-      <c r="U141" s="2" t="n"/>
-      <c r="V141" s="2" t="n"/>
-      <c r="W141" s="2" t="n"/>
+      <c r="U141" s="2" t="inlineStr"/>
+      <c r="V141" s="2" t="inlineStr"/>
+      <c r="W141" s="2" t="inlineStr"/>
       <c r="X141" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y141" s="2" t="n"/>
-      <c r="Z141" s="2" t="n"/>
+      <c r="Y141" s="2" t="inlineStr"/>
+      <c r="Z141" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -641,8 +641,17 @@
           <t>test4</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="inlineStr"/>
       <c r="I3" s="2" t="inlineStr"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -641,8 +641,17 @@
           <t>test4</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>ttttt</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="inlineStr"/>
       <c r="I3" s="2" t="inlineStr"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -603,13 +603,21 @@
       <c r="T2" s="2" t="inlineStr"/>
       <c r="U2" s="2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr"/>
-      <c r="W2" s="2" t="inlineStr"/>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="X2" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y2" s="2" t="inlineStr"/>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="Z2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -703,13 +711,21 @@
       </c>
       <c r="U4" s="2" t="inlineStr"/>
       <c r="V4" s="2" t="inlineStr"/>
-      <c r="W4" s="2" t="inlineStr"/>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y4" s="2" t="inlineStr"/>
+      <c r="Y4" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="Z4" s="2" t="inlineStr"/>
     </row>
     <row r="5">

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -605,7 +605,7 @@
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>to; ZZ</t>
         </is>
       </c>
       <c r="X2" s="2" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="Y2" s="2" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>ZZ</t>
         </is>
       </c>
       <c r="Z2" s="2" t="inlineStr"/>
@@ -713,7 +713,7 @@
       <c r="V4" s="2" t="inlineStr"/>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>to; ZZ</t>
         </is>
       </c>
       <c r="X4" s="2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="Y4" s="2" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>ZZ</t>
         </is>
       </c>
       <c r="Z4" s="2" t="inlineStr"/>
@@ -767,13 +767,21 @@
       <c r="T5" s="2" t="inlineStr"/>
       <c r="U5" s="2" t="inlineStr"/>
       <c r="V5" s="2" t="inlineStr"/>
-      <c r="W5" s="2" t="inlineStr"/>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
       <c r="X5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y5" s="2" t="inlineStr"/>
+      <c r="Y5" s="2" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
       <c r="Z5" s="2" t="inlineStr"/>
     </row>
     <row r="6">

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -792,7 +792,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ambulance worker </t>
+          <t>age of person source</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -835,7 +835,11 @@
       </c>
       <c r="U6" s="2" t="inlineStr"/>
       <c r="V6" s="2" t="inlineStr"/>
-      <c r="W6" s="2" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="X6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -787,17 +787,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010056</t>
+          <t>BCIO:010126</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>age of person source</t>
+          <t>amount of experience</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health associate professional </t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
@@ -811,35 +811,27 @@
       <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr"/>
       <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>knowledge or skill</t>
+        </is>
+      </c>
       <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 3258</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A knowledge or skill that is the duration of experience in related domain held by person source. </t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+          <t>full-day, 6 years</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr"/>
       <c r="V6" s="2" t="inlineStr"/>
-      <c r="W6" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="W6" s="2" t="inlineStr"/>
       <c r="X6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
@@ -851,17 +843,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010126</t>
+          <t>BCIO:010082</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>amount of experience</t>
+          <t xml:space="preserve">armed forces occupation </t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
@@ -875,22 +867,26 @@
       <c r="L7" s="2" t="inlineStr"/>
       <c r="M7" s="2" t="inlineStr"/>
       <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>knowledge or skill</t>
-        </is>
-      </c>
+      <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr"/>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A knowledge or skill that is the duration of experience in related domain held by person source. </t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr"/>
+          <t xml:space="preserve">An occupational role that includes all jobs held by members of the armed forces. </t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 10</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>full-day, 6 years</t>
+          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr"/>
@@ -907,17 +903,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010082</t>
+          <t>BCIO:010065</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">armed forces occupation </t>
+          <t xml:space="preserve">artistic, cultural and culinary associate professional </t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
@@ -935,12 +931,12 @@
       <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An occupational role that includes all jobs held by members of the armed forces. </t>
+          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 10</t>
+          <t>ISCO: 343</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
@@ -950,7 +946,7 @@
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>Admiral, Air commodore, Air marshal, Airman, Brigadier (army), Bombardier, Captain (air force), Captain (army), Captain (navy), Colonel (army), Corporal,  Field marshal, Flight lieutenant (air force), Flying officer (military), General (army), Gunner, Group captain, (air force), Lieutenant (army), Major (army), Midshipman, Naval officer (military) , Navy commander, Officer cadet (armed forces), Paratrooper, Rifleman, Sergeant (army), Second lieutenant (army), Seaman, Squadron leader, Sublieutenant (navy), Wing commander</t>
+          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr"/>
@@ -967,17 +963,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010065</t>
+          <t>BCIO:010033</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">artistic, cultural and culinary associate professional </t>
+          <t xml:space="preserve">arts teacher </t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">technician and associate professional </t>
+          <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
@@ -995,12 +991,12 @@
       <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>A technician and associate professional that combines creative skills and technical and cultural knowledge in creative media or food.</t>
+          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 343</t>
+          <t>ISCO: 2355</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
@@ -1010,7 +1006,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>Photographer, Interior designers and decorator, Gallery, museum and library technician, Chef</t>
+          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr"/>
@@ -1027,17 +1023,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010033</t>
+          <t>BCIO:010080</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">arts teacher </t>
+          <t>assembler</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">teaching professional </t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
@@ -1055,12 +1051,12 @@
       <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>A teaching professional  that teaches students in the practice, theory and performance of dance, drama, visual and other arts (excluding music) in private or small group tuition or within mainstream educational institutions.</t>
+          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 2355</t>
+          <t>ISCO: 8</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -1068,11 +1064,7 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>Dance teacher (private tuition), Drama teacher (private tuition), Painting teacher (private tuition), Sculpture teacher (private tuition)</t>
-        </is>
-      </c>
+      <c r="T10" s="2" t="inlineStr"/>
       <c r="U10" s="2" t="inlineStr"/>
       <c r="V10" s="2" t="inlineStr"/>
       <c r="W10" s="2" t="inlineStr"/>
@@ -1087,17 +1079,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010080</t>
+          <t>BCIO:010062</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>assembler</t>
+          <t xml:space="preserve">athlete and sports player </t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -1115,12 +1107,12 @@
       <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>An occupational role that assembles products from component parts according to strict specifications and procedures.</t>
+          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 8</t>
+          <t>ISCO: 3421</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
@@ -1128,7 +1120,11 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="T11" s="2" t="inlineStr"/>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+        </is>
+      </c>
       <c r="U11" s="2" t="inlineStr"/>
       <c r="V11" s="2" t="inlineStr"/>
       <c r="W11" s="2" t="inlineStr"/>
@@ -1143,17 +1139,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010062</t>
+          <t>BCIO:010023</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">athlete and sports player </t>
+          <t xml:space="preserve">audiologist and speech therapist </t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sport and fitness worker </t>
+          <t xml:space="preserve">health professional </t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
@@ -1171,12 +1167,12 @@
       <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that participates in competitive sporting events. They train and compete, either individually or as part of a team, in their chosen sport.</t>
+          <t xml:space="preserve">A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing. </t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 3421</t>
+          <t xml:space="preserve">ISCO: 2266 </t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
@@ -1186,7 +1182,7 @@
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>Athlete, Bicycle racer, Boxer, Chess player , Footballer, Golfer, Hockey player, Jockey, Poker player, Racing driver, Skier, Tennis player, Wrestler</t>
+          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr"/>
@@ -1203,17 +1199,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010023</t>
+          <t>BCIO:010041</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">audiologist and speech therapist </t>
+          <t>author and journalist</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health professional </t>
+          <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
@@ -1231,12 +1227,12 @@
       <c r="P13" s="2" t="inlineStr"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A health professional  that evaluates, manages and treats physical disorders affecting human hearing, speech, communication and swallowing. </t>
+          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ISCO: 2266 </t>
+          <t>ISCO: 264</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
@@ -1246,7 +1242,7 @@
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>Audiologist, Language therapist, Speech pathologist, Speech therapist</t>
+          <t>Author, Writer, Journalist, Translator, News anchor</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr"/>
@@ -1263,17 +1259,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010041</t>
+          <t>BCIO:010057</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>author and journalist</t>
+          <t xml:space="preserve">business and administration associate professional </t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">legal, social and cultural professional </t>
+          <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
@@ -1291,12 +1287,12 @@
       <c r="P14" s="2" t="inlineStr"/>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conceives and creates literary works, and interprets and communicates news and public affairs through the media.</t>
+          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 264</t>
+          <t>ISCO: 33</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
@@ -1306,7 +1302,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>Author, Writer, Journalist, Translator, News anchor</t>
+          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr"/>
@@ -1323,17 +1319,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010057</t>
+          <t>BCIO:010100</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">business and administration associate professional </t>
+          <t>carer</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">technician and associate professional </t>
+          <t>relatedness between person source and the target population</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
@@ -1351,22 +1347,14 @@
       <c r="P15" s="2" t="inlineStr"/>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs mostly technical tasks connected with the practical application of knowledge relating to financial accounting and transaction matters, mathematical calculations, human resource development, selling and buying financial instruments, specialized secretarial tasks and enforcing or applying government rules.</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 33</t>
-        </is>
-      </c>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr"/>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>Financial and Mathematical associate professional, Sales and purchasing agent, Broker, Business Services Agent, Administrative and Specialized Secretary, Government regulatory associate professional, Medical secretary</t>
+          <t>carer</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr"/>
@@ -1383,17 +1371,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010100</t>
+          <t>BCIO:010072</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>carer</t>
+          <t xml:space="preserve">child care worker </t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>relatedness between person source and the target population</t>
+          <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
@@ -1411,14 +1399,22 @@
       <c r="P16" s="2" t="inlineStr"/>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who cares, unpaid, for a friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
+          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 5311</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>carer</t>
+          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr"/>
@@ -1435,17 +1431,17 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010072</t>
+          <t>BCIO:010099</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">child care worker </t>
+          <t>child relationship</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">personal care worker </t>
+          <t>family member</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
@@ -1463,22 +1459,14 @@
       <c r="P17" s="2" t="inlineStr"/>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>A personal care worker that provides care and supervision for children in non-domestic settings.</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 5311</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A family member that is an offspring relationship from a person to their parent.</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr"/>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>Babysitter, Child care worker, Creche ayah, Family day care worker, Nanny, Out of school hours care worker</t>
+          <t>daughter, son, step-daughter, step-son</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr"/>
@@ -1495,17 +1483,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010099</t>
+          <t>BCIO:010067</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>child relationship</t>
+          <t xml:space="preserve">clerical support worker </t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
@@ -1523,14 +1511,22 @@
       <c r="P18" s="2" t="inlineStr"/>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>A family member that is an offspring relationship from a person to their parent.</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
+          <t xml:space="preserve">An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments. </t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 4</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>daughter, son, step-daughter, step-son</t>
+          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr"/>
@@ -1547,17 +1543,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010067</t>
+          <t>BCIO:010102</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">clerical support worker </t>
+          <t>colleague</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t>relatedness between person source and the target population</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -1575,24 +1571,12 @@
       <c r="P19" s="2" t="inlineStr"/>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An occupational role that records, organizes, stores, computes and retrieves information, and performs a number of clerical duties in connection with money-handling operations, travel arrangements, requests for information, and appointments. </t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 4</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>General and Keyboard Clerk, customers Services Clerk, Numerical and Material Recording Clerk</t>
-        </is>
-      </c>
+          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr"/>
       <c r="U19" s="2" t="inlineStr"/>
       <c r="V19" s="2" t="inlineStr"/>
       <c r="W19" s="2" t="inlineStr"/>
@@ -1607,17 +1591,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010102</t>
+          <t>BCIO:010052</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>colleague</t>
+          <t xml:space="preserve">community health worker </t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>relatedness between person source and the target population</t>
+          <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1635,12 +1619,24 @@
       <c r="P20" s="2" t="inlineStr"/>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a person with whom the participant works in a profession or business.</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
-      <c r="T20" s="2" t="inlineStr"/>
+          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 3253</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+        </is>
+      </c>
       <c r="U20" s="2" t="inlineStr"/>
       <c r="V20" s="2" t="inlineStr"/>
       <c r="W20" s="2" t="inlineStr"/>
@@ -1655,17 +1651,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010052</t>
+          <t>BCIO:010078</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">community health worker </t>
+          <t xml:space="preserve">craft and related trades worker </t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health associate professional </t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1683,12 +1679,12 @@
       <c r="P21" s="2" t="inlineStr"/>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>A health associate professional that provides health education, referral and follow-up, case management, basic preventive health care and home visiting services to specific communities. They provide support and assistance to individuals and families in navigating the health and social services system.</t>
+          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 3253</t>
+          <t>ISCO: 7</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
@@ -1698,7 +1694,7 @@
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>Community health aide, Community health promoter, Community health worker, Village health worker, outreach worker, health worker</t>
+          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr"/>
@@ -1715,17 +1711,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010078</t>
+          <t>BCIO:010043</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">craft and related trades worker </t>
+          <t xml:space="preserve">creative and performing artist </t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1743,12 +1739,12 @@
       <c r="P22" s="2" t="inlineStr"/>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>An occupational role that applies specific technical and practical knowledge and skills to construct and maintain buildings, machinery, equipment or tools, carries out printing work, and produces or processes foodstuffs, textiles and wooden, metal and other articles, including handicraft goods.</t>
+          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 7</t>
+          <t>ISCO: 265</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
@@ -1758,7 +1754,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>Building Trade Worker, Metal Workers, Machinery Worker, Handicraft Worker, Printing Worker, Electrical Equipment Installers and Repairer, Electronics and Telecommunications Installer and Repairer, Food Processing Worker, Woodworker, Tobacco Product Maker</t>
+          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr"/>
@@ -1775,17 +1771,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010043</t>
+          <t>BCIO:010051</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">creative and performing artist </t>
+          <t xml:space="preserve">dental assistant and therapist </t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">legal, social and cultural professional </t>
+          <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1803,12 +1799,12 @@
       <c r="P23" s="2" t="inlineStr"/>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that communicates ideas, impressions and facts in a wide range of media to achieve particular effects, interprets a composition such as a musical score or a script to perform or direct the performance, and hosts the presentation of such performance and other media events.</t>
+          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 265</t>
+          <t>ISCO: 3251</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
@@ -1818,7 +1814,7 @@
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>Visual artist, Musician, Singer, Composer, Dancer, Choreographer, Director, Producer, Actor, Announcer on radio, television and other media</t>
+          <t>Dental assistant, Dental hygienist , Dental therapist</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr"/>
@@ -1835,17 +1831,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010051</t>
+          <t>BCIO:010018</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">dental assistant and therapist </t>
+          <t xml:space="preserve">dentist </t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health associate professional </t>
+          <t xml:space="preserve">health professional </t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -1863,12 +1859,12 @@
       <c r="P24" s="2" t="inlineStr"/>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+          <t xml:space="preserve">A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry. </t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 3251</t>
+          <t>ISCO: 2261</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
@@ -1878,7 +1874,7 @@
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>Dental assistant, Dental hygienist , Dental therapist</t>
+          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr"/>
@@ -1895,12 +1891,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010018</t>
+          <t>BCIO:010022</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">dentist </t>
+          <t xml:space="preserve">dietician and nutritionist </t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1923,12 +1919,12 @@
       <c r="P25" s="2" t="inlineStr"/>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A health professional that diagnoses treats and prevents diseases, injuries and abnormalities of the teeth, mouth, jaws and associated tissues by applying the principles and procedures of modern dentistry. </t>
+          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 2261</t>
+          <t>ISCO: 2265</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
@@ -1938,7 +1934,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>Dental practitioner, Dental surgeon, Dentist, Endodontist, Oral and maxillofacial surgeon, Oral pathologist, Orthodontist, Paedodontist, Periodontist, Prosthodontist, Stomatologist</t>
+          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr"/>
@@ -1955,17 +1951,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010022</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">dietician and nutritionist </t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health professional </t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -1983,22 +1979,14 @@
       <c r="P26" s="2" t="inlineStr"/>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements programmes to enhance the impact of food and nutrition on human health.</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 2265</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A specific domain of study undertaken by the bearer of a student or trainee role.</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr"/>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>Clinical dietician, Food service dietician, Nutritionist, Public health nutritionist, Sports nutritionist</t>
+          <t>psychology, medicine, hairdressing</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr"/>
@@ -2015,17 +2003,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:010124</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training</t>
+          <t>discipline of pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -2040,17 +2028,21 @@
       <c r="M27" s="2" t="inlineStr"/>
       <c r="N27" s="2" t="inlineStr"/>
       <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>pre-existing knowledge or skill</t>
+        </is>
+      </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>A specific domain of study undertaken by the bearer of a student or trainee role.</t>
+          <t xml:space="preserve">The expertise discipline in which the person source has acquired their pre-existing knowledge and skills. </t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr"/>
       <c r="S27" s="2" t="inlineStr"/>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>psychology, medicine, hairdressing</t>
+          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr"/>
@@ -2067,17 +2059,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010124</t>
+          <t>BCIO:010092</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>discipline of pre-existing knowledge or skill</t>
+          <t>doctoral student or trainee</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>higher education student or trainee</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -2092,21 +2084,17 @@
       <c r="M28" s="2" t="inlineStr"/>
       <c r="N28" s="2" t="inlineStr"/>
       <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>pre-existing knowledge or skill</t>
-        </is>
-      </c>
+      <c r="P28" s="2" t="inlineStr"/>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The expertise discipline in which the person source has acquired their pre-existing knowledge and skills. </t>
+          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr"/>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>psychology, yoga, cognitive behavioural therapy, hypnotism</t>
+          <t>PhD student</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr"/>
@@ -2123,17 +2111,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010092</t>
+          <t>BCIO:010030</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>doctoral student or trainee</t>
+          <t xml:space="preserve">early childhood educator </t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>higher education student or trainee</t>
+          <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -2151,14 +2139,22 @@
       <c r="P29" s="2" t="inlineStr"/>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a doctoral degree.</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr"/>
+          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 2342</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>PhD student</t>
+          <t>Early childhood educator, Pre-school teacher</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr"/>
@@ -2175,17 +2171,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010030</t>
+          <t>BCIO:010081</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">early childhood educator </t>
+          <t xml:space="preserve">elementary occupation </t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">teaching professional </t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -2203,12 +2199,12 @@
       <c r="P30" s="2" t="inlineStr"/>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>A teaching professional that promotes the social, physical, and intellectual development of children below primary school age through the provision of educational and play activities.</t>
+          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 2342</t>
+          <t>ISCO: 9</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
@@ -2218,7 +2214,7 @@
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>Early childhood educator, Pre-school teacher</t>
+          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr"/>
@@ -2235,17 +2231,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010081</t>
+          <t>BCIO:010105</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">elementary occupation </t>
+          <t>embedded in participants’ community</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t>relatedness between person source and the target population</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -2263,24 +2259,12 @@
       <c r="P31" s="2" t="inlineStr"/>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>An occupational role that involves the performance of simple and routine tasks which may require the use of hand-held tools and considerable physical effort.</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 9</t>
-        </is>
-      </c>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="T31" s="2" t="inlineStr">
-        <is>
-          <t>Cleaner, Labourer, Food Preparation Assistant, Street and Related Services Worker, Street Vendor (excluding Food), Refuse Worker</t>
-        </is>
-      </c>
+          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr"/>
+      <c r="T31" s="2" t="inlineStr"/>
       <c r="U31" s="2" t="inlineStr"/>
       <c r="V31" s="2" t="inlineStr"/>
       <c r="W31" s="2" t="inlineStr"/>
@@ -2295,17 +2279,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010105</t>
+          <t>BCIO:010056</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>embedded in participants’ community</t>
+          <t>emergency health associate professional</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>relatedness between person source and the target population</t>
+          <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
@@ -2323,15 +2307,31 @@
       <c r="P32" s="2" t="inlineStr"/>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is a source who is known and working to deliver intervention in own community.</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr"/>
-      <c r="T32" s="2" t="inlineStr"/>
+          <t>A health associate professional that provides emergency health care to patients who are injured, sick, infirm or otherwise physically or mentally impaired prior to and during transport to medical facilities.</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 3258</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>Ambulance officer, Ambulance paramedic, Emergency medical technician, Emergency paramedic</t>
+        </is>
+      </c>
       <c r="U32" s="2" t="inlineStr"/>
       <c r="V32" s="2" t="inlineStr"/>
-      <c r="W32" s="2" t="inlineStr"/>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="X32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
